--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KappaSquad\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="660">
   <si>
     <t>Arne</t>
   </si>
@@ -976,18 +976,12 @@
     <t>MC Jump</t>
   </si>
   <si>
-    <t>MC Sneak</t>
-  </si>
-  <si>
     <t>MC Death</t>
   </si>
   <si>
     <t>MC GrapplingHook</t>
   </si>
   <si>
-    <t>MC Smokebomb</t>
-  </si>
-  <si>
     <t>6A_CHAR_MCRUN</t>
   </si>
   <si>
@@ -997,9 +991,6 @@
     <t>6A_CHAR_MCJUMP</t>
   </si>
   <si>
-    <t>6A_CHAR_MCSNEAK</t>
-  </si>
-  <si>
     <t>6A_CHAR_MCDEATH</t>
   </si>
   <si>
@@ -1009,9 +1000,6 @@
     <t>6A_CHAR_GRAPPLINGHOOK</t>
   </si>
   <si>
-    <t>6A_CHAR_SMOKEBOMB</t>
-  </si>
-  <si>
     <t>Idle 1</t>
   </si>
   <si>
@@ -1960,9 +1948,6 @@
     <t>MC Get Hit</t>
   </si>
   <si>
-    <t>6A_CHAR_MCGETHiT</t>
-  </si>
-  <si>
     <t>6A_CHAR_MCGETHIT</t>
   </si>
   <si>
@@ -2009,12 +1994,24 @@
   </si>
   <si>
     <t>9P_ENV_SAKURABLOSSOM</t>
+  </si>
+  <si>
+    <t>Old man idle</t>
+  </si>
+  <si>
+    <t>6A_CHAR_OLDMANIDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>SFX_GRAPPLINGHOOK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2275,23 +2272,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2327,23 +2307,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -2535,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="3">
@@ -2985,13 +2948,13 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="CJ2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="EU2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
@@ -3002,7 +2965,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -3014,18 +2977,18 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="CJ3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="EU3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B4" s="2">
         <v>0.61458333333333337</v>
@@ -3043,13 +3006,13 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="CJ4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="EU4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -3060,7 +3023,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -3072,22 +3035,22 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="CJ5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="EU5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="CJ6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="EU6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
@@ -3095,10 +3058,10 @@
         <v>4</v>
       </c>
       <c r="CJ7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="EU7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:151" x14ac:dyDescent="0.25">
@@ -3121,13 +3084,13 @@
         <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="CJ8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="EU8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
@@ -3150,13 +3113,13 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="CJ9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="EU9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
@@ -3167,7 +3130,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -3179,13 +3142,13 @@
         <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="CJ10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="EU10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:151" x14ac:dyDescent="0.25">
@@ -3208,7 +3171,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J11" s="3">
         <v>42618</v>
@@ -3657,7 +3620,7 @@
         <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
@@ -3688,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>11</v>
@@ -3760,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="CJ12" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="CN12" s="1" t="s">
         <v>11</v>
@@ -3847,7 +3810,7 @@
         <v>11</v>
       </c>
       <c r="EU12" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:151" x14ac:dyDescent="0.25">
@@ -3858,7 +3821,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -3870,7 +3833,7 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>12</v>
@@ -3879,18 +3842,18 @@
         <v>13</v>
       </c>
       <c r="CJ13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="ES13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="EU13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B14" s="2">
         <v>0.61458333333333337</v>
@@ -3908,58 +3871,58 @@
         <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="X14" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>449</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>450</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>451</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="BN14" t="s">
         <v>452</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="BU14" t="s">
         <v>453</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="CB14" t="s">
         <v>454</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="CI14" t="s">
         <v>455</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="CJ14" t="s">
+        <v>523</v>
+      </c>
+      <c r="CP14" t="s">
         <v>456</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="CW14" t="s">
         <v>457</v>
       </c>
-      <c r="CB14" t="s">
+      <c r="DD14" t="s">
         <v>458</v>
       </c>
-      <c r="CI14" t="s">
+      <c r="DK14" t="s">
         <v>459</v>
       </c>
-      <c r="CJ14" t="s">
-        <v>527</v>
-      </c>
-      <c r="CP14" t="s">
+      <c r="EF14" t="s">
         <v>460</v>
       </c>
-      <c r="CW14" t="s">
+      <c r="EM14" t="s">
         <v>461</v>
       </c>
-      <c r="DD14" t="s">
-        <v>462</v>
-      </c>
-      <c r="DK14" t="s">
-        <v>463</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>464</v>
-      </c>
-      <c r="EM14" t="s">
-        <v>465</v>
-      </c>
       <c r="EU14" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:151" x14ac:dyDescent="0.25">
@@ -3970,7 +3933,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -3982,433 +3945,433 @@
         <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="N15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="O15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="R15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="S15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="T15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="U15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="V15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="W15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="X15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Y15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Z15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AA15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AB15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AC15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AD15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AE15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AF15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AG15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AH15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AI15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AJ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AK15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AL15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AM15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AN15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AO15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AP15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AQ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AR15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AS15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AT15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AU15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AV15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AW15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AX15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AY15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AZ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BA15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BB15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BC15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BD15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BE15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BF15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BG15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BH15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BI15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BJ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BK15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BL15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BM15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BN15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BO15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BP15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BQ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BR15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BS15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BT15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BU15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BV15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BW15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BX15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BY15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="BZ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CA15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CB15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CC15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CD15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CE15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CF15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CG15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CH15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CI15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CJ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CK15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CL15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CM15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CN15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CO15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CP15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CQ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CR15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CS15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CT15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CU15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CV15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CW15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CX15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CY15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="CZ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DA15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DB15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DC15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DD15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DE15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DF15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DG15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DH15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DI15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DJ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DK15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DL15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DM15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DN15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DO15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DP15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DQ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DR15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DS15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DT15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DU15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DV15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DW15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DX15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DY15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="DZ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EA15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EB15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EC15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="ED15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EE15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EF15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EG15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EH15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EI15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EJ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EK15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EL15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EM15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EN15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EO15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EP15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EQ15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="ER15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="ES15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="ET15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="EU15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:151" x14ac:dyDescent="0.25">
@@ -4423,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -4460,7 +4423,7 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="Q18" t="s">
         <v>7</v>
@@ -4486,7 +4449,7 @@
         <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -4497,7 +4460,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -4509,7 +4472,7 @@
         <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -4520,10 +4483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J373"/>
+  <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView topLeftCell="B276" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E364" sqref="E364"/>
+    <sheetView tabSelected="1" topLeftCell="C39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4553,16 +4516,16 @@
         <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I1" t="s">
         <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4589,7 +4552,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -4605,10 +4568,10 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -4627,7 +4590,7 @@
         <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -4646,7 +4609,7 @@
         <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -4665,7 +4628,7 @@
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -4681,10 +4644,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -4703,7 +4666,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -4722,7 +4685,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
@@ -4741,7 +4704,7 @@
         <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -4760,7 +4723,7 @@
         <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -4779,7 +4742,7 @@
         <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -4798,7 +4761,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -4817,7 +4780,7 @@
         <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -4836,7 +4799,7 @@
         <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -4855,7 +4818,7 @@
         <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -4874,7 +4837,7 @@
         <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -4893,7 +4856,7 @@
         <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -4912,7 +4875,7 @@
         <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
@@ -4931,7 +4894,7 @@
         <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -4950,7 +4913,7 @@
         <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
@@ -4966,10 +4929,10 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G24" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
@@ -4985,10 +4948,10 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -5007,7 +4970,7 @@
         <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -5026,7 +4989,7 @@
         <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -5045,7 +5008,7 @@
         <v>154</v>
       </c>
       <c r="G28" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
@@ -5058,16 +5021,16 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" t="s">
+        <v>365</v>
+      </c>
+      <c r="D29" t="s">
         <v>369</v>
       </c>
-      <c r="D29" t="s">
-        <v>373</v>
-      </c>
       <c r="E29" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G29" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
@@ -5086,7 +5049,7 @@
         <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -5105,7 +5068,7 @@
         <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H31" t="s">
         <v>6</v>
@@ -5124,7 +5087,7 @@
         <v>162</v>
       </c>
       <c r="G32" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -5143,7 +5106,7 @@
         <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -5162,7 +5125,7 @@
         <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
@@ -5181,7 +5144,7 @@
         <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H35" t="s">
         <v>6</v>
@@ -5200,7 +5163,7 @@
         <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
@@ -5219,7 +5182,7 @@
         <v>181</v>
       </c>
       <c r="G37" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
@@ -5238,7 +5201,7 @@
         <v>182</v>
       </c>
       <c r="G38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -5257,7 +5220,7 @@
         <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H39" t="s">
         <v>6</v>
@@ -5276,7 +5239,7 @@
         <v>191</v>
       </c>
       <c r="G40" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H40" t="s">
         <v>6</v>
@@ -5295,7 +5258,7 @@
         <v>194</v>
       </c>
       <c r="G41" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
@@ -5314,7 +5277,7 @@
         <v>205</v>
       </c>
       <c r="G42" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H42" t="s">
         <v>7</v>
@@ -5333,7 +5296,7 @@
         <v>206</v>
       </c>
       <c r="G43" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H43" t="s">
         <v>7</v>
@@ -5349,10 +5312,10 @@
         <v>209</v>
       </c>
       <c r="D44" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G44" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
@@ -5368,10 +5331,10 @@
         <v>210</v>
       </c>
       <c r="D45" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G45" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
@@ -5387,10 +5350,10 @@
         <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G46" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -5409,7 +5372,7 @@
         <v>213</v>
       </c>
       <c r="G47" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H47" t="s">
         <v>6</v>
@@ -5428,7 +5391,7 @@
         <v>217</v>
       </c>
       <c r="G48" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H48" t="s">
         <v>6</v>
@@ -5447,7 +5410,7 @@
         <v>221</v>
       </c>
       <c r="G49" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H49" t="s">
         <v>7</v>
@@ -5466,7 +5429,7 @@
         <v>226</v>
       </c>
       <c r="G50" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
@@ -5485,7 +5448,7 @@
         <v>281</v>
       </c>
       <c r="G51" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
@@ -5504,7 +5467,7 @@
         <v>228</v>
       </c>
       <c r="G52" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
@@ -5523,10 +5486,10 @@
         <v>233</v>
       </c>
       <c r="G53" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J53" t="s">
         <v>3</v>
@@ -5542,7 +5505,7 @@
         <v>240</v>
       </c>
       <c r="G54" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
@@ -5561,7 +5524,7 @@
         <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H55" t="s">
         <v>5</v>
@@ -5580,7 +5543,7 @@
         <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H56" t="s">
         <v>7</v>
@@ -5599,7 +5562,7 @@
         <v>250</v>
       </c>
       <c r="G57" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H57" t="s">
         <v>7</v>
@@ -5618,7 +5581,7 @@
         <v>252</v>
       </c>
       <c r="G58" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H58" t="s">
         <v>7</v>
@@ -5637,7 +5600,7 @@
         <v>254</v>
       </c>
       <c r="G59" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
@@ -5656,7 +5619,7 @@
         <v>258</v>
       </c>
       <c r="G60" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H60" t="s">
         <v>5</v>
@@ -5675,7 +5638,7 @@
         <v>260</v>
       </c>
       <c r="G61" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H61" t="s">
         <v>7</v>
@@ -5694,7 +5657,7 @@
         <v>262</v>
       </c>
       <c r="G62" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
@@ -5713,7 +5676,7 @@
         <v>264</v>
       </c>
       <c r="G63" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H63" t="s">
         <v>5</v>
@@ -5732,7 +5695,7 @@
         <v>266</v>
       </c>
       <c r="G64" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H64" t="s">
         <v>6</v>
@@ -5751,7 +5714,7 @@
         <v>268</v>
       </c>
       <c r="G65" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H65" t="s">
         <v>6</v>
@@ -5770,7 +5733,7 @@
         <v>272</v>
       </c>
       <c r="G66" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H66" t="s">
         <v>5</v>
@@ -5789,7 +5752,7 @@
         <v>276</v>
       </c>
       <c r="G67" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H67" t="s">
         <v>5</v>
@@ -5811,7 +5774,7 @@
         <v>286</v>
       </c>
       <c r="G68" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H68" t="s">
         <v>7</v>
@@ -5830,7 +5793,7 @@
         <v>291</v>
       </c>
       <c r="G69" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H69" t="s">
         <v>6</v>
@@ -5849,7 +5812,7 @@
         <v>300</v>
       </c>
       <c r="G70" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H70" t="s">
         <v>5</v>
@@ -5868,7 +5831,7 @@
         <v>301</v>
       </c>
       <c r="G71" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -5887,7 +5850,7 @@
         <v>302</v>
       </c>
       <c r="G72" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -5906,7 +5869,7 @@
         <v>303</v>
       </c>
       <c r="G73" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
@@ -5925,7 +5888,7 @@
         <v>304</v>
       </c>
       <c r="G74" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -5944,7 +5907,7 @@
         <v>305</v>
       </c>
       <c r="G75" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H75" t="s">
         <v>6</v>
@@ -5955,17 +5918,17 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D76" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G76" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
@@ -5978,13 +5941,13 @@
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D77" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G77" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H77" t="s">
         <v>5</v>
@@ -5997,13 +5960,13 @@
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D78" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G78" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H78" t="s">
         <v>7</v>
@@ -6016,13 +5979,13 @@
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D79" t="s">
+        <v>465</v>
+      </c>
+      <c r="G79" t="s">
         <v>469</v>
-      </c>
-      <c r="G79" t="s">
-        <v>473</v>
       </c>
       <c r="H79" t="s">
         <v>5</v>
@@ -6041,7 +6004,7 @@
         <v>152</v>
       </c>
       <c r="G80" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H80" t="s">
         <v>7</v>
@@ -6060,7 +6023,7 @@
         <v>154</v>
       </c>
       <c r="G81" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H81" t="s">
         <v>7</v>
@@ -6073,10 +6036,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D82" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -6107,7 +6070,7 @@
         <v>65</v>
       </c>
       <c r="G86" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H86" t="s">
         <v>5</v>
@@ -6126,7 +6089,7 @@
         <v>66</v>
       </c>
       <c r="G87" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H87" t="s">
         <v>5</v>
@@ -6145,7 +6108,7 @@
         <v>67</v>
       </c>
       <c r="G88" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H88" t="s">
         <v>5</v>
@@ -6164,7 +6127,7 @@
         <v>77</v>
       </c>
       <c r="G89" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H89" t="s">
         <v>7</v>
@@ -6183,7 +6146,7 @@
         <v>87</v>
       </c>
       <c r="G90" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H90" t="s">
         <v>7</v>
@@ -6202,7 +6165,7 @@
         <v>98</v>
       </c>
       <c r="G91" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H91" t="s">
         <v>6</v>
@@ -6221,7 +6184,7 @@
         <v>102</v>
       </c>
       <c r="G92" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H92" t="s">
         <v>6</v>
@@ -6240,7 +6203,7 @@
         <v>106</v>
       </c>
       <c r="G93" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H93" t="s">
         <v>6</v>
@@ -6259,7 +6222,7 @@
         <v>111</v>
       </c>
       <c r="G94" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H94" t="s">
         <v>6</v>
@@ -6278,7 +6241,7 @@
         <v>115</v>
       </c>
       <c r="G95" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H95" t="s">
         <v>6</v>
@@ -6297,7 +6260,7 @@
         <v>121</v>
       </c>
       <c r="G96" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H96" t="s">
         <v>6</v>
@@ -6316,7 +6279,7 @@
         <v>125</v>
       </c>
       <c r="G97" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H97" t="s">
         <v>6</v>
@@ -6335,7 +6298,7 @@
         <v>142</v>
       </c>
       <c r="G98" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H98" t="s">
         <v>7</v>
@@ -6354,7 +6317,7 @@
         <v>163</v>
       </c>
       <c r="G99" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H99" t="s">
         <v>7</v>
@@ -6373,7 +6336,7 @@
         <v>167</v>
       </c>
       <c r="G100" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H100" t="s">
         <v>5</v>
@@ -6386,13 +6349,13 @@
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D101" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G101" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H101" t="s">
         <v>5</v>
@@ -6421,10 +6384,10 @@
         <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G104" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H104" t="s">
         <v>5</v>
@@ -6443,7 +6406,7 @@
         <v>54</v>
       </c>
       <c r="G105" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H105" t="s">
         <v>5</v>
@@ -6462,7 +6425,7 @@
         <v>72</v>
       </c>
       <c r="G106" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H106" t="s">
         <v>5</v>
@@ -6478,10 +6441,10 @@
         <v>59</v>
       </c>
       <c r="D107" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G107" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H107" t="s">
         <v>5</v>
@@ -6500,7 +6463,7 @@
         <v>81</v>
       </c>
       <c r="G108" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H108" t="s">
         <v>5</v>
@@ -6519,7 +6482,7 @@
         <v>96</v>
       </c>
       <c r="G109" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H109" t="s">
         <v>6</v>
@@ -6538,7 +6501,7 @@
         <v>145</v>
       </c>
       <c r="G110" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H110" t="s">
         <v>5</v>
@@ -6557,7 +6520,7 @@
         <v>149</v>
       </c>
       <c r="G111" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H111" t="s">
         <v>5</v>
@@ -6576,7 +6539,7 @@
         <v>171</v>
       </c>
       <c r="G112" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H112" t="s">
         <v>5</v>
@@ -6595,7 +6558,7 @@
         <v>183</v>
       </c>
       <c r="G113" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H113" t="s">
         <v>7</v>
@@ -6614,7 +6577,7 @@
         <v>184</v>
       </c>
       <c r="G114" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H114" t="s">
         <v>7</v>
@@ -6633,7 +6596,7 @@
         <v>185</v>
       </c>
       <c r="G115" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H115" t="s">
         <v>7</v>
@@ -6652,7 +6615,7 @@
         <v>189</v>
       </c>
       <c r="G116" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H116" t="s">
         <v>6</v>
@@ -6671,7 +6634,7 @@
         <v>195</v>
       </c>
       <c r="G117" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H117" t="s">
         <v>6</v>
@@ -6690,7 +6653,7 @@
         <v>196</v>
       </c>
       <c r="G118" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H118" t="s">
         <v>6</v>
@@ -6709,10 +6672,10 @@
         <v>203</v>
       </c>
       <c r="E119" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G119" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H119" t="s">
         <v>7</v>
@@ -6731,10 +6694,10 @@
         <v>204</v>
       </c>
       <c r="E120" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G120" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H120" t="s">
         <v>7</v>
@@ -6753,10 +6716,10 @@
         <v>208</v>
       </c>
       <c r="G121" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H121" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J121" t="s">
         <v>3</v>
@@ -6772,7 +6735,7 @@
         <v>214</v>
       </c>
       <c r="G122" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H122" t="s">
         <v>6</v>
@@ -6791,7 +6754,7 @@
         <v>218</v>
       </c>
       <c r="G123" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H123" t="s">
         <v>6</v>
@@ -6810,7 +6773,7 @@
         <v>223</v>
       </c>
       <c r="G124" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H124" t="s">
         <v>7</v>
@@ -6829,7 +6792,7 @@
         <v>225</v>
       </c>
       <c r="G125" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H125" t="s">
         <v>7</v>
@@ -6848,7 +6811,7 @@
         <v>282</v>
       </c>
       <c r="G126" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H126" t="s">
         <v>7</v>
@@ -6867,10 +6830,10 @@
         <v>238</v>
       </c>
       <c r="G127" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H127" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J127" t="s">
         <v>3</v>
@@ -6886,7 +6849,7 @@
         <v>241</v>
       </c>
       <c r="G128" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H128" t="s">
         <v>5</v>
@@ -6905,7 +6868,7 @@
         <v>245</v>
       </c>
       <c r="G129" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H129" t="s">
         <v>5</v>
@@ -6924,7 +6887,7 @@
         <v>255</v>
       </c>
       <c r="G130" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H130" t="s">
         <v>7</v>
@@ -6943,7 +6906,7 @@
         <v>269</v>
       </c>
       <c r="G131" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H131" t="s">
         <v>6</v>
@@ -6965,7 +6928,7 @@
         <v>286</v>
       </c>
       <c r="G132" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H132" t="s">
         <v>7</v>
@@ -6984,7 +6947,7 @@
         <v>292</v>
       </c>
       <c r="G133" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H133" t="s">
         <v>6</v>
@@ -7013,10 +6976,10 @@
         <v>153</v>
       </c>
       <c r="D136" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G136" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H136" t="s">
         <v>7</v>
@@ -7029,16 +6992,16 @@
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D137" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E137" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G137" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H137" t="s">
         <v>7</v>
@@ -7057,7 +7020,7 @@
         <v>159</v>
       </c>
       <c r="G138" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H138" t="s">
         <v>6</v>
@@ -7076,7 +7039,7 @@
         <v>160</v>
       </c>
       <c r="G139" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H139" t="s">
         <v>6</v>
@@ -7095,7 +7058,7 @@
         <v>175</v>
       </c>
       <c r="G140" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H140" t="s">
         <v>6</v>
@@ -7114,7 +7077,7 @@
         <v>230</v>
       </c>
       <c r="G141" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H141" t="s">
         <v>7</v>
@@ -7133,7 +7096,7 @@
         <v>273</v>
       </c>
       <c r="G142" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H142" t="s">
         <v>5</v>
@@ -7152,7 +7115,7 @@
         <v>277</v>
       </c>
       <c r="G143" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H143" t="s">
         <v>5</v>
@@ -7184,7 +7147,7 @@
         <v>133</v>
       </c>
       <c r="G146" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H146" t="s">
         <v>6</v>
@@ -7200,10 +7163,10 @@
         <v>129</v>
       </c>
       <c r="D147" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G147" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H147" t="s">
         <v>6</v>
@@ -7219,10 +7182,10 @@
         <v>130</v>
       </c>
       <c r="D148" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G148" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H148" t="s">
         <v>7</v>
@@ -7241,10 +7204,10 @@
         <v>234</v>
       </c>
       <c r="G149" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J149" t="s">
         <v>3</v>
@@ -7254,13 +7217,13 @@
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D150" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G150" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H150" t="s">
         <v>5</v>
@@ -7300,7 +7263,7 @@
         <v>68</v>
       </c>
       <c r="G154" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H154" t="s">
         <v>5</v>
@@ -7319,7 +7282,7 @@
         <v>78</v>
       </c>
       <c r="G155" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H155" t="s">
         <v>7</v>
@@ -7338,7 +7301,7 @@
         <v>93</v>
       </c>
       <c r="G156" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H156" t="s">
         <v>7</v>
@@ -7357,7 +7320,7 @@
         <v>69</v>
       </c>
       <c r="G157" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H157" t="s">
         <v>5</v>
@@ -7376,7 +7339,7 @@
         <v>99</v>
       </c>
       <c r="G158" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H158" t="s">
         <v>6</v>
@@ -7395,7 +7358,7 @@
         <v>103</v>
       </c>
       <c r="G159" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H159" t="s">
         <v>6</v>
@@ -7414,7 +7377,7 @@
         <v>107</v>
       </c>
       <c r="G160" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H160" t="s">
         <v>6</v>
@@ -7433,7 +7396,7 @@
         <v>112</v>
       </c>
       <c r="G161" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H161" t="s">
         <v>6</v>
@@ -7452,7 +7415,7 @@
         <v>117</v>
       </c>
       <c r="G162" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H162" t="s">
         <v>6</v>
@@ -7471,7 +7434,7 @@
         <v>122</v>
       </c>
       <c r="G163" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H163" t="s">
         <v>6</v>
@@ -7490,7 +7453,7 @@
         <v>126</v>
       </c>
       <c r="G164" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H164" t="s">
         <v>6</v>
@@ -7509,7 +7472,7 @@
         <v>143</v>
       </c>
       <c r="G165" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H165" t="s">
         <v>7</v>
@@ -7528,7 +7491,7 @@
         <v>164</v>
       </c>
       <c r="G166" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H166" t="s">
         <v>7</v>
@@ -7547,7 +7510,7 @@
         <v>168</v>
       </c>
       <c r="G167" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H167" t="s">
         <v>5</v>
@@ -7560,13 +7523,13 @@
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D168" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G168" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H168" t="s">
         <v>5</v>
@@ -7595,10 +7558,10 @@
         <v>60</v>
       </c>
       <c r="D171" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G171" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H171" t="s">
         <v>5</v>
@@ -7617,7 +7580,7 @@
         <v>70</v>
       </c>
       <c r="G172" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H172" t="s">
         <v>5</v>
@@ -7633,10 +7596,10 @@
         <v>59</v>
       </c>
       <c r="D173" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G173" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H173" t="s">
         <v>5</v>
@@ -7655,7 +7618,7 @@
         <v>74</v>
       </c>
       <c r="G174" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H174" t="s">
         <v>5</v>
@@ -7674,7 +7637,7 @@
         <v>82</v>
       </c>
       <c r="G175" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H175" t="s">
         <v>5</v>
@@ -7690,10 +7653,10 @@
         <v>144</v>
       </c>
       <c r="D176" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G176" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H176" t="s">
         <v>5</v>
@@ -7712,7 +7675,7 @@
         <v>146</v>
       </c>
       <c r="G177" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H177" t="s">
         <v>6</v>
@@ -7731,7 +7694,7 @@
         <v>150</v>
       </c>
       <c r="G178" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H178" t="s">
         <v>5</v>
@@ -7750,7 +7713,7 @@
         <v>172</v>
       </c>
       <c r="G179" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H179" t="s">
         <v>5</v>
@@ -7769,7 +7732,7 @@
         <v>190</v>
       </c>
       <c r="G180" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H180" t="s">
         <v>6</v>
@@ -7788,7 +7751,7 @@
         <v>198</v>
       </c>
       <c r="G181" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H181" t="s">
         <v>6</v>
@@ -7807,7 +7770,7 @@
         <v>197</v>
       </c>
       <c r="G182" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H182" t="s">
         <v>6</v>
@@ -7826,7 +7789,7 @@
         <v>201</v>
       </c>
       <c r="G183" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H183" t="s">
         <v>7</v>
@@ -7845,7 +7808,7 @@
         <v>202</v>
       </c>
       <c r="G184" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H184" t="s">
         <v>7</v>
@@ -7864,7 +7827,7 @@
         <v>215</v>
       </c>
       <c r="G185" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H185" t="s">
         <v>6</v>
@@ -7883,7 +7846,7 @@
         <v>219</v>
       </c>
       <c r="G186" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H186" t="s">
         <v>6</v>
@@ -7902,7 +7865,7 @@
         <v>284</v>
       </c>
       <c r="G187" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H187" t="s">
         <v>7</v>
@@ -7921,7 +7884,7 @@
         <v>242</v>
       </c>
       <c r="G188" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H188" t="s">
         <v>5</v>
@@ -7940,7 +7903,7 @@
         <v>244</v>
       </c>
       <c r="G189" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H189" t="s">
         <v>5</v>
@@ -7959,7 +7922,7 @@
         <v>256</v>
       </c>
       <c r="G190" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H190" t="s">
         <v>7</v>
@@ -7978,7 +7941,7 @@
         <v>270</v>
       </c>
       <c r="G191" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H191" t="s">
         <v>6</v>
@@ -8000,7 +7963,7 @@
         <v>286</v>
       </c>
       <c r="G192" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H192" t="s">
         <v>7</v>
@@ -8019,7 +7982,7 @@
         <v>293</v>
       </c>
       <c r="G193" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H193" t="s">
         <v>6</v>
@@ -8045,13 +8008,13 @@
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D196" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G196" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H196" t="s">
         <v>7</v>
@@ -8064,16 +8027,16 @@
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D197" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E197" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G197" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H197" t="s">
         <v>7</v>
@@ -8092,7 +8055,7 @@
         <v>176</v>
       </c>
       <c r="G198" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H198" t="s">
         <v>6</v>
@@ -8111,7 +8074,7 @@
         <v>231</v>
       </c>
       <c r="G199" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H199" t="s">
         <v>7</v>
@@ -8130,7 +8093,7 @@
         <v>274</v>
       </c>
       <c r="G200" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H200" t="s">
         <v>5</v>
@@ -8149,7 +8112,7 @@
         <v>278</v>
       </c>
       <c r="G201" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H201" t="s">
         <v>5</v>
@@ -8174,7 +8137,7 @@
         <v>134</v>
       </c>
       <c r="G203" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H203" t="s">
         <v>6</v>
@@ -8193,7 +8156,7 @@
         <v>135</v>
       </c>
       <c r="G204" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H204" t="s">
         <v>6</v>
@@ -8209,10 +8172,10 @@
         <v>130</v>
       </c>
       <c r="D205" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G205" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H205" t="s">
         <v>7</v>
@@ -8231,10 +8194,10 @@
         <v>235</v>
       </c>
       <c r="G206" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J206" t="s">
         <v>3</v>
@@ -8244,13 +8207,13 @@
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D207" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G207" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H207" t="s">
         <v>5</v>
@@ -8290,7 +8253,7 @@
         <v>136</v>
       </c>
       <c r="G211" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H211" t="s">
         <v>6</v>
@@ -8309,7 +8272,7 @@
         <v>137</v>
       </c>
       <c r="G212" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H212" t="s">
         <v>7</v>
@@ -8328,7 +8291,7 @@
         <v>138</v>
       </c>
       <c r="G213" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H213" t="s">
         <v>6</v>
@@ -8347,23 +8310,23 @@
         <v>236</v>
       </c>
       <c r="G214" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" t="s">
+        <v>357</v>
+      </c>
+      <c r="D215" t="s">
         <v>361</v>
       </c>
-      <c r="D215" t="s">
-        <v>365</v>
-      </c>
       <c r="G215" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H215" t="s">
         <v>5</v>
@@ -8400,13 +8363,13 @@
         <v>312</v>
       </c>
       <c r="D219" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G219" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -8416,13 +8379,13 @@
         <v>313</v>
       </c>
       <c r="D220" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G220" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -8432,13 +8395,13 @@
         <v>314</v>
       </c>
       <c r="D221" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G221" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -8448,13 +8411,13 @@
         <v>315</v>
       </c>
       <c r="D222" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G222" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H222" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -8464,13 +8427,13 @@
         <v>316</v>
       </c>
       <c r="D223" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G223" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -8480,26 +8443,26 @@
         <v>317</v>
       </c>
       <c r="D224" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G224" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="D225" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="G225" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H225" t="s">
         <v>5</v>
@@ -8509,80 +8472,86 @@
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>319</v>
+        <v>637</v>
       </c>
       <c r="D226" t="s">
-        <v>327</v>
+        <v>638</v>
       </c>
       <c r="G226" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>354</v>
+        <v>639</v>
       </c>
       <c r="D227" t="s">
-        <v>355</v>
+        <v>640</v>
       </c>
       <c r="G227" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>641</v>
+        <v>324</v>
       </c>
       <c r="D228" t="s">
-        <v>642</v>
+        <v>327</v>
+      </c>
+      <c r="E228" t="s">
+        <v>498</v>
       </c>
       <c r="G228" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
-        <v>643</v>
+        <v>325</v>
       </c>
       <c r="D229" t="s">
-        <v>644</v>
+        <v>328</v>
+      </c>
+      <c r="E229" t="s">
+        <v>499</v>
       </c>
       <c r="G229" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D230" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E230" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G230" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H230" t="s">
         <v>7</v>
@@ -8592,16 +8561,16 @@
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D231" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E231" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G231" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H231" t="s">
         <v>7</v>
@@ -8611,16 +8580,16 @@
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D232" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E232" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G232" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H232" t="s">
         <v>7</v>
@@ -8630,16 +8599,16 @@
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D233" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E233" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G233" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H233" t="s">
         <v>7</v>
@@ -8649,16 +8618,16 @@
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D234" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E234" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G234" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H234" t="s">
         <v>7</v>
@@ -8668,16 +8637,16 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D235" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E235" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G235" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H235" t="s">
         <v>7</v>
@@ -8687,16 +8656,16 @@
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D236" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E236" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G236" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H236" t="s">
         <v>7</v>
@@ -8706,16 +8675,16 @@
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D237" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E237" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G237" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H237" t="s">
         <v>7</v>
@@ -8725,16 +8694,16 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D238" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E238" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G238" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H238" t="s">
         <v>7</v>
@@ -8744,16 +8713,16 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D239" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E239" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G239" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H239" t="s">
         <v>7</v>
@@ -8763,16 +8732,16 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D240" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E240" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G240" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H240" t="s">
         <v>7</v>
@@ -8782,72 +8751,63 @@
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
-        <v>349</v>
+        <v>656</v>
       </c>
       <c r="D241" t="s">
-        <v>352</v>
-      </c>
-      <c r="E241" t="s">
-        <v>503</v>
+        <v>657</v>
       </c>
       <c r="G241" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
-      <c r="C242" t="s">
-        <v>350</v>
-      </c>
-      <c r="D242" t="s">
-        <v>351</v>
-      </c>
-      <c r="E242" t="s">
-        <v>504</v>
-      </c>
-      <c r="G242" t="s">
-        <v>466</v>
-      </c>
-      <c r="H242" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
-      <c r="B243" s="14"/>
-    </row>
-    <row r="244" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="10" t="s">
+    </row>
+    <row r="243" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B243" s="10" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="14"/>
+      <c r="B244" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C244" t="s">
+        <v>403</v>
+      </c>
+      <c r="E244" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
-      <c r="B245" s="7" t="s">
-        <v>407</v>
-      </c>
+      <c r="B245" s="14"/>
       <c r="C245" t="s">
-        <v>407</v>
-      </c>
-      <c r="E245" t="s">
-        <v>444</v>
+        <v>404</v>
+      </c>
+      <c r="G245" t="s">
+        <v>462</v>
+      </c>
+      <c r="H245" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="G246" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H246" t="s">
         <v>2</v>
@@ -8857,157 +8817,157 @@
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="G247" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H247" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G248" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H248" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>410</v>
+        <v>503</v>
       </c>
       <c r="G249" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H249" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" t="s">
-        <v>507</v>
+        <v>407</v>
       </c>
       <c r="G250" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H250" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G251" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H251" t="s">
-        <v>2</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G252" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H252" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="G253" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H253" t="s">
-        <v>506</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
-      <c r="C254" t="s">
-        <v>359</v>
-      </c>
-      <c r="G254" t="s">
-        <v>466</v>
-      </c>
-      <c r="H254" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
-      <c r="B255" s="14"/>
+      <c r="B255" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C255" t="s">
+        <v>643</v>
+      </c>
+      <c r="E255" t="s">
+        <v>441</v>
+      </c>
+      <c r="G255" t="s">
+        <v>462</v>
+      </c>
+      <c r="H255" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
-      <c r="B256" s="16" t="s">
-        <v>414</v>
-      </c>
+      <c r="B256" s="14"/>
       <c r="C256" t="s">
-        <v>648</v>
-      </c>
-      <c r="E256" t="s">
-        <v>445</v>
-      </c>
-      <c r="G256" t="s">
-        <v>466</v>
-      </c>
-      <c r="H256" t="s">
-        <v>406</v>
+        <v>644</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>651</v>
+        <v>411</v>
+      </c>
+      <c r="G259" t="s">
+        <v>462</v>
+      </c>
+      <c r="H259" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G260" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H260" t="s">
         <v>2</v>
@@ -9017,10 +8977,10 @@
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G261" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H261" t="s">
         <v>2</v>
@@ -9030,10 +8990,10 @@
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G262" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H262" t="s">
         <v>2</v>
@@ -9043,49 +9003,49 @@
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G263" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H263" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G264" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H264" t="s">
-        <v>6</v>
+        <v>402</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G265" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H265" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G266" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H266" t="s">
         <v>2</v>
@@ -9095,10 +9055,10 @@
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G267" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H267" t="s">
         <v>2</v>
@@ -9108,10 +9068,10 @@
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G268" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H268" t="s">
         <v>2</v>
@@ -9121,10 +9081,10 @@
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G269" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H269" t="s">
         <v>2</v>
@@ -9134,10 +9094,10 @@
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G270" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H270" t="s">
         <v>2</v>
@@ -9147,10 +9107,10 @@
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G271" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H271" t="s">
         <v>2</v>
@@ -9160,60 +9120,57 @@
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G272" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H272" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G273" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H273" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G274" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H274" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" t="s">
-        <v>443</v>
+        <v>642</v>
       </c>
       <c r="G275" t="s">
-        <v>466</v>
+        <v>658</v>
       </c>
       <c r="H275" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
-      <c r="C276" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
@@ -9221,18 +9178,27 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
-      <c r="B278" s="14"/>
+      <c r="B278" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C278" t="s">
+        <v>470</v>
+      </c>
+      <c r="G278" t="s">
+        <v>462</v>
+      </c>
+      <c r="H278" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
-      <c r="B279" s="7" t="s">
-        <v>481</v>
-      </c>
+      <c r="B279" s="14"/>
       <c r="C279" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G279" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H279" t="s">
         <v>2</v>
@@ -9242,10 +9208,10 @@
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G280" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H280" t="s">
         <v>2</v>
@@ -9255,10 +9221,10 @@
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G281" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H281" t="s">
         <v>2</v>
@@ -9268,10 +9234,10 @@
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G282" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H282" t="s">
         <v>2</v>
@@ -9281,10 +9247,10 @@
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G283" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H283" t="s">
         <v>2</v>
@@ -9294,36 +9260,36 @@
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G284" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H284" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G285" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="H285" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G286" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H286" t="s">
         <v>2</v>
@@ -9332,224 +9298,241 @@
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
-      <c r="C287" t="s">
-        <v>483</v>
-      </c>
-      <c r="G287" t="s">
-        <v>466</v>
-      </c>
-      <c r="H287" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
-      <c r="B288" s="14"/>
+      <c r="B288" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C288" t="s">
+        <v>424</v>
+      </c>
+      <c r="E288" t="s">
+        <v>441</v>
+      </c>
+      <c r="G288" t="s">
+        <v>462</v>
+      </c>
+      <c r="H288" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
-      <c r="B289" s="16" t="s">
-        <v>427</v>
-      </c>
+      <c r="B289" s="14"/>
       <c r="C289" t="s">
-        <v>428</v>
-      </c>
-      <c r="E289" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="G289" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H289" t="s">
-        <v>406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G290" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H290" t="s">
-        <v>1</v>
+        <v>402</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G291" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H291" t="s">
-        <v>406</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G292" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H292" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G293" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H293" t="s">
-        <v>5</v>
+        <v>634</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G294" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H294" t="s">
-        <v>638</v>
+        <v>402</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" t="s">
-        <v>435</v>
-      </c>
-      <c r="G295" t="s">
-        <v>466</v>
-      </c>
-      <c r="H295" t="s">
-        <v>406</v>
+        <v>647</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
-      <c r="C298" t="s">
-        <v>654</v>
-      </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
-      <c r="B299" s="14"/>
+      <c r="B299" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C299" t="s">
+        <v>434</v>
+      </c>
+      <c r="E299" t="s">
+        <v>440</v>
+      </c>
+      <c r="G299" t="s">
+        <v>468</v>
+      </c>
+      <c r="H299" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
+      <c r="C300" t="s">
+        <v>435</v>
+      </c>
+      <c r="G300" t="s">
+        <v>468</v>
+      </c>
+      <c r="H300" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
-      <c r="B301" s="16" t="s">
-        <v>437</v>
-      </c>
+      <c r="B301" s="14"/>
       <c r="C301" t="s">
-        <v>438</v>
-      </c>
-      <c r="E301" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G301" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H301" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G302" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H302" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
-      <c r="C303" t="s">
-        <v>440</v>
-      </c>
-      <c r="G303" t="s">
-        <v>472</v>
-      </c>
-      <c r="H303" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
-      <c r="B304" s="14"/>
-      <c r="C304" t="s">
-        <v>441</v>
-      </c>
-      <c r="G304" t="s">
-        <v>472</v>
-      </c>
-      <c r="H304" t="s">
-        <v>406</v>
+    </row>
+    <row r="304" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
-      <c r="B305" s="14"/>
-    </row>
-    <row r="306" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B306" s="13" t="s">
-        <v>37</v>
+      <c r="B305" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C305" t="s">
+        <v>364</v>
+      </c>
+      <c r="G305" t="s">
+        <v>462</v>
+      </c>
+      <c r="H305" t="s">
+        <v>2</v>
+      </c>
+      <c r="J305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="14"/>
+      <c r="B306" s="14"/>
+      <c r="C306" t="s">
+        <v>399</v>
+      </c>
+      <c r="G306" t="s">
+        <v>462</v>
+      </c>
+      <c r="H306" t="s">
+        <v>2</v>
+      </c>
+      <c r="J306" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
-      <c r="B307" s="7" t="s">
-        <v>400</v>
+      <c r="B307" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="C307" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="G307" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H307" t="s">
         <v>2</v>
@@ -9558,14 +9541,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="G308" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H308" t="s">
         <v>2</v>
@@ -9574,16 +9557,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
-      <c r="B309" s="14" t="s">
-        <v>401</v>
-      </c>
+      <c r="B309" s="14"/>
       <c r="C309" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G309" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H309" t="s">
         <v>2</v>
@@ -9592,14 +9573,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G310" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H310" t="s">
         <v>2</v>
@@ -9608,14 +9589,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
-      <c r="B311" s="14"/>
-      <c r="C311" t="s">
-        <v>388</v>
+      <c r="B311" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="G311" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H311" t="s">
         <v>2</v>
@@ -9627,11 +9610,11 @@
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
-      <c r="C312" t="s">
-        <v>397</v>
+      <c r="C312" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="G312" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H312" t="s">
         <v>2</v>
@@ -9642,17 +9625,15 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
-      <c r="B313" s="14" t="s">
-        <v>391</v>
-      </c>
+      <c r="B313" s="14"/>
       <c r="C313" s="4" t="s">
-        <v>393</v>
+        <v>630</v>
       </c>
       <c r="G313" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H313" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J313" t="s">
         <v>3</v>
@@ -9662,13 +9643,13 @@
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="4" t="s">
-        <v>404</v>
+        <v>631</v>
       </c>
       <c r="G314" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J314" t="s">
         <v>3</v>
@@ -9678,10 +9659,10 @@
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G315" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H315" t="s">
         <v>1</v>
@@ -9694,10 +9675,10 @@
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G316" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H316" t="s">
         <v>1</v>
@@ -9709,30 +9690,21 @@
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
-      <c r="C317" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="G317" t="s">
-        <v>466</v>
-      </c>
-      <c r="H317" t="s">
-        <v>1</v>
-      </c>
-      <c r="J317" t="s">
-        <v>3</v>
-      </c>
+      <c r="C317" s="4"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
-      <c r="B318" s="14"/>
+      <c r="B318" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="C318" s="4" t="s">
-        <v>637</v>
+        <v>362</v>
       </c>
       <c r="G318" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H318" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
         <v>3</v>
@@ -9741,18 +9713,27 @@
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
       <c r="B319" s="14"/>
-      <c r="C319" s="4"/>
+      <c r="C319" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G319" t="s">
+        <v>462</v>
+      </c>
+      <c r="H319" t="s">
+        <v>2</v>
+      </c>
+      <c r="J319" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
-      <c r="B320" s="7" t="s">
+      <c r="B320" s="14"/>
+      <c r="C320" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C320" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="G320" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H320" t="s">
         <v>2</v>
@@ -9765,10 +9746,10 @@
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G321" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H321" t="s">
         <v>2</v>
@@ -9781,13 +9762,13 @@
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="G322" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H322" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="J322" t="s">
         <v>3</v>
@@ -9795,12 +9776,14 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
-      <c r="B323" s="14"/>
+      <c r="B323" s="14" t="s">
+        <v>398</v>
+      </c>
       <c r="C323" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G323" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H323" t="s">
         <v>2</v>
@@ -9813,13 +9796,13 @@
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G324" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H324" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
         <v>3</v>
@@ -9827,33 +9810,22 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
-      <c r="B325" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G325" t="s">
-        <v>466</v>
-      </c>
-      <c r="H325" t="s">
-        <v>2</v>
-      </c>
-      <c r="J325" t="s">
-        <v>3</v>
-      </c>
+      <c r="B325" s="14"/>
+      <c r="C325" s="4"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="14"/>
+      <c r="B326" s="16" t="s">
+        <v>398</v>
+      </c>
       <c r="C326" s="4" t="s">
         <v>377</v>
       </c>
       <c r="G326" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H326" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J326" t="s">
         <v>3</v>
@@ -9862,18 +9834,27 @@
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="4"/>
+      <c r="C327" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G327" t="s">
+        <v>462</v>
+      </c>
+      <c r="H327" t="s">
+        <v>1</v>
+      </c>
+      <c r="J327" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
-      <c r="B328" s="16" t="s">
-        <v>402</v>
-      </c>
+      <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G328" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H328" t="s">
         <v>1</v>
@@ -9886,10 +9867,10 @@
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="4" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G329" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H329" t="s">
         <v>1</v>
@@ -9900,31 +9881,24 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
-      <c r="B330" s="14"/>
-      <c r="C330" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G330" t="s">
-        <v>466</v>
-      </c>
-      <c r="H330" t="s">
-        <v>1</v>
-      </c>
-      <c r="J330" t="s">
-        <v>3</v>
-      </c>
+      <c r="B330" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C330" s="4"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="14"/>
+      <c r="B331" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C331" s="4" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="G331" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H331" t="s">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="J331" t="s">
         <v>3</v>
@@ -9932,24 +9906,31 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C332" s="4"/>
+      <c r="B332" s="14"/>
+      <c r="C332" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G332" t="s">
+        <v>462</v>
+      </c>
+      <c r="H332" t="s">
+        <v>2</v>
+      </c>
+      <c r="J332" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B333" s="14"/>
       <c r="C333" s="4" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="G333" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H333" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J333" t="s">
         <v>3</v>
@@ -9959,13 +9940,13 @@
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
       <c r="C334" s="4" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="G334" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H334" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="J334" t="s">
         <v>3</v>
@@ -9975,13 +9956,13 @@
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G335" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H335" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J335" t="s">
         <v>3</v>
@@ -9991,13 +9972,13 @@
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G336" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H336" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J336" t="s">
         <v>3</v>
@@ -10007,13 +9988,13 @@
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="4" t="s">
-        <v>394</v>
+        <v>492</v>
       </c>
       <c r="G337" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H337" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="J337" t="s">
         <v>3</v>
@@ -10023,13 +10004,13 @@
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="4" t="s">
-        <v>395</v>
+        <v>518</v>
       </c>
       <c r="G338" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H338" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J338" t="s">
         <v>3</v>
@@ -10038,30 +10019,21 @@
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
-      <c r="C339" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="G339" t="s">
-        <v>466</v>
-      </c>
-      <c r="H339" t="s">
-        <v>2</v>
-      </c>
-      <c r="J339" t="s">
-        <v>3</v>
-      </c>
+      <c r="C339" s="4"/>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
-      <c r="B340" s="14"/>
+      <c r="B340" s="18" t="s">
+        <v>387</v>
+      </c>
       <c r="C340" s="4" t="s">
-        <v>522</v>
+        <v>379</v>
       </c>
       <c r="G340" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H340" t="s">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
         <v>3</v>
@@ -10069,19 +10041,28 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
-      <c r="B341" s="14"/>
-      <c r="C341" s="4"/>
+      <c r="B341" s="15"/>
+      <c r="C341" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G341" t="s">
+        <v>462</v>
+      </c>
+      <c r="H341" t="s">
+        <v>0</v>
+      </c>
+      <c r="J341" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
-      <c r="B342" s="18" t="s">
-        <v>391</v>
-      </c>
+      <c r="B342" s="15"/>
       <c r="C342" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G342" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H342" t="s">
         <v>0</v>
@@ -10094,10 +10075,10 @@
       <c r="A343" s="14"/>
       <c r="B343" s="15"/>
       <c r="C343" s="4" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="G343" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H343" t="s">
         <v>0</v>
@@ -10110,10 +10091,10 @@
       <c r="A344" s="14"/>
       <c r="B344" s="15"/>
       <c r="C344" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="G344" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H344" t="s">
         <v>0</v>
@@ -10126,10 +10107,10 @@
       <c r="A345" s="14"/>
       <c r="B345" s="15"/>
       <c r="C345" s="4" t="s">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="G345" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H345" t="s">
         <v>0</v>
@@ -10138,82 +10119,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A346" s="14"/>
-      <c r="B346" s="15"/>
-      <c r="C346" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="G346" t="s">
-        <v>466</v>
-      </c>
-      <c r="H346" t="s">
-        <v>0</v>
-      </c>
-      <c r="J346" t="s">
-        <v>3</v>
+    <row r="346" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
-      <c r="B347" s="15"/>
-      <c r="C347" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="G347" t="s">
-        <v>466</v>
-      </c>
-      <c r="H347" t="s">
-        <v>0</v>
-      </c>
-      <c r="J347" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B348" s="11" t="s">
-        <v>38</v>
+      <c r="B347" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C347" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="14"/>
+      <c r="B348" s="14"/>
+      <c r="C348" t="s">
+        <v>306</v>
+      </c>
+      <c r="D348" t="s">
+        <v>307</v>
+      </c>
+      <c r="E348" t="s">
+        <v>596</v>
+      </c>
+      <c r="G348" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
-      <c r="B349" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B349" s="14"/>
       <c r="C349" t="s">
-        <v>50</v>
+        <v>308</v>
+      </c>
+      <c r="D349" t="s">
+        <v>309</v>
+      </c>
+      <c r="G349" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
       <c r="C350" t="s">
-        <v>306</v>
+        <v>582</v>
       </c>
       <c r="D350" t="s">
-        <v>307</v>
-      </c>
-      <c r="E350" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="G350" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" t="s">
-        <v>308</v>
+        <v>584</v>
       </c>
       <c r="D351" t="s">
-        <v>309</v>
+        <v>585</v>
       </c>
       <c r="G351" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -10226,227 +10201,204 @@
         <v>587</v>
       </c>
       <c r="G352" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="D353" t="s">
-        <v>589</v>
-      </c>
-      <c r="G353" t="s">
-        <v>472</v>
+        <v>655</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
-      <c r="C354" t="s">
-        <v>590</v>
-      </c>
-      <c r="D354" t="s">
-        <v>591</v>
-      </c>
-      <c r="G354" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
-      <c r="B355" s="14"/>
+      <c r="B355" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="C355" t="s">
-        <v>659</v>
-      </c>
-      <c r="D355" t="s">
-        <v>660</v>
+        <v>572</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
+      <c r="C356" t="s">
+        <v>588</v>
+      </c>
+      <c r="D356" t="s">
+        <v>592</v>
+      </c>
+      <c r="G356" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
-      <c r="B357" s="7" t="s">
-        <v>401</v>
-      </c>
+      <c r="B357" s="14"/>
       <c r="C357" t="s">
-        <v>576</v>
+        <v>589</v>
+      </c>
+      <c r="D357" t="s">
+        <v>593</v>
+      </c>
+      <c r="G357" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" t="s">
-        <v>592</v>
+        <v>275</v>
       </c>
       <c r="D358" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G358" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D359" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G359" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>275</v>
+        <v>575</v>
       </c>
       <c r="D360" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G360" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" t="s">
-        <v>594</v>
+        <v>652</v>
       </c>
       <c r="D361" t="s">
-        <v>599</v>
-      </c>
-      <c r="G361" t="s">
-        <v>472</v>
+        <v>653</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
-      <c r="C362" t="s">
-        <v>579</v>
-      </c>
-      <c r="D362" t="s">
-        <v>595</v>
-      </c>
-      <c r="G362" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
-      <c r="B363" s="14"/>
+      <c r="B363" t="s">
+        <v>573</v>
+      </c>
       <c r="C363" t="s">
-        <v>657</v>
-      </c>
-      <c r="D363" t="s">
-        <v>658</v>
+        <v>574</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
+      <c r="C364" t="s">
+        <v>575</v>
+      </c>
+      <c r="D364" t="s">
+        <v>577</v>
+      </c>
+      <c r="G364" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
-      <c r="B365" t="s">
-        <v>577</v>
-      </c>
+      <c r="B365" s="14"/>
       <c r="C365" t="s">
+        <v>576</v>
+      </c>
+      <c r="D365" t="s">
         <v>578</v>
+      </c>
+      <c r="G365" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="14"/>
       <c r="B366" s="14"/>
       <c r="C366" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D366" t="s">
         <v>581</v>
       </c>
+      <c r="E366" t="s">
+        <v>579</v>
+      </c>
       <c r="G366" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
-      <c r="C367" t="s">
-        <v>580</v>
-      </c>
-      <c r="D367" t="s">
-        <v>582</v>
-      </c>
-      <c r="G367" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
-      <c r="B368" s="14"/>
+      <c r="B368" t="s">
+        <v>42</v>
+      </c>
       <c r="C368" t="s">
-        <v>584</v>
-      </c>
-      <c r="D368" t="s">
-        <v>585</v>
-      </c>
-      <c r="E368" t="s">
-        <v>583</v>
-      </c>
-      <c r="G368" t="s">
-        <v>472</v>
+        <v>51</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
+      <c r="C369" t="s">
+        <v>310</v>
+      </c>
+      <c r="D369" t="s">
+        <v>311</v>
+      </c>
+      <c r="G369" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
-      <c r="B370" t="s">
-        <v>42</v>
-      </c>
+      <c r="B370" s="14"/>
       <c r="C370" t="s">
-        <v>51</v>
+        <v>650</v>
+      </c>
+      <c r="D370" t="s">
+        <v>651</v>
+      </c>
+      <c r="G370" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
-      <c r="C371" t="s">
-        <v>310</v>
-      </c>
-      <c r="D371" t="s">
-        <v>311</v>
-      </c>
-      <c r="G371" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="14"/>
-      <c r="B372" s="14"/>
-      <c r="C372" t="s">
-        <v>655</v>
-      </c>
-      <c r="D372" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
-      <c r="B373" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10458,8 +10410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="L1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10492,112 +10444,112 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H1" t="s">
         <v>451</v>
       </c>
-      <c r="C1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K1" t="s">
         <v>453</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>454</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="N1" t="s">
         <v>455</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>456</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>457</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>458</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>459</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>460</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>461</v>
       </c>
-      <c r="R1" t="s">
-        <v>462</v>
-      </c>
-      <c r="T1" t="s">
-        <v>463</v>
-      </c>
-      <c r="U1" t="s">
-        <v>464</v>
-      </c>
-      <c r="W1" t="s">
-        <v>465</v>
-      </c>
       <c r="X1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="19" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -10605,31 +10557,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="25" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="20" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="20" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="M3" s="23"/>
       <c r="P3" s="14"/>
@@ -10640,21 +10592,21 @@
     <row r="4" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="20" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="25" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="J4" s="14"/>
       <c r="M4" s="23"/>
@@ -10666,17 +10618,17 @@
     <row r="5" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="25" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G5" s="14"/>
       <c r="J5" s="14"/>
@@ -10689,17 +10641,17 @@
     <row r="6" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="25" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G6" s="14"/>
       <c r="J6" s="14"/>
@@ -10750,31 +10702,31 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="20" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="20" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M11" s="23"/>
       <c r="P11" s="14"/>
@@ -10785,11 +10737,11 @@
     <row r="12" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G12" s="14"/>
       <c r="J12" s="14"/>
@@ -10803,7 +10755,7 @@
       <c r="A13" s="7"/>
       <c r="D13" s="14"/>
       <c r="E13" s="20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G13" s="14"/>
       <c r="J13" s="14"/>
@@ -10865,52 +10817,52 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="20" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="20" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="20" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="R19" s="20" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="20" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
@@ -10918,52 +10870,52 @@
     <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="20" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="20" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="20" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="20" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="20" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="20" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="20" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
@@ -10971,30 +10923,30 @@
     <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="20" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D21" s="14"/>
       <c r="F21" s="20" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="20" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="20" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="S21" s="14"/>
       <c r="V21" s="14"/>
@@ -11003,12 +10955,15 @@
     <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="20" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D22" s="14"/>
       <c r="G22" s="14"/>
       <c r="J22" s="14"/>
       <c r="M22" s="23"/>
+      <c r="N22" s="20" t="s">
+        <v>608</v>
+      </c>
       <c r="P22" s="14"/>
       <c r="S22" s="14"/>
       <c r="V22" s="14"/>
@@ -11017,12 +10972,15 @@
     <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="20" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D23" s="14"/>
       <c r="G23" s="14"/>
       <c r="J23" s="14"/>
       <c r="M23" s="23"/>
+      <c r="N23" s="20" t="s">
+        <v>659</v>
+      </c>
       <c r="P23" s="14"/>
       <c r="S23" s="14"/>
       <c r="V23" s="14"/>
@@ -11031,7 +10989,7 @@
     <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D24" s="14"/>
       <c r="G24" s="14"/>
@@ -11045,10 +11003,10 @@
     <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D25" s="14"/>
       <c r="G25" s="14"/>
@@ -11064,94 +11022,94 @@
     </row>
     <row r="27" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="20" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="20" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M27" s="23"/>
       <c r="N27" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="20" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="20" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Y27" s="14"/>
     </row>
     <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="20" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="20" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="20" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="20" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="20" t="s">
@@ -11162,14 +11120,14 @@
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="20" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="20" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Y28" s="14"/>
     </row>
@@ -11179,12 +11137,12 @@
         <v>183</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="20" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="20" t="s">
@@ -11201,7 +11159,7 @@
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="20" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Y29" s="14"/>
     </row>
@@ -11211,7 +11169,7 @@
         <v>238</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D30" s="14"/>
       <c r="G30" s="14"/>
@@ -11320,24 +11278,24 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>221</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="8" t="s">
@@ -11348,10 +11306,10 @@
       </c>
       <c r="M35" s="23"/>
       <c r="N35" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="8" t="s">
@@ -11362,10 +11320,10 @@
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="V35" s="14"/>
       <c r="Y35" s="14"/>
@@ -11373,24 +11331,24 @@
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>223</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="8" t="s">
@@ -11401,10 +11359,10 @@
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="8" t="s">
@@ -11415,7 +11373,7 @@
       </c>
       <c r="S36" s="14"/>
       <c r="U36" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="V36" s="14"/>
       <c r="Y36" s="14"/>
@@ -11423,38 +11381,38 @@
     <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>231</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>235</v>
+        <v>640</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="8" t="s">
@@ -11465,7 +11423,7 @@
       </c>
       <c r="S37" s="14"/>
       <c r="U37" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="V37" s="14"/>
       <c r="Y37" s="14"/>
@@ -11487,10 +11445,10 @@
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J38" s="14"/>
       <c r="L38" s="8" t="s">
@@ -11501,7 +11459,7 @@
         <v>162</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="8" t="s">
@@ -11512,7 +11470,7 @@
       </c>
       <c r="S38" s="14"/>
       <c r="U38" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="V38" s="14"/>
       <c r="Y38" s="14"/>
@@ -11520,7 +11478,7 @@
     <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>230</v>
@@ -11531,7 +11489,7 @@
         <v>157</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J39" s="14"/>
       <c r="L39" s="8" t="s">
@@ -11542,7 +11500,7 @@
         <v>163</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>181</v>
+        <v>323</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="8" t="s">
@@ -11553,7 +11511,7 @@
       </c>
       <c r="S39" s="14"/>
       <c r="U39" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="V39" s="14"/>
       <c r="Y39" s="14"/>
@@ -11561,10 +11519,10 @@
     <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D40" s="14"/>
       <c r="G40" s="14"/>
@@ -11572,11 +11530,11 @@
         <v>159</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J40" s="14"/>
       <c r="L40" s="8" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M40" s="23"/>
       <c r="N40" s="8" t="s">
@@ -11591,7 +11549,7 @@
       </c>
       <c r="S40" s="14"/>
       <c r="U40" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="V40" s="14"/>
       <c r="Y40" s="14"/>
@@ -11602,20 +11560,20 @@
         <v>284</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J41" s="14"/>
       <c r="M41" s="23"/>
       <c r="N41" s="8" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="8" t="s">
@@ -11623,7 +11581,7 @@
       </c>
       <c r="S41" s="14"/>
       <c r="U41" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="V41" s="14"/>
       <c r="Y41" s="14"/>
@@ -11631,10 +11589,10 @@
     <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D42" s="14"/>
       <c r="G42" s="14"/>
@@ -11642,12 +11600,12 @@
         <v>136</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J42" s="14"/>
       <c r="M42" s="23"/>
       <c r="N42" s="8" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="8" t="s">
@@ -11655,7 +11613,7 @@
       </c>
       <c r="S42" s="14"/>
       <c r="U42" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="V42" s="14"/>
       <c r="Y42" s="14"/>
@@ -11663,28 +11621,28 @@
     <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="14"/>
       <c r="H43" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J43" s="14"/>
       <c r="M43" s="23"/>
       <c r="N43" s="8" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="P43" s="14"/>
       <c r="S43" s="14"/>
       <c r="U43" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="V43" s="14"/>
       <c r="Y43" s="14"/>
@@ -11692,16 +11650,19 @@
     <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
       <c r="G44" s="14"/>
       <c r="I44" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J44" s="14"/>
       <c r="M44" s="23"/>
+      <c r="N44" s="8" t="s">
+        <v>638</v>
+      </c>
       <c r="P44" s="14"/>
       <c r="S44" s="14"/>
       <c r="V44" s="14"/>
@@ -11715,14 +11676,14 @@
         <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>54</v>
@@ -11736,24 +11697,24 @@
       </c>
       <c r="J46" s="14"/>
       <c r="K46" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M46" s="23"/>
       <c r="N46" s="8" t="s">
         <v>272</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="8" t="s">
         <v>72</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
@@ -11768,14 +11729,14 @@
     <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>53</v>
@@ -11789,24 +11750,21 @@
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>320</v>
+        <v>555</v>
       </c>
       <c r="M47" s="23"/>
       <c r="N47" s="8" t="s">
         <v>273</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="8" t="s">
         <v>75</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
@@ -11821,11 +11779,11 @@
     <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="C48" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>70</v>
@@ -11839,28 +11797,25 @@
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>321</v>
+        <v>556</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="8" t="s">
         <v>274</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="8" t="s">
         <v>74</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="S48" s="14"/>
       <c r="T48" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
@@ -11868,32 +11823,29 @@
     <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J49" s="14"/>
       <c r="K49" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L49" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="M49" s="23"/>
       <c r="N49" s="8" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="8" t="s">
@@ -11910,25 +11862,25 @@
       <c r="A50" s="7"/>
       <c r="D50" s="14"/>
       <c r="E50" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="J50" s="14"/>
       <c r="K50" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>642</v>
-      </c>
       <c r="M50" s="23"/>
+      <c r="N50" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="O50" s="8" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="8" t="s">
@@ -11945,22 +11897,22 @@
       <c r="A51" s="7"/>
       <c r="D51" s="14"/>
       <c r="E51" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="8" t="s">
         <v>148</v>
       </c>
       <c r="J51" s="14"/>
-      <c r="L51" s="8" t="s">
-        <v>645</v>
-      </c>
       <c r="M51" s="23"/>
+      <c r="N51" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="O51" s="8" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="P51" s="14"/>
       <c r="Q51" s="8" t="s">
@@ -11984,12 +11936,12 @@
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J52" s="14"/>
       <c r="M52" s="23"/>
       <c r="O52" s="8" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="P52" s="14"/>
       <c r="S52" s="14"/>
@@ -12000,14 +11952,14 @@
       <c r="A53" s="7"/>
       <c r="D53" s="14"/>
       <c r="E53" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J53" s="14"/>
       <c r="M53" s="23"/>
@@ -12157,7 +12109,7 @@
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>146</v>
@@ -12230,10 +12182,10 @@
       </c>
       <c r="S59" s="14"/>
       <c r="T59" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>
@@ -12300,7 +12252,7 @@
       </c>
       <c r="S61" s="14"/>
       <c r="T61" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="V61" s="14"/>
       <c r="Y61" s="14"/>
@@ -12309,7 +12261,7 @@
       <c r="A62" s="7"/>
       <c r="D62" s="14"/>
       <c r="F62" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G62" s="14"/>
       <c r="J62" s="14"/>
@@ -12355,7 +12307,7 @@
       <c r="A64" s="7"/>
       <c r="D64" s="14"/>
       <c r="F64" s="8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G64" s="14"/>
       <c r="J64" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -4485,8 +4485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="C335" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D355" sqref="D355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="660">
   <si>
     <t>Arne</t>
   </si>
@@ -4485,7 +4485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C335" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C320" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D355" sqref="D355"/>
     </sheetView>
   </sheetViews>
@@ -10410,8 +10410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12166,12 +12166,12 @@
         <v>187</v>
       </c>
       <c r="J59" s="14"/>
+      <c r="L59" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="M59" s="23"/>
       <c r="N59" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="8" t="s">
@@ -12204,12 +12204,12 @@
         <v>189</v>
       </c>
       <c r="J60" s="14"/>
+      <c r="L60" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="M60" s="23"/>
       <c r="N60" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="8" t="s">
@@ -12236,12 +12236,12 @@
         <v>190</v>
       </c>
       <c r="J61" s="14"/>
+      <c r="L61" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="M61" s="23"/>
       <c r="N61" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="P61" s="14"/>
       <c r="Q61" s="8" t="s">
@@ -12266,6 +12266,9 @@
       <c r="G62" s="14"/>
       <c r="J62" s="14"/>
       <c r="M62" s="23"/>
+      <c r="N62" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="P62" s="14"/>
       <c r="Q62" s="8" t="s">
         <v>103</v>
@@ -12289,6 +12292,9 @@
       <c r="G63" s="14"/>
       <c r="J63" s="14"/>
       <c r="M63" s="23"/>
+      <c r="N63" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="P63" s="14"/>
       <c r="Q63" s="8" t="s">
         <v>305</v>
@@ -12312,6 +12318,9 @@
       <c r="G64" s="14"/>
       <c r="J64" s="14"/>
       <c r="M64" s="23"/>
+      <c r="N64" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="P64" s="14"/>
       <c r="R64" s="8" t="s">
         <v>293</v>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="660">
   <si>
     <t>Arne</t>
   </si>
@@ -2011,7 +2011,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2272,6 +2272,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2307,6 +2324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -10410,8 +10444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12292,9 +12326,6 @@
       <c r="G63" s="14"/>
       <c r="J63" s="14"/>
       <c r="M63" s="23"/>
-      <c r="N63" s="8" t="s">
-        <v>214</v>
-      </c>
       <c r="P63" s="14"/>
       <c r="Q63" s="8" t="s">
         <v>305</v>
@@ -12318,9 +12349,6 @@
       <c r="G64" s="14"/>
       <c r="J64" s="14"/>
       <c r="M64" s="23"/>
-      <c r="N64" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="P64" s="14"/>
       <c r="R64" s="8" t="s">
         <v>293</v>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="664">
   <si>
     <t>Arne</t>
   </si>
@@ -2006,6 +2006,18 @@
   </si>
   <si>
     <t>SFX_GRAPPLINGHOOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit </t>
+  </si>
+  <si>
+    <t>9_ENEMY_SPIRIT</t>
+  </si>
+  <si>
+    <t>Alieke &amp; Marc</t>
+  </si>
+  <si>
+    <t>9P_ENEMY_SPIRIT</t>
   </si>
 </sst>
 </file>
@@ -4517,10 +4529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J371"/>
+  <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView topLeftCell="C320" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D355" sqref="D355"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H370" sqref="H370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10238,7 +10250,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" t="s">
@@ -10248,11 +10260,11 @@
         <v>655</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
       <c r="B355" s="7" t="s">
         <v>397</v>
@@ -10261,7 +10273,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
       <c r="C356" t="s">
@@ -10274,7 +10286,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" t="s">
@@ -10287,7 +10299,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" t="s">
@@ -10300,7 +10312,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" t="s">
@@ -10313,7 +10325,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
@@ -10326,7 +10338,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" t="s">
@@ -10336,11 +10348,11 @@
         <v>653</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
       <c r="B363" t="s">
         <v>573</v>
@@ -10349,7 +10361,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
       <c r="C364" t="s">
@@ -10362,7 +10374,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
       <c r="B365" s="14"/>
       <c r="C365" t="s">
@@ -10375,7 +10387,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="14"/>
       <c r="B366" s="14"/>
       <c r="C366" t="s">
@@ -10391,48 +10403,64 @@
         <v>468</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C367" t="s">
+        <v>660</v>
+      </c>
+      <c r="D367" t="s">
+        <v>661</v>
+      </c>
+      <c r="H367" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
-      <c r="B368" t="s">
+      <c r="B368" s="14"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369" s="14"/>
+      <c r="B369" t="s">
         <v>42</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C369" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="14"/>
-      <c r="B369" s="14"/>
-      <c r="C369" t="s">
-        <v>310</v>
-      </c>
-      <c r="D369" t="s">
-        <v>311</v>
-      </c>
-      <c r="G369" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
       <c r="B370" s="14"/>
       <c r="C370" t="s">
-        <v>650</v>
+        <v>310</v>
       </c>
       <c r="D370" t="s">
-        <v>651</v>
+        <v>311</v>
       </c>
       <c r="G370" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
+      <c r="C371" t="s">
+        <v>650</v>
+      </c>
+      <c r="D371" t="s">
+        <v>651</v>
+      </c>
+      <c r="G371" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372" s="14"/>
+      <c r="B372" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10444,8 +10472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView topLeftCell="F1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10618,6 +10646,9 @@
         <v>641</v>
       </c>
       <c r="M3" s="23"/>
+      <c r="N3" s="20" t="s">
+        <v>663</v>
+      </c>
       <c r="P3" s="14"/>
       <c r="S3" s="14"/>
       <c r="V3" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="664">
   <si>
     <t>Arne</t>
   </si>
@@ -4532,7 +4532,7 @@
   <dimension ref="A1:J372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H370" sqref="H370"/>
+      <selection activeCell="H364" sqref="H364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10197,6 +10197,9 @@
       <c r="G348" t="s">
         <v>468</v>
       </c>
+      <c r="H348" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
@@ -10311,6 +10314,9 @@
       <c r="G358" t="s">
         <v>468</v>
       </c>
+      <c r="H358" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
@@ -10420,7 +10426,7 @@
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" t="s">
         <v>42</v>
@@ -10429,7 +10435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
       <c r="B370" s="14"/>
       <c r="C370" t="s">
@@ -10441,11 +10447,8 @@
       <c r="G370" t="s">
         <v>468</v>
       </c>
-      <c r="H370" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
       <c r="C371" t="s">
@@ -10458,7 +10461,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
     </row>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="668">
   <si>
     <t>Arne</t>
   </si>
@@ -2011,13 +2011,25 @@
     <t xml:space="preserve">Spirit </t>
   </si>
   <si>
-    <t>9_ENEMY_SPIRIT</t>
-  </si>
-  <si>
     <t>Alieke &amp; Marc</t>
   </si>
   <si>
     <t>9P_ENEMY_SPIRIT</t>
+  </si>
+  <si>
+    <t>Alieke &amp;  Marc</t>
+  </si>
+  <si>
+    <t>Alieke &amp; Janneke</t>
+  </si>
+  <si>
+    <t>9P_PLYR_SAKURABLOSSOM</t>
+  </si>
+  <si>
+    <t>9P_ENV_SPIRIT</t>
+  </si>
+  <si>
+    <t>9P_PLYR_FOOTDUST</t>
   </si>
 </sst>
 </file>
@@ -4531,8 +4543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H364" sqref="H364"/>
+    <sheetView topLeftCell="C341" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F375" sqref="F375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10213,6 +10225,9 @@
       <c r="G349" t="s">
         <v>468</v>
       </c>
+      <c r="H349" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
@@ -10252,6 +10267,9 @@
       <c r="G352" t="s">
         <v>468</v>
       </c>
+      <c r="H352" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
@@ -10262,6 +10280,9 @@
       <c r="D353" t="s">
         <v>655</v>
       </c>
+      <c r="H353" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
@@ -10288,6 +10309,9 @@
       <c r="G356" t="s">
         <v>468</v>
       </c>
+      <c r="H356" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
@@ -10301,6 +10325,9 @@
       <c r="G357" t="s">
         <v>468</v>
       </c>
+      <c r="H357" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
@@ -10315,7 +10342,7 @@
         <v>468</v>
       </c>
       <c r="H358" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -10330,6 +10357,9 @@
       <c r="G359" t="s">
         <v>468</v>
       </c>
+      <c r="H359" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
@@ -10408,6 +10438,9 @@
       <c r="G366" t="s">
         <v>468</v>
       </c>
+      <c r="H366" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
@@ -10416,7 +10449,7 @@
         <v>660</v>
       </c>
       <c r="D367" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H367" t="s">
         <v>1</v>
@@ -10426,7 +10459,7 @@
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" t="s">
         <v>42</v>
@@ -10435,7 +10468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
       <c r="B370" s="14"/>
       <c r="C370" t="s">
@@ -10447,8 +10480,11 @@
       <c r="G370" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
       <c r="C371" t="s">
@@ -10460,8 +10496,11 @@
       <c r="G371" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H371" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
     </row>
@@ -10475,8 +10514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10650,7 +10689,10 @@
       </c>
       <c r="M3" s="23"/>
       <c r="N3" s="20" t="s">
-        <v>663</v>
+        <v>666</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>665</v>
       </c>
       <c r="P3" s="14"/>
       <c r="S3" s="14"/>
@@ -10678,6 +10720,12 @@
       </c>
       <c r="J4" s="14"/>
       <c r="M4" s="23"/>
+      <c r="N4" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>595</v>
+      </c>
       <c r="P4" s="14"/>
       <c r="S4" s="14"/>
       <c r="V4" s="14"/>
@@ -10701,6 +10749,12 @@
       <c r="G5" s="14"/>
       <c r="J5" s="14"/>
       <c r="M5" s="23"/>
+      <c r="N5" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>667</v>
+      </c>
       <c r="P5" s="14"/>
       <c r="S5" s="14"/>
       <c r="V5" s="14"/>
@@ -10724,6 +10778,9 @@
       <c r="G6" s="14"/>
       <c r="J6" s="14"/>
       <c r="M6" s="23"/>
+      <c r="N6" s="20" t="s">
+        <v>307</v>
+      </c>
       <c r="P6" s="14"/>
       <c r="S6" s="14"/>
       <c r="V6" s="14"/>
@@ -10735,6 +10792,9 @@
       <c r="G7" s="14"/>
       <c r="J7" s="14"/>
       <c r="M7" s="23"/>
+      <c r="N7" s="20" t="s">
+        <v>587</v>
+      </c>
       <c r="P7" s="14"/>
       <c r="S7" s="14"/>
       <c r="V7" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="668">
   <si>
     <t>Arne</t>
   </si>
@@ -10514,8 +10514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10857,6 +10857,9 @@
         <v>379</v>
       </c>
       <c r="M11" s="23"/>
+      <c r="N11" s="20" t="s">
+        <v>651</v>
+      </c>
       <c r="P11" s="14"/>
       <c r="S11" s="14"/>
       <c r="V11" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="669">
   <si>
     <t>Arne</t>
   </si>
@@ -2030,12 +2030,15 @@
   </si>
   <si>
     <t>9P_PLYR_FOOTDUST</t>
+  </si>
+  <si>
+    <t>Meerdere particles per material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2296,23 +2299,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2348,23 +2334,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -4543,8 +4512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView topLeftCell="C341" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F375" sqref="F375"/>
+    <sheetView topLeftCell="C335" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E361" sqref="E361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10383,6 +10352,15 @@
       <c r="D361" t="s">
         <v>653</v>
       </c>
+      <c r="E361" t="s">
+        <v>668</v>
+      </c>
+      <c r="G361" t="s">
+        <v>468</v>
+      </c>
+      <c r="H361" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
@@ -10514,8 +10492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10857,6 +10835,9 @@
         <v>379</v>
       </c>
       <c r="M11" s="23"/>
+      <c r="N11" s="20" t="s">
+        <v>651</v>
+      </c>
       <c r="P11" s="14"/>
       <c r="S11" s="14"/>
       <c r="V11" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2038,7 +2038,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2299,6 +2299,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2334,6 +2351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -4512,7 +4546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView topLeftCell="C335" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A335" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E361" sqref="E361"/>
     </sheetView>
   </sheetViews>
@@ -10492,8 +10526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="I21" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2038,7 +2038,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2299,23 +2299,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2351,23 +2334,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -10526,8 +10492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I21" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="672">
   <si>
     <t>Arne</t>
   </si>
@@ -2033,6 +2033,15 @@
   </si>
   <si>
     <t>Meerdere particles per material</t>
+  </si>
+  <si>
+    <t>Faf</t>
+  </si>
+  <si>
+    <t>JOINED</t>
+  </si>
+  <si>
+    <t>Developer</t>
   </si>
 </sst>
 </file>
@@ -2486,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EU20"/>
+  <dimension ref="A1:EU22"/>
   <sheetViews>
-    <sheetView topLeftCell="CH22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,18 +3081,30 @@
       </c>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="CJ6" t="s">
-        <v>523</v>
-      </c>
-      <c r="EU6" t="s">
-        <v>523</v>
+      <c r="A6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="CJ7" t="s">
         <v>523</v>
       </c>
@@ -3092,26 +3113,8 @@
       </c>
     </row>
     <row r="8" spans="1:151" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>105</v>
-      </c>
-      <c r="G8" t="s">
-        <v>481</v>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="CJ8" t="s">
         <v>523</v>
@@ -3122,7 +3125,7 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>0.61458333333333337</v>
@@ -3131,7 +3134,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>13</v>
@@ -3151,16 +3154,16 @@
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>490</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>13</v>
@@ -3179,679 +3182,495 @@
       </c>
     </row>
     <row r="11" spans="1:151" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>481</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>523</v>
+      </c>
+      <c r="EU11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:151" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="3">
         <v>42618</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="3">
         <v>42619</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L12" s="3">
         <v>42620</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M12" s="3">
         <v>42621</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N12" s="3">
         <v>42622</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O12" s="3">
         <v>42623</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P12" s="3">
         <v>42624</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q12" s="3">
         <v>42625</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R12" s="3">
         <v>42626</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S12" s="3">
         <v>42627</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T12" s="3">
         <v>42628</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U12" s="3">
         <v>42629</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V12" s="3">
         <v>42630</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W12" s="3">
         <v>42631</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X12" s="3">
         <v>42632</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y12" s="3">
         <v>42633</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z12" s="3">
         <v>42634</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA12" s="3">
         <v>42635</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB12" s="3">
         <v>42636</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC12" s="3">
         <v>42637</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD12" s="3">
         <v>42638</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE12" s="3">
         <v>42639</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF12" s="3">
         <v>42640</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG12" s="3">
         <v>42641</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AH12" s="3">
         <v>42642</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI12" s="3">
         <v>42643</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ12" s="3">
         <v>42644</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AK12" s="3">
         <v>42645</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AL12" s="3">
         <v>42646</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM12" s="3">
         <v>42647</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN12" s="3">
         <v>42648</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO12" s="3">
         <v>42649</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AP12" s="3">
         <v>42650</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AQ12" s="3">
         <v>42651</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AR12" s="3">
         <v>42652</v>
       </c>
-      <c r="AS11" s="3">
+      <c r="AS12" s="3">
         <v>42653</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AT12" s="3">
         <v>42654</v>
       </c>
-      <c r="AU11" s="3">
+      <c r="AU12" s="3">
         <v>42655</v>
       </c>
-      <c r="AV11" s="3">
+      <c r="AV12" s="3">
         <v>42656</v>
       </c>
-      <c r="AW11" s="3">
+      <c r="AW12" s="3">
         <v>42657</v>
       </c>
-      <c r="AX11" s="3">
+      <c r="AX12" s="3">
         <v>42658</v>
       </c>
-      <c r="AY11" s="3">
+      <c r="AY12" s="3">
         <v>42659</v>
       </c>
-      <c r="AZ11" s="3">
+      <c r="AZ12" s="3">
         <v>42660</v>
       </c>
-      <c r="BA11" s="3">
+      <c r="BA12" s="3">
         <v>42661</v>
       </c>
-      <c r="BB11" s="3">
+      <c r="BB12" s="3">
         <v>42662</v>
       </c>
-      <c r="BC11" s="3">
+      <c r="BC12" s="3">
         <v>42663</v>
       </c>
-      <c r="BD11" s="3">
+      <c r="BD12" s="3">
         <v>42664</v>
       </c>
-      <c r="BE11" s="3">
+      <c r="BE12" s="3">
         <v>42665</v>
       </c>
-      <c r="BF11" s="3">
+      <c r="BF12" s="3">
         <v>42666</v>
       </c>
-      <c r="BG11" s="3">
+      <c r="BG12" s="3">
         <v>42667</v>
       </c>
-      <c r="BH11" s="3">
+      <c r="BH12" s="3">
         <v>42668</v>
       </c>
-      <c r="BI11" s="3">
+      <c r="BI12" s="3">
         <v>42669</v>
       </c>
-      <c r="BJ11" s="3">
+      <c r="BJ12" s="3">
         <v>42670</v>
       </c>
-      <c r="BK11" s="3">
+      <c r="BK12" s="3">
         <v>42671</v>
       </c>
-      <c r="BL11" s="3">
+      <c r="BL12" s="3">
         <v>42672</v>
       </c>
-      <c r="BM11" s="3">
+      <c r="BM12" s="3">
         <v>42673</v>
       </c>
-      <c r="BN11" s="3">
+      <c r="BN12" s="3">
         <v>42674</v>
       </c>
-      <c r="BO11" s="3">
+      <c r="BO12" s="3">
         <v>42675</v>
       </c>
-      <c r="BP11" s="3">
+      <c r="BP12" s="3">
         <v>42676</v>
       </c>
-      <c r="BQ11" s="3">
+      <c r="BQ12" s="3">
         <v>42677</v>
       </c>
-      <c r="BR11" s="3">
+      <c r="BR12" s="3">
         <v>42678</v>
       </c>
-      <c r="BS11" s="3">
+      <c r="BS12" s="3">
         <v>42679</v>
       </c>
-      <c r="BT11" s="3">
+      <c r="BT12" s="3">
         <v>42680</v>
       </c>
-      <c r="BU11" s="3">
+      <c r="BU12" s="3">
         <v>42681</v>
       </c>
-      <c r="BV11" s="3">
+      <c r="BV12" s="3">
         <v>42682</v>
       </c>
-      <c r="BW11" s="3">
+      <c r="BW12" s="3">
         <v>42683</v>
       </c>
-      <c r="BX11" s="3">
+      <c r="BX12" s="3">
         <v>42684</v>
       </c>
-      <c r="BY11" s="3">
+      <c r="BY12" s="3">
         <v>42685</v>
       </c>
-      <c r="BZ11" s="3">
+      <c r="BZ12" s="3">
         <v>42686</v>
       </c>
-      <c r="CA11" s="3">
+      <c r="CA12" s="3">
         <v>42687</v>
       </c>
-      <c r="CB11" s="3">
+      <c r="CB12" s="3">
         <v>42688</v>
       </c>
-      <c r="CC11" s="3">
+      <c r="CC12" s="3">
         <v>42689</v>
       </c>
-      <c r="CD11" s="3">
+      <c r="CD12" s="3">
         <v>42690</v>
       </c>
-      <c r="CE11" s="3">
+      <c r="CE12" s="3">
         <v>42691</v>
       </c>
-      <c r="CF11" s="3">
+      <c r="CF12" s="3">
         <v>42692</v>
       </c>
-      <c r="CG11" s="3">
+      <c r="CG12" s="3">
         <v>42693</v>
       </c>
-      <c r="CH11" s="3">
+      <c r="CH12" s="3">
         <v>42694</v>
       </c>
-      <c r="CI11" s="3">
+      <c r="CI12" s="3">
         <v>42695</v>
       </c>
-      <c r="CJ11" s="3">
+      <c r="CJ12" s="3">
         <v>42696</v>
       </c>
-      <c r="CK11" s="3">
+      <c r="CK12" s="3">
         <v>42697</v>
       </c>
-      <c r="CL11" s="3">
+      <c r="CL12" s="3">
         <v>42698</v>
       </c>
-      <c r="CM11" s="3">
+      <c r="CM12" s="3">
         <v>42699</v>
       </c>
-      <c r="CN11" s="3">
+      <c r="CN12" s="3">
         <v>42700</v>
       </c>
-      <c r="CO11" s="3">
+      <c r="CO12" s="3">
         <v>42701</v>
       </c>
-      <c r="CP11" s="3">
+      <c r="CP12" s="3">
         <v>42702</v>
       </c>
-      <c r="CQ11" s="3">
+      <c r="CQ12" s="3">
         <v>42703</v>
       </c>
-      <c r="CR11" s="3">
+      <c r="CR12" s="3">
         <v>42704</v>
       </c>
-      <c r="CS11" s="3">
+      <c r="CS12" s="3">
         <v>42705</v>
       </c>
-      <c r="CT11" s="3">
+      <c r="CT12" s="3">
         <v>42706</v>
       </c>
-      <c r="CU11" s="3">
+      <c r="CU12" s="3">
         <v>42707</v>
       </c>
-      <c r="CV11" s="3">
+      <c r="CV12" s="3">
         <v>42708</v>
       </c>
-      <c r="CW11" s="3">
+      <c r="CW12" s="3">
         <v>42709</v>
       </c>
-      <c r="CX11" s="3">
+      <c r="CX12" s="3">
         <v>42710</v>
       </c>
-      <c r="CY11" s="3">
+      <c r="CY12" s="3">
         <v>42711</v>
       </c>
-      <c r="CZ11" s="3">
+      <c r="CZ12" s="3">
         <v>42712</v>
       </c>
-      <c r="DA11" s="3">
+      <c r="DA12" s="3">
         <v>42713</v>
       </c>
-      <c r="DB11" s="3">
+      <c r="DB12" s="3">
         <v>42714</v>
       </c>
-      <c r="DC11" s="3">
+      <c r="DC12" s="3">
         <v>42715</v>
       </c>
-      <c r="DD11" s="3">
+      <c r="DD12" s="3">
         <v>42716</v>
       </c>
-      <c r="DE11" s="3">
+      <c r="DE12" s="3">
         <v>42717</v>
       </c>
-      <c r="DF11" s="3">
+      <c r="DF12" s="3">
         <v>42718</v>
       </c>
-      <c r="DG11" s="3">
+      <c r="DG12" s="3">
         <v>42719</v>
       </c>
-      <c r="DH11" s="3">
+      <c r="DH12" s="3">
         <v>42720</v>
       </c>
-      <c r="DI11" s="3">
+      <c r="DI12" s="3">
         <v>42721</v>
       </c>
-      <c r="DJ11" s="3">
+      <c r="DJ12" s="3">
         <v>42722</v>
       </c>
-      <c r="DK11" s="3">
+      <c r="DK12" s="3">
         <v>42723</v>
       </c>
-      <c r="DL11" s="3">
+      <c r="DL12" s="3">
         <v>42724</v>
       </c>
-      <c r="DM11" s="3">
+      <c r="DM12" s="3">
         <v>42725</v>
       </c>
-      <c r="DN11" s="3">
+      <c r="DN12" s="3">
         <v>42726</v>
       </c>
-      <c r="DO11" s="3">
+      <c r="DO12" s="3">
         <v>42727</v>
       </c>
-      <c r="DP11" s="3">
+      <c r="DP12" s="3">
         <v>42728</v>
       </c>
-      <c r="DQ11" s="3">
+      <c r="DQ12" s="3">
         <v>42729</v>
       </c>
-      <c r="DR11" s="3">
+      <c r="DR12" s="3">
         <v>42730</v>
       </c>
-      <c r="DS11" s="3">
+      <c r="DS12" s="3">
         <v>42731</v>
       </c>
-      <c r="DT11" s="3">
+      <c r="DT12" s="3">
         <v>42732</v>
       </c>
-      <c r="DU11" s="3">
+      <c r="DU12" s="3">
         <v>42733</v>
       </c>
-      <c r="DV11" s="3">
+      <c r="DV12" s="3">
         <v>42734</v>
       </c>
-      <c r="DW11" s="3">
+      <c r="DW12" s="3">
         <v>42735</v>
       </c>
-      <c r="DX11" s="3">
+      <c r="DX12" s="3">
         <v>42736</v>
       </c>
-      <c r="DY11" s="3">
+      <c r="DY12" s="3">
         <v>42737</v>
       </c>
-      <c r="DZ11" s="3">
+      <c r="DZ12" s="3">
         <v>42738</v>
       </c>
-      <c r="EA11" s="3">
+      <c r="EA12" s="3">
         <v>42739</v>
       </c>
-      <c r="EB11" s="3">
+      <c r="EB12" s="3">
         <v>42740</v>
       </c>
-      <c r="EC11" s="3">
+      <c r="EC12" s="3">
         <v>42741</v>
       </c>
-      <c r="ED11" s="3">
+      <c r="ED12" s="3">
         <v>42742</v>
       </c>
-      <c r="EE11" s="3">
+      <c r="EE12" s="3">
         <v>42743</v>
       </c>
-      <c r="EF11" s="3">
+      <c r="EF12" s="3">
         <v>42744</v>
       </c>
-      <c r="EG11" s="3">
+      <c r="EG12" s="3">
         <v>42745</v>
       </c>
-      <c r="EH11" s="3">
+      <c r="EH12" s="3">
         <v>42746</v>
       </c>
-      <c r="EI11" s="3">
+      <c r="EI12" s="3">
         <v>42747</v>
       </c>
-      <c r="EJ11" s="3">
+      <c r="EJ12" s="3">
         <v>42748</v>
       </c>
-      <c r="EK11" s="3">
+      <c r="EK12" s="3">
         <v>42749</v>
       </c>
-      <c r="EL11" s="3">
+      <c r="EL12" s="3">
         <v>42750</v>
       </c>
-      <c r="EM11" s="3">
+      <c r="EM12" s="3">
         <v>42751</v>
       </c>
-      <c r="EN11" s="3">
+      <c r="EN12" s="3">
         <v>42752</v>
       </c>
-      <c r="EO11" s="3">
+      <c r="EO12" s="3">
         <v>42753</v>
       </c>
-      <c r="EP11" s="3">
+      <c r="EP12" s="3">
         <v>42754</v>
       </c>
-      <c r="EQ11" s="3">
+      <c r="EQ12" s="3">
         <v>42755</v>
       </c>
-      <c r="ER11" s="3">
+      <c r="ER12" s="3">
         <v>42756</v>
       </c>
-      <c r="ES11" s="3">
+      <c r="ES12" s="3">
         <v>42757</v>
       </c>
-      <c r="ET11" s="3">
+      <c r="ET12" s="3">
         <v>42392</v>
       </c>
-      <c r="EU11" s="3">
+      <c r="EU12" s="3">
         <v>42393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:151" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>105</v>
-      </c>
-      <c r="G12" t="s">
-        <v>481</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="V12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BM12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BS12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BT12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BZ12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CA12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CG12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CH12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>523</v>
-      </c>
-      <c r="CN12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CO12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CV12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DB12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DC12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DI12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DJ12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DP12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DQ12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DR12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DS12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DT12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DU12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DV12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DW12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DX12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DY12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DZ12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EA12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EB12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EC12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="ED12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EE12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EK12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EL12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="ER12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="ES12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EU12" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -3862,17 +3681,192 @@
       <c r="G13" t="s">
         <v>481</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="BT13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="CJ13" t="s">
         <v>523</v>
       </c>
+      <c r="CN13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DB13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DI13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DJ13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DP13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DQ13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DR13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DS13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DT13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DU13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DV13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DW13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER13" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="ES13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="EU13" t="s">
         <v>523</v>
@@ -3880,16 +3874,16 @@
     </row>
     <row r="14" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>483</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -3900,53 +3894,17 @@
       <c r="G14" t="s">
         <v>481</v>
       </c>
-      <c r="X14" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>448</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>449</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>450</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>451</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>452</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>453</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>454</v>
-      </c>
-      <c r="CI14" t="s">
-        <v>455</v>
+      <c r="V14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="CJ14" t="s">
         <v>523</v>
       </c>
-      <c r="CP14" t="s">
-        <v>456</v>
-      </c>
-      <c r="CW14" t="s">
-        <v>457</v>
-      </c>
-      <c r="DD14" t="s">
-        <v>458</v>
-      </c>
-      <c r="DK14" t="s">
-        <v>459</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>460</v>
-      </c>
-      <c r="EM14" t="s">
-        <v>461</v>
+      <c r="ES14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="EU14" t="s">
         <v>523</v>
@@ -3954,16 +3912,16 @@
     </row>
     <row r="15" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="B15" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>482</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -3974,523 +3932,571 @@
       <c r="G15" t="s">
         <v>481</v>
       </c>
-      <c r="J15" t="s">
-        <v>522</v>
-      </c>
-      <c r="K15" t="s">
-        <v>522</v>
-      </c>
-      <c r="L15" t="s">
-        <v>522</v>
-      </c>
-      <c r="M15" t="s">
-        <v>522</v>
-      </c>
-      <c r="N15" t="s">
-        <v>522</v>
-      </c>
-      <c r="O15" t="s">
-        <v>522</v>
-      </c>
-      <c r="P15" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>522</v>
-      </c>
-      <c r="R15" t="s">
-        <v>522</v>
-      </c>
-      <c r="S15" t="s">
-        <v>522</v>
-      </c>
-      <c r="T15" t="s">
-        <v>522</v>
-      </c>
-      <c r="U15" t="s">
-        <v>522</v>
-      </c>
-      <c r="V15" t="s">
-        <v>522</v>
-      </c>
-      <c r="W15" t="s">
-        <v>522</v>
-      </c>
       <c r="X15" t="s">
-        <v>522</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>522</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>522</v>
+        <v>447</v>
       </c>
       <c r="AE15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>522</v>
+        <v>448</v>
       </c>
       <c r="AL15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>522</v>
+        <v>449</v>
       </c>
       <c r="AS15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>522</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>522</v>
+        <v>450</v>
       </c>
       <c r="AZ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>522</v>
+        <v>451</v>
       </c>
       <c r="BN15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>522</v>
+        <v>452</v>
       </c>
       <c r="BU15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>522</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="CB15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CC15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CG15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="CI15" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="CJ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CK15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CP15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CR15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CS15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CT15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CU15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CV15" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="CW15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CX15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CY15" t="s">
-        <v>522</v>
-      </c>
-      <c r="CZ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DA15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DB15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DC15" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="DD15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DE15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DF15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DG15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DH15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DI15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DJ15" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="DK15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DL15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DM15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DN15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DO15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DP15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DQ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DR15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DS15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DT15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DU15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DV15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DW15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DX15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DY15" t="s">
-        <v>522</v>
-      </c>
-      <c r="DZ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EB15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EC15" t="s">
-        <v>522</v>
-      </c>
-      <c r="ED15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>522</v>
+        <v>459</v>
       </c>
       <c r="EF15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EG15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EI15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EJ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EK15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EL15" t="s">
-        <v>522</v>
+        <v>460</v>
       </c>
       <c r="EM15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EN15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EO15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EP15" t="s">
-        <v>522</v>
-      </c>
-      <c r="EQ15" t="s">
-        <v>522</v>
-      </c>
-      <c r="ER15" t="s">
-        <v>522</v>
-      </c>
-      <c r="ES15" t="s">
-        <v>522</v>
-      </c>
-      <c r="ET15" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
       <c r="EU15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:151" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>481</v>
+      </c>
+      <c r="J16" t="s">
+        <v>522</v>
+      </c>
+      <c r="K16" t="s">
+        <v>522</v>
+      </c>
+      <c r="L16" t="s">
+        <v>522</v>
+      </c>
+      <c r="M16" t="s">
+        <v>522</v>
+      </c>
+      <c r="N16" t="s">
+        <v>522</v>
+      </c>
+      <c r="O16" t="s">
+        <v>522</v>
+      </c>
+      <c r="P16" t="s">
+        <v>522</v>
+      </c>
       <c r="Q16" t="s">
+        <v>522</v>
+      </c>
+      <c r="R16" t="s">
+        <v>522</v>
+      </c>
+      <c r="S16" t="s">
+        <v>522</v>
+      </c>
+      <c r="T16" t="s">
+        <v>522</v>
+      </c>
+      <c r="U16" t="s">
+        <v>522</v>
+      </c>
+      <c r="V16" t="s">
+        <v>522</v>
+      </c>
+      <c r="W16" t="s">
+        <v>522</v>
+      </c>
+      <c r="X16" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>522</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>522</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DJ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DK16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DL16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DO16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>522</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>522</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EM16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EN16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EO16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>522</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>522</v>
+      </c>
+      <c r="ES16" t="s">
+        <v>522</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>522</v>
+      </c>
+      <c r="EU16" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>669</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>671</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="Q18" t="s">
         <v>5</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R18" t="s">
         <v>1</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y18" t="s">
         <v>1</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AE18" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q19" t="s">
         <v>1</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y19" t="s">
         <v>2</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE19" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>105</v>
-      </c>
-      <c r="G18" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <v>105</v>
-      </c>
-      <c r="G19" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>490</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>13</v>
@@ -4499,6 +4505,55 @@
         <v>105</v>
       </c>
       <c r="G20" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
         <v>481</v>
       </c>
     </row>
@@ -4512,7 +4567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E361" sqref="E361"/>
     </sheetView>
   </sheetViews>
@@ -10492,8 +10547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11131,162 +11186,57 @@
     </row>
     <row r="27" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>549</v>
+        <v>669</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>549</v>
-      </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>603</v>
-      </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>391</v>
-      </c>
       <c r="M27" s="23"/>
       <c r="N27" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>406</v>
+        <v>670</v>
       </c>
       <c r="P27" s="14"/>
-      <c r="Q27" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="R27" s="20" t="s">
-        <v>503</v>
-      </c>
       <c r="S27" s="14"/>
-      <c r="T27" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="U27" s="20" t="s">
-        <v>390</v>
-      </c>
       <c r="V27" s="14"/>
-      <c r="W27" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="X27" s="20" t="s">
-        <v>553</v>
-      </c>
       <c r="Y27" s="14"/>
     </row>
     <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>518</v>
-      </c>
       <c r="D28" s="14"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>625</v>
-      </c>
       <c r="J28" s="14"/>
-      <c r="K28" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>602</v>
-      </c>
       <c r="M28" s="23"/>
       <c r="N28" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>615</v>
+        <v>670</v>
       </c>
       <c r="P28" s="14"/>
-      <c r="Q28" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="R28" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="S28" s="14"/>
-      <c r="T28" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="U28" s="20" t="s">
-        <v>626</v>
-      </c>
       <c r="V28" s="14"/>
-      <c r="W28" s="20" t="s">
-        <v>551</v>
-      </c>
       <c r="Y28" s="14"/>
     </row>
     <row r="29" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>395</v>
-      </c>
       <c r="D29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="20" t="s">
-        <v>635</v>
-      </c>
       <c r="J29" s="14"/>
-      <c r="K29" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>249</v>
-      </c>
       <c r="M29" s="23"/>
+      <c r="N29" s="20" t="s">
+        <v>670</v>
+      </c>
       <c r="P29" s="14"/>
-      <c r="R29" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="20" t="s">
-        <v>552</v>
-      </c>
       <c r="Y29" s="14"/>
     </row>
     <row r="30" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>492</v>
-      </c>
       <c r="D30" s="14"/>
       <c r="G30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="L30" s="20" t="s">
-        <v>252</v>
-      </c>
       <c r="M30" s="23"/>
+      <c r="N30" s="20" t="s">
+        <v>670</v>
+      </c>
       <c r="P30" s="14"/>
       <c r="S30" s="14"/>
       <c r="V30" s="14"/>
@@ -11297,10 +11247,10 @@
       <c r="D31" s="14"/>
       <c r="G31" s="14"/>
       <c r="J31" s="14"/>
-      <c r="L31" s="20" t="s">
-        <v>262</v>
-      </c>
       <c r="M31" s="23"/>
+      <c r="N31" s="20" t="s">
+        <v>670</v>
+      </c>
       <c r="P31" s="14"/>
       <c r="S31" s="14"/>
       <c r="V31" s="14"/>
@@ -11311,10 +11261,10 @@
       <c r="D32" s="14"/>
       <c r="G32" s="14"/>
       <c r="J32" s="14"/>
-      <c r="L32" s="20" t="s">
-        <v>250</v>
-      </c>
       <c r="M32" s="23"/>
+      <c r="N32" s="20" t="s">
+        <v>670</v>
+      </c>
       <c r="P32" s="14"/>
       <c r="S32" s="14"/>
       <c r="V32" s="14"/>
@@ -11322,61 +11272,31 @@
     </row>
     <row r="33" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>260</v>
-      </c>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
       <c r="M33" s="23"/>
-      <c r="N33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="N33" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="O33" s="20"/>
       <c r="P33" s="14"/>
-      <c r="Q33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
       <c r="S33" s="14"/>
-      <c r="T33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="U33" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="X33" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
       <c r="Y33" s="14"/>
     </row>
     <row r="34" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -11384,374 +11304,387 @@
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>221</v>
+        <v>402</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>549</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>442</v>
+      <c r="E35" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>549</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>327</v>
+      <c r="H35" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>603</v>
       </c>
       <c r="J35" s="14"/>
-      <c r="K35" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>65</v>
+      <c r="K35" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>181</v>
+      <c r="N35" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="P35" s="14"/>
-      <c r="Q35" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R35" s="8" t="s">
-        <v>285</v>
+      <c r="Q35" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="R35" s="20" t="s">
+        <v>503</v>
       </c>
       <c r="S35" s="14"/>
-      <c r="T35" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="U35" s="8" t="s">
-        <v>328</v>
+      <c r="T35" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>390</v>
       </c>
       <c r="V35" s="14"/>
+      <c r="W35" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="X35" s="20" t="s">
+        <v>553</v>
+      </c>
       <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>223</v>
+      <c r="B36" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>518</v>
       </c>
       <c r="D36" s="14"/>
-      <c r="E36" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>491</v>
-      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>335</v>
+      <c r="H36" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>625</v>
       </c>
       <c r="J36" s="14"/>
-      <c r="K36" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>63</v>
+      <c r="K36" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>602</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>322</v>
+      <c r="N36" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>615</v>
       </c>
       <c r="P36" s="14"/>
-      <c r="Q36" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>287</v>
+      <c r="Q36" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="R36" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="S36" s="14"/>
-      <c r="U36" s="8" t="s">
-        <v>329</v>
+      <c r="T36" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="U36" s="20" t="s">
+        <v>626</v>
       </c>
       <c r="V36" s="14"/>
+      <c r="W36" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="X36" s="20"/>
       <c r="Y36" s="14"/>
     </row>
     <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>231</v>
+      <c r="B37" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>395</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>565</v>
-      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="H37" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="I37" s="20"/>
       <c r="J37" s="14"/>
-      <c r="K37" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>69</v>
+      <c r="K37" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>640</v>
-      </c>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="R37" s="8" t="s">
-        <v>289</v>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="S37" s="14"/>
-      <c r="U37" s="8" t="s">
-        <v>331</v>
-      </c>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
       <c r="V37" s="14"/>
+      <c r="W37" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="X37" s="20"/>
       <c r="Y37" s="14"/>
     </row>
     <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>228</v>
+      <c r="B38" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>492</v>
       </c>
       <c r="D38" s="14"/>
-      <c r="E38" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>349</v>
-      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="14"/>
-      <c r="L38" s="8" t="s">
-        <v>66</v>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>321</v>
-      </c>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="14"/>
-      <c r="Q38" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>254</v>
-      </c>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
       <c r="S38" s="14"/>
-      <c r="U38" s="8" t="s">
-        <v>336</v>
-      </c>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="14"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
       <c r="Y38" s="14"/>
     </row>
     <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="14"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>495</v>
-      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
       <c r="J39" s="14"/>
-      <c r="L39" s="8" t="s">
-        <v>62</v>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>323</v>
-      </c>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
       <c r="P39" s="14"/>
-      <c r="Q39" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>255</v>
-      </c>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
       <c r="S39" s="14"/>
-      <c r="U39" s="8" t="s">
-        <v>337</v>
-      </c>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
       <c r="V39" s="14"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
       <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>442</v>
-      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="14"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>561</v>
-      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="14"/>
-      <c r="L40" s="8" t="s">
-        <v>557</v>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="M40" s="23"/>
-      <c r="N40" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
       <c r="P40" s="14"/>
-      <c r="Q40" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>256</v>
-      </c>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
       <c r="S40" s="14"/>
-      <c r="U40" s="8" t="s">
-        <v>342</v>
-      </c>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
       <c r="V40" s="14"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
       <c r="Y40" s="14"/>
     </row>
     <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>491</v>
+        <v>208</v>
       </c>
       <c r="D41" s="14"/>
+      <c r="E41" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="G41" s="14"/>
       <c r="H41" s="8" t="s">
-        <v>568</v>
+        <v>208</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>497</v>
+        <v>208</v>
       </c>
       <c r="J41" s="14"/>
+      <c r="K41" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>260</v>
+      </c>
       <c r="M41" s="23"/>
       <c r="N41" s="8" t="s">
-        <v>320</v>
+        <v>208</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="S41" s="14"/>
+      <c r="T41" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="U41" s="8" t="s">
-        <v>343</v>
+        <v>208</v>
       </c>
       <c r="V41" s="14"/>
+      <c r="W41" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="Y41" s="14"/>
     </row>
     <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>444</v>
-      </c>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>368</v>
-      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
       <c r="M42" s="23"/>
-      <c r="N42" s="8" t="s">
-        <v>318</v>
-      </c>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
       <c r="P42" s="14"/>
-      <c r="Q42" s="8" t="s">
-        <v>226</v>
-      </c>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
       <c r="S42" s="14"/>
-      <c r="U42" s="8" t="s">
-        <v>348</v>
-      </c>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
       <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
       <c r="Y42" s="14"/>
     </row>
     <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="B43" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="D43" s="22"/>
+        <v>536</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>442</v>
+      </c>
       <c r="G43" s="14"/>
       <c r="H43" s="8" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="J43" s="14"/>
+      <c r="K43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="M43" s="23"/>
       <c r="N43" s="8" t="s">
-        <v>319</v>
+        <v>562</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="P43" s="14"/>
+      <c r="Q43" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="S43" s="14"/>
+      <c r="T43" s="8" t="s">
+        <v>599</v>
+      </c>
       <c r="U43" s="8" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="V43" s="14"/>
       <c r="Y43" s="14"/>
@@ -11759,78 +11692,147 @@
     <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
+        <v>537</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>491</v>
+      </c>
       <c r="G44" s="14"/>
+      <c r="H44" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="I44" s="8" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="J44" s="14"/>
+      <c r="K44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="M44" s="23"/>
       <c r="N44" s="8" t="s">
-        <v>638</v>
+        <v>563</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="P44" s="14"/>
+      <c r="Q44" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="S44" s="14"/>
+      <c r="T44" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="U44" s="8" t="s">
+        <v>329</v>
+      </c>
       <c r="V44" s="14"/>
       <c r="Y44" s="14"/>
     </row>
     <row r="45" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="M45" s="23"/>
+      <c r="N45" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="U45" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
     </row>
     <row r="46" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
-        <v>487</v>
+        <v>201</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="8" t="s">
-        <v>359</v>
+        <v>137</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="8" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="J46" s="14"/>
-      <c r="K46" s="8" t="s">
-        <v>554</v>
-      </c>
       <c r="L46" s="8" t="s">
-        <v>351</v>
+        <v>66</v>
       </c>
       <c r="M46" s="23"/>
       <c r="N46" s="8" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="R46" s="8" t="s">
-        <v>558</v>
+        <v>202</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="V46" s="14"/>
       <c r="Y46" s="14"/>
@@ -11838,219 +11840,196 @@
     <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="D47" s="14"/>
-      <c r="E47" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="G47" s="14"/>
       <c r="H47" s="8" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>245</v>
+        <v>495</v>
       </c>
       <c r="J47" s="14"/>
-      <c r="K47" s="8" t="s">
-        <v>555</v>
+      <c r="L47" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="M47" s="23"/>
       <c r="N47" s="8" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R47" s="8" t="s">
-        <v>559</v>
+        <v>226</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="V47" s="14"/>
       <c r="Y47" s="14"/>
     </row>
     <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
+      <c r="B48" s="8" t="s">
+        <v>540</v>
+      </c>
       <c r="C48" s="8" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="D48" s="14"/>
-      <c r="E48" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="G48" s="14"/>
       <c r="H48" s="8" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>244</v>
+        <v>561</v>
       </c>
       <c r="J48" s="14"/>
-      <c r="K48" s="8" t="s">
-        <v>556</v>
+      <c r="L48" s="8" t="s">
+        <v>557</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R48" s="8" t="s">
-        <v>560</v>
+        <v>322</v>
       </c>
       <c r="S48" s="14"/>
       <c r="T48" s="8" t="s">
-        <v>601</v>
+        <v>77</v>
+      </c>
+      <c r="U48" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
     </row>
     <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
+      <c r="B49" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="C49" s="8" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D49" s="14"/>
-      <c r="E49" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>488</v>
-      </c>
       <c r="G49" s="14"/>
       <c r="H49" s="8" t="s">
-        <v>361</v>
+        <v>568</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="J49" s="14"/>
-      <c r="K49" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="M49" s="23"/>
       <c r="N49" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R49" s="8" t="s">
-        <v>167</v>
+        <v>640</v>
       </c>
       <c r="S49" s="14"/>
+      <c r="T49" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="U49" s="8" t="s">
+        <v>343</v>
+      </c>
       <c r="V49" s="14"/>
       <c r="Y49" s="14"/>
     </row>
     <row r="50" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
+      <c r="B50" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>444</v>
+      </c>
       <c r="D50" s="14"/>
-      <c r="E50" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>484</v>
-      </c>
       <c r="G50" s="14"/>
       <c r="H50" s="8" t="s">
-        <v>548</v>
+        <v>136</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="J50" s="14"/>
-      <c r="K50" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="M50" s="23"/>
       <c r="N50" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="R50" s="8" t="s">
-        <v>166</v>
+        <v>321</v>
       </c>
       <c r="S50" s="14"/>
+      <c r="U50" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="V50" s="14"/>
       <c r="Y50" s="14"/>
     </row>
     <row r="51" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>486</v>
-      </c>
+      <c r="B51" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="D51" s="22"/>
       <c r="G51" s="14"/>
       <c r="H51" s="8" t="s">
-        <v>148</v>
+        <v>353</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="J51" s="14"/>
       <c r="M51" s="23"/>
       <c r="N51" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="P51" s="14"/>
       <c r="Q51" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R51" s="8" t="s">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="S51" s="14"/>
+      <c r="U51" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="V51" s="14"/>
       <c r="Y51" s="14"/>
     </row>
     <row r="52" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>171</v>
-      </c>
+      <c r="B52" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="8" t="s">
-        <v>467</v>
+      <c r="I52" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="J52" s="14"/>
       <c r="M52" s="23"/>
-      <c r="O52" s="8" t="s">
-        <v>236</v>
+      <c r="N52" s="8" t="s">
+        <v>638</v>
       </c>
       <c r="P52" s="14"/>
       <c r="S52" s="14"/>
@@ -12058,206 +12037,247 @@
       <c r="Y52" s="14"/>
     </row>
     <row r="53" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>546</v>
-      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="8" t="s">
-        <v>544</v>
-      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
       <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
       <c r="M53" s="23"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
       <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
       <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
       <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
     </row>
     <row r="54" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="D54" s="14"/>
       <c r="E54" s="8" t="s">
-        <v>150</v>
+        <v>359</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="8" t="s">
-        <v>170</v>
+        <v>240</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="J54" s="14"/>
+      <c r="K54" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>351</v>
+      </c>
       <c r="M54" s="23"/>
+      <c r="N54" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="P54" s="14"/>
+      <c r="Q54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="S54" s="14"/>
+      <c r="T54" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="U54" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="V54" s="14"/>
       <c r="Y54" s="14"/>
     </row>
     <row r="55" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="L55" s="8"/>
       <c r="M55" s="23"/>
+      <c r="N55" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="T55" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="U55" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
     </row>
     <row r="56" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="A56" s="7"/>
       <c r="C56" s="8" t="s">
-        <v>131</v>
+        <v>360</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="8" t="s">
-        <v>138</v>
+        <v>360</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="8" t="s">
-        <v>95</v>
+        <v>242</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="J56" s="14"/>
       <c r="K56" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>213</v>
+        <v>556</v>
       </c>
       <c r="M56" s="23"/>
       <c r="N56" s="8" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="P56" s="14"/>
       <c r="Q56" s="8" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>109</v>
+        <v>560</v>
       </c>
       <c r="S56" s="14"/>
       <c r="T56" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="U56" s="8" t="s">
-        <v>194</v>
+        <v>601</v>
       </c>
       <c r="V56" s="14"/>
       <c r="Y56" s="14"/>
     </row>
     <row r="57" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="C57" s="8" t="s">
-        <v>133</v>
+        <v>485</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="8" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>96</v>
+        <v>488</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>195</v>
+        <v>361</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="M57" s="23"/>
       <c r="N57" s="8" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="P57" s="14"/>
       <c r="Q57" s="8" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="S57" s="14"/>
-      <c r="T57" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="U57" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="V57" s="14"/>
       <c r="Y57" s="14"/>
     </row>
     <row r="58" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>146</v>
+        <v>484</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>198</v>
+        <v>548</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>215</v>
+        <v>304</v>
       </c>
       <c r="M58" s="23"/>
       <c r="N58" s="8" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="8" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="S58" s="14"/>
-      <c r="T58" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="U58" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="V58" s="14"/>
       <c r="Y58" s="14"/>
     </row>
@@ -12265,37 +12285,31 @@
       <c r="A59" s="7"/>
       <c r="D59" s="14"/>
       <c r="E59" s="8" t="s">
-        <v>135</v>
+        <v>489</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>268</v>
+        <v>486</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="8" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="J59" s="14"/>
-      <c r="L59" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="M59" s="23"/>
       <c r="N59" s="8" t="s">
-        <v>123</v>
+        <v>235</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="8" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="S59" s="14"/>
-      <c r="T59" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="U59" s="8" t="s">
-        <v>600</v>
-      </c>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>
     </row>
@@ -12303,184 +12317,466 @@
       <c r="A60" s="7"/>
       <c r="D60" s="14"/>
       <c r="E60" s="8" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="8" t="s">
-        <v>189</v>
+        <v>467</v>
       </c>
       <c r="J60" s="14"/>
-      <c r="L60" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="M60" s="23"/>
-      <c r="N60" s="8" t="s">
-        <v>121</v>
+      <c r="O60" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="P60" s="14"/>
-      <c r="Q60" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="R60" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="S60" s="14"/>
-      <c r="T60" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="V60" s="14"/>
       <c r="Y60" s="14"/>
     </row>
     <row r="61" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="D61" s="14"/>
+      <c r="E61" s="8" t="s">
+        <v>546</v>
+      </c>
       <c r="F61" s="8" t="s">
-        <v>270</v>
+        <v>546</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="8" t="s">
-        <v>190</v>
+        <v>544</v>
       </c>
       <c r="J61" s="14"/>
-      <c r="L61" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="M61" s="23"/>
-      <c r="N61" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="P61" s="14"/>
-      <c r="Q61" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="R61" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="S61" s="14"/>
-      <c r="T61" s="8" t="s">
-        <v>570</v>
-      </c>
       <c r="V61" s="14"/>
       <c r="Y61" s="14"/>
     </row>
     <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="D62" s="14"/>
+      <c r="E62" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="F62" s="8" t="s">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="G62" s="14"/>
+      <c r="H62" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="J62" s="14"/>
       <c r="M62" s="23"/>
-      <c r="N62" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="P62" s="14"/>
-      <c r="Q62" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R62" s="8" t="s">
-        <v>291</v>
-      </c>
       <c r="S62" s="14"/>
-      <c r="T62" s="8" t="s">
-        <v>291</v>
-      </c>
       <c r="V62" s="14"/>
       <c r="Y62" s="14"/>
     </row>
     <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="F63" s="8" t="s">
-        <v>135</v>
-      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
       <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
       <c r="M63" s="23"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
       <c r="P63" s="14"/>
-      <c r="Q63" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="R63" s="8" t="s">
-        <v>292</v>
-      </c>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
       <c r="S63" s="14"/>
-      <c r="T63" s="8" t="s">
-        <v>292</v>
-      </c>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
       <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
     </row>
     <row r="64" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="D64" s="14"/>
+      <c r="E64" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="F64" s="8" t="s">
-        <v>444</v>
+        <v>95</v>
       </c>
       <c r="G64" s="14"/>
+      <c r="H64" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="J64" s="14"/>
+      <c r="K64" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="M64" s="23"/>
+      <c r="N64" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="P64" s="14"/>
+      <c r="Q64" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="R64" s="8" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="S64" s="14"/>
       <c r="T64" s="8" t="s">
-        <v>293</v>
+        <v>127</v>
+      </c>
+      <c r="U64" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="V64" s="14"/>
       <c r="Y64" s="14"/>
     </row>
-    <row r="65" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="M65" s="23"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q65" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T65" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="U65" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q66" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R66" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T66" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U66" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="E67" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c r="Q67" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="U67" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="E68" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c r="Q68" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="U68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c r="Q69" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R69" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="T69" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="U69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="N70" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c r="Q70" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R70" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="U70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="Q71" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="R71" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T71" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="U71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="T72" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="U72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="14"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="672">
   <si>
     <t>Arne</t>
   </si>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2308,6 +2308,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2343,6 +2360,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -4567,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E361" sqref="E361"/>
+    <sheetView topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10265,6 +10299,9 @@
       <c r="G350" t="s">
         <v>468</v>
       </c>
+      <c r="H350" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
@@ -10277,6 +10314,9 @@
       </c>
       <c r="G351" t="s">
         <v>468</v>
+      </c>
+      <c r="H351" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -10547,8 +10587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10893,6 +10933,9 @@
       <c r="N11" s="20" t="s">
         <v>651</v>
       </c>
+      <c r="O11" s="20" t="s">
+        <v>585</v>
+      </c>
       <c r="P11" s="14"/>
       <c r="S11" s="14"/>
       <c r="V11" s="14"/>
@@ -11194,6 +11237,9 @@
       <c r="M27" s="23"/>
       <c r="N27" s="20" t="s">
         <v>670</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>583</v>
       </c>
       <c r="P27" s="14"/>
       <c r="S27" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="673">
   <si>
     <t>Arne</t>
   </si>
@@ -2042,6 +2042,9 @@
   </si>
   <si>
     <t>Developer</t>
+  </si>
+  <si>
+    <t>Alieke &amp; Sascha</t>
   </si>
 </sst>
 </file>
@@ -4601,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D351" sqref="D351"/>
+    <sheetView topLeftCell="A345" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D367" sqref="D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10268,7 +10271,7 @@
         <v>468</v>
       </c>
       <c r="H348" t="s">
-        <v>1</v>
+        <v>664</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -10332,7 +10335,7 @@
         <v>468</v>
       </c>
       <c r="H352" t="s">
-        <v>1</v>
+        <v>664</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -10345,7 +10348,7 @@
         <v>655</v>
       </c>
       <c r="H353" t="s">
-        <v>1</v>
+        <v>672</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
@@ -10525,7 +10528,7 @@
         <v>662</v>
       </c>
       <c r="H367" t="s">
-        <v>1</v>
+        <v>664</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -10587,8 +10590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11486,7 +11489,9 @@
         <v>249</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="20"/>
+      <c r="N37" s="20" t="s">
+        <v>665</v>
+      </c>
       <c r="O37" s="20"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="20"/>
@@ -12620,7 +12625,9 @@
       <c r="N67" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="O67" s="8"/>
+      <c r="O67" s="8" t="s">
+        <v>666</v>
+      </c>
       <c r="Q67" s="8" t="s">
         <v>99</v>
       </c>
@@ -12657,7 +12664,9 @@
       <c r="N68" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O68" s="8"/>
+      <c r="O68" s="8" t="s">
+        <v>307</v>
+      </c>
       <c r="Q68" s="8" t="s">
         <v>104</v>
       </c>
@@ -12690,7 +12699,9 @@
       <c r="N69" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="O69" s="8"/>
+      <c r="O69" s="8" t="s">
+        <v>587</v>
+      </c>
       <c r="Q69" s="8" t="s">
         <v>102</v>
       </c>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="684">
   <si>
     <t>Arne</t>
   </si>
@@ -2045,12 +2045,45 @@
   </si>
   <si>
     <t>Alieke &amp; Sascha</t>
+  </si>
+  <si>
+    <t>Kappa Kart</t>
+  </si>
+  <si>
+    <t>8Script</t>
+  </si>
+  <si>
+    <t>7Sound</t>
+  </si>
+  <si>
+    <t>2D_KAPPAK</t>
+  </si>
+  <si>
+    <t>3D_KAPPAK</t>
+  </si>
+  <si>
+    <t>4U_KAPPAK</t>
+  </si>
+  <si>
+    <t>5R_KAPPAK</t>
+  </si>
+  <si>
+    <t>6A_KAPPAK</t>
+  </si>
+  <si>
+    <t>7S_KAPPAK</t>
+  </si>
+  <si>
+    <t>8S_KAPPAK</t>
+  </si>
+  <si>
+    <t>9P_KAPPAK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2091,7 +2124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2170,6 +2203,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2184,7 +2223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2211,6 +2250,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2220,6 +2260,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF99"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FF6666FF"/>
     </mruColors>
@@ -2311,23 +2352,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2363,23 +2387,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -4602,10 +4609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J372"/>
+  <dimension ref="A1:J413"/>
   <sheetViews>
-    <sheetView topLeftCell="A345" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D367" sqref="D367"/>
+    <sheetView tabSelected="1" topLeftCell="B367" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9051,6 +9058,9 @@
       <c r="C256" t="s">
         <v>644</v>
       </c>
+      <c r="G256" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
@@ -9058,6 +9068,9 @@
       <c r="C257" t="s">
         <v>645</v>
       </c>
+      <c r="G257" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
@@ -9065,6 +9078,9 @@
       <c r="C258" t="s">
         <v>646</v>
       </c>
+      <c r="G258" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
@@ -9520,6 +9536,9 @@
       <c r="C295" t="s">
         <v>647</v>
       </c>
+      <c r="G295" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
@@ -9527,6 +9546,9 @@
       <c r="C296" t="s">
         <v>648</v>
       </c>
+      <c r="G296" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
@@ -9534,6 +9556,9 @@
       <c r="C297" t="s">
         <v>649</v>
       </c>
+      <c r="G297" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
@@ -10347,6 +10372,9 @@
       <c r="D353" t="s">
         <v>655</v>
       </c>
+      <c r="G353" t="s">
+        <v>468</v>
+      </c>
       <c r="H353" t="s">
         <v>672</v>
       </c>
@@ -10527,6 +10555,9 @@
       <c r="D367" t="s">
         <v>662</v>
       </c>
+      <c r="G367" t="s">
+        <v>468</v>
+      </c>
       <c r="H367" t="s">
         <v>664</v>
       </c>
@@ -10579,6 +10610,211 @@
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
+    </row>
+    <row r="373" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="26" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" s="14"/>
+      <c r="B374" t="s">
+        <v>25</v>
+      </c>
+      <c r="C374" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375" s="14"/>
+      <c r="B375" s="14"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376" s="14"/>
+      <c r="B376" s="14"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377" s="14"/>
+      <c r="B377" s="14"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378" s="14"/>
+      <c r="B378" s="14"/>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379" s="14"/>
+      <c r="B379" t="s">
+        <v>26</v>
+      </c>
+      <c r="C379" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" s="14"/>
+      <c r="B380" s="14"/>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" s="14"/>
+      <c r="B381" s="14"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" s="14"/>
+      <c r="B382" s="14"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" s="14"/>
+      <c r="B383" s="14"/>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" s="14"/>
+      <c r="B384" t="s">
+        <v>27</v>
+      </c>
+      <c r="C384" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="14"/>
+      <c r="B385" s="14"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="14"/>
+      <c r="B386" s="14"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="14"/>
+      <c r="B387" s="14"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="14"/>
+      <c r="B388" s="14"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="14"/>
+      <c r="B389" t="s">
+        <v>32</v>
+      </c>
+      <c r="C389" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="14"/>
+      <c r="B390" s="14"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="14"/>
+      <c r="B391" s="14"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="14"/>
+      <c r="B392" s="14"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="14"/>
+      <c r="B393" s="14"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="14"/>
+      <c r="B394" t="s">
+        <v>28</v>
+      </c>
+      <c r="C394" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="14"/>
+      <c r="B395" s="14"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="14"/>
+      <c r="B396" s="14"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="14"/>
+      <c r="B397" s="14"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="14"/>
+      <c r="B398" s="14"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="14"/>
+      <c r="B399" t="s">
+        <v>675</v>
+      </c>
+      <c r="C399" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="14"/>
+      <c r="B400" s="14"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="14"/>
+      <c r="B401" s="14"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="14"/>
+      <c r="B402" s="14"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="14"/>
+      <c r="B403" s="14"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="14"/>
+      <c r="B404" t="s">
+        <v>674</v>
+      </c>
+      <c r="C404" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="14"/>
+      <c r="B405" s="14"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="14"/>
+      <c r="B406" s="14"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="14"/>
+      <c r="B407" s="14"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="14"/>
+      <c r="B408" s="14"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="14"/>
+      <c r="B409" t="s">
+        <v>31</v>
+      </c>
+      <c r="C409" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="14"/>
+      <c r="B410" s="14"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="14"/>
+      <c r="B411" s="14"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="14"/>
+      <c r="B412" s="14"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="14"/>
+      <c r="B413" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10590,7 +10826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="685">
   <si>
     <t>Arne</t>
   </si>
@@ -2078,6 +2078,9 @@
   </si>
   <si>
     <t>9P_KAPPAK</t>
+  </si>
+  <si>
+    <t>Dev Project</t>
   </si>
 </sst>
 </file>
@@ -4611,8 +4614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B367" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C375" sqref="C375"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E355" sqref="E355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10614,6 +10617,9 @@
     <row r="373" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="26" t="s">
         <v>673</v>
+      </c>
+      <c r="C373" s="26" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="689">
   <si>
     <t>Arne</t>
   </si>
@@ -2081,6 +2081,18 @@
   </si>
   <si>
     <t>Dev Project</t>
+  </si>
+  <si>
+    <t>WoodWall</t>
+  </si>
+  <si>
+    <t>3D_ENV_WOODWALL</t>
+  </si>
+  <si>
+    <t>2D_TXT_WOODWALL</t>
+  </si>
+  <si>
+    <t>4U_ENV_WOODWALL</t>
   </si>
 </sst>
 </file>
@@ -4612,10 +4624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J413"/>
+  <dimension ref="A1:J414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E355" sqref="E355"/>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7088,46 +7100,43 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
+      <c r="C134" t="s">
+        <v>685</v>
+      </c>
+      <c r="D134" t="s">
+        <v>686</v>
+      </c>
+      <c r="G134" t="s">
+        <v>462</v>
+      </c>
+      <c r="H134" t="s">
+        <v>402</v>
+      </c>
+      <c r="J134" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
-      <c r="B135" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C135" t="s">
-        <v>43</v>
-      </c>
+      <c r="B135" s="14"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
-      <c r="B136" s="14"/>
+      <c r="B136" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C136" t="s">
-        <v>153</v>
-      </c>
-      <c r="D136" t="s">
-        <v>495</v>
-      </c>
-      <c r="G136" t="s">
-        <v>462</v>
-      </c>
-      <c r="H136" t="s">
-        <v>7</v>
-      </c>
-      <c r="J136" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" t="s">
-        <v>365</v>
+        <v>153</v>
       </c>
       <c r="D137" t="s">
-        <v>368</v>
-      </c>
-      <c r="E137" t="s">
-        <v>366</v>
+        <v>495</v>
       </c>
       <c r="G137" t="s">
         <v>462</v>
@@ -7143,16 +7152,19 @@
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="D138" t="s">
-        <v>159</v>
+        <v>368</v>
+      </c>
+      <c r="E138" t="s">
+        <v>366</v>
       </c>
       <c r="G138" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J138" t="s">
         <v>3</v>
@@ -7162,13 +7174,13 @@
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G139" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H139" t="s">
         <v>6</v>
@@ -7181,13 +7193,13 @@
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D140" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G140" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H140" t="s">
         <v>6</v>
@@ -7200,16 +7212,16 @@
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="D141" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="G141" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J141" t="s">
         <v>3</v>
@@ -7219,16 +7231,16 @@
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="D142" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="G142" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J142" t="s">
         <v>3</v>
@@ -7238,13 +7250,13 @@
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D143" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G143" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H143" t="s">
         <v>5</v>
@@ -7256,43 +7268,43 @@
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
+      <c r="C144" t="s">
+        <v>275</v>
+      </c>
+      <c r="D144" t="s">
+        <v>277</v>
+      </c>
+      <c r="G144" t="s">
+        <v>462</v>
+      </c>
+      <c r="H144" t="s">
+        <v>5</v>
+      </c>
+      <c r="J144" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
-      <c r="B145" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C145" t="s">
-        <v>140</v>
-      </c>
+      <c r="B145" s="14"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
+      <c r="B146" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C146" t="s">
-        <v>128</v>
-      </c>
-      <c r="D146" t="s">
-        <v>133</v>
-      </c>
-      <c r="G146" t="s">
-        <v>462</v>
-      </c>
-      <c r="H146" t="s">
-        <v>6</v>
-      </c>
-      <c r="J146" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D147" t="s">
-        <v>443</v>
+        <v>133</v>
       </c>
       <c r="G147" t="s">
         <v>462</v>
@@ -7308,16 +7320,16 @@
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D148" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G148" t="s">
         <v>462</v>
       </c>
       <c r="H148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J148" t="s">
         <v>3</v>
@@ -7327,16 +7339,16 @@
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="D149" t="s">
-        <v>234</v>
+        <v>442</v>
       </c>
       <c r="G149" t="s">
         <v>462</v>
       </c>
       <c r="H149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J149" t="s">
         <v>3</v>
@@ -7346,10 +7358,10 @@
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" t="s">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="D150" t="s">
-        <v>359</v>
+        <v>234</v>
       </c>
       <c r="G150" t="s">
         <v>462</v>
@@ -7364,57 +7376,57 @@
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
-    </row>
-    <row r="152" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
+      <c r="C151" t="s">
+        <v>357</v>
+      </c>
+      <c r="D151" t="s">
+        <v>359</v>
+      </c>
+      <c r="G151" t="s">
+        <v>462</v>
+      </c>
+      <c r="H151" t="s">
+        <v>5</v>
+      </c>
+      <c r="J151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="B152" s="14"/>
+    </row>
+    <row r="153" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B153" s="8" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
-      <c r="B153" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C153" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
-      <c r="B154" s="14"/>
+      <c r="B154" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C154" t="s">
-        <v>56</v>
-      </c>
-      <c r="D154" t="s">
-        <v>68</v>
-      </c>
-      <c r="G154" t="s">
-        <v>469</v>
-      </c>
-      <c r="H154" t="s">
-        <v>5</v>
-      </c>
-      <c r="J154" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D155" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G155" t="s">
         <v>469</v>
       </c>
       <c r="H155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J155" t="s">
         <v>3</v>
@@ -7424,13 +7436,13 @@
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D156" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G156" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H156" t="s">
         <v>7</v>
@@ -7443,16 +7455,16 @@
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D157" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G157" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J157" t="s">
         <v>3</v>
@@ -7462,16 +7474,16 @@
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D158" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G158" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J158" t="s">
         <v>3</v>
@@ -7481,10 +7493,10 @@
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D159" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G159" t="s">
         <v>469</v>
@@ -7500,10 +7512,10 @@
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D160" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G160" t="s">
         <v>469</v>
@@ -7519,10 +7531,10 @@
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D161" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G161" t="s">
         <v>469</v>
@@ -7538,13 +7550,13 @@
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D162" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G162" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H162" t="s">
         <v>6</v>
@@ -7557,10 +7569,10 @@
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D163" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G163" t="s">
         <v>468</v>
@@ -7576,13 +7588,13 @@
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D164" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G164" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H164" t="s">
         <v>6</v>
@@ -7595,16 +7607,16 @@
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D165" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G165" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J165" t="s">
         <v>3</v>
@@ -7614,10 +7626,10 @@
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D166" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G166" t="s">
         <v>468</v>
@@ -7633,16 +7645,16 @@
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D167" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G167" t="s">
         <v>468</v>
       </c>
       <c r="H167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J167" t="s">
         <v>3</v>
@@ -7652,10 +7664,10 @@
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>597</v>
+        <v>165</v>
       </c>
       <c r="D168" t="s">
-        <v>560</v>
+        <v>168</v>
       </c>
       <c r="G168" t="s">
         <v>468</v>
@@ -7670,43 +7682,43 @@
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
+      <c r="C169" t="s">
+        <v>597</v>
+      </c>
+      <c r="D169" t="s">
+        <v>560</v>
+      </c>
+      <c r="G169" t="s">
+        <v>468</v>
+      </c>
+      <c r="H169" t="s">
+        <v>5</v>
+      </c>
+      <c r="J169" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
-      <c r="B170" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C170" t="s">
-        <v>48</v>
-      </c>
+      <c r="B170" s="14"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
-      <c r="B171" s="14"/>
+      <c r="B171" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C171" t="s">
-        <v>60</v>
-      </c>
-      <c r="D171" t="s">
-        <v>486</v>
-      </c>
-      <c r="G171" t="s">
-        <v>462</v>
-      </c>
-      <c r="H171" t="s">
-        <v>5</v>
-      </c>
-      <c r="J171" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D172" t="s">
-        <v>70</v>
+        <v>486</v>
       </c>
       <c r="G172" t="s">
         <v>462</v>
@@ -7718,14 +7730,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D173" t="s">
-        <v>488</v>
+        <v>70</v>
       </c>
       <c r="G173" t="s">
         <v>462</v>
@@ -7741,13 +7753,13 @@
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D174" t="s">
-        <v>74</v>
+        <v>488</v>
       </c>
       <c r="G174" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H174" t="s">
         <v>5</v>
@@ -7760,13 +7772,13 @@
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D175" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G175" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H175" t="s">
         <v>5</v>
@@ -7779,10 +7791,10 @@
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D176" t="s">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="G176" t="s">
         <v>462</v>
@@ -7798,16 +7810,16 @@
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="D177" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="G177" t="s">
         <v>462</v>
       </c>
       <c r="H177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J177" t="s">
         <v>3</v>
@@ -7817,16 +7829,16 @@
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="D178" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G178" t="s">
         <v>462</v>
       </c>
       <c r="H178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J178" t="s">
         <v>3</v>
@@ -7836,10 +7848,10 @@
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D179" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G179" t="s">
         <v>462</v>
@@ -7855,16 +7867,16 @@
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D180" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G180" t="s">
         <v>462</v>
       </c>
       <c r="H180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J180" t="s">
         <v>3</v>
@@ -7874,10 +7886,10 @@
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D181" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G181" t="s">
         <v>462</v>
@@ -7893,13 +7905,13 @@
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D182" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G182" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H182" t="s">
         <v>6</v>
@@ -7912,16 +7924,16 @@
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D183" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G183" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J183" t="s">
         <v>3</v>
@@ -7931,13 +7943,13 @@
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D184" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G184" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H184" t="s">
         <v>7</v>
@@ -7950,16 +7962,16 @@
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D185" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G185" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J185" t="s">
         <v>3</v>
@@ -7969,13 +7981,13 @@
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D186" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G186" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H186" t="s">
         <v>6</v>
@@ -7988,16 +8000,16 @@
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D187" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="G187" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J187" t="s">
         <v>3</v>
@@ -8007,16 +8019,16 @@
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="D188" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="G188" t="s">
         <v>462</v>
       </c>
       <c r="H188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J188" t="s">
         <v>3</v>
@@ -8026,10 +8038,10 @@
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D189" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G189" t="s">
         <v>462</v>
@@ -8045,16 +8057,16 @@
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D190" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G190" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J190" t="s">
         <v>3</v>
@@ -8064,16 +8076,16 @@
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D191" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G191" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J191" t="s">
         <v>3</v>
@@ -8083,19 +8095,16 @@
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D192" t="s">
-        <v>289</v>
-      </c>
-      <c r="E192" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="G192" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J192" t="s">
         <v>3</v>
@@ -8105,16 +8114,19 @@
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D193" t="s">
-        <v>293</v>
+        <v>289</v>
+      </c>
+      <c r="E193" t="s">
+        <v>286</v>
       </c>
       <c r="G193" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J193" t="s">
         <v>3</v>
@@ -8123,46 +8135,43 @@
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
+      <c r="C194" t="s">
+        <v>290</v>
+      </c>
+      <c r="D194" t="s">
+        <v>293</v>
+      </c>
+      <c r="G194" t="s">
+        <v>462</v>
+      </c>
+      <c r="H194" t="s">
+        <v>6</v>
+      </c>
+      <c r="J194" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
-      <c r="B195" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C195" t="s">
-        <v>49</v>
-      </c>
+      <c r="B195" s="14"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
-      <c r="B196" s="14"/>
+      <c r="B196" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C196" t="s">
-        <v>496</v>
-      </c>
-      <c r="D196" t="s">
-        <v>497</v>
-      </c>
-      <c r="G196" t="s">
-        <v>462</v>
-      </c>
-      <c r="H196" t="s">
-        <v>7</v>
-      </c>
-      <c r="J196" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" t="s">
-        <v>365</v>
+        <v>496</v>
       </c>
       <c r="D197" t="s">
-        <v>367</v>
-      </c>
-      <c r="E197" t="s">
-        <v>366</v>
+        <v>497</v>
       </c>
       <c r="G197" t="s">
         <v>462</v>
@@ -8178,16 +8187,19 @@
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" t="s">
-        <v>173</v>
+        <v>365</v>
       </c>
       <c r="D198" t="s">
-        <v>176</v>
+        <v>367</v>
+      </c>
+      <c r="E198" t="s">
+        <v>366</v>
       </c>
       <c r="G198" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J198" t="s">
         <v>3</v>
@@ -8197,16 +8209,16 @@
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="D199" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="G199" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J199" t="s">
         <v>3</v>
@@ -8216,16 +8228,16 @@
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="D200" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="G200" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J200" t="s">
         <v>3</v>
@@ -8235,13 +8247,13 @@
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D201" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G201" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H201" t="s">
         <v>5</v>
@@ -8252,37 +8264,37 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
-      <c r="B202" s="7" t="s">
-        <v>57</v>
+      <c r="B202" s="14"/>
+      <c r="C202" t="s">
+        <v>275</v>
+      </c>
+      <c r="D202" t="s">
+        <v>278</v>
+      </c>
+      <c r="G202" t="s">
+        <v>462</v>
+      </c>
+      <c r="H202" t="s">
+        <v>5</v>
+      </c>
+      <c r="J202" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
-      <c r="C203" t="s">
-        <v>128</v>
-      </c>
-      <c r="D203" t="s">
-        <v>134</v>
-      </c>
-      <c r="G203" t="s">
-        <v>462</v>
-      </c>
-      <c r="H203" t="s">
-        <v>6</v>
-      </c>
-      <c r="J203" t="s">
-        <v>3</v>
+      <c r="B203" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D204" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G204" t="s">
         <v>462</v>
@@ -8298,16 +8310,16 @@
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D205" t="s">
-        <v>491</v>
+        <v>135</v>
       </c>
       <c r="G205" t="s">
         <v>462</v>
       </c>
       <c r="H205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J205" t="s">
         <v>3</v>
@@ -8317,16 +8329,16 @@
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="D206" t="s">
-        <v>235</v>
+        <v>491</v>
       </c>
       <c r="G206" t="s">
         <v>462</v>
       </c>
       <c r="H206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J206" t="s">
         <v>3</v>
@@ -8336,10 +8348,10 @@
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="D207" t="s">
-        <v>360</v>
+        <v>235</v>
       </c>
       <c r="G207" t="s">
         <v>462</v>
@@ -8354,57 +8366,57 @@
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
-    </row>
-    <row r="209" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
+      <c r="C208" t="s">
+        <v>357</v>
+      </c>
+      <c r="D208" t="s">
+        <v>360</v>
+      </c>
+      <c r="G208" t="s">
+        <v>462</v>
+      </c>
+      <c r="H208" t="s">
+        <v>5</v>
+      </c>
+      <c r="J208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="14"/>
+      <c r="B209" s="14"/>
+    </row>
+    <row r="210" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B210" s="9" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
-      <c r="B210" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C210" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
-      <c r="B211" s="14"/>
+      <c r="B211" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C211" t="s">
-        <v>129</v>
-      </c>
-      <c r="D211" t="s">
-        <v>136</v>
-      </c>
-      <c r="G211" t="s">
-        <v>462</v>
-      </c>
-      <c r="H211" t="s">
-        <v>6</v>
-      </c>
-      <c r="J211" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D212" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G212" t="s">
         <v>462</v>
       </c>
       <c r="H212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J212" t="s">
         <v>3</v>
@@ -8414,16 +8426,16 @@
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D213" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G213" t="s">
         <v>462</v>
       </c>
       <c r="H213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J213" t="s">
         <v>3</v>
@@ -8433,82 +8445,85 @@
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="D214" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="G214" t="s">
         <v>462</v>
       </c>
       <c r="H214" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J214" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" t="s">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="D215" t="s">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="G215" t="s">
         <v>462</v>
       </c>
       <c r="H215" t="s">
         <v>5</v>
-      </c>
-      <c r="J215" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
-    </row>
-    <row r="217" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
+      <c r="C216" t="s">
+        <v>357</v>
+      </c>
+      <c r="D216" t="s">
+        <v>361</v>
+      </c>
+      <c r="G216" t="s">
+        <v>462</v>
+      </c>
+      <c r="H216" t="s">
+        <v>5</v>
+      </c>
+      <c r="J216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="14"/>
+      <c r="B217" s="14"/>
+    </row>
+    <row r="218" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B217" s="12" t="s">
+      <c r="B218" s="12" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
-      <c r="B218" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C218" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
-      <c r="B219" s="14"/>
+      <c r="B219" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C219" t="s">
-        <v>312</v>
-      </c>
-      <c r="D219" t="s">
-        <v>318</v>
-      </c>
-      <c r="G219" t="s">
-        <v>462</v>
-      </c>
-      <c r="H219" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D220" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G220" t="s">
         <v>462</v>
@@ -8521,10 +8536,10 @@
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D221" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G221" t="s">
         <v>462</v>
@@ -8537,10 +8552,10 @@
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D222" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G222" t="s">
         <v>462</v>
@@ -8553,10 +8568,10 @@
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D223" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G223" t="s">
         <v>462</v>
@@ -8569,10 +8584,10 @@
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D224" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G224" t="s">
         <v>462</v>
@@ -8585,42 +8600,42 @@
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D225" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="G225" t="s">
         <v>462</v>
       </c>
       <c r="H225" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>637</v>
+        <v>350</v>
       </c>
       <c r="D226" t="s">
-        <v>638</v>
+        <v>351</v>
       </c>
       <c r="G226" t="s">
         <v>462</v>
       </c>
       <c r="H226" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D227" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G227" t="s">
         <v>462</v>
@@ -8633,13 +8648,10 @@
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>324</v>
+        <v>639</v>
       </c>
       <c r="D228" t="s">
-        <v>327</v>
-      </c>
-      <c r="E228" t="s">
-        <v>498</v>
+        <v>640</v>
       </c>
       <c r="G228" t="s">
         <v>462</v>
@@ -8652,13 +8664,13 @@
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D229" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E229" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G229" t="s">
         <v>462</v>
@@ -8671,13 +8683,13 @@
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D230" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E230" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G230" t="s">
         <v>462</v>
@@ -8690,13 +8702,13 @@
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D231" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E231" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G231" t="s">
         <v>462</v>
@@ -8709,13 +8721,13 @@
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D232" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E232" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G232" t="s">
         <v>462</v>
@@ -8728,13 +8740,13 @@
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D233" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E233" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G233" t="s">
         <v>462</v>
@@ -8747,13 +8759,13 @@
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D234" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E234" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G234" t="s">
         <v>462</v>
@@ -8766,13 +8778,13 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D235" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E235" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G235" t="s">
         <v>462</v>
@@ -8785,13 +8797,13 @@
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D236" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E236" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G236" t="s">
         <v>462</v>
@@ -8804,13 +8816,13 @@
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D237" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E237" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G237" t="s">
         <v>462</v>
@@ -8823,13 +8835,13 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D238" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E238" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G238" t="s">
         <v>462</v>
@@ -8842,13 +8854,13 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D239" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E239" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G239" t="s">
         <v>462</v>
@@ -8861,13 +8873,13 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D240" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E240" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G240" t="s">
         <v>462</v>
@@ -8880,60 +8892,66 @@
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
-        <v>656</v>
+        <v>346</v>
       </c>
       <c r="D241" t="s">
-        <v>657</v>
+        <v>347</v>
+      </c>
+      <c r="E241" t="s">
+        <v>500</v>
       </c>
       <c r="G241" t="s">
         <v>462</v>
       </c>
       <c r="H241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
-    </row>
-    <row r="243" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="10" t="s">
+      <c r="C242" t="s">
+        <v>656</v>
+      </c>
+      <c r="D242" t="s">
+        <v>657</v>
+      </c>
+      <c r="G242" t="s">
+        <v>462</v>
+      </c>
+      <c r="H242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="14"/>
+      <c r="B243" s="14"/>
+    </row>
+    <row r="244" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B244" s="10" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
-      <c r="B244" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C244" t="s">
-        <v>403</v>
-      </c>
-      <c r="E244" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
-      <c r="B245" s="14"/>
+      <c r="B245" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="C245" t="s">
-        <v>404</v>
-      </c>
-      <c r="G245" t="s">
-        <v>462</v>
-      </c>
-      <c r="H245" t="s">
-        <v>2</v>
+        <v>403</v>
+      </c>
+      <c r="E245" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="G246" t="s">
         <v>462</v>
@@ -8946,20 +8964,20 @@
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="G247" t="s">
         <v>462</v>
       </c>
       <c r="H247" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G248" t="s">
         <v>462</v>
@@ -8972,10 +8990,10 @@
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>503</v>
+        <v>406</v>
       </c>
       <c r="G249" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H249" t="s">
         <v>402</v>
@@ -8985,36 +9003,36 @@
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" t="s">
-        <v>407</v>
+        <v>503</v>
       </c>
       <c r="G250" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H250" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G251" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H251" t="s">
-        <v>502</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G252" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H252" t="s">
         <v>502</v>
@@ -9024,62 +9042,65 @@
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="G253" t="s">
         <v>462</v>
       </c>
       <c r="H253" t="s">
-        <v>2</v>
+        <v>502</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
+      <c r="C254" t="s">
+        <v>355</v>
+      </c>
+      <c r="G254" t="s">
+        <v>462</v>
+      </c>
+      <c r="H254" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
-      <c r="B255" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="C255" t="s">
-        <v>643</v>
-      </c>
-      <c r="E255" t="s">
-        <v>441</v>
-      </c>
-      <c r="G255" t="s">
-        <v>462</v>
-      </c>
-      <c r="H255" t="s">
-        <v>402</v>
-      </c>
+      <c r="B255" s="14"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
-      <c r="B256" s="14"/>
+      <c r="B256" s="16" t="s">
+        <v>410</v>
+      </c>
       <c r="C256" t="s">
-        <v>644</v>
+        <v>643</v>
+      </c>
+      <c r="E256" t="s">
+        <v>441</v>
       </c>
       <c r="G256" t="s">
         <v>462</v>
+      </c>
+      <c r="H256" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G257" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G258" t="s">
         <v>468</v>
@@ -9089,23 +9110,20 @@
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>411</v>
+        <v>646</v>
       </c>
       <c r="G259" t="s">
-        <v>462</v>
-      </c>
-      <c r="H259" t="s">
-        <v>2</v>
+        <v>468</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G260" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H260" t="s">
         <v>2</v>
@@ -9115,7 +9133,7 @@
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G261" t="s">
         <v>468</v>
@@ -9128,10 +9146,10 @@
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G262" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H262" t="s">
         <v>2</v>
@@ -9141,46 +9159,46 @@
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G263" t="s">
         <v>462</v>
       </c>
       <c r="H263" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G264" t="s">
         <v>462</v>
       </c>
       <c r="H264" t="s">
-        <v>402</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G265" t="s">
         <v>462</v>
       </c>
       <c r="H265" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G266" t="s">
         <v>462</v>
@@ -9193,10 +9211,10 @@
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G267" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H267" t="s">
         <v>2</v>
@@ -9206,10 +9224,10 @@
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G268" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H268" t="s">
         <v>2</v>
@@ -9219,7 +9237,7 @@
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G269" t="s">
         <v>462</v>
@@ -9232,10 +9250,10 @@
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G270" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H270" t="s">
         <v>2</v>
@@ -9245,10 +9263,10 @@
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G271" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H271" t="s">
         <v>2</v>
@@ -9258,20 +9276,20 @@
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G272" t="s">
         <v>462</v>
       </c>
       <c r="H272" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G273" t="s">
         <v>462</v>
@@ -9284,7 +9302,7 @@
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G274" t="s">
         <v>462</v>
@@ -9297,18 +9315,27 @@
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" t="s">
-        <v>642</v>
+        <v>439</v>
       </c>
       <c r="G275" t="s">
-        <v>658</v>
+        <v>462</v>
       </c>
       <c r="H275" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
+      <c r="C276" t="s">
+        <v>642</v>
+      </c>
+      <c r="G276" t="s">
+        <v>658</v>
+      </c>
+      <c r="H276" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
@@ -9316,24 +9343,15 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
-      <c r="B278" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C278" t="s">
-        <v>470</v>
-      </c>
-      <c r="G278" t="s">
-        <v>462</v>
-      </c>
-      <c r="H278" t="s">
-        <v>2</v>
-      </c>
+      <c r="B278" s="14"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
-      <c r="B279" s="14"/>
+      <c r="B279" s="7" t="s">
+        <v>477</v>
+      </c>
       <c r="C279" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G279" t="s">
         <v>462</v>
@@ -9346,7 +9364,7 @@
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G280" t="s">
         <v>462</v>
@@ -9359,7 +9377,7 @@
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G281" t="s">
         <v>462</v>
@@ -9372,7 +9390,7 @@
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G282" t="s">
         <v>462</v>
@@ -9385,7 +9403,7 @@
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G283" t="s">
         <v>462</v>
@@ -9398,33 +9416,33 @@
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G284" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H284" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G285" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H285" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G286" t="s">
         <v>462</v>
@@ -9436,118 +9454,121 @@
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
+      <c r="C287" t="s">
+        <v>479</v>
+      </c>
+      <c r="G287" t="s">
+        <v>462</v>
+      </c>
+      <c r="H287" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
-      <c r="B288" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="C288" t="s">
-        <v>424</v>
-      </c>
-      <c r="E288" t="s">
-        <v>441</v>
-      </c>
-      <c r="G288" t="s">
-        <v>462</v>
-      </c>
-      <c r="H288" t="s">
-        <v>402</v>
-      </c>
+      <c r="B288" s="14"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
-      <c r="B289" s="14"/>
+      <c r="B289" s="16" t="s">
+        <v>423</v>
+      </c>
       <c r="C289" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="E289" t="s">
+        <v>441</v>
       </c>
       <c r="G289" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H289" t="s">
-        <v>1</v>
+        <v>402</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G290" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H290" t="s">
-        <v>402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G291" t="s">
         <v>462</v>
       </c>
       <c r="H291" t="s">
-        <v>7</v>
+        <v>402</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G292" t="s">
         <v>462</v>
       </c>
       <c r="H292" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G293" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H293" t="s">
-        <v>634</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G294" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H294" t="s">
-        <v>402</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" t="s">
-        <v>647</v>
+        <v>431</v>
       </c>
       <c r="G295" t="s">
-        <v>468</v>
+        <v>462</v>
+      </c>
+      <c r="H295" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G296" t="s">
         <v>468</v>
@@ -9557,7 +9578,7 @@
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G297" t="s">
         <v>468</v>
@@ -9566,30 +9587,27 @@
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
+      <c r="C298" t="s">
+        <v>649</v>
+      </c>
+      <c r="G298" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
-      <c r="B299" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="C299" t="s">
-        <v>434</v>
-      </c>
-      <c r="E299" t="s">
-        <v>440</v>
-      </c>
-      <c r="G299" t="s">
-        <v>468</v>
-      </c>
-      <c r="H299" t="s">
-        <v>402</v>
-      </c>
+      <c r="B299" s="14"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
-      <c r="B300" s="14"/>
+      <c r="B300" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="C300" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="E300" t="s">
+        <v>440</v>
       </c>
       <c r="G300" t="s">
         <v>468</v>
@@ -9602,7 +9620,7 @@
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G301" t="s">
         <v>468</v>
@@ -9615,7 +9633,7 @@
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G302" t="s">
         <v>468</v>
@@ -9627,38 +9645,35 @@
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
-    </row>
-    <row r="304" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="13" t="s">
+      <c r="C303" t="s">
+        <v>437</v>
+      </c>
+      <c r="G303" t="s">
+        <v>468</v>
+      </c>
+      <c r="H303" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="14"/>
+      <c r="B304" s="14"/>
+    </row>
+    <row r="305" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B304" s="13" t="s">
+      <c r="B305" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
-      <c r="B305" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C305" t="s">
-        <v>364</v>
-      </c>
-      <c r="G305" t="s">
-        <v>462</v>
-      </c>
-      <c r="H305" t="s">
-        <v>2</v>
-      </c>
-      <c r="J305" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="14"/>
-      <c r="B306" s="14"/>
+      <c r="B306" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="C306" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="G306" t="s">
         <v>462</v>
@@ -9672,11 +9687,9 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
-      <c r="B307" s="14" t="s">
-        <v>397</v>
-      </c>
+      <c r="B307" s="14"/>
       <c r="C307" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="G307" t="s">
         <v>462</v>
@@ -9688,11 +9701,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
-      <c r="B308" s="14"/>
+      <c r="B308" s="14" t="s">
+        <v>397</v>
+      </c>
       <c r="C308" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G308" t="s">
         <v>462</v>
@@ -9708,7 +9723,7 @@
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G309" t="s">
         <v>462</v>
@@ -9720,11 +9735,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G310" t="s">
         <v>462</v>
@@ -9738,11 +9753,9 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
-      <c r="B311" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>389</v>
+      <c r="B311" s="14"/>
+      <c r="C311" t="s">
+        <v>393</v>
       </c>
       <c r="G311" t="s">
         <v>462</v>
@@ -9756,9 +9769,11 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
-      <c r="B312" s="14"/>
+      <c r="B312" s="14" t="s">
+        <v>387</v>
+      </c>
       <c r="C312" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G312" t="s">
         <v>462</v>
@@ -9774,13 +9789,13 @@
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
       <c r="C313" s="4" t="s">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="G313" t="s">
         <v>462</v>
       </c>
       <c r="H313" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J313" t="s">
         <v>3</v>
@@ -9790,7 +9805,7 @@
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G314" t="s">
         <v>462</v>
@@ -9806,7 +9821,7 @@
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G315" t="s">
         <v>462</v>
@@ -9822,7 +9837,7 @@
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G316" t="s">
         <v>462</v>
@@ -9837,31 +9852,31 @@
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
-      <c r="C317" s="4"/>
+      <c r="C317" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="G317" t="s">
+        <v>462</v>
+      </c>
+      <c r="H317" t="s">
+        <v>1</v>
+      </c>
+      <c r="J317" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
-      <c r="B318" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G318" t="s">
-        <v>462</v>
-      </c>
-      <c r="H318" t="s">
-        <v>2</v>
-      </c>
-      <c r="J318" t="s">
-        <v>3</v>
-      </c>
+      <c r="B318" s="14"/>
+      <c r="C318" s="4"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
-      <c r="B319" s="14"/>
+      <c r="B319" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="C319" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G319" t="s">
         <v>462</v>
@@ -9877,7 +9892,7 @@
       <c r="A320" s="14"/>
       <c r="B320" s="14"/>
       <c r="C320" s="4" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="G320" t="s">
         <v>462</v>
@@ -9893,7 +9908,7 @@
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="4" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="G321" t="s">
         <v>462</v>
@@ -9909,13 +9924,13 @@
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G322" t="s">
         <v>462</v>
       </c>
       <c r="H322" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
       <c r="J322" t="s">
         <v>3</v>
@@ -9923,17 +9938,15 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
-      <c r="B323" s="14" t="s">
-        <v>398</v>
-      </c>
+      <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G323" t="s">
         <v>462</v>
       </c>
       <c r="H323" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="J323" t="s">
         <v>3</v>
@@ -9941,9 +9954,11 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
-      <c r="B324" s="14"/>
+      <c r="B324" s="14" t="s">
+        <v>398</v>
+      </c>
       <c r="C324" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G324" t="s">
         <v>462</v>
@@ -9958,31 +9973,31 @@
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
       <c r="B325" s="14"/>
-      <c r="C325" s="4"/>
+      <c r="C325" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G325" t="s">
+        <v>462</v>
+      </c>
+      <c r="H325" t="s">
+        <v>2</v>
+      </c>
+      <c r="J325" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G326" t="s">
-        <v>462</v>
-      </c>
-      <c r="H326" t="s">
-        <v>1</v>
-      </c>
-      <c r="J326" t="s">
-        <v>3</v>
-      </c>
+      <c r="B326" s="14"/>
+      <c r="C326" s="4"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
-      <c r="B327" s="14"/>
+      <c r="B327" s="16" t="s">
+        <v>398</v>
+      </c>
       <c r="C327" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G327" t="s">
         <v>462</v>
@@ -9998,7 +10013,7 @@
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G328" t="s">
         <v>462</v>
@@ -10014,7 +10029,7 @@
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="4" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G329" t="s">
         <v>462</v>
@@ -10028,40 +10043,40 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
-      <c r="B330" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C330" s="4"/>
+      <c r="B330" s="14"/>
+      <c r="C330" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G330" t="s">
+        <v>462</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1</v>
+      </c>
+      <c r="J330" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="16" t="s">
+      <c r="B331" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C331" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="G331" t="s">
-        <v>462</v>
-      </c>
-      <c r="H331" t="s">
-        <v>402</v>
-      </c>
-      <c r="J331" t="s">
-        <v>3</v>
-      </c>
+      <c r="C331" s="4"/>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="14"/>
+      <c r="B332" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C332" s="4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G332" t="s">
         <v>462</v>
       </c>
       <c r="H332" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="J332" t="s">
         <v>3</v>
@@ -10071,13 +10086,13 @@
       <c r="A333" s="14"/>
       <c r="B333" s="14"/>
       <c r="C333" s="4" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="G333" t="s">
         <v>462</v>
       </c>
       <c r="H333" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
         <v>3</v>
@@ -10087,7 +10102,7 @@
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
       <c r="C334" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G334" t="s">
         <v>462</v>
@@ -10103,7 +10118,7 @@
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G335" t="s">
         <v>462</v>
@@ -10119,7 +10134,7 @@
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G336" t="s">
         <v>462</v>
@@ -10135,13 +10150,13 @@
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="4" t="s">
-        <v>492</v>
+        <v>391</v>
       </c>
       <c r="G337" t="s">
         <v>462</v>
       </c>
       <c r="H337" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="J337" t="s">
         <v>3</v>
@@ -10151,13 +10166,13 @@
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="4" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="G338" t="s">
         <v>462</v>
       </c>
       <c r="H338" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
       <c r="J338" t="s">
         <v>3</v>
@@ -10166,31 +10181,31 @@
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
-      <c r="C339" s="4"/>
+      <c r="C339" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G339" t="s">
+        <v>462</v>
+      </c>
+      <c r="H339" t="s">
+        <v>402</v>
+      </c>
+      <c r="J339" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
-      <c r="B340" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="C340" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="G340" t="s">
-        <v>462</v>
-      </c>
-      <c r="H340" t="s">
-        <v>0</v>
-      </c>
-      <c r="J340" t="s">
-        <v>3</v>
-      </c>
+      <c r="B340" s="14"/>
+      <c r="C340" s="4"/>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
-      <c r="B341" s="15"/>
+      <c r="B341" s="18" t="s">
+        <v>387</v>
+      </c>
       <c r="C341" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G341" t="s">
         <v>462</v>
@@ -10206,7 +10221,7 @@
       <c r="A342" s="14"/>
       <c r="B342" s="15"/>
       <c r="C342" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G342" t="s">
         <v>462</v>
@@ -10222,7 +10237,7 @@
       <c r="A343" s="14"/>
       <c r="B343" s="15"/>
       <c r="C343" s="4" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="G343" t="s">
         <v>462</v>
@@ -10238,7 +10253,7 @@
       <c r="A344" s="14"/>
       <c r="B344" s="15"/>
       <c r="C344" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G344" t="s">
         <v>462</v>
@@ -10254,7 +10269,7 @@
       <c r="A345" s="14"/>
       <c r="B345" s="15"/>
       <c r="C345" s="4" t="s">
-        <v>520</v>
+        <v>375</v>
       </c>
       <c r="G345" t="s">
         <v>462</v>
@@ -10266,50 +10281,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="11" t="s">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="14"/>
+      <c r="B346" s="15"/>
+      <c r="C346" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G346" t="s">
+        <v>462</v>
+      </c>
+      <c r="H346" t="s">
+        <v>0</v>
+      </c>
+      <c r="J346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B346" s="11" t="s">
+      <c r="B347" s="11" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
-      <c r="B347" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C347" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="14"/>
-      <c r="B348" s="14"/>
+      <c r="B348" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C348" t="s">
-        <v>306</v>
-      </c>
-      <c r="D348" t="s">
-        <v>307</v>
-      </c>
-      <c r="E348" t="s">
-        <v>596</v>
-      </c>
-      <c r="G348" t="s">
-        <v>468</v>
-      </c>
-      <c r="H348" t="s">
-        <v>664</v>
+        <v>50</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D349" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+      <c r="E349" t="s">
+        <v>596</v>
       </c>
       <c r="G349" t="s">
         <v>468</v>
@@ -10322,103 +10337,103 @@
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
       <c r="C350" t="s">
-        <v>582</v>
+        <v>308</v>
       </c>
       <c r="D350" t="s">
-        <v>583</v>
+        <v>309</v>
       </c>
       <c r="G350" t="s">
         <v>468</v>
       </c>
       <c r="H350" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D351" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G351" t="s">
         <v>468</v>
       </c>
       <c r="H351" t="s">
-        <v>0</v>
+        <v>669</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D352" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G352" t="s">
         <v>468</v>
       </c>
       <c r="H352" t="s">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" t="s">
-        <v>654</v>
+        <v>586</v>
       </c>
       <c r="D353" t="s">
-        <v>655</v>
+        <v>587</v>
       </c>
       <c r="G353" t="s">
         <v>468</v>
       </c>
       <c r="H353" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
+      <c r="C354" t="s">
+        <v>654</v>
+      </c>
+      <c r="D354" t="s">
+        <v>655</v>
+      </c>
+      <c r="G354" t="s">
+        <v>468</v>
+      </c>
+      <c r="H354" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
-      <c r="B355" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C355" t="s">
-        <v>572</v>
-      </c>
+      <c r="B355" s="14"/>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
-      <c r="B356" s="14"/>
+      <c r="B356" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="C356" t="s">
-        <v>588</v>
-      </c>
-      <c r="D356" t="s">
-        <v>592</v>
-      </c>
-      <c r="G356" t="s">
-        <v>468</v>
-      </c>
-      <c r="H356" t="s">
-        <v>1</v>
+        <v>572</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D357" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G357" t="s">
         <v>468</v>
@@ -10431,100 +10446,103 @@
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" t="s">
-        <v>275</v>
+        <v>589</v>
       </c>
       <c r="D358" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G358" t="s">
         <v>468</v>
       </c>
       <c r="H358" t="s">
-        <v>661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" t="s">
-        <v>590</v>
+        <v>275</v>
       </c>
       <c r="D359" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G359" t="s">
         <v>468</v>
       </c>
       <c r="H359" t="s">
-        <v>1</v>
+        <v>661</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="D360" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G360" t="s">
         <v>468</v>
+      </c>
+      <c r="H360" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" t="s">
-        <v>652</v>
+        <v>575</v>
       </c>
       <c r="D361" t="s">
-        <v>653</v>
-      </c>
-      <c r="E361" t="s">
-        <v>668</v>
+        <v>591</v>
       </c>
       <c r="G361" t="s">
         <v>468</v>
-      </c>
-      <c r="H361" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
+      <c r="C362" t="s">
+        <v>652</v>
+      </c>
+      <c r="D362" t="s">
+        <v>653</v>
+      </c>
+      <c r="E362" t="s">
+        <v>668</v>
+      </c>
+      <c r="G362" t="s">
+        <v>468</v>
+      </c>
+      <c r="H362" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
-      <c r="B363" t="s">
-        <v>573</v>
-      </c>
-      <c r="C363" t="s">
-        <v>574</v>
-      </c>
+      <c r="B363" s="14"/>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
-      <c r="B364" s="14"/>
+      <c r="B364" t="s">
+        <v>573</v>
+      </c>
       <c r="C364" t="s">
-        <v>575</v>
-      </c>
-      <c r="D364" t="s">
-        <v>577</v>
-      </c>
-      <c r="G364" t="s">
-        <v>468</v>
+        <v>574</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
       <c r="B365" s="14"/>
       <c r="C365" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D365" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G365" t="s">
         <v>468</v>
@@ -10534,106 +10552,115 @@
       <c r="A366" s="14"/>
       <c r="B366" s="14"/>
       <c r="C366" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D366" t="s">
-        <v>581</v>
-      </c>
-      <c r="E366" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G366" t="s">
         <v>468</v>
-      </c>
-      <c r="H366" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" t="s">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="D367" t="s">
-        <v>662</v>
+        <v>581</v>
+      </c>
+      <c r="E367" t="s">
+        <v>579</v>
       </c>
       <c r="G367" t="s">
         <v>468</v>
       </c>
       <c r="H367" t="s">
-        <v>664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
+      <c r="C368" t="s">
+        <v>660</v>
+      </c>
+      <c r="D368" t="s">
+        <v>662</v>
+      </c>
+      <c r="G368" t="s">
+        <v>468</v>
+      </c>
+      <c r="H368" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
-      <c r="B369" t="s">
-        <v>42</v>
-      </c>
-      <c r="C369" t="s">
-        <v>51</v>
-      </c>
+      <c r="B369" s="14"/>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
-      <c r="B370" s="14"/>
+      <c r="B370" t="s">
+        <v>42</v>
+      </c>
       <c r="C370" t="s">
-        <v>310</v>
-      </c>
-      <c r="D370" t="s">
-        <v>311</v>
-      </c>
-      <c r="G370" t="s">
-        <v>468</v>
-      </c>
-      <c r="H370" t="s">
-        <v>663</v>
+        <v>51</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
       <c r="C371" t="s">
-        <v>650</v>
+        <v>310</v>
       </c>
       <c r="D371" t="s">
-        <v>651</v>
+        <v>311</v>
       </c>
       <c r="G371" t="s">
         <v>468</v>
       </c>
       <c r="H371" t="s">
-        <v>0</v>
+        <v>663</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
-    </row>
-    <row r="373" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="26" t="s">
+      <c r="C372" t="s">
+        <v>650</v>
+      </c>
+      <c r="D372" t="s">
+        <v>651</v>
+      </c>
+      <c r="G372" t="s">
+        <v>468</v>
+      </c>
+      <c r="H372" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" s="14"/>
+      <c r="B373" s="14"/>
+    </row>
+    <row r="374" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="C373" s="26" t="s">
+      <c r="C374" s="26" t="s">
         <v>684</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="14"/>
-      <c r="B374" t="s">
-        <v>25</v>
-      </c>
-      <c r="C374" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="14"/>
-      <c r="B375" s="14"/>
+      <c r="B375" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="14"/>
@@ -10649,16 +10676,16 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="14"/>
-      <c r="B379" t="s">
-        <v>26</v>
-      </c>
-      <c r="C379" t="s">
-        <v>677</v>
-      </c>
+      <c r="B379" s="14"/>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="14"/>
-      <c r="B380" s="14"/>
+      <c r="B380" t="s">
+        <v>26</v>
+      </c>
+      <c r="C380" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="14"/>
@@ -10674,16 +10701,16 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="14"/>
-      <c r="B384" t="s">
-        <v>27</v>
-      </c>
-      <c r="C384" t="s">
-        <v>678</v>
-      </c>
+      <c r="B384" s="14"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="14"/>
-      <c r="B385" s="14"/>
+      <c r="B385" t="s">
+        <v>27</v>
+      </c>
+      <c r="C385" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="14"/>
@@ -10699,16 +10726,16 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="14"/>
-      <c r="B389" t="s">
-        <v>32</v>
-      </c>
-      <c r="C389" t="s">
-        <v>679</v>
-      </c>
+      <c r="B389" s="14"/>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="14"/>
-      <c r="B390" s="14"/>
+      <c r="B390" t="s">
+        <v>32</v>
+      </c>
+      <c r="C390" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="14"/>
@@ -10724,16 +10751,16 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="14"/>
-      <c r="B394" t="s">
-        <v>28</v>
-      </c>
-      <c r="C394" t="s">
-        <v>680</v>
-      </c>
+      <c r="B394" s="14"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="14"/>
-      <c r="B395" s="14"/>
+      <c r="B395" t="s">
+        <v>28</v>
+      </c>
+      <c r="C395" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
@@ -10749,16 +10776,16 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="14"/>
-      <c r="B399" t="s">
-        <v>675</v>
-      </c>
-      <c r="C399" t="s">
-        <v>681</v>
-      </c>
+      <c r="B399" s="14"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="14"/>
-      <c r="B400" s="14"/>
+      <c r="B400" t="s">
+        <v>675</v>
+      </c>
+      <c r="C400" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
@@ -10774,16 +10801,16 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="14"/>
-      <c r="B404" t="s">
-        <v>674</v>
-      </c>
-      <c r="C404" t="s">
-        <v>682</v>
-      </c>
+      <c r="B404" s="14"/>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
-      <c r="B405" s="14"/>
+      <c r="B405" t="s">
+        <v>674</v>
+      </c>
+      <c r="C405" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
@@ -10799,16 +10826,16 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="14"/>
-      <c r="B409" t="s">
-        <v>31</v>
-      </c>
-      <c r="C409" t="s">
-        <v>683</v>
-      </c>
+      <c r="B409" s="14"/>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="14"/>
-      <c r="B410" s="14"/>
+      <c r="B410" t="s">
+        <v>31</v>
+      </c>
+      <c r="C410" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="14"/>
@@ -10821,6 +10848,10 @@
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="14"/>
       <c r="B413" s="14"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="14"/>
+      <c r="B414" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10832,8 +10863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11734,7 +11765,9 @@
       <c r="N37" s="20" t="s">
         <v>665</v>
       </c>
-      <c r="O37" s="20"/>
+      <c r="O37" s="20" t="s">
+        <v>687</v>
+      </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20" t="s">
@@ -11771,7 +11804,9 @@
       </c>
       <c r="M38" s="23"/>
       <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="20" t="s">
+        <v>686</v>
+      </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
@@ -11800,7 +11835,9 @@
       </c>
       <c r="M39" s="23"/>
       <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
+      <c r="O39" s="20" t="s">
+        <v>688</v>
+      </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="689">
   <si>
     <t>Arne</t>
   </si>
@@ -4624,10 +4624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J414"/>
+  <dimension ref="A1:J416"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J134" sqref="J134"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6186,48 +6186,39 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-    </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="C83" t="s">
+        <v>685</v>
+      </c>
+      <c r="D83" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
+      <c r="B86" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C86" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" t="s">
-        <v>65</v>
-      </c>
-      <c r="G86" t="s">
-        <v>468</v>
-      </c>
-      <c r="H86" t="s">
-        <v>5</v>
-      </c>
-      <c r="J86" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G87" t="s">
         <v>468</v>
@@ -6243,13 +6234,13 @@
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G88" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H88" t="s">
         <v>5</v>
@@ -6262,16 +6253,16 @@
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G89" t="s">
         <v>469</v>
       </c>
       <c r="H89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J89" t="s">
         <v>3</v>
@@ -6281,13 +6272,13 @@
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H90" t="s">
         <v>7</v>
@@ -6300,16 +6291,16 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J91" t="s">
         <v>3</v>
@@ -6319,10 +6310,10 @@
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G92" t="s">
         <v>469</v>
@@ -6338,10 +6329,10 @@
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G93" t="s">
         <v>469</v>
@@ -6357,10 +6348,10 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G94" t="s">
         <v>469</v>
@@ -6376,13 +6367,13 @@
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G95" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H95" t="s">
         <v>6</v>
@@ -6395,10 +6386,10 @@
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D96" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G96" t="s">
         <v>468</v>
@@ -6414,13 +6405,13 @@
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G97" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H97" t="s">
         <v>6</v>
@@ -6433,16 +6424,16 @@
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G98" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J98" t="s">
         <v>3</v>
@@ -6452,10 +6443,10 @@
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D99" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G99" t="s">
         <v>468</v>
@@ -6471,16 +6462,16 @@
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D100" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G100" t="s">
         <v>468</v>
       </c>
       <c r="H100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J100" t="s">
         <v>3</v>
@@ -6490,10 +6481,10 @@
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" t="s">
-        <v>597</v>
+        <v>165</v>
       </c>
       <c r="D101" t="s">
-        <v>558</v>
+        <v>167</v>
       </c>
       <c r="G101" t="s">
         <v>468</v>
@@ -6508,43 +6499,43 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
+      <c r="C102" t="s">
+        <v>597</v>
+      </c>
+      <c r="D102" t="s">
+        <v>558</v>
+      </c>
+      <c r="G102" t="s">
+        <v>468</v>
+      </c>
+      <c r="H102" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
-      <c r="B103" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C103" t="s">
-        <v>34</v>
-      </c>
+      <c r="B103" s="14"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
+      <c r="B104" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C104" t="s">
-        <v>60</v>
-      </c>
-      <c r="D104" t="s">
-        <v>485</v>
-      </c>
-      <c r="G104" t="s">
-        <v>462</v>
-      </c>
-      <c r="H104" t="s">
-        <v>5</v>
-      </c>
-      <c r="J104" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>54</v>
+        <v>485</v>
       </c>
       <c r="G105" t="s">
         <v>462</v>
@@ -6560,13 +6551,13 @@
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G106" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H106" t="s">
         <v>5</v>
@@ -6579,13 +6570,13 @@
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D107" t="s">
-        <v>487</v>
+        <v>72</v>
       </c>
       <c r="G107" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H107" t="s">
         <v>5</v>
@@ -6598,10 +6589,10 @@
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D108" t="s">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="G108" t="s">
         <v>462</v>
@@ -6617,16 +6608,16 @@
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D109" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s">
         <v>462</v>
       </c>
       <c r="H109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J109" t="s">
         <v>3</v>
@@ -6636,16 +6627,16 @@
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D110" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="G110" t="s">
         <v>462</v>
       </c>
       <c r="H110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J110" t="s">
         <v>3</v>
@@ -6655,10 +6646,10 @@
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D111" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G111" t="s">
         <v>462</v>
@@ -6674,10 +6665,10 @@
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="G112" t="s">
         <v>462</v>
@@ -6693,16 +6684,16 @@
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G113" t="s">
         <v>462</v>
       </c>
       <c r="H113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J113" t="s">
         <v>3</v>
@@ -6712,13 +6703,13 @@
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G114" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H114" t="s">
         <v>7</v>
@@ -6731,10 +6722,10 @@
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G115" t="s">
         <v>469</v>
@@ -6750,16 +6741,16 @@
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D116" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G116" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J116" t="s">
         <v>3</v>
@@ -6769,10 +6760,10 @@
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D117" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G117" t="s">
         <v>462</v>
@@ -6788,13 +6779,13 @@
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G118" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H118" t="s">
         <v>6</v>
@@ -6807,19 +6798,16 @@
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D119" t="s">
-        <v>203</v>
-      </c>
-      <c r="E119" t="s">
-        <v>493</v>
+        <v>196</v>
       </c>
       <c r="G119" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J119" t="s">
         <v>3</v>
@@ -6829,16 +6817,16 @@
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E120" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G120" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H120" t="s">
         <v>7</v>
@@ -6851,16 +6839,19 @@
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D121" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="E121" t="s">
+        <v>494</v>
       </c>
       <c r="G121" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H121" t="s">
-        <v>402</v>
+        <v>7</v>
       </c>
       <c r="J121" t="s">
         <v>3</v>
@@ -6870,16 +6861,16 @@
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G122" t="s">
         <v>462</v>
       </c>
       <c r="H122" t="s">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="J122" t="s">
         <v>3</v>
@@ -6889,13 +6880,13 @@
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D123" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G123" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H123" t="s">
         <v>6</v>
@@ -6908,16 +6899,16 @@
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D124" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G124" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J124" t="s">
         <v>3</v>
@@ -6927,13 +6918,13 @@
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D125" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G125" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H125" t="s">
         <v>7</v>
@@ -6946,13 +6937,13 @@
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="D126" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="G126" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H126" t="s">
         <v>7</v>
@@ -6965,16 +6956,16 @@
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="D127" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="G127" t="s">
         <v>462</v>
       </c>
       <c r="H127" t="s">
-        <v>402</v>
+        <v>7</v>
       </c>
       <c r="J127" t="s">
         <v>3</v>
@@ -6984,16 +6975,16 @@
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G128" t="s">
         <v>462</v>
       </c>
       <c r="H128" t="s">
-        <v>5</v>
+        <v>402</v>
       </c>
       <c r="J128" t="s">
         <v>3</v>
@@ -7003,10 +6994,10 @@
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D129" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G129" t="s">
         <v>462</v>
@@ -7022,16 +7013,16 @@
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G130" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J130" t="s">
         <v>3</v>
@@ -7041,16 +7032,16 @@
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D131" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="G131" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J131" t="s">
         <v>3</v>
@@ -7060,19 +7051,16 @@
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D132" t="s">
-        <v>287</v>
-      </c>
-      <c r="E132" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="G132" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J132" t="s">
         <v>3</v>
@@ -7082,16 +7070,19 @@
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D133" t="s">
-        <v>292</v>
+        <v>287</v>
+      </c>
+      <c r="E133" t="s">
+        <v>286</v>
       </c>
       <c r="G133" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J133" t="s">
         <v>3</v>
@@ -7101,16 +7092,16 @@
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" t="s">
-        <v>685</v>
+        <v>290</v>
       </c>
       <c r="D134" t="s">
-        <v>686</v>
+        <v>292</v>
       </c>
       <c r="G134" t="s">
         <v>462</v>
       </c>
       <c r="H134" t="s">
-        <v>402</v>
+        <v>6</v>
       </c>
       <c r="J134" t="s">
         <v>3</v>
@@ -7119,46 +7110,43 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
+      <c r="C135" t="s">
+        <v>685</v>
+      </c>
+      <c r="D135" t="s">
+        <v>686</v>
+      </c>
+      <c r="G135" t="s">
+        <v>462</v>
+      </c>
+      <c r="H135" t="s">
+        <v>402</v>
+      </c>
+      <c r="J135" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
-      <c r="B136" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" t="s">
-        <v>43</v>
-      </c>
+      <c r="B136" s="14"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
+      <c r="B137" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C137" t="s">
-        <v>153</v>
-      </c>
-      <c r="D137" t="s">
-        <v>495</v>
-      </c>
-      <c r="G137" t="s">
-        <v>462</v>
-      </c>
-      <c r="H137" t="s">
-        <v>7</v>
-      </c>
-      <c r="J137" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>365</v>
+        <v>153</v>
       </c>
       <c r="D138" t="s">
-        <v>368</v>
-      </c>
-      <c r="E138" t="s">
-        <v>366</v>
+        <v>495</v>
       </c>
       <c r="G138" t="s">
         <v>462</v>
@@ -7174,16 +7162,19 @@
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" t="s">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="D139" t="s">
-        <v>159</v>
+        <v>368</v>
+      </c>
+      <c r="E139" t="s">
+        <v>366</v>
       </c>
       <c r="G139" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J139" t="s">
         <v>3</v>
@@ -7193,13 +7184,13 @@
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G140" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H140" t="s">
         <v>6</v>
@@ -7212,13 +7203,13 @@
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G141" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H141" t="s">
         <v>6</v>
@@ -7231,16 +7222,16 @@
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="D142" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="G142" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J142" t="s">
         <v>3</v>
@@ -7250,16 +7241,16 @@
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="D143" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="G143" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J143" t="s">
         <v>3</v>
@@ -7269,13 +7260,13 @@
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D144" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G144" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H144" t="s">
         <v>5</v>
@@ -7287,43 +7278,43 @@
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
+      <c r="C145" t="s">
+        <v>275</v>
+      </c>
+      <c r="D145" t="s">
+        <v>277</v>
+      </c>
+      <c r="G145" t="s">
+        <v>462</v>
+      </c>
+      <c r="H145" t="s">
+        <v>5</v>
+      </c>
+      <c r="J145" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
-      <c r="B146" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C146" t="s">
-        <v>140</v>
-      </c>
+      <c r="B146" s="14"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
+      <c r="B147" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C147" t="s">
-        <v>128</v>
-      </c>
-      <c r="D147" t="s">
-        <v>133</v>
-      </c>
-      <c r="G147" t="s">
-        <v>462</v>
-      </c>
-      <c r="H147" t="s">
-        <v>6</v>
-      </c>
-      <c r="J147" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D148" t="s">
-        <v>443</v>
+        <v>133</v>
       </c>
       <c r="G148" t="s">
         <v>462</v>
@@ -7339,16 +7330,16 @@
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D149" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G149" t="s">
         <v>462</v>
       </c>
       <c r="H149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J149" t="s">
         <v>3</v>
@@ -7358,16 +7349,16 @@
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="D150" t="s">
-        <v>234</v>
+        <v>442</v>
       </c>
       <c r="G150" t="s">
         <v>462</v>
       </c>
       <c r="H150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J150" t="s">
         <v>3</v>
@@ -7377,10 +7368,10 @@
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" t="s">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="D151" t="s">
-        <v>359</v>
+        <v>234</v>
       </c>
       <c r="G151" t="s">
         <v>462</v>
@@ -7395,57 +7386,57 @@
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
-    </row>
-    <row r="153" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
+      <c r="C152" t="s">
+        <v>357</v>
+      </c>
+      <c r="D152" t="s">
+        <v>359</v>
+      </c>
+      <c r="G152" t="s">
+        <v>462</v>
+      </c>
+      <c r="H152" t="s">
+        <v>5</v>
+      </c>
+      <c r="J152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+    </row>
+    <row r="154" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B154" s="8" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
-      <c r="B154" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
-      <c r="B155" s="14"/>
+      <c r="B155" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C155" t="s">
-        <v>56</v>
-      </c>
-      <c r="D155" t="s">
-        <v>68</v>
-      </c>
-      <c r="G155" t="s">
-        <v>469</v>
-      </c>
-      <c r="H155" t="s">
-        <v>5</v>
-      </c>
-      <c r="J155" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D156" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G156" t="s">
         <v>469</v>
       </c>
       <c r="H156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J156" t="s">
         <v>3</v>
@@ -7455,13 +7446,13 @@
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D157" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G157" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H157" t="s">
         <v>7</v>
@@ -7474,16 +7465,16 @@
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D158" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G158" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J158" t="s">
         <v>3</v>
@@ -7493,16 +7484,16 @@
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D159" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G159" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J159" t="s">
         <v>3</v>
@@ -7512,10 +7503,10 @@
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D160" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G160" t="s">
         <v>469</v>
@@ -7531,10 +7522,10 @@
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G161" t="s">
         <v>469</v>
@@ -7550,10 +7541,10 @@
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D162" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G162" t="s">
         <v>469</v>
@@ -7569,13 +7560,13 @@
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D163" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G163" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H163" t="s">
         <v>6</v>
@@ -7588,10 +7579,10 @@
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D164" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G164" t="s">
         <v>468</v>
@@ -7607,13 +7598,13 @@
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D165" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G165" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H165" t="s">
         <v>6</v>
@@ -7626,16 +7617,16 @@
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D166" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G166" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J166" t="s">
         <v>3</v>
@@ -7645,10 +7636,10 @@
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D167" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G167" t="s">
         <v>468</v>
@@ -7664,16 +7655,16 @@
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D168" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G168" t="s">
         <v>468</v>
       </c>
       <c r="H168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J168" t="s">
         <v>3</v>
@@ -7683,10 +7674,10 @@
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" t="s">
-        <v>597</v>
+        <v>165</v>
       </c>
       <c r="D169" t="s">
-        <v>560</v>
+        <v>168</v>
       </c>
       <c r="G169" t="s">
         <v>468</v>
@@ -7701,43 +7692,43 @@
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
+      <c r="C170" t="s">
+        <v>597</v>
+      </c>
+      <c r="D170" t="s">
+        <v>560</v>
+      </c>
+      <c r="G170" t="s">
+        <v>468</v>
+      </c>
+      <c r="H170" t="s">
+        <v>5</v>
+      </c>
+      <c r="J170" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
-      <c r="B171" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C171" t="s">
-        <v>48</v>
-      </c>
+      <c r="B171" s="14"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
-      <c r="B172" s="14"/>
+      <c r="B172" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C172" t="s">
-        <v>60</v>
-      </c>
-      <c r="D172" t="s">
-        <v>486</v>
-      </c>
-      <c r="G172" t="s">
-        <v>462</v>
-      </c>
-      <c r="H172" t="s">
-        <v>5</v>
-      </c>
-      <c r="J172" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D173" t="s">
-        <v>70</v>
+        <v>486</v>
       </c>
       <c r="G173" t="s">
         <v>462</v>
@@ -7749,14 +7740,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D174" t="s">
-        <v>488</v>
+        <v>70</v>
       </c>
       <c r="G174" t="s">
         <v>462</v>
@@ -7772,13 +7763,13 @@
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D175" t="s">
-        <v>74</v>
+        <v>488</v>
       </c>
       <c r="G175" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H175" t="s">
         <v>5</v>
@@ -7791,13 +7782,13 @@
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D176" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G176" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H176" t="s">
         <v>5</v>
@@ -7810,10 +7801,10 @@
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D177" t="s">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="G177" t="s">
         <v>462</v>
@@ -7829,16 +7820,16 @@
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="D178" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="G178" t="s">
         <v>462</v>
       </c>
       <c r="H178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J178" t="s">
         <v>3</v>
@@ -7848,16 +7839,16 @@
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="D179" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G179" t="s">
         <v>462</v>
       </c>
       <c r="H179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J179" t="s">
         <v>3</v>
@@ -7867,10 +7858,10 @@
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D180" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G180" t="s">
         <v>462</v>
@@ -7886,16 +7877,16 @@
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D181" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G181" t="s">
         <v>462</v>
       </c>
       <c r="H181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J181" t="s">
         <v>3</v>
@@ -7905,10 +7896,10 @@
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D182" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G182" t="s">
         <v>462</v>
@@ -7924,13 +7915,13 @@
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D183" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G183" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H183" t="s">
         <v>6</v>
@@ -7943,16 +7934,16 @@
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D184" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G184" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J184" t="s">
         <v>3</v>
@@ -7962,13 +7953,13 @@
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D185" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G185" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H185" t="s">
         <v>7</v>
@@ -7981,16 +7972,16 @@
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D186" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G186" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J186" t="s">
         <v>3</v>
@@ -8000,13 +7991,13 @@
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D187" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G187" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H187" t="s">
         <v>6</v>
@@ -8019,16 +8010,16 @@
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D188" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="G188" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J188" t="s">
         <v>3</v>
@@ -8038,16 +8029,16 @@
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="D189" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="G189" t="s">
         <v>462</v>
       </c>
       <c r="H189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J189" t="s">
         <v>3</v>
@@ -8057,10 +8048,10 @@
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D190" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G190" t="s">
         <v>462</v>
@@ -8076,16 +8067,16 @@
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D191" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G191" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J191" t="s">
         <v>3</v>
@@ -8095,16 +8086,16 @@
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D192" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G192" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J192" t="s">
         <v>3</v>
@@ -8114,19 +8105,16 @@
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D193" t="s">
-        <v>289</v>
-      </c>
-      <c r="E193" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="G193" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J193" t="s">
         <v>3</v>
@@ -8136,16 +8124,19 @@
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D194" t="s">
-        <v>293</v>
+        <v>289</v>
+      </c>
+      <c r="E194" t="s">
+        <v>286</v>
       </c>
       <c r="G194" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J194" t="s">
         <v>3</v>
@@ -8154,71 +8145,59 @@
     <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
+      <c r="C195" t="s">
+        <v>290</v>
+      </c>
+      <c r="D195" t="s">
+        <v>293</v>
+      </c>
+      <c r="G195" t="s">
+        <v>462</v>
+      </c>
+      <c r="H195" t="s">
+        <v>6</v>
+      </c>
+      <c r="J195" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
-      <c r="B196" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B196" s="14"/>
       <c r="C196" t="s">
-        <v>49</v>
+        <v>685</v>
+      </c>
+      <c r="D196" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
-      <c r="C197" t="s">
-        <v>496</v>
-      </c>
-      <c r="D197" t="s">
-        <v>497</v>
-      </c>
-      <c r="G197" t="s">
-        <v>462</v>
-      </c>
-      <c r="H197" t="s">
-        <v>7</v>
-      </c>
-      <c r="J197" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
-      <c r="B198" s="14"/>
+      <c r="B198" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C198" t="s">
-        <v>365</v>
-      </c>
-      <c r="D198" t="s">
-        <v>367</v>
-      </c>
-      <c r="E198" t="s">
-        <v>366</v>
-      </c>
-      <c r="G198" t="s">
-        <v>462</v>
-      </c>
-      <c r="H198" t="s">
-        <v>7</v>
-      </c>
-      <c r="J198" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
-        <v>173</v>
+        <v>496</v>
       </c>
       <c r="D199" t="s">
-        <v>176</v>
+        <v>497</v>
       </c>
       <c r="G199" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J199" t="s">
         <v>3</v>
@@ -8228,10 +8207,13 @@
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" t="s">
-        <v>227</v>
+        <v>365</v>
       </c>
       <c r="D200" t="s">
-        <v>231</v>
+        <v>367</v>
+      </c>
+      <c r="E200" t="s">
+        <v>366</v>
       </c>
       <c r="G200" t="s">
         <v>462</v>
@@ -8247,16 +8229,16 @@
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="D201" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="G201" t="s">
         <v>468</v>
       </c>
       <c r="H201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J201" t="s">
         <v>3</v>
@@ -8266,16 +8248,16 @@
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="D202" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="G202" t="s">
         <v>462</v>
       </c>
       <c r="H202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J202" t="s">
         <v>3</v>
@@ -8283,24 +8265,37 @@
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
-      <c r="B203" s="7" t="s">
-        <v>57</v>
+      <c r="B203" s="14"/>
+      <c r="C203" t="s">
+        <v>271</v>
+      </c>
+      <c r="D203" t="s">
+        <v>274</v>
+      </c>
+      <c r="G203" t="s">
+        <v>468</v>
+      </c>
+      <c r="H203" t="s">
+        <v>5</v>
+      </c>
+      <c r="J203" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="D204" t="s">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="G204" t="s">
         <v>462</v>
       </c>
       <c r="H204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J204" t="s">
         <v>3</v>
@@ -8308,37 +8303,24 @@
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
-      <c r="B205" s="14"/>
-      <c r="C205" t="s">
-        <v>129</v>
-      </c>
-      <c r="D205" t="s">
-        <v>135</v>
-      </c>
-      <c r="G205" t="s">
-        <v>462</v>
-      </c>
-      <c r="H205" t="s">
-        <v>6</v>
-      </c>
-      <c r="J205" t="s">
-        <v>3</v>
+      <c r="B205" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D206" t="s">
-        <v>491</v>
+        <v>134</v>
       </c>
       <c r="G206" t="s">
         <v>462</v>
       </c>
       <c r="H206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J206" t="s">
         <v>3</v>
@@ -8348,16 +8330,16 @@
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="D207" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="G207" t="s">
         <v>462</v>
       </c>
       <c r="H207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J207" t="s">
         <v>3</v>
@@ -8367,16 +8349,16 @@
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" t="s">
-        <v>357</v>
+        <v>130</v>
       </c>
       <c r="D208" t="s">
-        <v>360</v>
+        <v>491</v>
       </c>
       <c r="G208" t="s">
         <v>462</v>
       </c>
       <c r="H208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J208" t="s">
         <v>3</v>
@@ -8385,70 +8367,70 @@
     <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
-    </row>
-    <row r="210" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="9" t="s">
+      <c r="C209" t="s">
+        <v>232</v>
+      </c>
+      <c r="D209" t="s">
+        <v>235</v>
+      </c>
+      <c r="G209" t="s">
+        <v>462</v>
+      </c>
+      <c r="H209" t="s">
+        <v>5</v>
+      </c>
+      <c r="J209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="14"/>
+      <c r="B210" s="14"/>
+      <c r="C210" t="s">
+        <v>357</v>
+      </c>
+      <c r="D210" t="s">
+        <v>360</v>
+      </c>
+      <c r="G210" t="s">
+        <v>462</v>
+      </c>
+      <c r="H210" t="s">
+        <v>5</v>
+      </c>
+      <c r="J210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="14"/>
+      <c r="B211" s="14"/>
+    </row>
+    <row r="212" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B212" s="9" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
-      <c r="B211" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C211" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
-      <c r="B212" s="14"/>
-      <c r="C212" t="s">
-        <v>129</v>
-      </c>
-      <c r="D212" t="s">
-        <v>136</v>
-      </c>
-      <c r="G212" t="s">
-        <v>462</v>
-      </c>
-      <c r="H212" t="s">
-        <v>6</v>
-      </c>
-      <c r="J212" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
-      <c r="B213" s="14"/>
+      <c r="B213" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C213" t="s">
-        <v>130</v>
-      </c>
-      <c r="D213" t="s">
-        <v>137</v>
-      </c>
-      <c r="G213" t="s">
-        <v>462</v>
-      </c>
-      <c r="H213" t="s">
-        <v>7</v>
-      </c>
-      <c r="J213" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D214" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G214" t="s">
         <v>462</v>
@@ -8464,32 +8446,35 @@
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="D215" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="G215" t="s">
         <v>462</v>
       </c>
       <c r="H215" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="J215" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" t="s">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="D216" t="s">
-        <v>361</v>
+        <v>138</v>
       </c>
       <c r="G216" t="s">
         <v>462</v>
       </c>
       <c r="H216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J216" t="s">
         <v>3</v>
@@ -8498,64 +8483,67 @@
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
-    </row>
-    <row r="218" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B218" s="12" t="s">
-        <v>46</v>
+      <c r="C217" t="s">
+        <v>232</v>
+      </c>
+      <c r="D217" t="s">
+        <v>236</v>
+      </c>
+      <c r="G217" t="s">
+        <v>462</v>
+      </c>
+      <c r="H217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="14"/>
+      <c r="B218" s="14"/>
+      <c r="C218" t="s">
+        <v>357</v>
+      </c>
+      <c r="D218" t="s">
+        <v>361</v>
+      </c>
+      <c r="G218" t="s">
+        <v>462</v>
+      </c>
+      <c r="H218" t="s">
+        <v>5</v>
+      </c>
+      <c r="J218" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
-      <c r="B219" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C219" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
-      <c r="B220" s="14"/>
-      <c r="C220" t="s">
-        <v>312</v>
-      </c>
-      <c r="D220" t="s">
-        <v>318</v>
-      </c>
-      <c r="G220" t="s">
-        <v>462</v>
-      </c>
-      <c r="H220" t="s">
-        <v>7</v>
+      <c r="B219" s="14"/>
+    </row>
+    <row r="220" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
-      <c r="B221" s="14"/>
+      <c r="B221" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C221" t="s">
-        <v>313</v>
-      </c>
-      <c r="D221" t="s">
-        <v>319</v>
-      </c>
-      <c r="G221" t="s">
-        <v>462</v>
-      </c>
-      <c r="H221" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D222" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G222" t="s">
         <v>462</v>
@@ -8568,10 +8556,10 @@
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D223" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G223" t="s">
         <v>462</v>
@@ -8584,10 +8572,10 @@
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D224" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G224" t="s">
         <v>462</v>
@@ -8600,10 +8588,10 @@
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D225" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G225" t="s">
         <v>462</v>
@@ -8616,26 +8604,26 @@
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="D226" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="G226" t="s">
         <v>462</v>
       </c>
       <c r="H226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>637</v>
+        <v>317</v>
       </c>
       <c r="D227" t="s">
-        <v>638</v>
+        <v>323</v>
       </c>
       <c r="G227" t="s">
         <v>462</v>
@@ -8648,29 +8636,26 @@
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>639</v>
+        <v>350</v>
       </c>
       <c r="D228" t="s">
-        <v>640</v>
+        <v>351</v>
       </c>
       <c r="G228" t="s">
         <v>462</v>
       </c>
       <c r="H228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
-        <v>324</v>
+        <v>637</v>
       </c>
       <c r="D229" t="s">
-        <v>327</v>
-      </c>
-      <c r="E229" t="s">
-        <v>498</v>
+        <v>638</v>
       </c>
       <c r="G229" t="s">
         <v>462</v>
@@ -8683,13 +8668,10 @@
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>325</v>
+        <v>639</v>
       </c>
       <c r="D230" t="s">
-        <v>328</v>
-      </c>
-      <c r="E230" t="s">
-        <v>499</v>
+        <v>640</v>
       </c>
       <c r="G230" t="s">
         <v>462</v>
@@ -8702,13 +8684,13 @@
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D231" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E231" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G231" t="s">
         <v>462</v>
@@ -8721,13 +8703,13 @@
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D232" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E232" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G232" t="s">
         <v>462</v>
@@ -8740,13 +8722,13 @@
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D233" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E233" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G233" t="s">
         <v>462</v>
@@ -8759,13 +8741,13 @@
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D234" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E234" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G234" t="s">
         <v>462</v>
@@ -8778,13 +8760,13 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D235" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E235" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G235" t="s">
         <v>462</v>
@@ -8797,13 +8779,13 @@
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D236" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E236" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G236" t="s">
         <v>462</v>
@@ -8816,13 +8798,13 @@
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D237" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E237" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G237" t="s">
         <v>462</v>
@@ -8835,13 +8817,13 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D238" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E238" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G238" t="s">
         <v>462</v>
@@ -8854,13 +8836,13 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D239" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E239" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G239" t="s">
         <v>462</v>
@@ -8873,13 +8855,13 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D240" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E240" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G240" t="s">
         <v>462</v>
@@ -8892,13 +8874,13 @@
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D241" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E241" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G241" t="s">
         <v>462</v>
@@ -8911,102 +8893,114 @@
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" t="s">
-        <v>656</v>
+        <v>345</v>
       </c>
       <c r="D242" t="s">
-        <v>657</v>
+        <v>348</v>
+      </c>
+      <c r="E242" t="s">
+        <v>499</v>
       </c>
       <c r="G242" t="s">
         <v>462</v>
       </c>
       <c r="H242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
-    </row>
-    <row r="244" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B244" s="10" t="s">
-        <v>36</v>
+      <c r="C243" t="s">
+        <v>346</v>
+      </c>
+      <c r="D243" t="s">
+        <v>347</v>
+      </c>
+      <c r="E243" t="s">
+        <v>500</v>
+      </c>
+      <c r="G243" t="s">
+        <v>462</v>
+      </c>
+      <c r="H243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="14"/>
+      <c r="B244" s="14"/>
+      <c r="C244" t="s">
+        <v>656</v>
+      </c>
+      <c r="D244" t="s">
+        <v>657</v>
+      </c>
+      <c r="G244" t="s">
+        <v>462</v>
+      </c>
+      <c r="H244" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
-      <c r="B245" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C245" t="s">
-        <v>403</v>
-      </c>
-      <c r="E245" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
-      <c r="B246" s="14"/>
-      <c r="C246" t="s">
-        <v>404</v>
-      </c>
-      <c r="G246" t="s">
-        <v>462</v>
-      </c>
-      <c r="H246" t="s">
-        <v>2</v>
+      <c r="B245" s="14"/>
+    </row>
+    <row r="246" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
-      <c r="B247" s="14"/>
+      <c r="B247" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="C247" t="s">
-        <v>356</v>
-      </c>
-      <c r="G247" t="s">
-        <v>462</v>
-      </c>
-      <c r="H247" t="s">
-        <v>2</v>
+        <v>403</v>
+      </c>
+      <c r="E247" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G248" t="s">
         <v>462</v>
       </c>
       <c r="H248" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="G249" t="s">
         <v>462</v>
       </c>
       <c r="H249" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" t="s">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="G250" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H250" t="s">
         <v>402</v>
@@ -9016,140 +9010,140 @@
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G251" t="s">
         <v>462</v>
       </c>
       <c r="H251" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" t="s">
-        <v>408</v>
+        <v>503</v>
       </c>
       <c r="G252" t="s">
         <v>468</v>
       </c>
       <c r="H252" t="s">
-        <v>502</v>
+        <v>402</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G253" t="s">
         <v>462</v>
       </c>
       <c r="H253" t="s">
-        <v>502</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="G254" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H254" t="s">
-        <v>2</v>
+        <v>502</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
+      <c r="C255" t="s">
+        <v>409</v>
+      </c>
+      <c r="G255" t="s">
+        <v>462</v>
+      </c>
+      <c r="H255" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
-      <c r="B256" s="16" t="s">
-        <v>410</v>
-      </c>
+      <c r="B256" s="14"/>
       <c r="C256" t="s">
-        <v>643</v>
-      </c>
-      <c r="E256" t="s">
-        <v>441</v>
+        <v>355</v>
       </c>
       <c r="G256" t="s">
         <v>462</v>
       </c>
       <c r="H256" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
-      <c r="C257" t="s">
-        <v>644</v>
-      </c>
-      <c r="G257" t="s">
-        <v>462</v>
-      </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
-      <c r="B258" s="14"/>
+      <c r="B258" s="16" t="s">
+        <v>410</v>
+      </c>
       <c r="C258" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="E258" t="s">
+        <v>441</v>
       </c>
       <c r="G258" t="s">
-        <v>468</v>
+        <v>462</v>
+      </c>
+      <c r="H258" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G259" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>411</v>
+        <v>645</v>
       </c>
       <c r="G260" t="s">
-        <v>462</v>
-      </c>
-      <c r="H260" t="s">
-        <v>2</v>
+        <v>468</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>412</v>
+        <v>646</v>
       </c>
       <c r="G261" t="s">
         <v>468</v>
-      </c>
-      <c r="H261" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G262" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H262" t="s">
         <v>2</v>
@@ -9159,10 +9153,10 @@
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G263" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H263" t="s">
         <v>2</v>
@@ -9172,62 +9166,62 @@
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G264" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H264" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G265" t="s">
         <v>462</v>
       </c>
       <c r="H265" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G266" t="s">
         <v>462</v>
       </c>
       <c r="H266" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G267" t="s">
         <v>462</v>
       </c>
       <c r="H267" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G268" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H268" t="s">
         <v>2</v>
@@ -9237,7 +9231,7 @@
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G269" t="s">
         <v>462</v>
@@ -9250,10 +9244,10 @@
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G270" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H270" t="s">
         <v>2</v>
@@ -9263,10 +9257,10 @@
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G271" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H271" t="s">
         <v>2</v>
@@ -9276,7 +9270,7 @@
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G272" t="s">
         <v>462</v>
@@ -9289,33 +9283,33 @@
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G273" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H273" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G274" t="s">
         <v>462</v>
       </c>
       <c r="H274" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G275" t="s">
         <v>462</v>
@@ -9328,56 +9322,56 @@
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" t="s">
-        <v>642</v>
+        <v>438</v>
       </c>
       <c r="G276" t="s">
-        <v>658</v>
+        <v>462</v>
       </c>
       <c r="H276" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
+      <c r="C277" t="s">
+        <v>439</v>
+      </c>
+      <c r="G277" t="s">
+        <v>462</v>
+      </c>
+      <c r="H277" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
+      <c r="C278" t="s">
+        <v>642</v>
+      </c>
+      <c r="G278" t="s">
+        <v>658</v>
+      </c>
+      <c r="H278" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
-      <c r="B279" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C279" t="s">
-        <v>470</v>
-      </c>
-      <c r="G279" t="s">
-        <v>462</v>
-      </c>
-      <c r="H279" t="s">
-        <v>2</v>
-      </c>
+      <c r="B279" s="14"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
-      <c r="C280" t="s">
-        <v>471</v>
-      </c>
-      <c r="G280" t="s">
-        <v>462</v>
-      </c>
-      <c r="H280" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
-      <c r="B281" s="14"/>
+      <c r="B281" s="7" t="s">
+        <v>477</v>
+      </c>
       <c r="C281" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G281" t="s">
         <v>462</v>
@@ -9390,7 +9384,7 @@
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G282" t="s">
         <v>462</v>
@@ -9403,7 +9397,7 @@
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G283" t="s">
         <v>462</v>
@@ -9416,7 +9410,7 @@
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G284" t="s">
         <v>462</v>
@@ -9429,20 +9423,20 @@
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G285" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H285" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G286" t="s">
         <v>462</v>
@@ -9455,55 +9449,55 @@
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G287" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H287" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
+      <c r="C288" t="s">
+        <v>478</v>
+      </c>
+      <c r="G288" t="s">
+        <v>462</v>
+      </c>
+      <c r="H288" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
-      <c r="B289" s="16" t="s">
-        <v>423</v>
-      </c>
+      <c r="B289" s="14"/>
       <c r="C289" t="s">
-        <v>424</v>
-      </c>
-      <c r="E289" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="G289" t="s">
         <v>462</v>
       </c>
       <c r="H289" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
-      <c r="C290" t="s">
-        <v>425</v>
-      </c>
-      <c r="G290" t="s">
-        <v>468</v>
-      </c>
-      <c r="H290" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
-      <c r="B291" s="14"/>
+      <c r="B291" s="16" t="s">
+        <v>423</v>
+      </c>
       <c r="C291" t="s">
-        <v>426</v>
+        <v>424</v>
+      </c>
+      <c r="E291" t="s">
+        <v>441</v>
       </c>
       <c r="G291" t="s">
         <v>462</v>
@@ -9516,79 +9510,85 @@
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G292" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H292" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G293" t="s">
         <v>462</v>
       </c>
       <c r="H293" t="s">
-        <v>5</v>
+        <v>402</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G294" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H294" t="s">
-        <v>634</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G295" t="s">
         <v>462</v>
       </c>
       <c r="H295" t="s">
-        <v>402</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" t="s">
-        <v>647</v>
+        <v>430</v>
       </c>
       <c r="G296" t="s">
         <v>468</v>
+      </c>
+      <c r="H296" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" t="s">
-        <v>648</v>
+        <v>431</v>
       </c>
       <c r="G297" t="s">
-        <v>468</v>
+        <v>462</v>
+      </c>
+      <c r="H297" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
       <c r="C298" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G298" t="s">
         <v>468</v>
@@ -9597,43 +9597,37 @@
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
+      <c r="C299" t="s">
+        <v>648</v>
+      </c>
+      <c r="G299" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
-      <c r="B300" s="16" t="s">
-        <v>433</v>
-      </c>
+      <c r="B300" s="14"/>
       <c r="C300" t="s">
-        <v>434</v>
-      </c>
-      <c r="E300" t="s">
-        <v>440</v>
+        <v>649</v>
       </c>
       <c r="G300" t="s">
         <v>468</v>
-      </c>
-      <c r="H300" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
-      <c r="C301" t="s">
-        <v>435</v>
-      </c>
-      <c r="G301" t="s">
-        <v>468</v>
-      </c>
-      <c r="H301" t="s">
-        <v>402</v>
-      </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
-      <c r="B302" s="14"/>
+      <c r="B302" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="C302" t="s">
-        <v>436</v>
+        <v>434</v>
+      </c>
+      <c r="E302" t="s">
+        <v>440</v>
       </c>
       <c r="G302" t="s">
         <v>468</v>
@@ -9646,7 +9640,7 @@
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G303" t="s">
         <v>468</v>
@@ -9658,56 +9652,48 @@
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
-    </row>
-    <row r="305" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B305" s="13" t="s">
-        <v>37</v>
+      <c r="C304" t="s">
+        <v>436</v>
+      </c>
+      <c r="G304" t="s">
+        <v>468</v>
+      </c>
+      <c r="H304" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="14"/>
+      <c r="B305" s="14"/>
+      <c r="C305" t="s">
+        <v>437</v>
+      </c>
+      <c r="G305" t="s">
+        <v>468</v>
+      </c>
+      <c r="H305" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="14"/>
-      <c r="B306" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C306" t="s">
-        <v>364</v>
-      </c>
-      <c r="G306" t="s">
-        <v>462</v>
-      </c>
-      <c r="H306" t="s">
-        <v>2</v>
-      </c>
-      <c r="J306" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
-      <c r="B307" s="14"/>
-      <c r="C307" t="s">
-        <v>399</v>
-      </c>
-      <c r="G307" t="s">
-        <v>462</v>
-      </c>
-      <c r="H307" t="s">
-        <v>2</v>
-      </c>
-      <c r="J307" t="s">
-        <v>3</v>
+      <c r="B306" s="14"/>
+    </row>
+    <row r="307" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
-      <c r="B308" s="14" t="s">
-        <v>397</v>
+      <c r="B308" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="C308" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="G308" t="s">
         <v>462</v>
@@ -9719,11 +9705,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="G309" t="s">
         <v>462</v>
@@ -9735,11 +9721,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
-      <c r="B310" s="14"/>
+      <c r="B310" s="14" t="s">
+        <v>397</v>
+      </c>
       <c r="C310" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G310" t="s">
         <v>462</v>
@@ -9751,11 +9739,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
       <c r="C311" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G311" t="s">
         <v>462</v>
@@ -9767,13 +9755,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
-      <c r="B312" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>389</v>
+      <c r="B312" s="14"/>
+      <c r="C312" t="s">
+        <v>384</v>
       </c>
       <c r="G312" t="s">
         <v>462</v>
@@ -9788,8 +9774,8 @@
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
-      <c r="C313" s="4" t="s">
-        <v>400</v>
+      <c r="C313" t="s">
+        <v>393</v>
       </c>
       <c r="G313" t="s">
         <v>462</v>
@@ -9803,15 +9789,17 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
-      <c r="B314" s="14"/>
+      <c r="B314" s="14" t="s">
+        <v>387</v>
+      </c>
       <c r="C314" s="4" t="s">
-        <v>630</v>
+        <v>389</v>
       </c>
       <c r="G314" t="s">
         <v>462</v>
       </c>
       <c r="H314" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
         <v>3</v>
@@ -9821,13 +9809,13 @@
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="4" t="s">
-        <v>631</v>
+        <v>400</v>
       </c>
       <c r="G315" t="s">
         <v>462</v>
       </c>
       <c r="H315" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
         <v>3</v>
@@ -9837,7 +9825,7 @@
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G316" t="s">
         <v>462</v>
@@ -9853,7 +9841,7 @@
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G317" t="s">
         <v>462</v>
@@ -9868,21 +9856,30 @@
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
-      <c r="C318" s="4"/>
+      <c r="C318" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="G318" t="s">
+        <v>462</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1</v>
+      </c>
+      <c r="J318" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
-      <c r="B319" s="7" t="s">
-        <v>397</v>
-      </c>
+      <c r="B319" s="14"/>
       <c r="C319" s="4" t="s">
-        <v>362</v>
+        <v>633</v>
       </c>
       <c r="G319" t="s">
         <v>462</v>
       </c>
       <c r="H319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J319" t="s">
         <v>3</v>
@@ -9891,24 +9888,15 @@
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
       <c r="B320" s="14"/>
-      <c r="C320" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G320" t="s">
-        <v>462</v>
-      </c>
-      <c r="H320" t="s">
-        <v>2</v>
-      </c>
-      <c r="J320" t="s">
-        <v>3</v>
-      </c>
+      <c r="C320" s="4"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
-      <c r="B321" s="14"/>
+      <c r="B321" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="C321" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="G321" t="s">
         <v>462</v>
@@ -9924,7 +9912,7 @@
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G322" t="s">
         <v>462</v>
@@ -9940,13 +9928,13 @@
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="G323" t="s">
         <v>462</v>
       </c>
       <c r="H323" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
         <v>3</v>
@@ -9954,11 +9942,9 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
-      <c r="B324" s="14" t="s">
-        <v>398</v>
-      </c>
+      <c r="B324" s="14"/>
       <c r="C324" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G324" t="s">
         <v>462</v>
@@ -9974,13 +9960,13 @@
       <c r="A325" s="14"/>
       <c r="B325" s="14"/>
       <c r="C325" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G325" t="s">
         <v>462</v>
       </c>
       <c r="H325" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="J325" t="s">
         <v>3</v>
@@ -9988,22 +9974,33 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="14"/>
-      <c r="C326" s="4"/>
+      <c r="B326" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G326" t="s">
+        <v>462</v>
+      </c>
+      <c r="H326" t="s">
+        <v>2</v>
+      </c>
+      <c r="J326" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
-      <c r="B327" s="16" t="s">
-        <v>398</v>
-      </c>
+      <c r="B327" s="14"/>
       <c r="C327" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G327" t="s">
         <v>462</v>
       </c>
       <c r="H327" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J327" t="s">
         <v>3</v>
@@ -10012,24 +10009,15 @@
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
-      <c r="C328" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G328" t="s">
-        <v>462</v>
-      </c>
-      <c r="H328" t="s">
-        <v>1</v>
-      </c>
-      <c r="J328" t="s">
-        <v>3</v>
-      </c>
+      <c r="C328" s="4"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
-      <c r="B329" s="14"/>
+      <c r="B329" s="16" t="s">
+        <v>398</v>
+      </c>
       <c r="C329" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G329" t="s">
         <v>462</v>
@@ -10045,7 +10033,7 @@
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G330" t="s">
         <v>462</v>
@@ -10059,24 +10047,31 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C331" s="4"/>
+      <c r="B331" s="14"/>
+      <c r="C331" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G331" t="s">
+        <v>462</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1</v>
+      </c>
+      <c r="J331" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B332" s="14"/>
       <c r="C332" s="4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G332" t="s">
         <v>462</v>
       </c>
       <c r="H332" t="s">
-        <v>402</v>
+        <v>1</v>
       </c>
       <c r="J332" t="s">
         <v>3</v>
@@ -10084,25 +10079,18 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="14"/>
-      <c r="C333" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G333" t="s">
-        <v>462</v>
-      </c>
-      <c r="H333" t="s">
-        <v>2</v>
-      </c>
-      <c r="J333" t="s">
-        <v>3</v>
-      </c>
+      <c r="B333" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C333" s="4"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
-      <c r="B334" s="14"/>
+      <c r="B334" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C334" s="4" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G334" t="s">
         <v>462</v>
@@ -10118,13 +10106,13 @@
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="4" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="G335" t="s">
         <v>462</v>
       </c>
       <c r="H335" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
       <c r="J335" t="s">
         <v>3</v>
@@ -10134,7 +10122,7 @@
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G336" t="s">
         <v>462</v>
@@ -10150,7 +10138,7 @@
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G337" t="s">
         <v>462</v>
@@ -10166,13 +10154,13 @@
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="4" t="s">
-        <v>492</v>
+        <v>390</v>
       </c>
       <c r="G338" t="s">
         <v>462</v>
       </c>
       <c r="H338" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="J338" t="s">
         <v>3</v>
@@ -10182,7 +10170,7 @@
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
       <c r="C339" s="4" t="s">
-        <v>518</v>
+        <v>391</v>
       </c>
       <c r="G339" t="s">
         <v>462</v>
@@ -10197,21 +10185,30 @@
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
-      <c r="C340" s="4"/>
+      <c r="C340" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G340" t="s">
+        <v>462</v>
+      </c>
+      <c r="H340" t="s">
+        <v>2</v>
+      </c>
+      <c r="J340" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
-      <c r="B341" s="18" t="s">
-        <v>387</v>
-      </c>
+      <c r="B341" s="14"/>
       <c r="C341" s="4" t="s">
-        <v>379</v>
+        <v>518</v>
       </c>
       <c r="G341" t="s">
         <v>462</v>
       </c>
       <c r="H341" t="s">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="J341" t="s">
         <v>3</v>
@@ -10219,25 +10216,16 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
-      <c r="B342" s="15"/>
-      <c r="C342" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G342" t="s">
-        <v>462</v>
-      </c>
-      <c r="H342" t="s">
-        <v>0</v>
-      </c>
-      <c r="J342" t="s">
-        <v>3</v>
-      </c>
+      <c r="B342" s="14"/>
+      <c r="C342" s="4"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
-      <c r="B343" s="15"/>
+      <c r="B343" s="18" t="s">
+        <v>387</v>
+      </c>
       <c r="C343" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G343" t="s">
         <v>462</v>
@@ -10253,7 +10241,7 @@
       <c r="A344" s="14"/>
       <c r="B344" s="15"/>
       <c r="C344" s="4" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="G344" t="s">
         <v>462</v>
@@ -10269,7 +10257,7 @@
       <c r="A345" s="14"/>
       <c r="B345" s="15"/>
       <c r="C345" s="4" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G345" t="s">
         <v>462</v>
@@ -10285,7 +10273,7 @@
       <c r="A346" s="14"/>
       <c r="B346" s="15"/>
       <c r="C346" s="4" t="s">
-        <v>520</v>
+        <v>376</v>
       </c>
       <c r="G346" t="s">
         <v>462</v>
@@ -10297,191 +10285,191 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B347" s="11" t="s">
-        <v>38</v>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="14"/>
+      <c r="B347" s="15"/>
+      <c r="C347" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G347" t="s">
+        <v>462</v>
+      </c>
+      <c r="H347" t="s">
+        <v>0</v>
+      </c>
+      <c r="J347" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="14"/>
-      <c r="B348" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C348" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A349" s="14"/>
-      <c r="B349" s="14"/>
-      <c r="C349" t="s">
-        <v>306</v>
-      </c>
-      <c r="D349" t="s">
-        <v>307</v>
-      </c>
-      <c r="E349" t="s">
-        <v>596</v>
-      </c>
-      <c r="G349" t="s">
-        <v>468</v>
-      </c>
-      <c r="H349" t="s">
-        <v>664</v>
+      <c r="B348" s="15"/>
+      <c r="C348" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G348" t="s">
+        <v>462</v>
+      </c>
+      <c r="H348" t="s">
+        <v>0</v>
+      </c>
+      <c r="J348" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
-      <c r="B350" s="14"/>
+      <c r="B350" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C350" t="s">
-        <v>308</v>
-      </c>
-      <c r="D350" t="s">
-        <v>309</v>
-      </c>
-      <c r="G350" t="s">
-        <v>468</v>
-      </c>
-      <c r="H350" t="s">
-        <v>664</v>
+        <v>50</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" t="s">
-        <v>582</v>
+        <v>306</v>
       </c>
       <c r="D351" t="s">
-        <v>583</v>
+        <v>307</v>
+      </c>
+      <c r="E351" t="s">
+        <v>596</v>
       </c>
       <c r="G351" t="s">
         <v>468</v>
       </c>
       <c r="H351" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" t="s">
-        <v>584</v>
+        <v>308</v>
       </c>
       <c r="D352" t="s">
-        <v>585</v>
+        <v>309</v>
       </c>
       <c r="G352" t="s">
         <v>468</v>
       </c>
       <c r="H352" t="s">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D353" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G353" t="s">
         <v>468</v>
       </c>
       <c r="H353" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" t="s">
-        <v>654</v>
+        <v>584</v>
       </c>
       <c r="D354" t="s">
-        <v>655</v>
+        <v>585</v>
       </c>
       <c r="G354" t="s">
         <v>468</v>
       </c>
       <c r="H354" t="s">
-        <v>672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
+      <c r="C355" t="s">
+        <v>586</v>
+      </c>
+      <c r="D355" t="s">
+        <v>587</v>
+      </c>
+      <c r="G355" t="s">
+        <v>468</v>
+      </c>
+      <c r="H355" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
-      <c r="B356" s="7" t="s">
-        <v>397</v>
-      </c>
+      <c r="B356" s="14"/>
       <c r="C356" t="s">
-        <v>572</v>
+        <v>654</v>
+      </c>
+      <c r="D356" t="s">
+        <v>655</v>
+      </c>
+      <c r="G356" t="s">
+        <v>468</v>
+      </c>
+      <c r="H356" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
-      <c r="C357" t="s">
-        <v>588</v>
-      </c>
-      <c r="D357" t="s">
-        <v>592</v>
-      </c>
-      <c r="G357" t="s">
-        <v>468</v>
-      </c>
-      <c r="H357" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
-      <c r="B358" s="14"/>
+      <c r="B358" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="C358" t="s">
-        <v>589</v>
-      </c>
-      <c r="D358" t="s">
-        <v>593</v>
-      </c>
-      <c r="G358" t="s">
-        <v>468</v>
-      </c>
-      <c r="H358" t="s">
-        <v>1</v>
+        <v>572</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" t="s">
-        <v>275</v>
+        <v>588</v>
       </c>
       <c r="D359" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G359" t="s">
         <v>468</v>
       </c>
       <c r="H359" t="s">
-        <v>661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D360" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G360" t="s">
         <v>468</v>
@@ -10494,181 +10482,205 @@
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" t="s">
-        <v>575</v>
+        <v>275</v>
       </c>
       <c r="D361" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="G361" t="s">
         <v>468</v>
+      </c>
+      <c r="H361" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
       <c r="C362" t="s">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="D362" t="s">
-        <v>653</v>
-      </c>
-      <c r="E362" t="s">
-        <v>668</v>
+        <v>595</v>
       </c>
       <c r="G362" t="s">
         <v>468</v>
       </c>
       <c r="H362" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
       <c r="B363" s="14"/>
+      <c r="C363" t="s">
+        <v>575</v>
+      </c>
+      <c r="D363" t="s">
+        <v>591</v>
+      </c>
+      <c r="G363" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
-      <c r="B364" t="s">
-        <v>573</v>
-      </c>
+      <c r="B364" s="14"/>
       <c r="C364" t="s">
-        <v>574</v>
+        <v>652</v>
+      </c>
+      <c r="D364" t="s">
+        <v>653</v>
+      </c>
+      <c r="E364" t="s">
+        <v>668</v>
+      </c>
+      <c r="G364" t="s">
+        <v>468</v>
+      </c>
+      <c r="H364" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
       <c r="B365" s="14"/>
-      <c r="C365" t="s">
-        <v>575</v>
-      </c>
-      <c r="D365" t="s">
-        <v>577</v>
-      </c>
-      <c r="G365" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="14"/>
-      <c r="B366" s="14"/>
+      <c r="B366" t="s">
+        <v>573</v>
+      </c>
       <c r="C366" t="s">
-        <v>576</v>
-      </c>
-      <c r="D366" t="s">
-        <v>578</v>
-      </c>
-      <c r="G366" t="s">
-        <v>468</v>
+        <v>574</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D367" t="s">
-        <v>581</v>
-      </c>
-      <c r="E367" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G367" t="s">
         <v>468</v>
-      </c>
-      <c r="H367" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
       <c r="C368" t="s">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="D368" t="s">
-        <v>662</v>
+        <v>578</v>
       </c>
       <c r="G368" t="s">
         <v>468</v>
-      </c>
-      <c r="H368" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
+      <c r="C369" t="s">
+        <v>580</v>
+      </c>
+      <c r="D369" t="s">
+        <v>581</v>
+      </c>
+      <c r="E369" t="s">
+        <v>579</v>
+      </c>
+      <c r="G369" t="s">
+        <v>468</v>
+      </c>
+      <c r="H369" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
-      <c r="B370" t="s">
-        <v>42</v>
-      </c>
+      <c r="B370" s="14"/>
       <c r="C370" t="s">
-        <v>51</v>
+        <v>660</v>
+      </c>
+      <c r="D370" t="s">
+        <v>662</v>
+      </c>
+      <c r="G370" t="s">
+        <v>468</v>
+      </c>
+      <c r="H370" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
-      <c r="C371" t="s">
-        <v>310</v>
-      </c>
-      <c r="D371" t="s">
-        <v>311</v>
-      </c>
-      <c r="G371" t="s">
-        <v>468</v>
-      </c>
-      <c r="H371" t="s">
-        <v>663</v>
-      </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
-      <c r="B372" s="14"/>
+      <c r="B372" t="s">
+        <v>42</v>
+      </c>
       <c r="C372" t="s">
-        <v>650</v>
-      </c>
-      <c r="D372" t="s">
-        <v>651</v>
-      </c>
-      <c r="G372" t="s">
-        <v>468</v>
-      </c>
-      <c r="H372" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="14"/>
       <c r="B373" s="14"/>
-    </row>
-    <row r="374" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="C374" s="26" t="s">
-        <v>684</v>
+      <c r="C373" t="s">
+        <v>310</v>
+      </c>
+      <c r="D373" t="s">
+        <v>311</v>
+      </c>
+      <c r="G373" t="s">
+        <v>468</v>
+      </c>
+      <c r="H373" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" s="14"/>
+      <c r="B374" s="14"/>
+      <c r="C374" t="s">
+        <v>650</v>
+      </c>
+      <c r="D374" t="s">
+        <v>651</v>
+      </c>
+      <c r="G374" t="s">
+        <v>468</v>
+      </c>
+      <c r="H374" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="14"/>
-      <c r="B375" t="s">
-        <v>25</v>
-      </c>
-      <c r="C375" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A376" s="14"/>
-      <c r="B376" s="14"/>
+      <c r="B375" s="14"/>
+    </row>
+    <row r="376" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="C376" s="26" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="14"/>
-      <c r="B377" s="14"/>
+      <c r="B377" t="s">
+        <v>25</v>
+      </c>
+      <c r="C377" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="14"/>
@@ -10680,12 +10692,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="14"/>
-      <c r="B380" t="s">
-        <v>26</v>
-      </c>
-      <c r="C380" t="s">
-        <v>677</v>
-      </c>
+      <c r="B380" s="14"/>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="14"/>
@@ -10693,7 +10700,12 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="14"/>
-      <c r="B382" s="14"/>
+      <c r="B382" t="s">
+        <v>26</v>
+      </c>
+      <c r="C382" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="14"/>
@@ -10705,12 +10717,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="14"/>
-      <c r="B385" t="s">
-        <v>27</v>
-      </c>
-      <c r="C385" t="s">
-        <v>678</v>
-      </c>
+      <c r="B385" s="14"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="14"/>
@@ -10718,7 +10725,12 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="14"/>
-      <c r="B387" s="14"/>
+      <c r="B387" t="s">
+        <v>27</v>
+      </c>
+      <c r="C387" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="14"/>
@@ -10730,12 +10742,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="14"/>
-      <c r="B390" t="s">
-        <v>32</v>
-      </c>
-      <c r="C390" t="s">
-        <v>679</v>
-      </c>
+      <c r="B390" s="14"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="14"/>
@@ -10743,7 +10750,12 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="14"/>
-      <c r="B392" s="14"/>
+      <c r="B392" t="s">
+        <v>32</v>
+      </c>
+      <c r="C392" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="14"/>
@@ -10755,12 +10767,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="14"/>
-      <c r="B395" t="s">
-        <v>28</v>
-      </c>
-      <c r="C395" t="s">
-        <v>680</v>
-      </c>
+      <c r="B395" s="14"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
@@ -10768,7 +10775,12 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="14"/>
-      <c r="B397" s="14"/>
+      <c r="B397" t="s">
+        <v>28</v>
+      </c>
+      <c r="C397" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="14"/>
@@ -10780,12 +10792,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="14"/>
-      <c r="B400" t="s">
-        <v>675</v>
-      </c>
-      <c r="C400" t="s">
-        <v>681</v>
-      </c>
+      <c r="B400" s="14"/>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
@@ -10793,7 +10800,12 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="14"/>
-      <c r="B402" s="14"/>
+      <c r="B402" t="s">
+        <v>675</v>
+      </c>
+      <c r="C402" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="14"/>
@@ -10805,12 +10817,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
-      <c r="B405" t="s">
-        <v>674</v>
-      </c>
-      <c r="C405" t="s">
-        <v>682</v>
-      </c>
+      <c r="B405" s="14"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
@@ -10818,7 +10825,12 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="14"/>
-      <c r="B407" s="14"/>
+      <c r="B407" t="s">
+        <v>674</v>
+      </c>
+      <c r="C407" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="14"/>
@@ -10830,12 +10842,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="14"/>
-      <c r="B410" t="s">
-        <v>31</v>
-      </c>
-      <c r="C410" t="s">
-        <v>683</v>
-      </c>
+      <c r="B410" s="14"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="14"/>
@@ -10843,7 +10850,12 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="14"/>
-      <c r="B412" s="14"/>
+      <c r="B412" t="s">
+        <v>31</v>
+      </c>
+      <c r="C412" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="14"/>
@@ -10852,6 +10864,14 @@
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="14"/>
       <c r="B414" s="14"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="14"/>
+      <c r="B415" s="14"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="14"/>
+      <c r="B416" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10863,7 +10883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="711">
   <si>
     <t>Arne</t>
   </si>
@@ -2056,12 +2056,6 @@
     <t>4U_KAPPAK</t>
   </si>
   <si>
-    <t>5R_KAPPAK</t>
-  </si>
-  <si>
-    <t>6A_KAPPAK</t>
-  </si>
-  <si>
     <t>7S_KAPPAK</t>
   </si>
   <si>
@@ -2144,6 +2138,27 @@
   </si>
   <si>
     <t>8S_KAPPAK_CHECKPOINT</t>
+  </si>
+  <si>
+    <t>Staircase</t>
+  </si>
+  <si>
+    <t>Kerps</t>
+  </si>
+  <si>
+    <t>2D_KAPPAK_STAIRCASE</t>
+  </si>
+  <si>
+    <t>3D_KAPPAK_STAIRCASE</t>
+  </si>
+  <si>
+    <t>4U_KAPPAK_STAIRCASE</t>
+  </si>
+  <si>
+    <t>2D_KAPPAK_KERPS</t>
+  </si>
+  <si>
+    <t>3D_KAPPAK_TERRAIN</t>
   </si>
 </sst>
 </file>
@@ -2326,8 +2341,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FF00FF99"/>
-      <color rgb="FFFF99FF"/>
       <color rgb="FF6666FF"/>
     </mruColors>
   </colors>
@@ -4709,10 +4724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G423"/>
+  <dimension ref="A1:G410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C420" sqref="C420"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D383" sqref="D383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,10 +6042,10 @@
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" t="s">
+        <v>680</v>
+      </c>
+      <c r="D83" t="s">
         <v>682</v>
-      </c>
-      <c r="D83" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -6813,10 +6828,10 @@
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D135" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F135" t="s">
         <v>460</v>
@@ -7711,10 +7726,10 @@
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D196" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10060,7 +10075,7 @@
         <v>670</v>
       </c>
       <c r="C376" s="26" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -10075,10 +10090,22 @@
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="14"/>
       <c r="B378" s="14"/>
+      <c r="C378" t="s">
+        <v>704</v>
+      </c>
+      <c r="D378" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="14"/>
       <c r="B379" s="14"/>
+      <c r="C379" t="s">
+        <v>705</v>
+      </c>
+      <c r="D379" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="14"/>
@@ -10086,300 +10113,286 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="14"/>
-      <c r="B381" s="14"/>
+      <c r="B381" t="s">
+        <v>26</v>
+      </c>
+      <c r="C381" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="14"/>
-      <c r="B382" t="s">
-        <v>26</v>
-      </c>
+      <c r="B382" s="14"/>
       <c r="C382" t="s">
-        <v>674</v>
+        <v>704</v>
+      </c>
+      <c r="D382" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="14"/>
       <c r="B383" s="14"/>
+      <c r="C383" t="s">
+        <v>205</v>
+      </c>
+      <c r="D383" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="14"/>
       <c r="B384" s="14"/>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="14"/>
       <c r="B385" s="14"/>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="14"/>
-      <c r="B386" s="14"/>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>27</v>
+      </c>
+      <c r="C386" t="s">
+        <v>675</v>
+      </c>
+      <c r="D386" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="14"/>
-      <c r="B387" t="s">
-        <v>27</v>
-      </c>
+      <c r="B387" s="14"/>
       <c r="C387" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="14"/>
       <c r="B388" s="14"/>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="14"/>
-      <c r="B389" s="14"/>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>672</v>
+      </c>
+      <c r="C389" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="14"/>
       <c r="B390" s="14"/>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="14"/>
       <c r="B391" s="14"/>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="14"/>
-      <c r="B392" t="s">
-        <v>32</v>
-      </c>
-      <c r="C392" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B392" s="14"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="14"/>
       <c r="B393" s="14"/>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="14"/>
-      <c r="B394" s="14"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>671</v>
+      </c>
+      <c r="C394" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="14"/>
       <c r="B395" s="14"/>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C395" t="s">
+        <v>684</v>
+      </c>
+      <c r="D395" t="s">
+        <v>702</v>
+      </c>
+      <c r="F395" t="s">
+        <v>467</v>
+      </c>
+      <c r="G395" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
       <c r="B396" s="14"/>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C396" t="s">
+        <v>685</v>
+      </c>
+      <c r="D396" t="s">
+        <v>701</v>
+      </c>
+      <c r="F396" t="s">
+        <v>467</v>
+      </c>
+      <c r="G396" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="14"/>
-      <c r="B397" t="s">
-        <v>28</v>
-      </c>
+      <c r="B397" s="14"/>
       <c r="C397" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+      <c r="D397" t="s">
+        <v>700</v>
+      </c>
+      <c r="F397" t="s">
+        <v>467</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="14"/>
       <c r="B398" s="14"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C398" t="s">
+        <v>688</v>
+      </c>
+      <c r="D398" t="s">
+        <v>699</v>
+      </c>
+      <c r="F398" t="s">
+        <v>467</v>
+      </c>
+      <c r="G398" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="14"/>
       <c r="B399" s="14"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C399" t="s">
+        <v>687</v>
+      </c>
+      <c r="D399" t="s">
+        <v>694</v>
+      </c>
+      <c r="F399" t="s">
+        <v>467</v>
+      </c>
+      <c r="G399" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="14"/>
       <c r="B400" s="14"/>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C400" t="s">
+        <v>689</v>
+      </c>
+      <c r="D400" t="s">
+        <v>695</v>
+      </c>
+      <c r="F400" t="s">
+        <v>467</v>
+      </c>
+      <c r="G400" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
       <c r="B401" s="14"/>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C401" t="s">
+        <v>690</v>
+      </c>
+      <c r="D401" t="s">
+        <v>696</v>
+      </c>
+      <c r="F401" t="s">
+        <v>467</v>
+      </c>
+      <c r="G401" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="14"/>
-      <c r="B402" t="s">
-        <v>672</v>
-      </c>
+      <c r="B402" s="14"/>
       <c r="C402" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+      <c r="D402" t="s">
+        <v>697</v>
+      </c>
+      <c r="F402" t="s">
+        <v>467</v>
+      </c>
+      <c r="G402" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="14"/>
       <c r="B403" s="14"/>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C403" t="s">
+        <v>692</v>
+      </c>
+      <c r="D403" t="s">
+        <v>698</v>
+      </c>
+      <c r="F403" t="s">
+        <v>467</v>
+      </c>
+      <c r="G403" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="14"/>
       <c r="B404" s="14"/>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C404" t="s">
+        <v>693</v>
+      </c>
+      <c r="D404" t="s">
+        <v>703</v>
+      </c>
+      <c r="F404" t="s">
+        <v>467</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
       <c r="B405" s="14"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
-      <c r="B406" s="14"/>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>31</v>
+      </c>
+      <c r="C406" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="14"/>
-      <c r="B407" t="s">
-        <v>671</v>
-      </c>
-      <c r="C407" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B407" s="14"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="14"/>
       <c r="B408" s="14"/>
-      <c r="C408" t="s">
-        <v>686</v>
-      </c>
-      <c r="D408" t="s">
-        <v>704</v>
-      </c>
-      <c r="F408" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
-      <c r="C409" t="s">
-        <v>687</v>
-      </c>
-      <c r="D409" t="s">
-        <v>703</v>
-      </c>
-      <c r="F409" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="14"/>
       <c r="B410" s="14"/>
-      <c r="C410" t="s">
-        <v>688</v>
-      </c>
-      <c r="D410" t="s">
-        <v>702</v>
-      </c>
-      <c r="F410" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="14"/>
-      <c r="B411" s="14"/>
-      <c r="C411" t="s">
-        <v>690</v>
-      </c>
-      <c r="D411" t="s">
-        <v>701</v>
-      </c>
-      <c r="F411" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="14"/>
-      <c r="B412" s="14"/>
-      <c r="C412" t="s">
-        <v>689</v>
-      </c>
-      <c r="D412" t="s">
-        <v>696</v>
-      </c>
-      <c r="F412" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="14"/>
-      <c r="B413" s="14"/>
-      <c r="C413" t="s">
-        <v>691</v>
-      </c>
-      <c r="D413" t="s">
-        <v>697</v>
-      </c>
-      <c r="F413" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="14"/>
-      <c r="B414" s="14"/>
-      <c r="C414" t="s">
-        <v>692</v>
-      </c>
-      <c r="D414" t="s">
-        <v>698</v>
-      </c>
-      <c r="F414" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="14"/>
-      <c r="B415" s="14"/>
-      <c r="C415" t="s">
-        <v>693</v>
-      </c>
-      <c r="D415" t="s">
-        <v>699</v>
-      </c>
-      <c r="F415" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="14"/>
-      <c r="B416" s="14"/>
-      <c r="C416" t="s">
-        <v>694</v>
-      </c>
-      <c r="D416" t="s">
-        <v>700</v>
-      </c>
-      <c r="F416" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="14"/>
-      <c r="B417" s="14"/>
-      <c r="C417" t="s">
-        <v>695</v>
-      </c>
-      <c r="D417" t="s">
-        <v>705</v>
-      </c>
-      <c r="F417" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="14"/>
-      <c r="B418" s="14"/>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="14"/>
-      <c r="B419" t="s">
-        <v>31</v>
-      </c>
-      <c r="C419" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="14"/>
-      <c r="B420" s="14"/>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="14"/>
-      <c r="B421" s="14"/>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="14"/>
-      <c r="B422" s="14"/>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="14"/>
-      <c r="B423" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10391,8 +10404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView topLeftCell="J1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10572,7 +10585,19 @@
         <v>662</v>
       </c>
       <c r="P3" s="14"/>
+      <c r="Q3" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>700</v>
+      </c>
       <c r="S3" s="14"/>
+      <c r="T3" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>701</v>
+      </c>
       <c r="V3" s="14"/>
       <c r="Y3" s="14"/>
     </row>
@@ -10604,6 +10629,9 @@
         <v>592</v>
       </c>
       <c r="P4" s="14"/>
+      <c r="R4" s="20" t="s">
+        <v>703</v>
+      </c>
       <c r="S4" s="14"/>
       <c r="V4" s="14"/>
       <c r="Y4" s="14"/>
@@ -10657,6 +10685,9 @@
       <c r="M6" s="23"/>
       <c r="N6" s="20" t="s">
         <v>305</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>700</v>
       </c>
       <c r="P6" s="14"/>
       <c r="S6" s="14"/>
@@ -10741,7 +10772,19 @@
         <v>582</v>
       </c>
       <c r="P11" s="14"/>
+      <c r="Q11" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>699</v>
+      </c>
       <c r="S11" s="14"/>
+      <c r="T11" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="U11" s="20" t="s">
+        <v>696</v>
+      </c>
       <c r="V11" s="14"/>
       <c r="Y11" s="14"/>
     </row>
@@ -10757,8 +10800,17 @@
       <c r="G12" s="14"/>
       <c r="J12" s="14"/>
       <c r="M12" s="23"/>
+      <c r="O12" s="20" t="s">
+        <v>699</v>
+      </c>
       <c r="P12" s="14"/>
       <c r="S12" s="14"/>
+      <c r="T12" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>694</v>
+      </c>
       <c r="V12" s="14"/>
       <c r="Y12" s="14"/>
     </row>
@@ -11046,7 +11098,19 @@
         <v>580</v>
       </c>
       <c r="P27" s="14"/>
+      <c r="Q27" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>702</v>
+      </c>
       <c r="S27" s="14"/>
+      <c r="T27" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="U27" s="20" t="s">
+        <v>697</v>
+      </c>
       <c r="V27" s="14"/>
       <c r="Y27" s="14"/>
     </row>
@@ -11059,8 +11123,17 @@
       <c r="N28" s="20" t="s">
         <v>667</v>
       </c>
+      <c r="O28" s="20" t="s">
+        <v>710</v>
+      </c>
       <c r="P28" s="14"/>
       <c r="S28" s="14"/>
+      <c r="T28" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="U28" s="20" t="s">
+        <v>698</v>
+      </c>
       <c r="V28" s="14"/>
       <c r="Y28" s="14"/>
     </row>
@@ -11294,7 +11367,7 @@
         <v>662</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="20"/>
@@ -11333,7 +11406,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="20"/>
@@ -11364,7 +11437,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="20"/>
       <c r="O39" s="20" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="20"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="712">
   <si>
     <t>Arne</t>
   </si>
@@ -2159,6 +2159,9 @@
   </si>
   <si>
     <t>3D_KAPPAK_TERRAIN</t>
+  </si>
+  <si>
+    <t>Arne &amp; Janneke</t>
   </si>
 </sst>
 </file>
@@ -4726,8 +4729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D383" sqref="D383"/>
+    <sheetView topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D374" sqref="D374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9803,7 +9806,7 @@
         <v>466</v>
       </c>
       <c r="G354" t="s">
-        <v>0</v>
+        <v>711</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -9864,7 +9867,7 @@
         <v>466</v>
       </c>
       <c r="G359" t="s">
-        <v>1</v>
+        <v>661</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -9880,7 +9883,7 @@
         <v>466</v>
       </c>
       <c r="G360" t="s">
-        <v>1</v>
+        <v>661</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -9912,7 +9915,7 @@
         <v>466</v>
       </c>
       <c r="G362" t="s">
-        <v>1</v>
+        <v>661</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -9944,7 +9947,7 @@
         <v>466</v>
       </c>
       <c r="G364" t="s">
-        <v>0</v>
+        <v>711</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -10002,7 +10005,7 @@
         <v>466</v>
       </c>
       <c r="G369" t="s">
-        <v>1</v>
+        <v>661</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -10063,7 +10066,7 @@
         <v>466</v>
       </c>
       <c r="G374" t="s">
-        <v>0</v>
+        <v>711</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -10404,8 +10407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12610,7 +12613,9 @@
       <c r="N70" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="O70" s="8"/>
+      <c r="O70" s="8" t="s">
+        <v>582</v>
+      </c>
       <c r="Q70" s="8" t="s">
         <v>101</v>
       </c>
@@ -12637,7 +12642,9 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
+      <c r="O71" s="8" t="s">
+        <v>589</v>
+      </c>
       <c r="Q71" s="8" t="s">
         <v>303</v>
       </c>
@@ -12664,7 +12671,9 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
+      <c r="O72" s="8" t="s">
+        <v>648</v>
+      </c>
       <c r="Q72" s="8"/>
       <c r="R72" s="8" t="s">
         <v>291</v>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="714">
   <si>
     <t>Arne</t>
   </si>
@@ -2162,6 +2162,12 @@
   </si>
   <si>
     <t>Arne &amp; Janneke</t>
+  </si>
+  <si>
+    <t>KartItemBox.cs</t>
+  </si>
+  <si>
+    <t>8S_KAPPAK_ITEMBOX</t>
   </si>
 </sst>
 </file>
@@ -4729,8 +4735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G410"/>
   <sheetViews>
-    <sheetView topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D374" sqref="D374"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F405" sqref="F405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10371,6 +10377,18 @@
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
       <c r="B405" s="14"/>
+      <c r="C405" t="s">
+        <v>712</v>
+      </c>
+      <c r="D405" t="s">
+        <v>713</v>
+      </c>
+      <c r="F405" t="s">
+        <v>467</v>
+      </c>
+      <c r="G405" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
@@ -10407,7 +10425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView topLeftCell="D26" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="715">
   <si>
     <t>Arne</t>
   </si>
@@ -2168,6 +2168,9 @@
   </si>
   <si>
     <t>8S_KAPPAK_ITEMBOX</t>
+  </si>
+  <si>
+    <t>2D_CHAR_MCMODEL</t>
   </si>
 </sst>
 </file>
@@ -4735,7 +4738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F405" sqref="F405"/>
     </sheetView>
   </sheetViews>
@@ -10425,8 +10428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView topLeftCell="D26" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12398,7 +12401,7 @@
         <v>264</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="S64" s="14"/>
       <c r="T64" s="8" t="s">
@@ -12408,6 +12411,12 @@
         <v>192</v>
       </c>
       <c r="V64" s="14"/>
+      <c r="W64" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X64" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="Y64" s="14"/>
     </row>
     <row r="65" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -12444,10 +12453,10 @@
         <v>216</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>98</v>
+        <v>358</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="T65" s="8" t="s">
         <v>123</v>
@@ -12455,8 +12464,12 @@
       <c r="U65" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
+      <c r="W65" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X65" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
@@ -12491,10 +12504,10 @@
         <v>217</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>96</v>
+        <v>714</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="T66" s="8" t="s">
         <v>124</v>
@@ -12502,8 +12515,12 @@
       <c r="U66" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
+      <c r="W66" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X66" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -12530,19 +12547,21 @@
         <v>663</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="R67" s="8" t="s">
-        <v>111</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="R67" s="8"/>
       <c r="T67" s="8" t="s">
         <v>567</v>
       </c>
       <c r="U67" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
+      <c r="W67" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X67" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -12568,18 +12587,18 @@
       <c r="O68" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="Q68" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="R68" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
       <c r="T68" s="8" t="s">
         <v>158</v>
       </c>
       <c r="U68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
+      <c r="W68" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X68" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
@@ -12603,18 +12622,18 @@
       <c r="O69" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="Q69" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="R69" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
       <c r="T69" s="8" t="s">
         <v>568</v>
       </c>
       <c r="U69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
+      <c r="W69" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X69" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
@@ -12634,12 +12653,8 @@
       <c r="O70" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="Q70" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="R70" s="8" t="s">
-        <v>289</v>
-      </c>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
       <c r="T70" s="8" t="s">
         <v>289</v>
       </c>
@@ -12663,12 +12678,8 @@
       <c r="O71" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="Q71" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="R71" s="8" t="s">
-        <v>290</v>
-      </c>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
       <c r="T71" s="8" t="s">
         <v>290</v>
       </c>
@@ -12693,9 +12704,7 @@
         <v>648</v>
       </c>
       <c r="Q72" s="8"/>
-      <c r="R72" s="8" t="s">
-        <v>291</v>
-      </c>
+      <c r="R72" s="8"/>
       <c r="T72" s="8" t="s">
         <v>291</v>
       </c>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="715">
   <si>
     <t>Arne</t>
   </si>
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2445,23 +2445,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2497,23 +2480,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -10429,7 +10395,7 @@
   <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G26" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="Q67" sqref="Q67"/>
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12546,9 +12512,7 @@
       <c r="O67" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="Q67" s="8" t="s">
-        <v>303</v>
-      </c>
+      <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
       <c r="T67" s="8" t="s">
         <v>567</v>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="713">
   <si>
     <t>Arne</t>
   </si>
@@ -919,9 +919,6 @@
     <t>Background Hills</t>
   </si>
   <si>
-    <t>Background Underground</t>
-  </si>
-  <si>
     <t>2D_TXT_BGSEAWAVES</t>
   </si>
   <si>
@@ -935,9 +932,6 @@
   </si>
   <si>
     <t>2D_TXT_BGHILLS</t>
-  </si>
-  <si>
-    <t>2D_TXT_BGUNDERGROUND</t>
   </si>
   <si>
     <t>Bling Bling</t>
@@ -2671,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="3">
@@ -3121,13 +3115,13 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="CJ2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EU2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
@@ -3138,7 +3132,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -3150,18 +3144,18 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="CJ3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EU3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B4" s="2">
         <v>0.61458333333333337</v>
@@ -3179,13 +3173,13 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="CJ4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EU4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -3196,7 +3190,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -3208,18 +3202,18 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="CJ5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EU5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B6" s="2">
         <v>0.61458333333333337</v>
@@ -3228,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -3237,16 +3231,16 @@
         <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="CJ7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EU7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:151" x14ac:dyDescent="0.25">
@@ -3254,10 +3248,10 @@
         <v>4</v>
       </c>
       <c r="CJ8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EU8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
@@ -3280,13 +3274,13 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="CJ9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EU9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
@@ -3309,13 +3303,13 @@
         <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="CJ10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EU10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:151" x14ac:dyDescent="0.25">
@@ -3326,7 +3320,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -3338,13 +3332,13 @@
         <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="CJ11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EU11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:151" x14ac:dyDescent="0.25">
@@ -3367,7 +3361,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J12" s="3">
         <v>42618</v>
@@ -3816,7 +3810,7 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>11</v>
@@ -3847,7 +3841,7 @@
         <v>11</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>11</v>
@@ -3919,7 +3913,7 @@
         <v>11</v>
       </c>
       <c r="CJ13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="CN13" s="1" t="s">
         <v>11</v>
@@ -4006,7 +4000,7 @@
         <v>11</v>
       </c>
       <c r="EU13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:151" x14ac:dyDescent="0.25">
@@ -4017,7 +4011,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -4029,7 +4023,7 @@
         <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>12</v>
@@ -4038,18 +4032,18 @@
         <v>13</v>
       </c>
       <c r="CJ14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="ES14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="EU14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B15" s="2">
         <v>0.61458333333333337</v>
@@ -4067,58 +4061,58 @@
         <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="X15" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL15" t="s">
         <v>445</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AS15" t="s">
         <v>446</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AZ15" t="s">
         <v>447</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="BN15" t="s">
         <v>448</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BU15" t="s">
         <v>449</v>
       </c>
-      <c r="BN15" t="s">
+      <c r="CB15" t="s">
         <v>450</v>
       </c>
-      <c r="BU15" t="s">
+      <c r="CI15" t="s">
         <v>451</v>
       </c>
-      <c r="CB15" t="s">
+      <c r="CJ15" t="s">
+        <v>519</v>
+      </c>
+      <c r="CP15" t="s">
         <v>452</v>
       </c>
-      <c r="CI15" t="s">
+      <c r="CW15" t="s">
         <v>453</v>
       </c>
-      <c r="CJ15" t="s">
-        <v>521</v>
-      </c>
-      <c r="CP15" t="s">
+      <c r="DD15" t="s">
         <v>454</v>
       </c>
-      <c r="CW15" t="s">
+      <c r="DK15" t="s">
         <v>455</v>
       </c>
-      <c r="DD15" t="s">
+      <c r="EF15" t="s">
         <v>456</v>
       </c>
-      <c r="DK15" t="s">
+      <c r="EM15" t="s">
         <v>457</v>
       </c>
-      <c r="EF15" t="s">
-        <v>458</v>
-      </c>
-      <c r="EM15" t="s">
-        <v>459</v>
-      </c>
       <c r="EU15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:151" x14ac:dyDescent="0.25">
@@ -4129,7 +4123,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -4141,438 +4135,438 @@
         <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="O16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="R16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="T16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="U16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="V16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="W16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="X16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Y16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Z16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AA16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AB16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AD16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AE16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AF16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AG16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AH16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AI16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AJ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AK16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AL16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AM16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AN16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AO16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AP16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AQ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AR16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AS16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AT16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AU16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AV16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AW16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AX16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AY16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AZ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BA16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BB16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BC16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BD16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BE16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BF16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BG16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BH16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BI16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BJ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BK16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BL16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BM16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BN16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BO16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BP16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BQ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BR16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BS16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BT16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BU16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BV16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BW16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BX16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BY16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BZ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CA16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CB16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CC16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CD16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CE16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CF16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CG16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CH16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CI16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CJ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CK16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CL16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CM16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CN16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CO16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CP16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CQ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CR16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CS16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CT16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CU16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CV16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CW16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CX16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CY16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CZ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DA16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DB16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DC16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DD16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DE16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DF16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DG16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DH16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DI16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DJ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DK16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DL16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DM16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DN16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DO16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DP16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DQ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DR16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DS16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DT16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DU16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DV16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DW16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DX16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DY16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="DZ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EA16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EB16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EC16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="ED16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EE16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EF16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EG16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EH16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EI16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EJ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EK16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EL16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EM16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EN16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EO16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EP16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EQ16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="ER16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="ES16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="ET16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="EU16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B17" s="2">
         <v>0.61458333333333337</v>
@@ -4581,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E17">
         <v>13</v>
@@ -4590,7 +4584,7 @@
         <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -4605,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -4642,7 +4636,7 @@
         <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Q20" t="s">
         <v>7</v>
@@ -4668,7 +4662,7 @@
         <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -4679,7 +4673,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -4691,7 +4685,7 @@
         <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -4702,10 +4696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G410"/>
+  <dimension ref="A1:G409"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F405" sqref="F405"/>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4730,10 +4724,10 @@
         <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4760,7 +4754,7 @@
         <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -4773,10 +4767,10 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -4792,7 +4786,7 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -4808,7 +4802,7 @@
         <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -4824,7 +4818,7 @@
         <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -4837,10 +4831,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -4856,7 +4850,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -4872,7 +4866,7 @@
         <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
@@ -4888,7 +4882,7 @@
         <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -4904,7 +4898,7 @@
         <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
@@ -4920,7 +4914,7 @@
         <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -4936,7 +4930,7 @@
         <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -4952,7 +4946,7 @@
         <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -4968,7 +4962,7 @@
         <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -4984,7 +4978,7 @@
         <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -5000,7 +4994,7 @@
         <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -5016,7 +5010,7 @@
         <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G20" t="s">
         <v>6</v>
@@ -5032,7 +5026,7 @@
         <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -5048,7 +5042,7 @@
         <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -5064,7 +5058,7 @@
         <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -5077,10 +5071,10 @@
         <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
@@ -5093,10 +5087,10 @@
         <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
@@ -5112,7 +5106,7 @@
         <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
@@ -5128,7 +5122,7 @@
         <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
@@ -5144,7 +5138,7 @@
         <v>152</v>
       </c>
       <c r="F28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -5154,16 +5148,16 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G29" t="s">
         <v>7</v>
@@ -5179,7 +5173,7 @@
         <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -5195,7 +5189,7 @@
         <v>156</v>
       </c>
       <c r="F31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
@@ -5211,7 +5205,7 @@
         <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G32" t="s">
         <v>7</v>
@@ -5227,7 +5221,7 @@
         <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
@@ -5243,7 +5237,7 @@
         <v>168</v>
       </c>
       <c r="F34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
@@ -5259,7 +5253,7 @@
         <v>172</v>
       </c>
       <c r="F35" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G35" t="s">
         <v>6</v>
@@ -5275,7 +5269,7 @@
         <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G36" t="s">
         <v>7</v>
@@ -5291,7 +5285,7 @@
         <v>179</v>
       </c>
       <c r="F37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G37" t="s">
         <v>7</v>
@@ -5307,7 +5301,7 @@
         <v>180</v>
       </c>
       <c r="F38" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G38" t="s">
         <v>7</v>
@@ -5323,7 +5317,7 @@
         <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G39" t="s">
         <v>6</v>
@@ -5339,7 +5333,7 @@
         <v>189</v>
       </c>
       <c r="F40" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G40" t="s">
         <v>6</v>
@@ -5355,7 +5349,7 @@
         <v>192</v>
       </c>
       <c r="F41" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G41" t="s">
         <v>6</v>
@@ -5371,7 +5365,7 @@
         <v>203</v>
       </c>
       <c r="F42" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G42" t="s">
         <v>7</v>
@@ -5387,7 +5381,7 @@
         <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G43" t="s">
         <v>7</v>
@@ -5400,10 +5394,10 @@
         <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F44" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
@@ -5416,10 +5410,10 @@
         <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F45" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
@@ -5432,10 +5426,10 @@
         <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F46" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
@@ -5451,7 +5445,7 @@
         <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G47" t="s">
         <v>6</v>
@@ -5467,7 +5461,7 @@
         <v>215</v>
       </c>
       <c r="F48" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -5483,7 +5477,7 @@
         <v>219</v>
       </c>
       <c r="F49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G49" t="s">
         <v>7</v>
@@ -5499,7 +5493,7 @@
         <v>224</v>
       </c>
       <c r="F50" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G50" t="s">
         <v>7</v>
@@ -5515,7 +5509,7 @@
         <v>279</v>
       </c>
       <c r="F51" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G51" t="s">
         <v>7</v>
@@ -5531,7 +5525,7 @@
         <v>226</v>
       </c>
       <c r="F52" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G52" t="s">
         <v>7</v>
@@ -5547,7 +5541,7 @@
         <v>231</v>
       </c>
       <c r="F53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G53" t="s">
         <v>5</v>
@@ -5563,7 +5557,7 @@
         <v>238</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G54" t="s">
         <v>5</v>
@@ -5579,7 +5573,7 @@
         <v>244</v>
       </c>
       <c r="F55" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G55" t="s">
         <v>5</v>
@@ -5595,7 +5589,7 @@
         <v>247</v>
       </c>
       <c r="F56" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G56" t="s">
         <v>7</v>
@@ -5611,7 +5605,7 @@
         <v>248</v>
       </c>
       <c r="F57" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G57" t="s">
         <v>7</v>
@@ -5627,7 +5621,7 @@
         <v>250</v>
       </c>
       <c r="F58" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G58" t="s">
         <v>7</v>
@@ -5643,7 +5637,7 @@
         <v>252</v>
       </c>
       <c r="F59" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G59" t="s">
         <v>7</v>
@@ -5659,7 +5653,7 @@
         <v>256</v>
       </c>
       <c r="F60" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G60" t="s">
         <v>5</v>
@@ -5675,7 +5669,7 @@
         <v>258</v>
       </c>
       <c r="F61" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G61" t="s">
         <v>7</v>
@@ -5691,7 +5685,7 @@
         <v>260</v>
       </c>
       <c r="F62" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G62" t="s">
         <v>7</v>
@@ -5707,7 +5701,7 @@
         <v>262</v>
       </c>
       <c r="F63" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G63" t="s">
         <v>5</v>
@@ -5723,7 +5717,7 @@
         <v>264</v>
       </c>
       <c r="F64" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G64" t="s">
         <v>6</v>
@@ -5739,7 +5733,7 @@
         <v>266</v>
       </c>
       <c r="F65" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G65" t="s">
         <v>6</v>
@@ -5755,7 +5749,7 @@
         <v>270</v>
       </c>
       <c r="F66" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G66" t="s">
         <v>5</v>
@@ -5771,7 +5765,7 @@
         <v>274</v>
       </c>
       <c r="F67" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G67" t="s">
         <v>5</v>
@@ -5790,7 +5784,7 @@
         <v>284</v>
       </c>
       <c r="F68" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G68" t="s">
         <v>7</v>
@@ -5806,7 +5800,7 @@
         <v>289</v>
       </c>
       <c r="F69" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G69" t="s">
         <v>6</v>
@@ -5819,10 +5813,10 @@
         <v>292</v>
       </c>
       <c r="D70" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F70" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
@@ -5835,10 +5829,10 @@
         <v>293</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
@@ -5851,10 +5845,10 @@
         <v>294</v>
       </c>
       <c r="D72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F72" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G72" t="s">
         <v>5</v>
@@ -5867,10 +5861,10 @@
         <v>295</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F73" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G73" t="s">
         <v>5</v>
@@ -5883,44 +5877,44 @@
         <v>296</v>
       </c>
       <c r="D74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F74" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="14" t="s">
+        <v>348</v>
+      </c>
       <c r="B75" s="14"/>
       <c r="C75" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="F75" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>350</v>
-      </c>
+      <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D76" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F76" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G76" t="s">
         <v>5</v>
@@ -5930,61 +5924,61 @@
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" t="s">
-        <v>355</v>
+        <v>459</v>
       </c>
       <c r="D77" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
       <c r="F77" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" t="s">
+        <v>460</v>
+      </c>
+      <c r="D78" t="s">
         <v>461</v>
       </c>
-      <c r="D78" t="s">
-        <v>464</v>
-      </c>
       <c r="F78" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" t="s">
-        <v>462</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
-        <v>463</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G80" t="s">
         <v>7</v>
@@ -5994,67 +5988,67 @@
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>592</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
-      </c>
-      <c r="F81" t="s">
-        <v>460</v>
-      </c>
-      <c r="G81" t="s">
-        <v>7</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" t="s">
-        <v>594</v>
+        <v>678</v>
       </c>
       <c r="D82" t="s">
-        <v>557</v>
+        <v>680</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-      <c r="C83" t="s">
-        <v>680</v>
-      </c>
-      <c r="D83" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-    </row>
-    <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+    </row>
+    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
-      <c r="B86" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B86" s="14"/>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="D86" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" t="s">
+        <v>464</v>
+      </c>
+      <c r="G86" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F87" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
@@ -6064,13 +6058,13 @@
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F88" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
@@ -6080,29 +6074,29 @@
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F90" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G90" t="s">
         <v>7</v>
@@ -6112,29 +6106,29 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F91" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D92" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G92" t="s">
         <v>6</v>
@@ -6144,13 +6138,13 @@
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F93" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G93" t="s">
         <v>6</v>
@@ -6160,13 +6154,13 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F94" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G94" t="s">
         <v>6</v>
@@ -6176,13 +6170,13 @@
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F95" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G95" t="s">
         <v>6</v>
@@ -6192,13 +6186,13 @@
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D96" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G96" t="s">
         <v>6</v>
@@ -6208,13 +6202,13 @@
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F97" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G97" t="s">
         <v>6</v>
@@ -6224,29 +6218,29 @@
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D98" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F98" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F99" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G99" t="s">
         <v>7</v>
@@ -6256,29 +6250,29 @@
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F100" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>592</v>
       </c>
       <c r="D101" t="s">
-        <v>165</v>
+        <v>554</v>
       </c>
       <c r="F101" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
@@ -6287,43 +6281,43 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" t="s">
-        <v>594</v>
-      </c>
-      <c r="D102" t="s">
-        <v>556</v>
-      </c>
-      <c r="F102" t="s">
-        <v>466</v>
-      </c>
-      <c r="G102" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
+      <c r="B103" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
-      <c r="B104" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B104" s="14"/>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>60</v>
+      </c>
+      <c r="D104" t="s">
+        <v>481</v>
+      </c>
+      <c r="F104" t="s">
+        <v>458</v>
+      </c>
+      <c r="G104" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>483</v>
+        <v>54</v>
       </c>
       <c r="F105" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G105" t="s">
         <v>5</v>
@@ -6333,13 +6327,13 @@
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D106" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F106" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G106" t="s">
         <v>5</v>
@@ -6349,13 +6343,13 @@
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>483</v>
       </c>
       <c r="F107" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G107" t="s">
         <v>5</v>
@@ -6365,13 +6359,13 @@
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D108" t="s">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="F108" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G108" t="s">
         <v>5</v>
@@ -6381,45 +6375,45 @@
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F109" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D110" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="F110" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D111" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F111" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G111" t="s">
         <v>5</v>
@@ -6429,13 +6423,13 @@
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F112" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G112" t="s">
         <v>5</v>
@@ -6445,29 +6439,29 @@
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F113" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D114" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F114" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G114" t="s">
         <v>7</v>
@@ -6477,13 +6471,13 @@
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D115" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F115" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G115" t="s">
         <v>7</v>
@@ -6493,29 +6487,29 @@
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D116" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F116" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F117" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G117" t="s">
         <v>6</v>
@@ -6525,13 +6519,13 @@
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D118" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F118" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G118" t="s">
         <v>6</v>
@@ -6541,32 +6535,35 @@
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D119" t="s">
-        <v>194</v>
+        <v>201</v>
+      </c>
+      <c r="E119" t="s">
+        <v>489</v>
       </c>
       <c r="F119" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D120" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E120" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F120" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G120" t="s">
         <v>7</v>
@@ -6576,48 +6573,45 @@
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D121" t="s">
-        <v>202</v>
-      </c>
-      <c r="E121" t="s">
-        <v>492</v>
+        <v>206</v>
       </c>
       <c r="F121" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G121" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D122" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F122" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G122" t="s">
-        <v>400</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D123" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F123" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G123" t="s">
         <v>6</v>
@@ -6627,29 +6621,29 @@
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D124" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F124" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D125" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F125" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G125" t="s">
         <v>7</v>
@@ -6659,13 +6653,13 @@
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="D126" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="F126" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G126" t="s">
         <v>7</v>
@@ -6675,45 +6669,45 @@
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="D127" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G127" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D128" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G128" t="s">
-        <v>400</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D129" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
@@ -6723,125 +6717,128 @@
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D130" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D131" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F131" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D132" t="s">
-        <v>267</v>
+        <v>285</v>
+      </c>
+      <c r="E132" t="s">
+        <v>284</v>
       </c>
       <c r="F132" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D133" t="s">
-        <v>285</v>
-      </c>
-      <c r="E133" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F133" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" t="s">
-        <v>288</v>
+        <v>678</v>
       </c>
       <c r="D134" t="s">
-        <v>290</v>
+        <v>679</v>
       </c>
       <c r="F134" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G134" t="s">
-        <v>6</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
-      <c r="C135" t="s">
-        <v>680</v>
-      </c>
-      <c r="D135" t="s">
-        <v>681</v>
-      </c>
-      <c r="F135" t="s">
-        <v>460</v>
-      </c>
-      <c r="G135" t="s">
-        <v>400</v>
-      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
-      <c r="B136" s="14"/>
+      <c r="B136" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
-      <c r="B137" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B137" s="14"/>
       <c r="C137" t="s">
-        <v>43</v>
+        <v>151</v>
+      </c>
+      <c r="D137" t="s">
+        <v>491</v>
+      </c>
+      <c r="F137" t="s">
+        <v>458</v>
+      </c>
+      <c r="G137" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="D138" t="s">
-        <v>493</v>
+        <v>364</v>
+      </c>
+      <c r="E138" t="s">
+        <v>362</v>
       </c>
       <c r="F138" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G138" t="s">
         <v>7</v>
@@ -6851,32 +6848,29 @@
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" t="s">
-        <v>363</v>
+        <v>153</v>
       </c>
       <c r="D139" t="s">
-        <v>366</v>
-      </c>
-      <c r="E139" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="F139" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D140" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F140" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G140" t="s">
         <v>6</v>
@@ -6886,13 +6880,13 @@
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D141" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F141" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G141" t="s">
         <v>6</v>
@@ -6902,45 +6896,45 @@
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="D142" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F142" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="D143" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D144" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G144" t="s">
         <v>5</v>
@@ -6949,43 +6943,43 @@
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
-      <c r="C145" t="s">
-        <v>273</v>
-      </c>
-      <c r="D145" t="s">
-        <v>275</v>
-      </c>
-      <c r="F145" t="s">
-        <v>460</v>
-      </c>
-      <c r="G145" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
+      <c r="B146" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
-      <c r="B147" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B147" s="14"/>
       <c r="C147" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="D147" t="s">
+        <v>131</v>
+      </c>
+      <c r="F147" t="s">
+        <v>458</v>
+      </c>
+      <c r="G147" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D148" t="s">
-        <v>131</v>
+        <v>439</v>
       </c>
       <c r="F148" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G148" t="s">
         <v>6</v>
@@ -6995,45 +6989,45 @@
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D149" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F149" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="D150" t="s">
-        <v>440</v>
+        <v>232</v>
       </c>
       <c r="F150" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="D151" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="F151" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G151" t="s">
         <v>5</v>
@@ -7042,67 +7036,67 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
-      <c r="C152" t="s">
-        <v>355</v>
-      </c>
-      <c r="D152" t="s">
-        <v>357</v>
-      </c>
-      <c r="F152" t="s">
-        <v>460</v>
-      </c>
-      <c r="G152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
-      <c r="B153" s="14"/>
-    </row>
-    <row r="154" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
+    </row>
+    <row r="153" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B153" s="8" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="14"/>
+      <c r="B154" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
-      <c r="B155" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B155" s="14"/>
       <c r="C155" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="D155" t="s">
+        <v>68</v>
+      </c>
+      <c r="F155" t="s">
+        <v>465</v>
+      </c>
+      <c r="G155" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D156" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F156" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F157" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G157" t="s">
         <v>7</v>
@@ -7112,45 +7106,45 @@
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D158" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F158" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D159" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="F159" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D160" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F160" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G160" t="s">
         <v>6</v>
@@ -7160,13 +7154,13 @@
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D161" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F161" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G161" t="s">
         <v>6</v>
@@ -7176,13 +7170,13 @@
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D162" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F162" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G162" t="s">
         <v>6</v>
@@ -7192,13 +7186,13 @@
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D163" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F163" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G163" t="s">
         <v>6</v>
@@ -7208,13 +7202,13 @@
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D164" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F164" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G164" t="s">
         <v>6</v>
@@ -7224,13 +7218,13 @@
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D165" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F165" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G165" t="s">
         <v>6</v>
@@ -7240,29 +7234,29 @@
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D166" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F166" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D167" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="F167" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G167" t="s">
         <v>7</v>
@@ -7272,29 +7266,29 @@
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D168" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F168" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" t="s">
-        <v>163</v>
+        <v>592</v>
       </c>
       <c r="D169" t="s">
-        <v>166</v>
+        <v>556</v>
       </c>
       <c r="F169" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G169" t="s">
         <v>5</v>
@@ -7303,59 +7297,59 @@
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
-      <c r="C170" t="s">
-        <v>594</v>
-      </c>
-      <c r="D170" t="s">
-        <v>558</v>
-      </c>
-      <c r="F170" t="s">
-        <v>466</v>
-      </c>
-      <c r="G170" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
-      <c r="B171" s="14"/>
+      <c r="B171" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C171" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
-      <c r="B172" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B172" s="14"/>
       <c r="C172" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="D172" t="s">
+        <v>482</v>
+      </c>
+      <c r="F172" t="s">
+        <v>458</v>
+      </c>
+      <c r="G172" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D173" t="s">
-        <v>484</v>
+        <v>70</v>
       </c>
       <c r="F173" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D174" t="s">
-        <v>70</v>
+        <v>484</v>
       </c>
       <c r="F174" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G174" t="s">
         <v>5</v>
@@ -7365,13 +7359,13 @@
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D175" t="s">
-        <v>486</v>
+        <v>74</v>
       </c>
       <c r="F175" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G175" t="s">
         <v>5</v>
@@ -7381,13 +7375,13 @@
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D176" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F176" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
@@ -7397,13 +7391,13 @@
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="D177" t="s">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="F177" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G177" t="s">
         <v>5</v>
@@ -7413,45 +7407,45 @@
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D178" t="s">
-        <v>487</v>
+        <v>144</v>
       </c>
       <c r="F178" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="D179" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F179" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D180" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="F180" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G180" t="s">
         <v>5</v>
@@ -7461,29 +7455,29 @@
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D181" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F181" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D182" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F182" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G182" t="s">
         <v>6</v>
@@ -7493,13 +7487,13 @@
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D183" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F183" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G183" t="s">
         <v>6</v>
@@ -7509,29 +7503,29 @@
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D184" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F184" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D185" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F185" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G185" t="s">
         <v>7</v>
@@ -7541,29 +7535,29 @@
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D186" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F186" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D187" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F187" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G187" t="s">
         <v>6</v>
@@ -7573,45 +7567,45 @@
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="D188" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="F188" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="D189" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="F189" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D190" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F190" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G190" t="s">
         <v>5</v>
@@ -7621,119 +7615,122 @@
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D191" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F191" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D192" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F192" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="D193" t="s">
-        <v>268</v>
+        <v>287</v>
+      </c>
+      <c r="E193" t="s">
+        <v>284</v>
       </c>
       <c r="F193" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D194" t="s">
-        <v>287</v>
-      </c>
-      <c r="E194" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F194" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" t="s">
-        <v>288</v>
+        <v>678</v>
       </c>
       <c r="D195" t="s">
-        <v>291</v>
-      </c>
-      <c r="F195" t="s">
-        <v>460</v>
-      </c>
-      <c r="G195" t="s">
-        <v>6</v>
+        <v>681</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
-      <c r="C196" t="s">
-        <v>680</v>
-      </c>
-      <c r="D196" t="s">
-        <v>683</v>
-      </c>
     </row>
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
-      <c r="B197" s="14"/>
+      <c r="B197" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C197" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
-      <c r="B198" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B198" s="14"/>
       <c r="C198" t="s">
-        <v>49</v>
+        <v>492</v>
+      </c>
+      <c r="D198" t="s">
+        <v>493</v>
+      </c>
+      <c r="F198" t="s">
+        <v>458</v>
+      </c>
+      <c r="G198" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
-        <v>494</v>
+        <v>361</v>
       </c>
       <c r="D199" t="s">
-        <v>495</v>
+        <v>363</v>
+      </c>
+      <c r="E199" t="s">
+        <v>362</v>
       </c>
       <c r="F199" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G199" t="s">
         <v>7</v>
@@ -7743,64 +7740,61 @@
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" t="s">
-        <v>363</v>
+        <v>171</v>
       </c>
       <c r="D200" t="s">
-        <v>365</v>
-      </c>
-      <c r="E200" t="s">
-        <v>364</v>
+        <v>174</v>
       </c>
       <c r="F200" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D201" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F201" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="D202" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="F202" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D203" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F203" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G203" t="s">
         <v>5</v>
@@ -7808,37 +7802,37 @@
     </row>
     <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
-      <c r="B204" s="14"/>
-      <c r="C204" t="s">
-        <v>273</v>
-      </c>
-      <c r="D204" t="s">
-        <v>276</v>
-      </c>
-      <c r="F204" t="s">
-        <v>460</v>
-      </c>
-      <c r="G204" t="s">
-        <v>5</v>
+      <c r="B204" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
-      <c r="B205" s="7" t="s">
-        <v>57</v>
+      <c r="B205" s="14"/>
+      <c r="C205" t="s">
+        <v>126</v>
+      </c>
+      <c r="D205" t="s">
+        <v>132</v>
+      </c>
+      <c r="F205" t="s">
+        <v>458</v>
+      </c>
+      <c r="G205" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D206" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F206" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G206" t="s">
         <v>6</v>
@@ -7848,45 +7842,45 @@
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D207" t="s">
-        <v>133</v>
+        <v>487</v>
       </c>
       <c r="F207" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="D208" t="s">
-        <v>489</v>
+        <v>233</v>
       </c>
       <c r="F208" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="D209" t="s">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="F209" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G209" t="s">
         <v>5</v>
@@ -7895,99 +7889,99 @@
     <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
-      <c r="C210" t="s">
-        <v>355</v>
-      </c>
-      <c r="D210" t="s">
-        <v>358</v>
-      </c>
-      <c r="F210" t="s">
-        <v>460</v>
-      </c>
-      <c r="G210" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
-      <c r="B211" s="14"/>
-    </row>
-    <row r="212" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="9" t="s">
+    </row>
+    <row r="211" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B211" s="9" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="14"/>
+      <c r="B212" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C212" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
-      <c r="B213" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B213" s="14"/>
       <c r="C213" t="s">
-        <v>58</v>
+        <v>127</v>
+      </c>
+      <c r="D213" t="s">
+        <v>134</v>
+      </c>
+      <c r="F213" t="s">
+        <v>458</v>
+      </c>
+      <c r="G213" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D214" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F214" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D215" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F215" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="D216" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="F216" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="D217" t="s">
-        <v>234</v>
+        <v>357</v>
       </c>
       <c r="F217" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G217" t="s">
         <v>5</v>
@@ -7996,51 +7990,51 @@
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
-      <c r="C218" t="s">
-        <v>355</v>
-      </c>
-      <c r="D218" t="s">
-        <v>359</v>
-      </c>
-      <c r="F218" t="s">
-        <v>460</v>
-      </c>
-      <c r="G218" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
-      <c r="B219" s="14"/>
-    </row>
-    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="12" t="s">
+    </row>
+    <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B220" s="12" t="s">
+      <c r="B219" s="12" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="14"/>
+      <c r="B220" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C220" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
-      <c r="B221" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B221" s="14"/>
       <c r="C221" t="s">
-        <v>137</v>
+        <v>308</v>
+      </c>
+      <c r="D221" t="s">
+        <v>314</v>
+      </c>
+      <c r="F221" t="s">
+        <v>458</v>
+      </c>
+      <c r="G221" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D222" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F222" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G222" t="s">
         <v>7</v>
@@ -8050,13 +8044,13 @@
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D223" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F223" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G223" t="s">
         <v>7</v>
@@ -8066,13 +8060,13 @@
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D224" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F224" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G224" t="s">
         <v>7</v>
@@ -8082,13 +8076,13 @@
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D225" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F225" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G225" t="s">
         <v>7</v>
@@ -8098,13 +8092,13 @@
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D226" t="s">
         <v>319</v>
       </c>
       <c r="F226" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G226" t="s">
         <v>7</v>
@@ -8114,32 +8108,32 @@
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="D227" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="F227" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>348</v>
+        <v>632</v>
       </c>
       <c r="D228" t="s">
-        <v>349</v>
+        <v>633</v>
       </c>
       <c r="F228" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -8152,7 +8146,7 @@
         <v>635</v>
       </c>
       <c r="F229" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G229" t="s">
         <v>7</v>
@@ -8162,13 +8156,16 @@
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>636</v>
+        <v>320</v>
       </c>
       <c r="D230" t="s">
-        <v>637</v>
+        <v>323</v>
+      </c>
+      <c r="E230" t="s">
+        <v>494</v>
       </c>
       <c r="F230" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G230" t="s">
         <v>7</v>
@@ -8178,16 +8175,16 @@
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D231" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E231" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F231" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G231" t="s">
         <v>7</v>
@@ -8197,16 +8194,16 @@
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D232" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E232" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G232" t="s">
         <v>7</v>
@@ -8216,16 +8213,16 @@
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D233" t="s">
         <v>327</v>
       </c>
       <c r="E233" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G233" t="s">
         <v>7</v>
@@ -8238,13 +8235,13 @@
         <v>328</v>
       </c>
       <c r="D234" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E234" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G234" t="s">
         <v>7</v>
@@ -8254,16 +8251,16 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D235" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E235" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G235" t="s">
         <v>7</v>
@@ -8273,16 +8270,16 @@
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E236" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G236" t="s">
         <v>7</v>
@@ -8292,16 +8289,16 @@
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D237" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E237" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G237" t="s">
         <v>7</v>
@@ -8311,16 +8308,16 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D238" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E238" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G238" t="s">
         <v>7</v>
@@ -8330,16 +8327,16 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D239" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E239" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G239" t="s">
         <v>7</v>
@@ -8349,16 +8346,16 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D240" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E240" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G240" t="s">
         <v>7</v>
@@ -8368,16 +8365,16 @@
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D241" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E241" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G241" t="s">
         <v>7</v>
@@ -8387,16 +8384,16 @@
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" t="s">
+        <v>342</v>
+      </c>
+      <c r="D242" t="s">
         <v>343</v>
       </c>
-      <c r="D242" t="s">
-        <v>346</v>
-      </c>
       <c r="E242" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F242" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G242" t="s">
         <v>7</v>
@@ -8406,69 +8403,63 @@
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" t="s">
-        <v>344</v>
+        <v>651</v>
       </c>
       <c r="D243" t="s">
-        <v>345</v>
-      </c>
-      <c r="E243" t="s">
-        <v>498</v>
+        <v>652</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
-      <c r="C244" t="s">
-        <v>653</v>
-      </c>
-      <c r="D244" t="s">
-        <v>654</v>
-      </c>
-      <c r="F244" t="s">
-        <v>460</v>
-      </c>
-      <c r="G244" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
-      <c r="B245" s="14"/>
-    </row>
-    <row r="246" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="10" t="s">
+    </row>
+    <row r="245" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B245" s="10" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="14"/>
+      <c r="B246" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C246" t="s">
+        <v>399</v>
+      </c>
+      <c r="E246" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
-      <c r="B247" s="7" t="s">
-        <v>401</v>
-      </c>
+      <c r="B247" s="14"/>
       <c r="C247" t="s">
-        <v>401</v>
-      </c>
-      <c r="E247" t="s">
-        <v>438</v>
+        <v>400</v>
+      </c>
+      <c r="F247" t="s">
+        <v>458</v>
+      </c>
+      <c r="G247" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G248" t="s">
         <v>2</v>
@@ -8478,166 +8469,166 @@
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="F249" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G249" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F250" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G250" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" t="s">
-        <v>404</v>
+        <v>499</v>
       </c>
       <c r="F251" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G251" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" t="s">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="F252" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G252" t="s">
-        <v>400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F253" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G253" t="s">
-        <v>2</v>
+        <v>498</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F254" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G254" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="F255" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G255" t="s">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
-      <c r="C256" t="s">
-        <v>353</v>
-      </c>
-      <c r="F256" t="s">
-        <v>460</v>
-      </c>
-      <c r="G256" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
-      <c r="B257" s="14"/>
+      <c r="B257" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C257" t="s">
+        <v>638</v>
+      </c>
+      <c r="E257" t="s">
+        <v>437</v>
+      </c>
+      <c r="F257" t="s">
+        <v>458</v>
+      </c>
+      <c r="G257" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
-      <c r="B258" s="16" t="s">
-        <v>408</v>
-      </c>
+      <c r="B258" s="14"/>
       <c r="C258" t="s">
-        <v>640</v>
-      </c>
-      <c r="E258" t="s">
-        <v>439</v>
+        <v>639</v>
       </c>
       <c r="F258" t="s">
-        <v>460</v>
-      </c>
-      <c r="G258" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F259" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F260" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>643</v>
+        <v>407</v>
       </c>
       <c r="F261" t="s">
-        <v>466</v>
+        <v>458</v>
+      </c>
+      <c r="G261" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F262" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G262" t="s">
         <v>2</v>
@@ -8647,10 +8638,10 @@
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F263" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G263" t="s">
         <v>2</v>
@@ -8660,10 +8651,10 @@
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F264" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G264" t="s">
         <v>2</v>
@@ -8673,49 +8664,49 @@
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F265" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G265" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F266" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G266" t="s">
-        <v>6</v>
+        <v>398</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F267" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G267" t="s">
-        <v>400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F268" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G268" t="s">
         <v>2</v>
@@ -8725,10 +8716,10 @@
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F269" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G269" t="s">
         <v>2</v>
@@ -8738,10 +8729,10 @@
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F270" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G270" t="s">
         <v>2</v>
@@ -8751,10 +8742,10 @@
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F271" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G271" t="s">
         <v>2</v>
@@ -8764,10 +8755,10 @@
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F272" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G272" t="s">
         <v>2</v>
@@ -8777,10 +8768,10 @@
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F273" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G273" t="s">
         <v>2</v>
@@ -8790,66 +8781,57 @@
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F274" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G274" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="F275" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G275" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F276" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G276" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" t="s">
-        <v>437</v>
+        <v>637</v>
       </c>
       <c r="F277" t="s">
-        <v>460</v>
+        <v>653</v>
       </c>
       <c r="G277" t="s">
-        <v>400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
-      <c r="C278" t="s">
-        <v>639</v>
-      </c>
-      <c r="F278" t="s">
-        <v>655</v>
-      </c>
-      <c r="G278" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
@@ -8857,18 +8839,27 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="14"/>
-      <c r="B280" s="14"/>
+      <c r="B280" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C280" t="s">
+        <v>466</v>
+      </c>
+      <c r="F280" t="s">
+        <v>458</v>
+      </c>
+      <c r="G280" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
-      <c r="B281" s="7" t="s">
-        <v>475</v>
-      </c>
+      <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F281" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G281" t="s">
         <v>2</v>
@@ -8878,10 +8869,10 @@
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F282" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G282" t="s">
         <v>2</v>
@@ -8891,10 +8882,10 @@
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F283" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G283" t="s">
         <v>2</v>
@@ -8904,10 +8895,10 @@
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F284" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G284" t="s">
         <v>2</v>
@@ -8917,10 +8908,10 @@
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F285" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G285" t="s">
         <v>2</v>
@@ -8930,13 +8921,13 @@
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F286" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G286" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -8946,20 +8937,20 @@
         <v>474</v>
       </c>
       <c r="F287" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G287" t="s">
-        <v>400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F288" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G288" t="s">
         <v>2</v>
@@ -8968,229 +8959,229 @@
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
-      <c r="C289" t="s">
-        <v>477</v>
-      </c>
-      <c r="F289" t="s">
-        <v>460</v>
-      </c>
-      <c r="G289" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
-      <c r="B290" s="14"/>
+      <c r="B290" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C290" t="s">
+        <v>420</v>
+      </c>
+      <c r="E290" t="s">
+        <v>437</v>
+      </c>
+      <c r="F290" t="s">
+        <v>458</v>
+      </c>
+      <c r="G290" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
-      <c r="B291" s="16" t="s">
+      <c r="B291" s="14"/>
+      <c r="C291" t="s">
         <v>421</v>
       </c>
-      <c r="C291" t="s">
-        <v>422</v>
-      </c>
-      <c r="E291" t="s">
-        <v>439</v>
-      </c>
       <c r="F291" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G291" t="s">
-        <v>400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F292" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G292" t="s">
-        <v>1</v>
+        <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F293" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G293" t="s">
-        <v>400</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F294" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G294" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F295" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G295" t="s">
-        <v>5</v>
+        <v>629</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F296" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G296" t="s">
-        <v>631</v>
+        <v>398</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" t="s">
-        <v>429</v>
+        <v>642</v>
       </c>
       <c r="F297" t="s">
-        <v>460</v>
-      </c>
-      <c r="G297" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
       <c r="C298" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F298" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F299" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
-      <c r="C300" t="s">
-        <v>646</v>
-      </c>
-      <c r="F300" t="s">
-        <v>466</v>
-      </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
-      <c r="B301" s="14"/>
+      <c r="B301" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C301" t="s">
+        <v>430</v>
+      </c>
+      <c r="E301" t="s">
+        <v>436</v>
+      </c>
+      <c r="F301" t="s">
+        <v>464</v>
+      </c>
+      <c r="G301" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
-      <c r="B302" s="16" t="s">
+      <c r="B302" s="14"/>
+      <c r="C302" t="s">
         <v>431</v>
       </c>
-      <c r="C302" t="s">
-        <v>432</v>
-      </c>
-      <c r="E302" t="s">
-        <v>438</v>
-      </c>
       <c r="F302" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G302" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F303" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G303" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F304" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G304" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
-      <c r="C305" t="s">
-        <v>435</v>
-      </c>
-      <c r="F305" t="s">
-        <v>466</v>
-      </c>
-      <c r="G305" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
-      <c r="B306" s="14"/>
-    </row>
-    <row r="307" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="13" t="s">
+    </row>
+    <row r="306" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B307" s="13" t="s">
+      <c r="B306" s="13" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="14"/>
+      <c r="B307" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C307" t="s">
+        <v>360</v>
+      </c>
+      <c r="F307" t="s">
+        <v>458</v>
+      </c>
+      <c r="G307" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
-      <c r="B308" s="7" t="s">
-        <v>394</v>
-      </c>
+      <c r="B308" s="14"/>
       <c r="C308" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="F308" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G308" t="s">
         <v>2</v>
@@ -9198,27 +9189,27 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
-      <c r="B309" s="14"/>
+      <c r="B309" s="14" t="s">
+        <v>393</v>
+      </c>
       <c r="C309" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="F309" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G309" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
-      <c r="B310" s="14" t="s">
-        <v>395</v>
-      </c>
+      <c r="B310" s="14"/>
       <c r="C310" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F310" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G310" t="s">
         <v>2</v>
@@ -9231,20 +9222,20 @@
         <v>380</v>
       </c>
       <c r="F311" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G311" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F312" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G312" t="s">
         <v>2</v>
@@ -9252,12 +9243,14 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
-      <c r="B313" s="14"/>
-      <c r="C313" t="s">
-        <v>391</v>
+      <c r="B313" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="F313" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G313" t="s">
         <v>2</v>
@@ -9265,14 +9258,12 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
-      <c r="B314" s="14" t="s">
-        <v>385</v>
-      </c>
+      <c r="B314" s="14"/>
       <c r="C314" s="4" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F314" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G314" t="s">
         <v>2</v>
@@ -9282,23 +9273,23 @@
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="4" t="s">
-        <v>398</v>
+        <v>625</v>
       </c>
       <c r="F315" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G315" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F316" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G316" t="s">
         <v>1</v>
@@ -9308,10 +9299,10 @@
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F317" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G317" t="s">
         <v>1</v>
@@ -9321,10 +9312,10 @@
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
       <c r="C318" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F318" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G318" t="s">
         <v>1</v>
@@ -9333,31 +9324,31 @@
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
       <c r="B319" s="14"/>
-      <c r="C319" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F319" t="s">
-        <v>460</v>
-      </c>
-      <c r="G319" t="s">
-        <v>1</v>
-      </c>
+      <c r="C319" s="4"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
-      <c r="B320" s="14"/>
-      <c r="C320" s="4"/>
+      <c r="B320" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F320" t="s">
+        <v>458</v>
+      </c>
+      <c r="G320" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
-      <c r="B321" s="7" t="s">
-        <v>395</v>
-      </c>
+      <c r="B321" s="14"/>
       <c r="C321" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F321" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G321" t="s">
         <v>2</v>
@@ -9367,10 +9358,10 @@
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="F322" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G322" t="s">
         <v>2</v>
@@ -9380,10 +9371,10 @@
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F323" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G323" t="s">
         <v>2</v>
@@ -9393,38 +9384,38 @@
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F324" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G324" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
-      <c r="B325" s="14"/>
+      <c r="B325" s="14" t="s">
+        <v>394</v>
+      </c>
       <c r="C325" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F325" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G325" t="s">
-        <v>400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="14" t="s">
-        <v>396</v>
-      </c>
+      <c r="B326" s="14"/>
       <c r="C326" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F326" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G326" t="s">
         <v>2</v>
@@ -9433,31 +9424,31 @@
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F327" t="s">
-        <v>460</v>
-      </c>
-      <c r="G327" t="s">
-        <v>2</v>
-      </c>
+      <c r="C327" s="4"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
-      <c r="B328" s="14"/>
-      <c r="C328" s="4"/>
+      <c r="B328" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F328" t="s">
+        <v>458</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
-      <c r="B329" s="16" t="s">
-        <v>396</v>
-      </c>
+      <c r="B329" s="14"/>
       <c r="C329" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F329" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G329" t="s">
         <v>1</v>
@@ -9467,10 +9458,10 @@
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F330" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G330" t="s">
         <v>1</v>
@@ -9480,10 +9471,10 @@
       <c r="A331" s="14"/>
       <c r="B331" s="14"/>
       <c r="C331" s="4" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F331" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G331" t="s">
         <v>1</v>
@@ -9491,145 +9482,145 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="14"/>
-      <c r="C332" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="F332" t="s">
-        <v>460</v>
-      </c>
-      <c r="G332" t="s">
-        <v>1</v>
-      </c>
+      <c r="B332" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C332" s="4"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="17" t="s">
+      <c r="B333" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C333" s="4"/>
+      <c r="C333" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F333" t="s">
+        <v>458</v>
+      </c>
+      <c r="G333" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
-      <c r="B334" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B334" s="14"/>
       <c r="C334" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F334" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G334" t="s">
-        <v>400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="4" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="F335" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G335" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F336" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G336" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F337" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G337" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F338" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G338" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
       <c r="C339" s="4" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="F339" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G339" t="s">
-        <v>400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
       <c r="C340" s="4" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="F340" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G340" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
-      <c r="C341" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="F341" t="s">
-        <v>460</v>
-      </c>
-      <c r="G341" t="s">
-        <v>400</v>
-      </c>
+      <c r="C341" s="4"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
-      <c r="B342" s="14"/>
-      <c r="C342" s="4"/>
+      <c r="B342" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F342" t="s">
+        <v>458</v>
+      </c>
+      <c r="G342" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
-      <c r="B343" s="18" t="s">
-        <v>385</v>
-      </c>
+      <c r="B343" s="15"/>
       <c r="C343" s="4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F343" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G343" t="s">
         <v>0</v>
@@ -9639,10 +9630,10 @@
       <c r="A344" s="14"/>
       <c r="B344" s="15"/>
       <c r="C344" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F344" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G344" t="s">
         <v>0</v>
@@ -9652,10 +9643,10 @@
       <c r="A345" s="14"/>
       <c r="B345" s="15"/>
       <c r="C345" s="4" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F345" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G345" t="s">
         <v>0</v>
@@ -9665,10 +9656,10 @@
       <c r="A346" s="14"/>
       <c r="B346" s="15"/>
       <c r="C346" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F346" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G346" t="s">
         <v>0</v>
@@ -9678,43 +9669,49 @@
       <c r="A347" s="14"/>
       <c r="B347" s="15"/>
       <c r="C347" s="4" t="s">
-        <v>373</v>
+        <v>516</v>
       </c>
       <c r="F347" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G347" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
-      <c r="B348" s="15"/>
-      <c r="C348" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="F348" t="s">
-        <v>460</v>
-      </c>
-      <c r="G348" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="11" t="s">
+    <row r="348" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B349" s="11" t="s">
+      <c r="B348" s="11" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="14"/>
+      <c r="B349" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C349" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
-      <c r="B350" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B350" s="14"/>
       <c r="C350" t="s">
-        <v>50</v>
+        <v>302</v>
+      </c>
+      <c r="D350" t="s">
+        <v>303</v>
+      </c>
+      <c r="E350" t="s">
+        <v>591</v>
+      </c>
+      <c r="F350" t="s">
+        <v>464</v>
+      </c>
+      <c r="G350" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9726,30 +9723,27 @@
       <c r="D351" t="s">
         <v>305</v>
       </c>
-      <c r="E351" t="s">
-        <v>593</v>
-      </c>
       <c r="F351" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G351" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" t="s">
-        <v>306</v>
+        <v>577</v>
       </c>
       <c r="D352" t="s">
-        <v>307</v>
+        <v>578</v>
       </c>
       <c r="F352" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G352" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -9762,10 +9756,10 @@
         <v>580</v>
       </c>
       <c r="F353" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G353" t="s">
-        <v>666</v>
+        <v>709</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -9778,345 +9772,333 @@
         <v>582</v>
       </c>
       <c r="F354" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G354" t="s">
-        <v>711</v>
+        <v>659</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="D355" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="F355" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G355" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
-      <c r="C356" t="s">
-        <v>651</v>
-      </c>
-      <c r="D356" t="s">
-        <v>652</v>
-      </c>
-      <c r="F356" t="s">
-        <v>466</v>
-      </c>
-      <c r="G356" t="s">
-        <v>669</v>
-      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
-      <c r="B357" s="14"/>
+      <c r="B357" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C357" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
-      <c r="B358" s="7" t="s">
-        <v>395</v>
-      </c>
+      <c r="B358" s="14"/>
       <c r="C358" t="s">
-        <v>569</v>
+        <v>583</v>
+      </c>
+      <c r="D358" t="s">
+        <v>587</v>
+      </c>
+      <c r="F358" t="s">
+        <v>464</v>
+      </c>
+      <c r="G358" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D359" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F359" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G359" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>586</v>
+        <v>273</v>
       </c>
       <c r="D360" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F360" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G360" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" t="s">
-        <v>273</v>
+        <v>585</v>
       </c>
       <c r="D361" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F361" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G361" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
       <c r="C362" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="D362" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F362" t="s">
-        <v>466</v>
-      </c>
-      <c r="G362" t="s">
-        <v>661</v>
+        <v>464</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
       <c r="B363" s="14"/>
       <c r="C363" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="D363" t="s">
-        <v>588</v>
+        <v>648</v>
+      </c>
+      <c r="E363" t="s">
+        <v>663</v>
       </c>
       <c r="F363" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="G363" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
-      <c r="C364" t="s">
-        <v>649</v>
-      </c>
-      <c r="D364" t="s">
-        <v>650</v>
-      </c>
-      <c r="E364" t="s">
-        <v>665</v>
-      </c>
-      <c r="F364" t="s">
-        <v>466</v>
-      </c>
-      <c r="G364" t="s">
-        <v>711</v>
-      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
-      <c r="B365" s="14"/>
+      <c r="B365" t="s">
+        <v>568</v>
+      </c>
+      <c r="C365" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="14"/>
-      <c r="B366" t="s">
+      <c r="B366" s="14"/>
+      <c r="C366" t="s">
         <v>570</v>
       </c>
-      <c r="C366" t="s">
-        <v>571</v>
+      <c r="D366" t="s">
+        <v>572</v>
+      </c>
+      <c r="F366" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D367" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F367" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
       <c r="C368" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D368" t="s">
-        <v>575</v>
+        <v>576</v>
+      </c>
+      <c r="E368" t="s">
+        <v>574</v>
       </c>
       <c r="F368" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="G368" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
       <c r="C369" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="D369" t="s">
-        <v>578</v>
-      </c>
-      <c r="E369" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="F369" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G369" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
       <c r="B370" s="14"/>
-      <c r="C370" t="s">
-        <v>657</v>
-      </c>
-      <c r="D370" t="s">
-        <v>659</v>
-      </c>
-      <c r="F370" t="s">
-        <v>466</v>
-      </c>
-      <c r="G370" t="s">
-        <v>661</v>
-      </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
-      <c r="B371" s="14"/>
+      <c r="B371" t="s">
+        <v>42</v>
+      </c>
+      <c r="C371" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
-      <c r="B372" t="s">
-        <v>42</v>
-      </c>
+      <c r="B372" s="14"/>
       <c r="C372" t="s">
-        <v>51</v>
+        <v>306</v>
+      </c>
+      <c r="D372" t="s">
+        <v>307</v>
+      </c>
+      <c r="F372" t="s">
+        <v>464</v>
+      </c>
+      <c r="G372" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="14"/>
       <c r="B373" s="14"/>
       <c r="C373" t="s">
-        <v>308</v>
+        <v>645</v>
       </c>
       <c r="D373" t="s">
-        <v>309</v>
+        <v>646</v>
       </c>
       <c r="F373" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G373" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="14"/>
       <c r="B374" s="14"/>
-      <c r="C374" t="s">
-        <v>647</v>
-      </c>
-      <c r="D374" t="s">
-        <v>648</v>
-      </c>
-      <c r="F374" t="s">
-        <v>466</v>
-      </c>
-      <c r="G374" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="14"/>
-      <c r="B375" s="14"/>
-    </row>
-    <row r="376" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="26" t="s">
-        <v>670</v>
-      </c>
-      <c r="C376" s="26" t="s">
-        <v>679</v>
+    </row>
+    <row r="375" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="C375" s="26" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="14"/>
+      <c r="B376" t="s">
+        <v>25</v>
+      </c>
+      <c r="C376" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="14"/>
-      <c r="B377" t="s">
-        <v>25</v>
-      </c>
+      <c r="B377" s="14"/>
       <c r="C377" t="s">
-        <v>673</v>
+        <v>702</v>
+      </c>
+      <c r="D377" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="14"/>
       <c r="B378" s="14"/>
       <c r="C378" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D378" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="14"/>
       <c r="B379" s="14"/>
-      <c r="C379" t="s">
-        <v>705</v>
-      </c>
-      <c r="D379" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="14"/>
-      <c r="B380" s="14"/>
+      <c r="B380" t="s">
+        <v>26</v>
+      </c>
+      <c r="C380" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="14"/>
-      <c r="B381" t="s">
-        <v>26</v>
-      </c>
+      <c r="B381" s="14"/>
       <c r="C381" t="s">
-        <v>674</v>
+        <v>702</v>
+      </c>
+      <c r="D381" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="14"/>
       <c r="B382" s="14"/>
       <c r="C382" t="s">
-        <v>704</v>
+        <v>205</v>
       </c>
       <c r="D382" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="14"/>
       <c r="B383" s="14"/>
-      <c r="C383" t="s">
-        <v>205</v>
-      </c>
-      <c r="D383" t="s">
-        <v>710</v>
-      </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="14"/>
@@ -10124,39 +10106,39 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="14"/>
-      <c r="B385" s="14"/>
+      <c r="B385" t="s">
+        <v>27</v>
+      </c>
+      <c r="C385" t="s">
+        <v>673</v>
+      </c>
+      <c r="D385" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="14"/>
-      <c r="B386" t="s">
-        <v>27</v>
-      </c>
+      <c r="B386" s="14"/>
       <c r="C386" t="s">
-        <v>675</v>
-      </c>
-      <c r="D386" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="14"/>
       <c r="B387" s="14"/>
-      <c r="C387" t="s">
-        <v>704</v>
-      </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="14"/>
-      <c r="B388" s="14"/>
+      <c r="B388" t="s">
+        <v>670</v>
+      </c>
+      <c r="C388" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="14"/>
-      <c r="B389" t="s">
-        <v>672</v>
-      </c>
-      <c r="C389" t="s">
-        <v>676</v>
-      </c>
+      <c r="B389" s="14"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="14"/>
@@ -10172,44 +10154,56 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="14"/>
-      <c r="B393" s="14"/>
+      <c r="B393" t="s">
+        <v>669</v>
+      </c>
+      <c r="C393" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="14"/>
-      <c r="B394" t="s">
-        <v>671</v>
-      </c>
+      <c r="B394" s="14"/>
       <c r="C394" t="s">
-        <v>677</v>
+        <v>682</v>
+      </c>
+      <c r="D394" t="s">
+        <v>700</v>
+      </c>
+      <c r="F394" t="s">
+        <v>465</v>
+      </c>
+      <c r="G394" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="14"/>
       <c r="B395" s="14"/>
       <c r="C395" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D395" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F395" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G395" t="s">
-        <v>666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
       <c r="B396" s="14"/>
       <c r="C396" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D396" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F396" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G396" t="s">
         <v>1</v>
@@ -10222,26 +10216,26 @@
         <v>686</v>
       </c>
       <c r="D397" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F397" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G397" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="14"/>
       <c r="B398" s="14"/>
       <c r="C398" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D398" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F398" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G398" t="s">
         <v>0</v>
@@ -10254,119 +10248,107 @@
         <v>687</v>
       </c>
       <c r="D399" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F399" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G399" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="14"/>
       <c r="B400" s="14"/>
       <c r="C400" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D400" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F400" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G400" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
       <c r="B401" s="14"/>
       <c r="C401" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D401" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F401" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G401" t="s">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="14"/>
       <c r="B402" s="14"/>
       <c r="C402" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D402" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F402" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G402" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="14"/>
       <c r="B403" s="14"/>
       <c r="C403" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D403" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F403" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G403" t="s">
-        <v>666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="14"/>
       <c r="B404" s="14"/>
       <c r="C404" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="D404" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="F404" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G404" t="s">
-        <v>1</v>
+        <v>664</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
-      <c r="B405" s="14"/>
+      <c r="B405" t="s">
+        <v>31</v>
+      </c>
       <c r="C405" t="s">
-        <v>712</v>
-      </c>
-      <c r="D405" t="s">
-        <v>713</v>
-      </c>
-      <c r="F405" t="s">
-        <v>467</v>
-      </c>
-      <c r="G405" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
-      <c r="B406" t="s">
-        <v>31</v>
-      </c>
-      <c r="C406" t="s">
-        <v>678</v>
-      </c>
+      <c r="B406" s="14"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="14"/>
@@ -10379,10 +10361,6 @@
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="14"/>
-      <c r="B410" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10428,112 +10406,112 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" t="s">
         <v>445</v>
       </c>
-      <c r="C1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H1" t="s">
         <v>447</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>448</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>449</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>450</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="N1" t="s">
         <v>451</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>452</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>453</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>454</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>455</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>456</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>457</v>
       </c>
-      <c r="U1" t="s">
-        <v>458</v>
-      </c>
-      <c r="W1" t="s">
-        <v>459</v>
-      </c>
       <c r="X1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>512</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>514</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -10541,52 +10519,52 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="25" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="20" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M3" s="23"/>
       <c r="N3" s="20" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="20" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="20" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="V3" s="14"/>
       <c r="Y3" s="14"/>
@@ -10594,33 +10572,33 @@
     <row r="4" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J4" s="14"/>
       <c r="M4" s="23"/>
       <c r="N4" s="20" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P4" s="14"/>
       <c r="R4" s="20" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="S4" s="14"/>
       <c r="V4" s="14"/>
@@ -10629,26 +10607,26 @@
     <row r="5" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G5" s="14"/>
       <c r="J5" s="14"/>
       <c r="M5" s="23"/>
       <c r="N5" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="P5" s="14"/>
       <c r="S5" s="14"/>
@@ -10658,26 +10636,26 @@
     <row r="6" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G6" s="14"/>
       <c r="J6" s="14"/>
       <c r="M6" s="23"/>
       <c r="N6" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="P6" s="14"/>
       <c r="S6" s="14"/>
@@ -10691,7 +10669,7 @@
       <c r="J7" s="14"/>
       <c r="M7" s="23"/>
       <c r="N7" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P7" s="14"/>
       <c r="S7" s="14"/>
@@ -10728,52 +10706,52 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="20" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="V11" s="14"/>
       <c r="Y11" s="14"/>
@@ -10781,25 +10759,25 @@
     <row r="12" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G12" s="14"/>
       <c r="J12" s="14"/>
       <c r="M12" s="23"/>
       <c r="O12" s="20" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="P12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="V12" s="14"/>
       <c r="Y12" s="14"/>
@@ -10808,7 +10786,7 @@
       <c r="A13" s="7"/>
       <c r="D13" s="14"/>
       <c r="E13" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G13" s="14"/>
       <c r="J13" s="14"/>
@@ -10870,52 +10848,52 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="L19" s="20" t="s">
         <v>603</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>605</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="20" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="20" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R19" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="U19" s="20" t="s">
         <v>617</v>
-      </c>
-      <c r="U19" s="20" t="s">
-        <v>619</v>
       </c>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
@@ -10923,52 +10901,52 @@
     <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="L20" s="20" t="s">
         <v>604</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>606</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="U20" s="20" t="s">
         <v>618</v>
-      </c>
-      <c r="U20" s="20" t="s">
-        <v>620</v>
       </c>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
@@ -10976,30 +10954,30 @@
     <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D21" s="14"/>
       <c r="F21" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="S21" s="14"/>
       <c r="V21" s="14"/>
@@ -11008,14 +10986,14 @@
     <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D22" s="14"/>
       <c r="G22" s="14"/>
       <c r="J22" s="14"/>
       <c r="M22" s="23"/>
       <c r="N22" s="20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="P22" s="14"/>
       <c r="S22" s="14"/>
@@ -11025,14 +11003,14 @@
     <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D23" s="14"/>
       <c r="G23" s="14"/>
       <c r="J23" s="14"/>
       <c r="M23" s="23"/>
       <c r="N23" s="20" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P23" s="14"/>
       <c r="S23" s="14"/>
@@ -11042,7 +11020,7 @@
     <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D24" s="14"/>
       <c r="G24" s="14"/>
@@ -11056,10 +11034,10 @@
     <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D25" s="14"/>
       <c r="G25" s="14"/>
@@ -11075,31 +11053,31 @@
     </row>
     <row r="27" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D27" s="14"/>
       <c r="G27" s="14"/>
       <c r="J27" s="14"/>
       <c r="M27" s="23"/>
       <c r="N27" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="20" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="20" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="V27" s="14"/>
       <c r="Y27" s="14"/>
@@ -11111,18 +11089,18 @@
       <c r="J28" s="14"/>
       <c r="M28" s="23"/>
       <c r="N28" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="P28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="20" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="V28" s="14"/>
       <c r="Y28" s="14"/>
@@ -11134,7 +11112,7 @@
       <c r="J29" s="14"/>
       <c r="M29" s="23"/>
       <c r="N29" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P29" s="14"/>
       <c r="S29" s="14"/>
@@ -11148,7 +11126,7 @@
       <c r="J30" s="14"/>
       <c r="M30" s="23"/>
       <c r="N30" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P30" s="14"/>
       <c r="S30" s="14"/>
@@ -11162,7 +11140,7 @@
       <c r="J31" s="14"/>
       <c r="M31" s="23"/>
       <c r="N31" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P31" s="14"/>
       <c r="S31" s="14"/>
@@ -11176,7 +11154,7 @@
       <c r="J32" s="14"/>
       <c r="M32" s="23"/>
       <c r="N32" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P32" s="14"/>
       <c r="S32" s="14"/>
@@ -11198,7 +11176,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="23"/>
       <c r="N33" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="O33" s="20"/>
       <c r="P33" s="14"/>
@@ -11217,96 +11195,96 @@
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M35" s="23"/>
       <c r="N35" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="R35" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="V35" s="14"/>
       <c r="W35" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="14"/>
       <c r="H36" s="20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="20" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="20" t="s">
@@ -11317,14 +11295,14 @@
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="20" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="V36" s="14"/>
       <c r="W36" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="X36" s="20"/>
       <c r="Y36" s="14"/>
@@ -11335,14 +11313,14 @@
         <v>181</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="14"/>
       <c r="H37" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="14"/>
@@ -11354,10 +11332,10 @@
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="20" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="20"/>
@@ -11369,7 +11347,7 @@
       <c r="U37" s="20"/>
       <c r="V37" s="14"/>
       <c r="W37" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="X37" s="20"/>
       <c r="Y37" s="14"/>
@@ -11380,7 +11358,7 @@
         <v>236</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="20"/>
@@ -11396,7 +11374,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="20"/>
@@ -11427,7 +11405,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="20"/>
       <c r="O39" s="20" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="20"/>
@@ -11560,24 +11538,24 @@
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="8" t="s">
@@ -11588,7 +11566,7 @@
       </c>
       <c r="M43" s="23"/>
       <c r="N43" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>179</v>
@@ -11602,10 +11580,10 @@
       </c>
       <c r="S43" s="14"/>
       <c r="T43" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V43" s="14"/>
       <c r="Y43" s="14"/>
@@ -11613,24 +11591,24 @@
     <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>221</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J44" s="14"/>
       <c r="K44" s="8" t="s">
@@ -11641,10 +11619,10 @@
       </c>
       <c r="M44" s="23"/>
       <c r="N44" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="8" t="s">
@@ -11658,7 +11636,7 @@
         <v>252</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="V44" s="14"/>
       <c r="Y44" s="14"/>
@@ -11666,35 +11644,35 @@
     <row r="45" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M45" s="23"/>
       <c r="N45" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="Q45" s="8" t="s">
         <v>202</v>
@@ -11706,7 +11684,7 @@
         <v>253</v>
       </c>
       <c r="U45" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
@@ -11728,10 +11706,10 @@
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J46" s="14"/>
       <c r="L46" s="8" t="s">
@@ -11742,7 +11720,7 @@
         <v>160</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="8" t="s">
@@ -11753,7 +11731,7 @@
         <v>254</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V46" s="14"/>
       <c r="Y46" s="14"/>
@@ -11761,7 +11739,7 @@
     <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>228</v>
@@ -11772,7 +11750,7 @@
         <v>155</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J47" s="14"/>
       <c r="L47" s="8" t="s">
@@ -11783,7 +11761,7 @@
         <v>161</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="8" t="s">
@@ -11794,7 +11772,7 @@
         <v>79</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="V47" s="14"/>
       <c r="Y47" s="14"/>
@@ -11802,10 +11780,10 @@
     <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D48" s="14"/>
       <c r="G48" s="14"/>
@@ -11813,11 +11791,11 @@
         <v>157</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J48" s="14"/>
       <c r="L48" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="8" t="s">
@@ -11825,14 +11803,14 @@
       </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S48" s="14"/>
       <c r="T48" s="8" t="s">
         <v>77</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
@@ -11843,31 +11821,31 @@
         <v>282</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J49" s="14"/>
       <c r="M49" s="23"/>
       <c r="N49" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="S49" s="14"/>
       <c r="T49" s="8" t="s">
         <v>78</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V49" s="14"/>
       <c r="Y49" s="14"/>
@@ -11875,10 +11853,10 @@
     <row r="50" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D50" s="14"/>
       <c r="G50" s="14"/>
@@ -11886,20 +11864,20 @@
         <v>134</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J50" s="14"/>
       <c r="M50" s="23"/>
       <c r="N50" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S50" s="14"/>
       <c r="U50" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V50" s="14"/>
       <c r="Y50" s="14"/>
@@ -11907,31 +11885,31 @@
     <row r="51" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D51" s="22"/>
       <c r="G51" s="14"/>
       <c r="H51" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J51" s="14"/>
       <c r="M51" s="23"/>
       <c r="N51" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P51" s="14"/>
       <c r="Q51" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S51" s="14"/>
       <c r="U51" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="V51" s="14"/>
       <c r="Y51" s="14"/>
@@ -11939,18 +11917,18 @@
     <row r="52" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="22"/>
       <c r="G52" s="14"/>
       <c r="I52" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J52" s="14"/>
       <c r="M52" s="23"/>
       <c r="N52" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P52" s="14"/>
       <c r="S52" s="14"/>
@@ -11989,14 +11967,14 @@
         <v>5</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>54</v>
@@ -12010,10 +11988,10 @@
       </c>
       <c r="J54" s="14"/>
       <c r="K54" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M54" s="23"/>
       <c r="N54" s="8" t="s">
@@ -12027,14 +12005,14 @@
         <v>72</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S54" s="14"/>
       <c r="T54" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U54" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V54" s="14"/>
       <c r="Y54" s="14"/>
@@ -12042,13 +12020,13 @@
     <row r="55" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>53</v>
@@ -12060,7 +12038,7 @@
         <v>243</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="23"/>
@@ -12074,13 +12052,13 @@
         <v>75</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="T55" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W55" s="8"/>
       <c r="X55" s="8"/>
@@ -12088,11 +12066,11 @@
     <row r="56" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="C56" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>70</v>
@@ -12106,7 +12084,7 @@
       </c>
       <c r="J56" s="14"/>
       <c r="K56" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M56" s="23"/>
       <c r="N56" s="8" t="s">
@@ -12120,11 +12098,11 @@
         <v>74</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S56" s="14"/>
       <c r="T56" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="V56" s="14"/>
       <c r="Y56" s="14"/>
@@ -12132,18 +12110,18 @@
     <row r="57" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="C57" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="8" t="s">
@@ -12171,18 +12149,18 @@
       <c r="A58" s="7"/>
       <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M58" s="23"/>
       <c r="N58" s="8" t="s">
@@ -12206,10 +12184,10 @@
       <c r="A59" s="7"/>
       <c r="D59" s="14"/>
       <c r="E59" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="8" t="s">
@@ -12245,7 +12223,7 @@
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J60" s="14"/>
       <c r="M60" s="23"/>
@@ -12261,14 +12239,14 @@
       <c r="A61" s="7"/>
       <c r="D61" s="14"/>
       <c r="E61" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J61" s="14"/>
       <c r="M61" s="23"/>
@@ -12419,7 +12397,7 @@
         <v>216</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="R65" s="8" t="s">
         <v>290</v>
@@ -12446,7 +12424,7 @@
         <v>132</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>144</v>
@@ -12470,7 +12448,7 @@
         <v>217</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="R66" s="8" t="s">
         <v>291</v>
@@ -12510,15 +12488,15 @@
         <v>121</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
       <c r="T67" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="U67" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="W67" s="8" t="s">
         <v>102</v>
@@ -12549,7 +12527,7 @@
         <v>119</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
@@ -12584,12 +12562,12 @@
         <v>120</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
       <c r="T69" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="U69" s="8"/>
       <c r="W69" s="8" t="s">
@@ -12605,7 +12583,7 @@
       <c r="C70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -12615,7 +12593,7 @@
         <v>211</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
@@ -12640,7 +12618,7 @@
       <c r="L71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
@@ -12657,7 +12635,7 @@
       <c r="C72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
@@ -12665,7 +12643,7 @@
       <c r="L72" s="8"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -2310,7 +2310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2338,6 +2338,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -10370,10 +10371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10401,10 +10402,12 @@
     <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" style="14" customWidth="1"/>
     <col min="23" max="24" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.28515625" style="14" customWidth="1"/>
+    <col min="25" max="25" width="106" style="14" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="27"/>
+    <col min="27" max="36" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>443</v>
       </c>
@@ -10457,7 +10460,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>501</v>
       </c>
@@ -10513,8 +10516,19 @@
       <c r="X2" s="19" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+    </row>
+    <row r="3" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -10568,8 +10582,19 @@
       </c>
       <c r="V3" s="14"/>
       <c r="Y3" s="14"/>
-    </row>
-    <row r="4" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+    </row>
+    <row r="4" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="20" t="s">
         <v>388</v>
@@ -10603,8 +10628,19 @@
       <c r="S4" s="14"/>
       <c r="V4" s="14"/>
       <c r="Y4" s="14"/>
-    </row>
-    <row r="5" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+    </row>
+    <row r="5" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="20" t="s">
         <v>373</v>
@@ -10632,8 +10668,19 @@
       <c r="S5" s="14"/>
       <c r="V5" s="14"/>
       <c r="Y5" s="14"/>
-    </row>
-    <row r="6" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+    </row>
+    <row r="6" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="20" t="s">
         <v>374</v>
@@ -10661,8 +10708,19 @@
       <c r="S6" s="14"/>
       <c r="V6" s="14"/>
       <c r="Y6" s="14"/>
-    </row>
-    <row r="7" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+    </row>
+    <row r="7" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="D7" s="14"/>
       <c r="G7" s="14"/>
@@ -10675,8 +10733,19 @@
       <c r="S7" s="14"/>
       <c r="V7" s="14"/>
       <c r="Y7" s="14"/>
-    </row>
-    <row r="8" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+    </row>
+    <row r="8" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="D8" s="14"/>
       <c r="G8" s="14"/>
@@ -10686,8 +10755,19 @@
       <c r="S8" s="14"/>
       <c r="V8" s="14"/>
       <c r="Y8" s="14"/>
-    </row>
-    <row r="9" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+    </row>
+    <row r="9" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="D9" s="14"/>
       <c r="G9" s="14"/>
@@ -10697,11 +10777,33 @@
       <c r="S9" s="14"/>
       <c r="V9" s="14"/>
       <c r="Y9" s="14"/>
-    </row>
-    <row r="10" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+    </row>
+    <row r="10" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+    </row>
+    <row r="11" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -10755,8 +10857,19 @@
       </c>
       <c r="V11" s="14"/>
       <c r="Y11" s="14"/>
-    </row>
-    <row r="12" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+    </row>
+    <row r="12" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="20" t="s">
         <v>371</v>
@@ -10781,8 +10894,19 @@
       </c>
       <c r="V12" s="14"/>
       <c r="Y12" s="14"/>
-    </row>
-    <row r="13" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+    </row>
+    <row r="13" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="D13" s="14"/>
       <c r="E13" s="20" t="s">
@@ -10795,8 +10919,19 @@
       <c r="S13" s="14"/>
       <c r="V13" s="14"/>
       <c r="Y13" s="14"/>
-    </row>
-    <row r="14" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+    </row>
+    <row r="14" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="D14" s="14"/>
       <c r="G14" s="14"/>
@@ -10806,8 +10941,19 @@
       <c r="S14" s="14"/>
       <c r="V14" s="14"/>
       <c r="Y14" s="14"/>
-    </row>
-    <row r="15" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+    </row>
+    <row r="15" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="D15" s="14"/>
       <c r="G15" s="14"/>
@@ -10817,8 +10963,19 @@
       <c r="S15" s="14"/>
       <c r="V15" s="14"/>
       <c r="Y15" s="14"/>
-    </row>
-    <row r="16" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+    </row>
+    <row r="16" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="D16" s="14"/>
       <c r="G16" s="14"/>
@@ -10828,8 +10985,19 @@
       <c r="S16" s="14"/>
       <c r="V16" s="14"/>
       <c r="Y16" s="14"/>
-    </row>
-    <row r="17" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+    </row>
+    <row r="17" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="D17" s="14"/>
       <c r="G17" s="14"/>
@@ -10839,11 +11007,33 @@
       <c r="S17" s="14"/>
       <c r="V17" s="14"/>
       <c r="Y17" s="14"/>
-    </row>
-    <row r="18" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+    </row>
+    <row r="18" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+    </row>
+    <row r="19" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
@@ -10897,8 +11087,19 @@
       </c>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
-    </row>
-    <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+    </row>
+    <row r="20" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="20" t="s">
         <v>522</v>
@@ -10950,8 +11151,19 @@
       </c>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
-    </row>
-    <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+    </row>
+    <row r="21" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="20" t="s">
         <v>521</v>
@@ -10982,8 +11194,19 @@
       <c r="S21" s="14"/>
       <c r="V21" s="14"/>
       <c r="Y21" s="14"/>
-    </row>
-    <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+    </row>
+    <row r="22" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="20" t="s">
         <v>526</v>
@@ -10999,8 +11222,19 @@
       <c r="S22" s="14"/>
       <c r="V22" s="14"/>
       <c r="Y22" s="14"/>
-    </row>
-    <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+    </row>
+    <row r="23" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="20" t="s">
         <v>527</v>
@@ -11016,8 +11250,19 @@
       <c r="S23" s="14"/>
       <c r="V23" s="14"/>
       <c r="Y23" s="14"/>
-    </row>
-    <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+    </row>
+    <row r="24" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
         <v>528</v>
@@ -11030,8 +11275,19 @@
       <c r="S24" s="14"/>
       <c r="V24" s="14"/>
       <c r="Y24" s="14"/>
-    </row>
-    <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+    </row>
+    <row r="25" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
         <v>529</v>
@@ -11047,11 +11303,33 @@
       <c r="S25" s="14"/>
       <c r="V25" s="14"/>
       <c r="Y25" s="14"/>
-    </row>
-    <row r="26" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+    </row>
+    <row r="26" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+    </row>
+    <row r="27" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>664</v>
       </c>
@@ -11081,8 +11359,19 @@
       </c>
       <c r="V27" s="14"/>
       <c r="Y27" s="14"/>
-    </row>
-    <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+    </row>
+    <row r="28" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="D28" s="14"/>
       <c r="G28" s="14"/>
@@ -11104,8 +11393,19 @@
       </c>
       <c r="V28" s="14"/>
       <c r="Y28" s="14"/>
-    </row>
-    <row r="29" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+    </row>
+    <row r="29" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="D29" s="14"/>
       <c r="G29" s="14"/>
@@ -11118,8 +11418,19 @@
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
       <c r="Y29" s="14"/>
-    </row>
-    <row r="30" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+    </row>
+    <row r="30" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="D30" s="14"/>
       <c r="G30" s="14"/>
@@ -11132,8 +11443,19 @@
       <c r="S30" s="14"/>
       <c r="V30" s="14"/>
       <c r="Y30" s="14"/>
-    </row>
-    <row r="31" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+    </row>
+    <row r="31" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="D31" s="14"/>
       <c r="G31" s="14"/>
@@ -11146,8 +11468,19 @@
       <c r="S31" s="14"/>
       <c r="V31" s="14"/>
       <c r="Y31" s="14"/>
-    </row>
-    <row r="32" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
+    </row>
+    <row r="32" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="D32" s="14"/>
       <c r="G32" s="14"/>
@@ -11160,8 +11493,19 @@
       <c r="S32" s="14"/>
       <c r="V32" s="14"/>
       <c r="Y32" s="14"/>
-    </row>
-    <row r="33" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+    </row>
+    <row r="33" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -11189,11 +11533,33 @@
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="14"/>
-    </row>
-    <row r="34" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+    </row>
+    <row r="34" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M34" s="23"/>
-    </row>
-    <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+    </row>
+    <row r="35" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>398</v>
       </c>
@@ -11253,8 +11619,19 @@
         <v>549</v>
       </c>
       <c r="Y35" s="14"/>
-    </row>
-    <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+    </row>
+    <row r="36" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="20" t="s">
         <v>531</v>
@@ -11306,8 +11683,19 @@
       </c>
       <c r="X36" s="20"/>
       <c r="Y36" s="14"/>
-    </row>
-    <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+    </row>
+    <row r="37" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="20" t="s">
         <v>181</v>
@@ -11351,8 +11739,19 @@
       </c>
       <c r="X37" s="20"/>
       <c r="Y37" s="14"/>
-    </row>
-    <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+    </row>
+    <row r="38" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="20" t="s">
         <v>236</v>
@@ -11386,8 +11785,19 @@
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="14"/>
-    </row>
-    <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+    </row>
+    <row r="39" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -11417,8 +11827,19 @@
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="14"/>
-    </row>
-    <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+    </row>
+    <row r="40" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -11446,8 +11867,19 @@
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="14"/>
-    </row>
-    <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="16"/>
+    </row>
+    <row r="41" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
         <v>206</v>
@@ -11505,8 +11937,19 @@
         <v>206</v>
       </c>
       <c r="Y41" s="14"/>
-    </row>
-    <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+    </row>
+    <row r="42" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -11532,8 +11975,19 @@
       <c r="W42" s="14"/>
       <c r="X42" s="14"/>
       <c r="Y42" s="14"/>
-    </row>
-    <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="16"/>
+      <c r="AJ42" s="16"/>
+    </row>
+    <row r="43" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>7</v>
       </c>
@@ -11587,8 +12041,19 @@
       </c>
       <c r="V43" s="14"/>
       <c r="Y43" s="14"/>
-    </row>
-    <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+    </row>
+    <row r="44" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
         <v>533</v>
@@ -11640,8 +12105,19 @@
       </c>
       <c r="V44" s="14"/>
       <c r="Y44" s="14"/>
-    </row>
-    <row r="45" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16"/>
+    </row>
+    <row r="45" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
         <v>534</v>
@@ -11688,8 +12164,19 @@
       </c>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
-    </row>
-    <row r="46" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+    </row>
+    <row r="46" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
         <v>199</v>
@@ -11735,8 +12222,19 @@
       </c>
       <c r="V46" s="14"/>
       <c r="Y46" s="14"/>
-    </row>
-    <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="16"/>
+      <c r="AI46" s="16"/>
+      <c r="AJ46" s="16"/>
+    </row>
+    <row r="47" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
         <v>535</v>
@@ -11776,8 +12274,19 @@
       </c>
       <c r="V47" s="14"/>
       <c r="Y47" s="14"/>
-    </row>
-    <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="16"/>
+      <c r="AJ47" s="16"/>
+    </row>
+    <row r="48" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
         <v>536</v>
@@ -11814,8 +12323,19 @@
       </c>
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
-    </row>
-    <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="16"/>
+      <c r="AJ48" s="16"/>
+    </row>
+    <row r="49" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
         <v>282</v>
@@ -11849,8 +12369,19 @@
       </c>
       <c r="V49" s="14"/>
       <c r="Y49" s="14"/>
-    </row>
-    <row r="50" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="16"/>
+    </row>
+    <row r="50" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
         <v>537</v>
@@ -11881,8 +12412,19 @@
       </c>
       <c r="V50" s="14"/>
       <c r="Y50" s="14"/>
-    </row>
-    <row r="51" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="16"/>
+      <c r="AF50" s="16"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="16"/>
+      <c r="AI50" s="16"/>
+      <c r="AJ50" s="16"/>
+    </row>
+    <row r="51" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
         <v>538</v>
@@ -11913,8 +12455,19 @@
       </c>
       <c r="V51" s="14"/>
       <c r="Y51" s="14"/>
-    </row>
-    <row r="52" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="16"/>
+      <c r="AI51" s="16"/>
+      <c r="AJ51" s="16"/>
+    </row>
+    <row r="52" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
         <v>539</v>
@@ -11934,8 +12487,19 @@
       <c r="S52" s="14"/>
       <c r="V52" s="14"/>
       <c r="Y52" s="14"/>
-    </row>
-    <row r="53" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+      <c r="AD52" s="16"/>
+      <c r="AE52" s="16"/>
+      <c r="AF52" s="16"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="16"/>
+      <c r="AJ52" s="16"/>
+    </row>
+    <row r="53" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -11961,8 +12525,19 @@
       <c r="W53" s="14"/>
       <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
-    </row>
-    <row r="54" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="16"/>
+      <c r="AI53" s="16"/>
+      <c r="AJ53" s="16"/>
+    </row>
+    <row r="54" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>5</v>
       </c>
@@ -12016,8 +12591,19 @@
       </c>
       <c r="V54" s="14"/>
       <c r="Y54" s="14"/>
-    </row>
-    <row r="55" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="16"/>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="16"/>
+      <c r="AI54" s="16"/>
+      <c r="AJ54" s="16"/>
+    </row>
+    <row r="55" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
         <v>541</v>
@@ -12062,8 +12648,19 @@
       </c>
       <c r="W55" s="8"/>
       <c r="X55" s="8"/>
-    </row>
-    <row r="56" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+    </row>
+    <row r="56" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="C56" s="8" t="s">
         <v>356</v>
@@ -12106,8 +12703,19 @@
       </c>
       <c r="V56" s="14"/>
       <c r="Y56" s="14"/>
-    </row>
-    <row r="57" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="16"/>
+      <c r="AI56" s="16"/>
+      <c r="AJ56" s="16"/>
+    </row>
+    <row r="57" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="C57" s="8" t="s">
         <v>481</v>
@@ -12144,8 +12752,19 @@
       <c r="S57" s="14"/>
       <c r="V57" s="14"/>
       <c r="Y57" s="14"/>
-    </row>
-    <row r="58" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="16"/>
+      <c r="AF57" s="16"/>
+      <c r="AG57" s="16"/>
+      <c r="AH57" s="16"/>
+      <c r="AI57" s="16"/>
+      <c r="AJ57" s="16"/>
+    </row>
+    <row r="58" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
@@ -12179,8 +12798,19 @@
       <c r="S58" s="14"/>
       <c r="V58" s="14"/>
       <c r="Y58" s="14"/>
-    </row>
-    <row r="59" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16"/>
+      <c r="AF58" s="16"/>
+      <c r="AG58" s="16"/>
+      <c r="AH58" s="16"/>
+      <c r="AI58" s="16"/>
+      <c r="AJ58" s="16"/>
+    </row>
+    <row r="59" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="D59" s="14"/>
       <c r="E59" s="8" t="s">
@@ -12211,8 +12841,19 @@
       <c r="S59" s="14"/>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>
-    </row>
-    <row r="60" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="16"/>
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="16"/>
+      <c r="AF59" s="16"/>
+      <c r="AG59" s="16"/>
+      <c r="AH59" s="16"/>
+      <c r="AI59" s="16"/>
+      <c r="AJ59" s="16"/>
+    </row>
+    <row r="60" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="D60" s="14"/>
       <c r="E60" s="8" t="s">
@@ -12234,8 +12875,19 @@
       <c r="S60" s="14"/>
       <c r="V60" s="14"/>
       <c r="Y60" s="14"/>
-    </row>
-    <row r="61" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="16"/>
+      <c r="AD60" s="16"/>
+      <c r="AE60" s="16"/>
+      <c r="AF60" s="16"/>
+      <c r="AG60" s="16"/>
+      <c r="AH60" s="16"/>
+      <c r="AI60" s="16"/>
+      <c r="AJ60" s="16"/>
+    </row>
+    <row r="61" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="D61" s="14"/>
       <c r="E61" s="8" t="s">
@@ -12254,8 +12906,19 @@
       <c r="S61" s="14"/>
       <c r="V61" s="14"/>
       <c r="Y61" s="14"/>
-    </row>
-    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+      <c r="AD61" s="16"/>
+      <c r="AE61" s="16"/>
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="16"/>
+      <c r="AH61" s="16"/>
+      <c r="AI61" s="16"/>
+      <c r="AJ61" s="16"/>
+    </row>
+    <row r="62" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="D62" s="14"/>
       <c r="E62" s="8" t="s">
@@ -12274,8 +12937,19 @@
       <c r="S62" s="14"/>
       <c r="V62" s="14"/>
       <c r="Y62" s="14"/>
-    </row>
-    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="16"/>
+      <c r="AD62" s="16"/>
+      <c r="AE62" s="16"/>
+      <c r="AF62" s="16"/>
+      <c r="AG62" s="16"/>
+      <c r="AH62" s="16"/>
+      <c r="AI62" s="16"/>
+      <c r="AJ62" s="16"/>
+    </row>
+    <row r="63" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -12301,8 +12975,19 @@
       <c r="W63" s="14"/>
       <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
-    </row>
-    <row r="64" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="16"/>
+      <c r="AI63" s="16"/>
+      <c r="AJ63" s="16"/>
+    </row>
+    <row r="64" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>6</v>
       </c>
@@ -12362,8 +13047,19 @@
         <v>107</v>
       </c>
       <c r="Y64" s="14"/>
-    </row>
-    <row r="65" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z64" s="27"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16"/>
+      <c r="AH64" s="16"/>
+      <c r="AI64" s="16"/>
+      <c r="AJ64" s="16"/>
+    </row>
+    <row r="65" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
         <v>131</v>
@@ -12414,8 +13110,19 @@
       <c r="X65" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="16"/>
+      <c r="AH65" s="16"/>
+      <c r="AI65" s="16"/>
+      <c r="AJ65" s="16"/>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
         <v>132</v>
@@ -12466,7 +13173,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -12505,7 +13212,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -12542,7 +13249,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -12577,7 +13284,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -12604,7 +13311,7 @@
       <c r="W70" s="8"/>
       <c r="X70" s="8"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -12629,7 +13336,7 @@
       <c r="W71" s="8"/>
       <c r="X71" s="8"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -12654,7 +13361,7 @@
       <c r="W72" s="8"/>
       <c r="X72" s="8"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -12673,25 +13380,25 @@
       <c r="W73" s="14"/>
       <c r="X73" s="14"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="722">
   <si>
     <t>Arne</t>
   </si>
@@ -2165,6 +2165,33 @@
   </si>
   <si>
     <t>2D_CHAR_MCMODEL</t>
+  </si>
+  <si>
+    <t>Stone 3</t>
+  </si>
+  <si>
+    <t>2D_TXT_STONE3</t>
+  </si>
+  <si>
+    <t>Stepping Stone</t>
+  </si>
+  <si>
+    <t>2D_TXT_STEPPINGSTONE</t>
+  </si>
+  <si>
+    <t>3D_ENV_STONE3</t>
+  </si>
+  <si>
+    <t>3D_ENV_STEPPINGSTONE</t>
+  </si>
+  <si>
+    <t>4U_ENV_STONE3</t>
+  </si>
+  <si>
+    <t>4U_ENV_STEPPINGSTONE`</t>
+  </si>
+  <si>
+    <t>4U_ENV_STEPPINGSTONE</t>
   </si>
 </sst>
 </file>
@@ -4697,10 +4724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G409"/>
+  <dimension ref="A1:G415"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD75"/>
+    <sheetView topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5382,7 +5409,7 @@
         <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G43" t="s">
         <v>7</v>
@@ -5392,42 +5419,42 @@
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>713</v>
       </c>
       <c r="D44" t="s">
-        <v>550</v>
+        <v>714</v>
       </c>
       <c r="F44" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>715</v>
       </c>
       <c r="D45" t="s">
-        <v>551</v>
+        <v>716</v>
       </c>
       <c r="F45" t="s">
         <v>458</v>
       </c>
       <c r="G45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D46" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F46" t="s">
         <v>458</v>
@@ -5440,74 +5467,74 @@
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>551</v>
       </c>
       <c r="F47" t="s">
         <v>458</v>
       </c>
       <c r="G47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>552</v>
       </c>
       <c r="F48" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
         <v>458</v>
       </c>
       <c r="G49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F50" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="D51" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="F51" t="s">
         <v>458</v>
@@ -5520,13 +5547,13 @@
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F52" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G52" t="s">
         <v>7</v>
@@ -5536,42 +5563,42 @@
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="F53" t="s">
         <v>458</v>
       </c>
       <c r="G53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F54" t="s">
         <v>458</v>
       </c>
       <c r="G54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F55" t="s">
         <v>458</v>
@@ -5584,45 +5611,45 @@
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F56" t="s">
         <v>458</v>
       </c>
       <c r="G56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F57" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F58" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G58" t="s">
         <v>7</v>
@@ -5632,10 +5659,10 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D59" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F59" t="s">
         <v>465</v>
@@ -5648,26 +5675,26 @@
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F60" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F61" t="s">
         <v>465</v>
@@ -5680,173 +5707,173 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F62" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D63" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F63" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F64" t="s">
         <v>464</v>
       </c>
       <c r="G64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F65" t="s">
         <v>458</v>
       </c>
       <c r="G65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D66" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F66" t="s">
         <v>464</v>
       </c>
       <c r="G66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D67" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F67" t="s">
         <v>458</v>
       </c>
       <c r="G67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
-        <v>283</v>
-      </c>
-      <c r="E68" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F68" t="s">
         <v>464</v>
       </c>
       <c r="G68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F69" t="s">
         <v>458</v>
       </c>
       <c r="G69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s">
-        <v>297</v>
+        <v>283</v>
+      </c>
+      <c r="E70" t="s">
+        <v>284</v>
       </c>
       <c r="F70" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D71" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F71" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D72" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F72" t="s">
         <v>465</v>
@@ -5859,10 +5886,10 @@
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D73" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F73" t="s">
         <v>464</v>
@@ -5875,28 +5902,26 @@
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D74" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F74" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>348</v>
-      </c>
+      <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="D75" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="F75" t="s">
         <v>464</v>
@@ -5909,10 +5934,10 @@
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="D76" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="F76" t="s">
         <v>458</v>
@@ -5922,32 +5947,34 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14" t="s">
+        <v>348</v>
+      </c>
       <c r="B77" s="14"/>
       <c r="C77" t="s">
-        <v>459</v>
+        <v>350</v>
       </c>
       <c r="D77" t="s">
-        <v>462</v>
+        <v>349</v>
       </c>
       <c r="F77" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" t="s">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="D78" t="s">
-        <v>461</v>
+        <v>354</v>
       </c>
       <c r="F78" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
@@ -5957,13 +5984,13 @@
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>459</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>462</v>
       </c>
       <c r="F79" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G79" t="s">
         <v>7</v>
@@ -5973,99 +6000,99 @@
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>461</v>
       </c>
       <c r="F80" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" t="s">
-        <v>592</v>
+        <v>149</v>
       </c>
       <c r="D81" t="s">
-        <v>555</v>
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
+        <v>458</v>
+      </c>
+      <c r="G81" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" t="s">
-        <v>678</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
-        <v>680</v>
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
+        <v>458</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-    </row>
-    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>26</v>
+      <c r="C83" t="s">
+        <v>592</v>
+      </c>
+      <c r="D83" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" t="s">
+        <v>678</v>
+      </c>
+      <c r="D84" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
-      <c r="B85" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" t="s">
-        <v>65</v>
-      </c>
-      <c r="F86" t="s">
-        <v>464</v>
-      </c>
-      <c r="G86" t="s">
-        <v>5</v>
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
+      <c r="B87" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C87" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F87" t="s">
-        <v>464</v>
-      </c>
-      <c r="G87" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F88" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
@@ -6075,74 +6102,74 @@
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F90" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D91" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F91" t="s">
         <v>465</v>
       </c>
       <c r="G91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F92" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F93" t="s">
         <v>465</v>
@@ -6155,10 +6182,10 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F94" t="s">
         <v>465</v>
@@ -6171,13 +6198,13 @@
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D95" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F95" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G95" t="s">
         <v>6</v>
@@ -6187,13 +6214,13 @@
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F96" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G96" t="s">
         <v>6</v>
@@ -6203,13 +6230,13 @@
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F97" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G97" t="s">
         <v>6</v>
@@ -6219,122 +6246,122 @@
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F98" t="s">
         <v>464</v>
       </c>
       <c r="G98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="F99" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D100" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F100" t="s">
         <v>464</v>
       </c>
       <c r="G100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" t="s">
-        <v>592</v>
+        <v>159</v>
       </c>
       <c r="D101" t="s">
-        <v>554</v>
+        <v>161</v>
       </c>
       <c r="F101" t="s">
         <v>464</v>
       </c>
       <c r="G101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
+      <c r="C102" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" t="s">
+        <v>165</v>
+      </c>
+      <c r="F102" t="s">
+        <v>464</v>
+      </c>
+      <c r="G102" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
-      <c r="B103" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B103" s="14"/>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>592</v>
+      </c>
+      <c r="D103" t="s">
+        <v>554</v>
+      </c>
+      <c r="F103" t="s">
+        <v>464</v>
+      </c>
+      <c r="G103" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" t="s">
-        <v>60</v>
-      </c>
-      <c r="D104" t="s">
-        <v>481</v>
-      </c>
-      <c r="F104" t="s">
-        <v>458</v>
-      </c>
-      <c r="G104" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
+      <c r="B105" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C105" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" t="s">
-        <v>458</v>
-      </c>
-      <c r="G105" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>481</v>
       </c>
       <c r="F106" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G106" t="s">
         <v>5</v>
@@ -6344,10 +6371,10 @@
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D107" t="s">
-        <v>483</v>
+        <v>54</v>
       </c>
       <c r="F107" t="s">
         <v>458</v>
@@ -6360,13 +6387,13 @@
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D108" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F108" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G108" t="s">
         <v>5</v>
@@ -6376,26 +6403,26 @@
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>94</v>
+        <v>483</v>
       </c>
       <c r="F109" t="s">
         <v>458</v>
       </c>
       <c r="G109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="F110" t="s">
         <v>458</v>
@@ -6408,26 +6435,26 @@
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="D111" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="F111" t="s">
         <v>458</v>
       </c>
       <c r="G111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D112" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="F112" t="s">
         <v>458</v>
@@ -6440,45 +6467,45 @@
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D113" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="F113" t="s">
         <v>458</v>
       </c>
       <c r="G113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D114" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F114" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D115" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F115" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G115" t="s">
         <v>7</v>
@@ -6488,45 +6515,45 @@
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D116" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F116" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D117" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F117" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D118" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F118" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G118" t="s">
         <v>6</v>
@@ -6536,195 +6563,183 @@
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D119" t="s">
-        <v>201</v>
-      </c>
-      <c r="E119" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
       <c r="F119" t="s">
         <v>458</v>
       </c>
       <c r="G119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D120" t="s">
-        <v>202</v>
-      </c>
-      <c r="E120" t="s">
-        <v>490</v>
+        <v>194</v>
       </c>
       <c r="F120" t="s">
         <v>465</v>
       </c>
       <c r="G120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D121" t="s">
-        <v>206</v>
+        <v>201</v>
+      </c>
+      <c r="E121" t="s">
+        <v>489</v>
       </c>
       <c r="F121" t="s">
         <v>458</v>
       </c>
       <c r="G121" t="s">
-        <v>398</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D122" t="s">
-        <v>212</v>
+        <v>202</v>
+      </c>
+      <c r="E122" t="s">
+        <v>490</v>
       </c>
       <c r="F122" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>214</v>
+        <v>713</v>
       </c>
       <c r="D123" t="s">
-        <v>216</v>
-      </c>
-      <c r="F123" t="s">
-        <v>464</v>
-      </c>
-      <c r="G123" t="s">
-        <v>6</v>
+        <v>717</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>220</v>
+        <v>715</v>
       </c>
       <c r="D124" t="s">
-        <v>221</v>
-      </c>
-      <c r="F124" t="s">
-        <v>458</v>
-      </c>
-      <c r="G124" t="s">
-        <v>7</v>
+        <v>718</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D125" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F125" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G125" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="D126" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="F126" t="s">
         <v>458</v>
       </c>
       <c r="G126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D127" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F127" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G127" t="s">
-        <v>398</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D128" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="F128" t="s">
         <v>458</v>
       </c>
       <c r="G128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D129" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F129" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D130" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="F130" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G130" t="s">
         <v>7</v>
@@ -6734,173 +6749,173 @@
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="D131" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="F131" t="s">
         <v>458</v>
       </c>
       <c r="G131" t="s">
-        <v>6</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="D132" t="s">
-        <v>285</v>
-      </c>
-      <c r="E132" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="F132" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="D133" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="F133" t="s">
         <v>458</v>
       </c>
       <c r="G133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" t="s">
-        <v>678</v>
+        <v>251</v>
       </c>
       <c r="D134" t="s">
-        <v>679</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G134" t="s">
-        <v>398</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
+      <c r="C135" t="s">
+        <v>265</v>
+      </c>
+      <c r="D135" t="s">
+        <v>267</v>
+      </c>
+      <c r="F135" t="s">
+        <v>458</v>
+      </c>
+      <c r="G135" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
-      <c r="B136" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B136" s="14"/>
       <c r="C136" t="s">
-        <v>43</v>
+        <v>277</v>
+      </c>
+      <c r="D136" t="s">
+        <v>285</v>
+      </c>
+      <c r="E136" t="s">
+        <v>284</v>
+      </c>
+      <c r="F136" t="s">
+        <v>464</v>
+      </c>
+      <c r="G136" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="D137" t="s">
-        <v>491</v>
+        <v>290</v>
       </c>
       <c r="F137" t="s">
         <v>458</v>
       </c>
       <c r="G137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>361</v>
+        <v>678</v>
       </c>
       <c r="D138" t="s">
-        <v>364</v>
-      </c>
-      <c r="E138" t="s">
-        <v>362</v>
+        <v>679</v>
       </c>
       <c r="F138" t="s">
         <v>458</v>
       </c>
       <c r="G138" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
-      <c r="C139" t="s">
-        <v>153</v>
-      </c>
-      <c r="D139" t="s">
-        <v>157</v>
-      </c>
-      <c r="F139" t="s">
-        <v>464</v>
-      </c>
-      <c r="G139" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
+      <c r="B140" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C140" t="s">
-        <v>154</v>
-      </c>
-      <c r="D140" t="s">
-        <v>158</v>
-      </c>
-      <c r="F140" t="s">
-        <v>465</v>
-      </c>
-      <c r="G140" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>173</v>
+        <v>491</v>
       </c>
       <c r="F141" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" t="s">
-        <v>227</v>
+        <v>361</v>
       </c>
       <c r="D142" t="s">
-        <v>228</v>
+        <v>364</v>
+      </c>
+      <c r="E142" t="s">
+        <v>362</v>
       </c>
       <c r="F142" t="s">
         <v>458</v>
@@ -6913,159 +6928,186 @@
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="F143" t="s">
         <v>464</v>
       </c>
       <c r="G143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" t="s">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="F144" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
+      <c r="C145" t="s">
+        <v>171</v>
+      </c>
+      <c r="D145" t="s">
+        <v>173</v>
+      </c>
+      <c r="F145" t="s">
+        <v>464</v>
+      </c>
+      <c r="G145" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
-      <c r="B146" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B146" s="14"/>
       <c r="C146" t="s">
-        <v>138</v>
+        <v>227</v>
+      </c>
+      <c r="D146" t="s">
+        <v>228</v>
+      </c>
+      <c r="F146" t="s">
+        <v>458</v>
+      </c>
+      <c r="G146" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="D147" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="F147" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="D148" t="s">
-        <v>439</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
         <v>458</v>
       </c>
       <c r="G148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
-      <c r="C149" t="s">
-        <v>128</v>
-      </c>
-      <c r="D149" t="s">
-        <v>438</v>
-      </c>
-      <c r="F149" t="s">
-        <v>458</v>
-      </c>
-      <c r="G149" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
-      <c r="B150" s="14"/>
+      <c r="B150" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C150" t="s">
-        <v>230</v>
-      </c>
-      <c r="D150" t="s">
-        <v>232</v>
-      </c>
-      <c r="F150" t="s">
-        <v>458</v>
-      </c>
-      <c r="G150" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" t="s">
-        <v>353</v>
+        <v>126</v>
       </c>
       <c r="D151" t="s">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="F151" t="s">
         <v>458</v>
       </c>
       <c r="G151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
-    </row>
-    <row r="153" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>39</v>
+      <c r="C152" t="s">
+        <v>127</v>
+      </c>
+      <c r="D152" t="s">
+        <v>439</v>
+      </c>
+      <c r="F152" t="s">
+        <v>458</v>
+      </c>
+      <c r="G152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+      <c r="C153" t="s">
+        <v>128</v>
+      </c>
+      <c r="D153" t="s">
+        <v>438</v>
+      </c>
+      <c r="F153" t="s">
+        <v>458</v>
+      </c>
+      <c r="G153" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
-      <c r="B154" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B154" s="14"/>
       <c r="C154" t="s">
-        <v>47</v>
+        <v>230</v>
+      </c>
+      <c r="D154" t="s">
+        <v>232</v>
+      </c>
+      <c r="F154" t="s">
+        <v>458</v>
+      </c>
+      <c r="G154" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" t="s">
-        <v>56</v>
+        <v>353</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>355</v>
       </c>
       <c r="F155" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
@@ -7074,126 +7116,99 @@
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
-      <c r="C156" t="s">
-        <v>76</v>
-      </c>
-      <c r="D156" t="s">
-        <v>78</v>
-      </c>
-      <c r="F156" t="s">
-        <v>465</v>
-      </c>
-      <c r="G156" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="14"/>
-      <c r="B157" s="14"/>
-      <c r="C157" t="s">
-        <v>86</v>
-      </c>
-      <c r="D157" t="s">
-        <v>91</v>
-      </c>
-      <c r="F157" t="s">
-        <v>458</v>
-      </c>
-      <c r="G157" t="s">
-        <v>7</v>
+    </row>
+    <row r="157" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
-      <c r="B158" s="14"/>
+      <c r="B158" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C158" t="s">
-        <v>55</v>
-      </c>
-      <c r="D158" t="s">
-        <v>69</v>
-      </c>
-      <c r="F158" t="s">
-        <v>464</v>
-      </c>
-      <c r="G158" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D159" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F159" t="s">
         <v>465</v>
       </c>
       <c r="G159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D160" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F160" t="s">
         <v>465</v>
       </c>
       <c r="G160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D161" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F161" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D162" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F162" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D163" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F163" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G163" t="s">
         <v>6</v>
@@ -7203,13 +7218,13 @@
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D164" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F164" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G164" t="s">
         <v>6</v>
@@ -7219,10 +7234,10 @@
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D165" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F165" t="s">
         <v>465</v>
@@ -7235,90 +7250,109 @@
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="D166" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="F166" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="D167" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="F167" t="s">
         <v>464</v>
       </c>
       <c r="G167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="D168" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="F168" t="s">
         <v>464</v>
       </c>
       <c r="G168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" t="s">
-        <v>592</v>
+        <v>122</v>
       </c>
       <c r="D169" t="s">
-        <v>556</v>
+        <v>124</v>
       </c>
       <c r="F169" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
+      <c r="C170" t="s">
+        <v>139</v>
+      </c>
+      <c r="D170" t="s">
+        <v>141</v>
+      </c>
+      <c r="F170" t="s">
+        <v>464</v>
+      </c>
+      <c r="G170" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
-      <c r="B171" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B171" s="14"/>
       <c r="C171" t="s">
-        <v>48</v>
+        <v>159</v>
+      </c>
+      <c r="D171" t="s">
+        <v>162</v>
+      </c>
+      <c r="F171" t="s">
+        <v>464</v>
+      </c>
+      <c r="G171" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="D172" t="s">
-        <v>482</v>
+        <v>166</v>
       </c>
       <c r="F172" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G172" t="s">
         <v>5</v>
@@ -7328,58 +7362,39 @@
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" t="s">
-        <v>52</v>
+        <v>592</v>
       </c>
       <c r="D173" t="s">
-        <v>70</v>
+        <v>556</v>
       </c>
       <c r="F173" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
-      <c r="C174" t="s">
-        <v>59</v>
-      </c>
-      <c r="D174" t="s">
-        <v>484</v>
-      </c>
-      <c r="F174" t="s">
-        <v>458</v>
-      </c>
-      <c r="G174" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
-      <c r="B175" s="14"/>
+      <c r="B175" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C175" t="s">
-        <v>73</v>
-      </c>
-      <c r="D175" t="s">
-        <v>74</v>
-      </c>
-      <c r="F175" t="s">
-        <v>464</v>
-      </c>
-      <c r="G175" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D176" t="s">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="F176" t="s">
         <v>458</v>
@@ -7388,14 +7403,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="D177" t="s">
-        <v>485</v>
+        <v>70</v>
       </c>
       <c r="F177" t="s">
         <v>458</v>
@@ -7408,29 +7423,29 @@
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D178" t="s">
-        <v>144</v>
+        <v>484</v>
       </c>
       <c r="F178" t="s">
         <v>458</v>
       </c>
       <c r="G178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="D179" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="F179" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G179" t="s">
         <v>5</v>
@@ -7440,10 +7455,10 @@
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="D180" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="F180" t="s">
         <v>458</v>
@@ -7456,26 +7471,26 @@
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="D181" t="s">
-        <v>188</v>
+        <v>485</v>
       </c>
       <c r="F181" t="s">
         <v>458</v>
       </c>
       <c r="G181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="D182" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="F182" t="s">
         <v>458</v>
@@ -7488,58 +7503,58 @@
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="D183" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="F183" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D184" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="F184" t="s">
         <v>458</v>
       </c>
       <c r="G184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D185" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F185" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D186" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F186" t="s">
         <v>458</v>
@@ -7552,13 +7567,13 @@
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="D187" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F187" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G187" t="s">
         <v>6</v>
@@ -7568,10 +7583,10 @@
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="D188" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="F188" t="s">
         <v>458</v>
@@ -7584,45 +7599,45 @@
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="D189" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F189" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>241</v>
+        <v>713</v>
       </c>
       <c r="D190" t="s">
-        <v>242</v>
+        <v>719</v>
       </c>
       <c r="F190" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>251</v>
+        <v>715</v>
       </c>
       <c r="D191" t="s">
-        <v>254</v>
+        <v>720</v>
       </c>
       <c r="F191" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G191" t="s">
         <v>7</v>
@@ -7632,10 +7647,10 @@
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="D192" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="F192" t="s">
         <v>458</v>
@@ -7648,90 +7663,112 @@
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="D193" t="s">
-        <v>287</v>
-      </c>
-      <c r="E193" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="F193" t="s">
         <v>464</v>
       </c>
       <c r="G193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D194" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F194" t="s">
         <v>458</v>
       </c>
       <c r="G194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" t="s">
-        <v>678</v>
+        <v>237</v>
       </c>
       <c r="D195" t="s">
-        <v>681</v>
+        <v>240</v>
+      </c>
+      <c r="F195" t="s">
+        <v>458</v>
+      </c>
+      <c r="G195" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
+      <c r="C196" t="s">
+        <v>241</v>
+      </c>
+      <c r="D196" t="s">
+        <v>242</v>
+      </c>
+      <c r="F196" t="s">
+        <v>458</v>
+      </c>
+      <c r="G196" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
-      <c r="B197" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B197" s="14"/>
       <c r="C197" t="s">
-        <v>49</v>
+        <v>251</v>
+      </c>
+      <c r="D197" t="s">
+        <v>254</v>
+      </c>
+      <c r="F197" t="s">
+        <v>465</v>
+      </c>
+      <c r="G197" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" t="s">
-        <v>492</v>
+        <v>265</v>
       </c>
       <c r="D198" t="s">
-        <v>493</v>
+        <v>268</v>
       </c>
       <c r="F198" t="s">
         <v>458</v>
       </c>
       <c r="G198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="D199" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="E199" t="s">
-        <v>362</v>
+        <v>284</v>
       </c>
       <c r="F199" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G199" t="s">
         <v>7</v>
@@ -7741,13 +7778,13 @@
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="D200" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="F200" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G200" t="s">
         <v>6</v>
@@ -7757,83 +7794,71 @@
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
-        <v>225</v>
+        <v>678</v>
       </c>
       <c r="D201" t="s">
-        <v>229</v>
-      </c>
-      <c r="F201" t="s">
-        <v>458</v>
-      </c>
-      <c r="G201" t="s">
-        <v>7</v>
+        <v>681</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
-      <c r="C202" t="s">
-        <v>269</v>
-      </c>
-      <c r="D202" t="s">
-        <v>272</v>
-      </c>
-      <c r="F202" t="s">
-        <v>464</v>
-      </c>
-      <c r="G202" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
+      <c r="B203" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C203" t="s">
-        <v>273</v>
-      </c>
-      <c r="D203" t="s">
-        <v>276</v>
-      </c>
-      <c r="F203" t="s">
-        <v>458</v>
-      </c>
-      <c r="G203" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
-      <c r="B204" s="7" t="s">
-        <v>57</v>
+      <c r="B204" s="14"/>
+      <c r="C204" t="s">
+        <v>492</v>
+      </c>
+      <c r="D204" t="s">
+        <v>493</v>
+      </c>
+      <c r="F204" t="s">
+        <v>458</v>
+      </c>
+      <c r="G204" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" t="s">
-        <v>126</v>
+        <v>361</v>
       </c>
       <c r="D205" t="s">
-        <v>132</v>
+        <v>363</v>
+      </c>
+      <c r="E205" t="s">
+        <v>362</v>
       </c>
       <c r="F205" t="s">
         <v>458</v>
       </c>
       <c r="G205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="D206" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="F206" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G206" t="s">
         <v>6</v>
@@ -7843,10 +7868,10 @@
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D207" t="s">
-        <v>487</v>
+        <v>229</v>
       </c>
       <c r="F207" t="s">
         <v>458</v>
@@ -7859,13 +7884,13 @@
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="D208" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="F208" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G208" t="s">
         <v>5</v>
@@ -7875,10 +7900,10 @@
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" t="s">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="D209" t="s">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="F209" t="s">
         <v>458</v>
@@ -7889,246 +7914,236 @@
     </row>
     <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
-      <c r="B210" s="14"/>
-    </row>
-    <row r="211" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="14"/>
+      <c r="B211" s="14"/>
+      <c r="C211" t="s">
+        <v>126</v>
+      </c>
+      <c r="D211" t="s">
+        <v>132</v>
+      </c>
+      <c r="F211" t="s">
+        <v>458</v>
+      </c>
+      <c r="G211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
-      <c r="B212" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B212" s="14"/>
       <c r="C212" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="D212" t="s">
+        <v>133</v>
+      </c>
+      <c r="F212" t="s">
+        <v>458</v>
+      </c>
+      <c r="G212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D213" t="s">
-        <v>134</v>
+        <v>487</v>
       </c>
       <c r="F213" t="s">
         <v>458</v>
       </c>
       <c r="G213" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="D214" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="F214" t="s">
         <v>458</v>
       </c>
       <c r="G214" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" t="s">
-        <v>126</v>
+        <v>353</v>
       </c>
       <c r="D215" t="s">
-        <v>136</v>
+        <v>356</v>
       </c>
       <c r="F215" t="s">
         <v>458</v>
       </c>
       <c r="G215" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
-      <c r="C216" t="s">
-        <v>230</v>
-      </c>
-      <c r="D216" t="s">
-        <v>234</v>
-      </c>
-      <c r="F216" t="s">
-        <v>458</v>
-      </c>
-      <c r="G216" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
-      <c r="B217" s="14"/>
-      <c r="C217" t="s">
-        <v>353</v>
-      </c>
-      <c r="D217" t="s">
-        <v>357</v>
-      </c>
-      <c r="F217" t="s">
-        <v>458</v>
-      </c>
-      <c r="G217" t="s">
-        <v>5</v>
+    </row>
+    <row r="217" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
-      <c r="B218" s="14"/>
-    </row>
-    <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B219" s="12" t="s">
-        <v>46</v>
+      <c r="B218" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C218" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="14"/>
+      <c r="B219" s="14"/>
+      <c r="C219" t="s">
+        <v>127</v>
+      </c>
+      <c r="D219" t="s">
+        <v>134</v>
+      </c>
+      <c r="F219" t="s">
+        <v>458</v>
+      </c>
+      <c r="G219" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="14"/>
-      <c r="B220" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B220" s="14"/>
       <c r="C220" t="s">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="D220" t="s">
+        <v>135</v>
+      </c>
+      <c r="F220" t="s">
+        <v>458</v>
+      </c>
+      <c r="G220" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" t="s">
-        <v>308</v>
+        <v>126</v>
       </c>
       <c r="D221" t="s">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="F221" t="s">
         <v>458</v>
       </c>
       <c r="G221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="D222" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="F222" t="s">
         <v>458</v>
       </c>
       <c r="G222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="D223" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="F223" t="s">
         <v>458</v>
       </c>
       <c r="G223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
-      <c r="C224" t="s">
-        <v>311</v>
-      </c>
-      <c r="D224" t="s">
-        <v>316</v>
-      </c>
-      <c r="F224" t="s">
-        <v>458</v>
-      </c>
-      <c r="G224" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="14"/>
-      <c r="B225" s="14"/>
-      <c r="C225" t="s">
-        <v>312</v>
-      </c>
-      <c r="D225" t="s">
-        <v>317</v>
-      </c>
-      <c r="F225" t="s">
-        <v>458</v>
-      </c>
-      <c r="G225" t="s">
-        <v>7</v>
+    </row>
+    <row r="225" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
-      <c r="B226" s="14"/>
+      <c r="B226" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C226" t="s">
-        <v>313</v>
-      </c>
-      <c r="D226" t="s">
-        <v>319</v>
-      </c>
-      <c r="F226" t="s">
-        <v>458</v>
-      </c>
-      <c r="G226" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="D227" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="F227" t="s">
         <v>458</v>
       </c>
       <c r="G227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>632</v>
+        <v>309</v>
       </c>
       <c r="D228" t="s">
-        <v>633</v>
+        <v>315</v>
       </c>
       <c r="F228" t="s">
         <v>458</v>
@@ -8141,10 +8156,10 @@
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
-        <v>634</v>
+        <v>310</v>
       </c>
       <c r="D229" t="s">
-        <v>635</v>
+        <v>318</v>
       </c>
       <c r="F229" t="s">
         <v>458</v>
@@ -8157,13 +8172,10 @@
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D230" t="s">
-        <v>323</v>
-      </c>
-      <c r="E230" t="s">
-        <v>494</v>
+        <v>316</v>
       </c>
       <c r="F230" t="s">
         <v>458</v>
@@ -8176,13 +8188,10 @@
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D231" t="s">
-        <v>324</v>
-      </c>
-      <c r="E231" t="s">
-        <v>495</v>
+        <v>317</v>
       </c>
       <c r="F231" t="s">
         <v>458</v>
@@ -8195,13 +8204,10 @@
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D232" t="s">
-        <v>325</v>
-      </c>
-      <c r="E232" t="s">
-        <v>496</v>
+        <v>319</v>
       </c>
       <c r="F232" t="s">
         <v>458</v>
@@ -8214,32 +8220,26 @@
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="D233" t="s">
-        <v>327</v>
-      </c>
-      <c r="E233" t="s">
-        <v>497</v>
+        <v>347</v>
       </c>
       <c r="F233" t="s">
         <v>458</v>
       </c>
       <c r="G233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>328</v>
+        <v>632</v>
       </c>
       <c r="D234" t="s">
-        <v>331</v>
-      </c>
-      <c r="E234" t="s">
-        <v>494</v>
+        <v>633</v>
       </c>
       <c r="F234" t="s">
         <v>458</v>
@@ -8252,13 +8252,10 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>329</v>
+        <v>634</v>
       </c>
       <c r="D235" t="s">
-        <v>332</v>
-      </c>
-      <c r="E235" t="s">
-        <v>495</v>
+        <v>635</v>
       </c>
       <c r="F235" t="s">
         <v>458</v>
@@ -8271,13 +8268,13 @@
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D236" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E236" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F236" t="s">
         <v>458</v>
@@ -8290,13 +8287,13 @@
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D237" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E237" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F237" t="s">
         <v>458</v>
@@ -8309,13 +8306,13 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D238" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E238" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F238" t="s">
         <v>458</v>
@@ -8328,13 +8325,13 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D239" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E239" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F239" t="s">
         <v>458</v>
@@ -8347,10 +8344,10 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D240" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E240" t="s">
         <v>494</v>
@@ -8366,10 +8363,10 @@
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D241" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E241" t="s">
         <v>495</v>
@@ -8385,10 +8382,10 @@
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D242" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E242" t="s">
         <v>496</v>
@@ -8404,176 +8401,216 @@
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" t="s">
-        <v>651</v>
+        <v>334</v>
       </c>
       <c r="D243" t="s">
-        <v>652</v>
+        <v>337</v>
+      </c>
+      <c r="E243" t="s">
+        <v>494</v>
       </c>
       <c r="F243" t="s">
         <v>458</v>
       </c>
       <c r="G243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
-    </row>
-    <row r="245" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>36</v>
+      <c r="C244" t="s">
+        <v>335</v>
+      </c>
+      <c r="D244" t="s">
+        <v>338</v>
+      </c>
+      <c r="E244" t="s">
+        <v>495</v>
+      </c>
+      <c r="F244" t="s">
+        <v>458</v>
+      </c>
+      <c r="G244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="14"/>
+      <c r="B245" s="14"/>
+      <c r="C245" t="s">
+        <v>336</v>
+      </c>
+      <c r="D245" t="s">
+        <v>339</v>
+      </c>
+      <c r="E245" t="s">
+        <v>496</v>
+      </c>
+      <c r="F245" t="s">
+        <v>458</v>
+      </c>
+      <c r="G245" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
-      <c r="B246" s="7" t="s">
-        <v>399</v>
-      </c>
+      <c r="B246" s="14"/>
       <c r="C246" t="s">
-        <v>399</v>
+        <v>340</v>
+      </c>
+      <c r="D246" t="s">
+        <v>345</v>
       </c>
       <c r="E246" t="s">
-        <v>436</v>
+        <v>494</v>
+      </c>
+      <c r="F246" t="s">
+        <v>458</v>
+      </c>
+      <c r="G246" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" t="s">
-        <v>400</v>
+        <v>341</v>
+      </c>
+      <c r="D247" t="s">
+        <v>344</v>
+      </c>
+      <c r="E247" t="s">
+        <v>495</v>
       </c>
       <c r="F247" t="s">
         <v>458</v>
       </c>
       <c r="G247" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" t="s">
-        <v>352</v>
+        <v>342</v>
+      </c>
+      <c r="D248" t="s">
+        <v>343</v>
+      </c>
+      <c r="E248" t="s">
+        <v>496</v>
       </c>
       <c r="F248" t="s">
         <v>458</v>
       </c>
       <c r="G248" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>401</v>
+        <v>651</v>
+      </c>
+      <c r="D249" t="s">
+        <v>652</v>
       </c>
       <c r="F249" t="s">
         <v>458</v>
       </c>
       <c r="G249" t="s">
-        <v>398</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
-      <c r="C250" t="s">
-        <v>402</v>
-      </c>
-      <c r="F250" t="s">
-        <v>458</v>
-      </c>
-      <c r="G250" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
-      <c r="B251" s="14"/>
-      <c r="C251" t="s">
-        <v>499</v>
-      </c>
-      <c r="F251" t="s">
-        <v>464</v>
-      </c>
-      <c r="G251" t="s">
-        <v>398</v>
+    </row>
+    <row r="251" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
-      <c r="B252" s="14"/>
+      <c r="B252" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="C252" t="s">
-        <v>403</v>
-      </c>
-      <c r="F252" t="s">
-        <v>458</v>
-      </c>
-      <c r="G252" t="s">
-        <v>2</v>
+        <v>399</v>
+      </c>
+      <c r="E252" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F253" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G253" t="s">
-        <v>498</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="F254" t="s">
         <v>458</v>
       </c>
       <c r="G254" t="s">
-        <v>498</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="F255" t="s">
         <v>458</v>
       </c>
       <c r="G255" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
+      <c r="C256" t="s">
+        <v>402</v>
+      </c>
+      <c r="F256" t="s">
+        <v>458</v>
+      </c>
+      <c r="G256" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
-      <c r="B257" s="16" t="s">
-        <v>406</v>
-      </c>
+      <c r="B257" s="14"/>
       <c r="C257" t="s">
-        <v>638</v>
-      </c>
-      <c r="E257" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="F257" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G257" t="s">
         <v>398</v>
@@ -8583,37 +8620,46 @@
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
-        <v>639</v>
+        <v>403</v>
       </c>
       <c r="F258" t="s">
         <v>458</v>
+      </c>
+      <c r="G258" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>640</v>
+        <v>404</v>
       </c>
       <c r="F259" t="s">
         <v>464</v>
+      </c>
+      <c r="G259" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>641</v>
+        <v>405</v>
       </c>
       <c r="F260" t="s">
-        <v>464</v>
+        <v>458</v>
+      </c>
+      <c r="G260" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="F261" t="s">
         <v>458</v>
@@ -8625,73 +8671,60 @@
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
-      <c r="C262" t="s">
-        <v>408</v>
-      </c>
-      <c r="F262" t="s">
-        <v>464</v>
-      </c>
-      <c r="G262" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
-      <c r="B263" s="14"/>
+      <c r="B263" s="16" t="s">
+        <v>406</v>
+      </c>
       <c r="C263" t="s">
-        <v>409</v>
+        <v>638</v>
+      </c>
+      <c r="E263" t="s">
+        <v>437</v>
       </c>
       <c r="F263" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G263" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>410</v>
+        <v>639</v>
       </c>
       <c r="F264" t="s">
         <v>458</v>
-      </c>
-      <c r="G264" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>411</v>
+        <v>640</v>
       </c>
       <c r="F265" t="s">
-        <v>458</v>
-      </c>
-      <c r="G265" t="s">
-        <v>6</v>
+        <v>464</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>412</v>
+        <v>641</v>
       </c>
       <c r="F266" t="s">
-        <v>458</v>
-      </c>
-      <c r="G266" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F267" t="s">
         <v>458</v>
@@ -8704,10 +8737,10 @@
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F268" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G268" t="s">
         <v>2</v>
@@ -8717,7 +8750,7 @@
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F269" t="s">
         <v>464</v>
@@ -8730,7 +8763,7 @@
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F270" t="s">
         <v>458</v>
@@ -8743,33 +8776,33 @@
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F271" t="s">
         <v>458</v>
       </c>
       <c r="G271" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F272" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G272" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="F273" t="s">
         <v>458</v>
@@ -8782,49 +8815,49 @@
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F274" t="s">
         <v>458</v>
       </c>
       <c r="G274" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="F275" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G275" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="F276" t="s">
         <v>458</v>
       </c>
       <c r="G276" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" t="s">
-        <v>637</v>
+        <v>417</v>
       </c>
       <c r="F277" t="s">
-        <v>653</v>
+        <v>458</v>
       </c>
       <c r="G277" t="s">
         <v>2</v>
@@ -8833,60 +8866,76 @@
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
+      <c r="C278" t="s">
+        <v>418</v>
+      </c>
+      <c r="F278" t="s">
+        <v>464</v>
+      </c>
+      <c r="G278" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
+      <c r="C279" t="s">
+        <v>424</v>
+      </c>
+      <c r="F279" t="s">
+        <v>458</v>
+      </c>
+      <c r="G279" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="14"/>
-      <c r="B280" s="7" t="s">
-        <v>473</v>
-      </c>
+      <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>466</v>
+        <v>423</v>
       </c>
       <c r="F280" t="s">
         <v>458</v>
       </c>
       <c r="G280" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="F281" t="s">
         <v>458</v>
       </c>
       <c r="G281" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="F282" t="s">
         <v>458</v>
       </c>
       <c r="G282" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>469</v>
+        <v>637</v>
       </c>
       <c r="F283" t="s">
-        <v>458</v>
+        <v>653</v>
       </c>
       <c r="G283" t="s">
         <v>2</v>
@@ -8895,47 +8944,31 @@
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
-      <c r="C284" t="s">
-        <v>470</v>
-      </c>
-      <c r="F284" t="s">
-        <v>458</v>
-      </c>
-      <c r="G284" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
-      <c r="C285" t="s">
-        <v>471</v>
-      </c>
-      <c r="F285" t="s">
-        <v>458</v>
-      </c>
-      <c r="G285" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
-      <c r="B286" s="14"/>
+      <c r="B286" s="7" t="s">
+        <v>473</v>
+      </c>
       <c r="C286" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F286" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G286" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F287" t="s">
         <v>458</v>
@@ -8948,7 +8981,7 @@
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F288" t="s">
         <v>458</v>
@@ -8960,46 +8993,50 @@
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
+      <c r="C289" t="s">
+        <v>469</v>
+      </c>
+      <c r="F289" t="s">
+        <v>458</v>
+      </c>
+      <c r="G289" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
-      <c r="B290" s="16" t="s">
-        <v>419</v>
-      </c>
+      <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>420</v>
-      </c>
-      <c r="E290" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="F290" t="s">
         <v>458</v>
       </c>
       <c r="G290" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="F291" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G291" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="F292" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G292" t="s">
         <v>398</v>
@@ -9009,46 +9046,42 @@
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="F293" t="s">
         <v>458</v>
       </c>
       <c r="G293" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="F294" t="s">
         <v>458</v>
       </c>
       <c r="G294" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
-      <c r="C295" t="s">
-        <v>426</v>
-      </c>
-      <c r="F295" t="s">
-        <v>464</v>
-      </c>
-      <c r="G295" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
-      <c r="B296" s="14"/>
+      <c r="B296" s="16" t="s">
+        <v>419</v>
+      </c>
       <c r="C296" t="s">
-        <v>427</v>
+        <v>420</v>
+      </c>
+      <c r="E296" t="s">
+        <v>437</v>
       </c>
       <c r="F296" t="s">
         <v>458</v>
@@ -9061,62 +9094,75 @@
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" t="s">
-        <v>642</v>
+        <v>421</v>
       </c>
       <c r="F297" t="s">
         <v>464</v>
+      </c>
+      <c r="G297" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
       <c r="C298" t="s">
-        <v>643</v>
+        <v>422</v>
       </c>
       <c r="F298" t="s">
-        <v>464</v>
+        <v>458</v>
+      </c>
+      <c r="G298" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" t="s">
-        <v>644</v>
+        <v>428</v>
       </c>
       <c r="F299" t="s">
-        <v>464</v>
+        <v>458</v>
+      </c>
+      <c r="G299" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
+      <c r="C300" t="s">
+        <v>425</v>
+      </c>
+      <c r="F300" t="s">
+        <v>458</v>
+      </c>
+      <c r="G300" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
-      <c r="B301" s="16" t="s">
-        <v>429</v>
-      </c>
+      <c r="B301" s="14"/>
       <c r="C301" t="s">
-        <v>430</v>
-      </c>
-      <c r="E301" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F301" t="s">
         <v>464</v>
       </c>
       <c r="G301" t="s">
-        <v>398</v>
+        <v>629</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F302" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G302" t="s">
         <v>398</v>
@@ -9126,129 +9172,112 @@
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" t="s">
-        <v>432</v>
+        <v>642</v>
       </c>
       <c r="F303" t="s">
         <v>464</v>
-      </c>
-      <c r="G303" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" t="s">
-        <v>433</v>
+        <v>643</v>
       </c>
       <c r="F304" t="s">
         <v>464</v>
-      </c>
-      <c r="G304" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
-    </row>
-    <row r="306" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B306" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C305" t="s">
+        <v>644</v>
+      </c>
+      <c r="F305" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="14"/>
+      <c r="B306" s="14"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
-      <c r="B307" s="7" t="s">
-        <v>392</v>
+      <c r="B307" s="16" t="s">
+        <v>429</v>
       </c>
       <c r="C307" t="s">
-        <v>360</v>
+        <v>430</v>
+      </c>
+      <c r="E307" t="s">
+        <v>436</v>
       </c>
       <c r="F307" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G307" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="F308" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G308" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
-      <c r="B309" s="14" t="s">
-        <v>393</v>
-      </c>
+      <c r="B309" s="14"/>
       <c r="C309" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="F309" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G309" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="F310" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G310" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
-      <c r="C311" t="s">
-        <v>380</v>
-      </c>
-      <c r="F311" t="s">
-        <v>458</v>
-      </c>
-      <c r="G311" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
-      <c r="B312" s="14"/>
-      <c r="C312" t="s">
-        <v>389</v>
-      </c>
-      <c r="F312" t="s">
-        <v>458</v>
-      </c>
-      <c r="G312" t="s">
-        <v>2</v>
+    </row>
+    <row r="312" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B312" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
-      <c r="B313" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>385</v>
+      <c r="B313" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C313" t="s">
+        <v>360</v>
       </c>
       <c r="F313" t="s">
         <v>458</v>
@@ -9260,8 +9289,8 @@
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
-      <c r="C314" s="4" t="s">
-        <v>396</v>
+      <c r="C314" t="s">
+        <v>395</v>
       </c>
       <c r="F314" t="s">
         <v>458</v>
@@ -9272,68 +9301,78 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="14"/>
-      <c r="B315" s="14"/>
-      <c r="C315" s="4" t="s">
-        <v>625</v>
+      <c r="B315" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C315" t="s">
+        <v>377</v>
       </c>
       <c r="F315" t="s">
         <v>458</v>
       </c>
       <c r="G315" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
-      <c r="C316" s="4" t="s">
-        <v>626</v>
+      <c r="C316" t="s">
+        <v>378</v>
       </c>
       <c r="F316" t="s">
         <v>458</v>
       </c>
       <c r="G316" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
-      <c r="C317" s="4" t="s">
-        <v>627</v>
+      <c r="C317" t="s">
+        <v>380</v>
       </c>
       <c r="F317" t="s">
         <v>458</v>
       </c>
       <c r="G317" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
-      <c r="C318" s="4" t="s">
-        <v>628</v>
+      <c r="C318" t="s">
+        <v>389</v>
       </c>
       <c r="F318" t="s">
         <v>458</v>
       </c>
       <c r="G318" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
-      <c r="B319" s="14"/>
-      <c r="C319" s="4"/>
+      <c r="B319" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F319" t="s">
+        <v>458</v>
+      </c>
+      <c r="G319" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
-      <c r="B320" s="7" t="s">
-        <v>393</v>
-      </c>
+      <c r="B320" s="14"/>
       <c r="C320" s="4" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="F320" t="s">
         <v>458</v>
@@ -9346,74 +9385,66 @@
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="4" t="s">
-        <v>359</v>
+        <v>625</v>
       </c>
       <c r="F321" t="s">
         <v>458</v>
       </c>
       <c r="G321" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>397</v>
+        <v>626</v>
       </c>
       <c r="F322" t="s">
         <v>458</v>
       </c>
       <c r="G322" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>368</v>
+        <v>627</v>
       </c>
       <c r="F323" t="s">
         <v>458</v>
       </c>
       <c r="G323" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="4" t="s">
-        <v>367</v>
+        <v>628</v>
       </c>
       <c r="F324" t="s">
         <v>458</v>
       </c>
       <c r="G324" t="s">
-        <v>398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
-      <c r="B325" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="F325" t="s">
-        <v>458</v>
-      </c>
-      <c r="G325" t="s">
-        <v>2</v>
-      </c>
+      <c r="B325" s="14"/>
+      <c r="C325" s="4"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="14"/>
+      <c r="B326" s="7" t="s">
+        <v>393</v>
+      </c>
       <c r="C326" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F326" t="s">
         <v>458</v>
@@ -9425,557 +9456,563 @@
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="4"/>
+      <c r="C327" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F327" t="s">
+        <v>458</v>
+      </c>
+      <c r="G327" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
-      <c r="B328" s="16" t="s">
-        <v>394</v>
-      </c>
+      <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="F328" t="s">
         <v>458</v>
       </c>
       <c r="G328" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F329" t="s">
         <v>458</v>
       </c>
       <c r="G329" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F330" t="s">
         <v>458</v>
       </c>
       <c r="G330" t="s">
-        <v>1</v>
+        <v>398</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="14"/>
+      <c r="B331" s="14" t="s">
+        <v>394</v>
+      </c>
       <c r="C331" s="4" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="F331" t="s">
         <v>458</v>
       </c>
       <c r="G331" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C332" s="4"/>
+      <c r="B332" s="14"/>
+      <c r="C332" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F332" t="s">
+        <v>458</v>
+      </c>
+      <c r="G332" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C333" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F333" t="s">
-        <v>458</v>
-      </c>
-      <c r="G333" t="s">
-        <v>398</v>
-      </c>
+      <c r="B333" s="14"/>
+      <c r="C333" s="4"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
-      <c r="B334" s="14"/>
+      <c r="B334" s="16" t="s">
+        <v>394</v>
+      </c>
       <c r="C334" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F334" t="s">
         <v>458</v>
       </c>
       <c r="G334" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F335" t="s">
         <v>458</v>
       </c>
       <c r="G335" t="s">
-        <v>398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="4" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="F336" t="s">
         <v>458</v>
       </c>
       <c r="G336" t="s">
-        <v>398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F337" t="s">
         <v>458</v>
       </c>
       <c r="G337" t="s">
-        <v>398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="14"/>
-      <c r="B338" s="14"/>
-      <c r="C338" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F338" t="s">
-        <v>458</v>
-      </c>
-      <c r="G338" t="s">
-        <v>398</v>
-      </c>
+      <c r="B338" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C338" s="4"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
-      <c r="B339" s="14"/>
+      <c r="B339" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C339" s="4" t="s">
-        <v>488</v>
+        <v>376</v>
       </c>
       <c r="F339" t="s">
         <v>458</v>
       </c>
       <c r="G339" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
       <c r="C340" s="4" t="s">
-        <v>514</v>
+        <v>370</v>
       </c>
       <c r="F340" t="s">
         <v>458</v>
       </c>
       <c r="G340" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
-      <c r="C341" s="4"/>
+      <c r="C341" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F341" t="s">
+        <v>458</v>
+      </c>
+      <c r="G341" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
-      <c r="B342" s="18" t="s">
-        <v>383</v>
-      </c>
+      <c r="B342" s="14"/>
       <c r="C342" s="4" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="F342" t="s">
         <v>458</v>
       </c>
       <c r="G342" t="s">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
-      <c r="B343" s="15"/>
+      <c r="B343" s="14"/>
       <c r="C343" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F343" t="s">
         <v>458</v>
       </c>
       <c r="G343" t="s">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
-      <c r="B344" s="15"/>
+      <c r="B344" s="14"/>
       <c r="C344" s="4" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F344" t="s">
         <v>458</v>
       </c>
       <c r="G344" t="s">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="14"/>
-      <c r="B345" s="15"/>
+      <c r="B345" s="14"/>
       <c r="C345" s="4" t="s">
-        <v>372</v>
+        <v>488</v>
       </c>
       <c r="F345" t="s">
         <v>458</v>
       </c>
       <c r="G345" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="14"/>
-      <c r="B346" s="15"/>
+      <c r="B346" s="14"/>
       <c r="C346" s="4" t="s">
-        <v>371</v>
+        <v>514</v>
       </c>
       <c r="F346" t="s">
         <v>458</v>
       </c>
       <c r="G346" t="s">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
-      <c r="B347" s="15"/>
-      <c r="C347" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="F347" t="s">
-        <v>458</v>
-      </c>
-      <c r="G347" t="s">
+      <c r="B347" s="14"/>
+      <c r="C347" s="4"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="14"/>
+      <c r="B348" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F348" t="s">
+        <v>458</v>
+      </c>
+      <c r="G348" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B348" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
-      <c r="B349" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C349" t="s">
-        <v>50</v>
+      <c r="B349" s="15"/>
+      <c r="C349" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F349" t="s">
+        <v>458</v>
+      </c>
+      <c r="G349" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
-      <c r="B350" s="14"/>
-      <c r="C350" t="s">
-        <v>302</v>
-      </c>
-      <c r="D350" t="s">
-        <v>303</v>
-      </c>
-      <c r="E350" t="s">
-        <v>591</v>
+      <c r="B350" s="15"/>
+      <c r="C350" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="F350" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G350" t="s">
-        <v>659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
-      <c r="B351" s="14"/>
-      <c r="C351" t="s">
-        <v>304</v>
-      </c>
-      <c r="D351" t="s">
-        <v>305</v>
+      <c r="B351" s="15"/>
+      <c r="C351" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="F351" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G351" t="s">
-        <v>659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
-      <c r="B352" s="14"/>
-      <c r="C352" t="s">
-        <v>577</v>
-      </c>
-      <c r="D352" t="s">
-        <v>578</v>
+      <c r="B352" s="15"/>
+      <c r="C352" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="F352" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G352" t="s">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
-      <c r="B353" s="14"/>
-      <c r="C353" t="s">
-        <v>579</v>
-      </c>
-      <c r="D353" t="s">
-        <v>580</v>
+      <c r="B353" s="15"/>
+      <c r="C353" s="4" t="s">
+        <v>516</v>
       </c>
       <c r="F353" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G353" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="14"/>
-      <c r="B354" s="14"/>
-      <c r="C354" t="s">
-        <v>581</v>
-      </c>
-      <c r="D354" t="s">
-        <v>582</v>
-      </c>
-      <c r="F354" t="s">
-        <v>464</v>
-      </c>
-      <c r="G354" t="s">
-        <v>659</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B354" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
-      <c r="B355" s="14"/>
+      <c r="B355" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C355" t="s">
-        <v>649</v>
-      </c>
-      <c r="D355" t="s">
-        <v>650</v>
-      </c>
-      <c r="F355" t="s">
-        <v>464</v>
-      </c>
-      <c r="G355" t="s">
-        <v>667</v>
+        <v>50</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
+      <c r="C356" t="s">
+        <v>302</v>
+      </c>
+      <c r="D356" t="s">
+        <v>303</v>
+      </c>
+      <c r="E356" t="s">
+        <v>591</v>
+      </c>
+      <c r="F356" t="s">
+        <v>464</v>
+      </c>
+      <c r="G356" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
-      <c r="B357" s="7" t="s">
-        <v>393</v>
-      </c>
+      <c r="B357" s="14"/>
       <c r="C357" t="s">
-        <v>567</v>
+        <v>304</v>
+      </c>
+      <c r="D357" t="s">
+        <v>305</v>
+      </c>
+      <c r="F357" t="s">
+        <v>464</v>
+      </c>
+      <c r="G357" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D358" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F358" t="s">
         <v>464</v>
       </c>
       <c r="G358" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D359" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F359" t="s">
         <v>464</v>
       </c>
       <c r="G359" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>273</v>
+        <v>581</v>
       </c>
       <c r="D360" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F360" t="s">
         <v>464</v>
       </c>
       <c r="G360" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" t="s">
-        <v>585</v>
+        <v>649</v>
       </c>
       <c r="D361" t="s">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="F361" t="s">
         <v>464</v>
       </c>
       <c r="G361" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
-      <c r="C362" t="s">
-        <v>570</v>
-      </c>
-      <c r="D362" t="s">
-        <v>586</v>
-      </c>
-      <c r="F362" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
-      <c r="B363" s="14"/>
+      <c r="B363" s="7" t="s">
+        <v>393</v>
+      </c>
       <c r="C363" t="s">
-        <v>647</v>
-      </c>
-      <c r="D363" t="s">
-        <v>648</v>
-      </c>
-      <c r="E363" t="s">
-        <v>663</v>
-      </c>
-      <c r="F363" t="s">
-        <v>464</v>
-      </c>
-      <c r="G363" t="s">
-        <v>709</v>
+        <v>567</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
+      <c r="C364" t="s">
+        <v>583</v>
+      </c>
+      <c r="D364" t="s">
+        <v>587</v>
+      </c>
+      <c r="F364" t="s">
+        <v>464</v>
+      </c>
+      <c r="G364" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
-      <c r="B365" t="s">
-        <v>568</v>
-      </c>
+      <c r="B365" s="14"/>
       <c r="C365" t="s">
-        <v>569</v>
+        <v>584</v>
+      </c>
+      <c r="D365" t="s">
+        <v>588</v>
+      </c>
+      <c r="F365" t="s">
+        <v>464</v>
+      </c>
+      <c r="G365" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="14"/>
       <c r="B366" s="14"/>
       <c r="C366" t="s">
-        <v>570</v>
+        <v>273</v>
       </c>
       <c r="D366" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="F366" t="s">
         <v>464</v>
+      </c>
+      <c r="G366" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="D367" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="F367" t="s">
         <v>464</v>
+      </c>
+      <c r="G367" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
       <c r="C368" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D368" t="s">
-        <v>576</v>
-      </c>
-      <c r="E368" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="F368" t="s">
         <v>464</v>
-      </c>
-      <c r="G368" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
       <c r="C369" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D369" t="s">
-        <v>657</v>
+        <v>648</v>
+      </c>
+      <c r="E369" t="s">
+        <v>663</v>
       </c>
       <c r="F369" t="s">
         <v>464</v>
       </c>
       <c r="G369" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -9985,156 +10022,190 @@
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" t="s">
-        <v>42</v>
+        <v>568</v>
       </c>
       <c r="C371" t="s">
-        <v>51</v>
+        <v>569</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
       <c r="C372" t="s">
-        <v>306</v>
+        <v>570</v>
       </c>
       <c r="D372" t="s">
-        <v>307</v>
+        <v>572</v>
       </c>
       <c r="F372" t="s">
         <v>464</v>
-      </c>
-      <c r="G372" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="14"/>
       <c r="B373" s="14"/>
       <c r="C373" t="s">
-        <v>645</v>
+        <v>571</v>
       </c>
       <c r="D373" t="s">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="F373" t="s">
         <v>464</v>
-      </c>
-      <c r="G373" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="14"/>
       <c r="B374" s="14"/>
-    </row>
-    <row r="375" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="C375" s="26" t="s">
-        <v>677</v>
+      <c r="C374" t="s">
+        <v>575</v>
+      </c>
+      <c r="D374" t="s">
+        <v>576</v>
+      </c>
+      <c r="E374" t="s">
+        <v>574</v>
+      </c>
+      <c r="F374" t="s">
+        <v>464</v>
+      </c>
+      <c r="G374" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="14"/>
+      <c r="B375" s="14"/>
+      <c r="C375" t="s">
+        <v>655</v>
+      </c>
+      <c r="D375" t="s">
+        <v>657</v>
+      </c>
+      <c r="F375" t="s">
+        <v>464</v>
+      </c>
+      <c r="G375" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="14"/>
-      <c r="B376" t="s">
-        <v>25</v>
-      </c>
-      <c r="C376" t="s">
-        <v>671</v>
-      </c>
+      <c r="B376" s="14"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="14"/>
-      <c r="B377" s="14"/>
+      <c r="B377" t="s">
+        <v>42</v>
+      </c>
       <c r="C377" t="s">
-        <v>702</v>
-      </c>
-      <c r="D377" t="s">
-        <v>704</v>
+        <v>51</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="14"/>
       <c r="B378" s="14"/>
       <c r="C378" t="s">
-        <v>703</v>
+        <v>306</v>
       </c>
       <c r="D378" t="s">
-        <v>707</v>
+        <v>307</v>
+      </c>
+      <c r="F378" t="s">
+        <v>464</v>
+      </c>
+      <c r="G378" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="14"/>
       <c r="B379" s="14"/>
+      <c r="C379" t="s">
+        <v>645</v>
+      </c>
+      <c r="D379" t="s">
+        <v>646</v>
+      </c>
+      <c r="F379" t="s">
+        <v>464</v>
+      </c>
+      <c r="G379" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="14"/>
-      <c r="B380" t="s">
-        <v>26</v>
-      </c>
-      <c r="C380" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="14"/>
-      <c r="B381" s="14"/>
-      <c r="C381" t="s">
-        <v>702</v>
-      </c>
-      <c r="D381" t="s">
-        <v>705</v>
+      <c r="B380" s="14"/>
+    </row>
+    <row r="381" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="C381" s="26" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="14"/>
-      <c r="B382" s="14"/>
+      <c r="B382" t="s">
+        <v>25</v>
+      </c>
       <c r="C382" t="s">
-        <v>205</v>
-      </c>
-      <c r="D382" t="s">
-        <v>708</v>
+        <v>671</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="14"/>
       <c r="B383" s="14"/>
+      <c r="C383" t="s">
+        <v>702</v>
+      </c>
+      <c r="D383" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="14"/>
       <c r="B384" s="14"/>
+      <c r="C384" t="s">
+        <v>703</v>
+      </c>
+      <c r="D384" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="14"/>
-      <c r="B385" t="s">
-        <v>27</v>
-      </c>
-      <c r="C385" t="s">
-        <v>673</v>
-      </c>
-      <c r="D385" t="s">
-        <v>706</v>
-      </c>
+      <c r="B385" s="14"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="14"/>
-      <c r="B386" s="14"/>
+      <c r="B386" t="s">
+        <v>26</v>
+      </c>
       <c r="C386" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="14"/>
       <c r="B387" s="14"/>
+      <c r="C387" t="s">
+        <v>702</v>
+      </c>
+      <c r="D387" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="14"/>
-      <c r="B388" t="s">
-        <v>670</v>
-      </c>
+      <c r="B388" s="14"/>
       <c r="C388" t="s">
-        <v>674</v>
+        <v>205</v>
+      </c>
+      <c r="D388" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -10147,221 +10218,261 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="14"/>
-      <c r="B391" s="14"/>
+      <c r="B391" t="s">
+        <v>27</v>
+      </c>
+      <c r="C391" t="s">
+        <v>673</v>
+      </c>
+      <c r="D391" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="14"/>
       <c r="B392" s="14"/>
+      <c r="C392" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="14"/>
-      <c r="B393" t="s">
-        <v>669</v>
-      </c>
-      <c r="C393" t="s">
-        <v>675</v>
-      </c>
+      <c r="B393" s="14"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="14"/>
-      <c r="B394" s="14"/>
+      <c r="B394" t="s">
+        <v>670</v>
+      </c>
       <c r="C394" t="s">
-        <v>682</v>
-      </c>
-      <c r="D394" t="s">
-        <v>700</v>
-      </c>
-      <c r="F394" t="s">
-        <v>465</v>
-      </c>
-      <c r="G394" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="14"/>
       <c r="B395" s="14"/>
-      <c r="C395" t="s">
-        <v>683</v>
-      </c>
-      <c r="D395" t="s">
-        <v>699</v>
-      </c>
-      <c r="F395" t="s">
-        <v>465</v>
-      </c>
-      <c r="G395" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
       <c r="B396" s="14"/>
-      <c r="C396" t="s">
-        <v>684</v>
-      </c>
-      <c r="D396" t="s">
-        <v>698</v>
-      </c>
-      <c r="F396" t="s">
-        <v>465</v>
-      </c>
-      <c r="G396" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="14"/>
       <c r="B397" s="14"/>
-      <c r="C397" t="s">
-        <v>686</v>
-      </c>
-      <c r="D397" t="s">
-        <v>697</v>
-      </c>
-      <c r="F397" t="s">
-        <v>465</v>
-      </c>
-      <c r="G397" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="14"/>
       <c r="B398" s="14"/>
-      <c r="C398" t="s">
-        <v>685</v>
-      </c>
-      <c r="D398" t="s">
-        <v>692</v>
-      </c>
-      <c r="F398" t="s">
-        <v>465</v>
-      </c>
-      <c r="G398" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="14"/>
-      <c r="B399" s="14"/>
+      <c r="B399" t="s">
+        <v>669</v>
+      </c>
       <c r="C399" t="s">
-        <v>687</v>
-      </c>
-      <c r="D399" t="s">
-        <v>693</v>
-      </c>
-      <c r="F399" t="s">
-        <v>465</v>
-      </c>
-      <c r="G399" t="s">
-        <v>1</v>
+        <v>675</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="14"/>
       <c r="B400" s="14"/>
       <c r="C400" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D400" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="F400" t="s">
         <v>465</v>
       </c>
       <c r="G400" t="s">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
       <c r="B401" s="14"/>
       <c r="C401" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D401" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F401" t="s">
         <v>465</v>
       </c>
       <c r="G401" t="s">
-        <v>664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="14"/>
       <c r="B402" s="14"/>
       <c r="C402" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D402" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F402" t="s">
         <v>465</v>
       </c>
       <c r="G402" t="s">
-        <v>664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="14"/>
       <c r="B403" s="14"/>
       <c r="C403" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D403" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F403" t="s">
         <v>465</v>
       </c>
       <c r="G403" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="14"/>
       <c r="B404" s="14"/>
       <c r="C404" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="D404" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="F404" t="s">
         <v>465</v>
       </c>
       <c r="G404" t="s">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
-      <c r="B405" t="s">
-        <v>31</v>
-      </c>
+      <c r="B405" s="14"/>
       <c r="C405" t="s">
-        <v>676</v>
+        <v>687</v>
+      </c>
+      <c r="D405" t="s">
+        <v>693</v>
+      </c>
+      <c r="F405" t="s">
+        <v>465</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
       <c r="B406" s="14"/>
+      <c r="C406" t="s">
+        <v>688</v>
+      </c>
+      <c r="D406" t="s">
+        <v>694</v>
+      </c>
+      <c r="F406" t="s">
+        <v>465</v>
+      </c>
+      <c r="G406" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="14"/>
       <c r="B407" s="14"/>
+      <c r="C407" t="s">
+        <v>689</v>
+      </c>
+      <c r="D407" t="s">
+        <v>695</v>
+      </c>
+      <c r="F407" t="s">
+        <v>465</v>
+      </c>
+      <c r="G407" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="14"/>
       <c r="B408" s="14"/>
+      <c r="C408" t="s">
+        <v>690</v>
+      </c>
+      <c r="D408" t="s">
+        <v>696</v>
+      </c>
+      <c r="F408" t="s">
+        <v>465</v>
+      </c>
+      <c r="G408" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
+      <c r="C409" t="s">
+        <v>691</v>
+      </c>
+      <c r="D409" t="s">
+        <v>701</v>
+      </c>
+      <c r="F409" t="s">
+        <v>465</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="14"/>
+      <c r="B410" s="14"/>
+      <c r="C410" t="s">
+        <v>710</v>
+      </c>
+      <c r="D410" t="s">
+        <v>711</v>
+      </c>
+      <c r="F410" t="s">
+        <v>465</v>
+      </c>
+      <c r="G410" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="14"/>
+      <c r="B411" t="s">
+        <v>31</v>
+      </c>
+      <c r="C411" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="14"/>
+      <c r="B412" s="14"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="14"/>
+      <c r="B413" s="14"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="14"/>
+      <c r="B414" s="14"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="14"/>
+      <c r="B415" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10373,8 +10484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10395,7 +10506,7 @@
     <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="14" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="14" customWidth="1"/>
     <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
@@ -12213,6 +12324,9 @@
       <c r="Q46" s="8" t="s">
         <v>200</v>
       </c>
+      <c r="R46" s="8" t="s">
+        <v>716</v>
+      </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
         <v>254</v>
@@ -12265,6 +12379,9 @@
       <c r="Q47" s="8" t="s">
         <v>224</v>
       </c>
+      <c r="R47" s="8" t="s">
+        <v>718</v>
+      </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
         <v>79</v>
@@ -12314,6 +12431,9 @@
       <c r="Q48" s="8" t="s">
         <v>318</v>
       </c>
+      <c r="R48" s="8" t="s">
+        <v>721</v>
+      </c>
       <c r="S48" s="14"/>
       <c r="T48" s="8" t="s">
         <v>77</v>
@@ -12407,6 +12527,9 @@
         <v>317</v>
       </c>
       <c r="S50" s="14"/>
+      <c r="T50" s="8" t="s">
+        <v>714</v>
+      </c>
       <c r="U50" s="8" t="s">
         <v>344</v>
       </c>
@@ -12450,6 +12573,9 @@
         <v>319</v>
       </c>
       <c r="S51" s="14"/>
+      <c r="T51" s="8" t="s">
+        <v>717</v>
+      </c>
       <c r="U51" s="8" t="s">
         <v>343</v>
       </c>
@@ -12485,6 +12611,9 @@
       </c>
       <c r="P52" s="14"/>
       <c r="S52" s="14"/>
+      <c r="T52" s="8" t="s">
+        <v>719</v>
+      </c>
       <c r="V52" s="14"/>
       <c r="Y52" s="14"/>
       <c r="Z52" s="27"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="724">
   <si>
     <t>Arne</t>
   </si>
@@ -2158,12 +2158,6 @@
     <t>Arne &amp; Janneke</t>
   </si>
   <si>
-    <t>KartItemBox.cs</t>
-  </si>
-  <si>
-    <t>8S_KAPPAK_ITEMBOX</t>
-  </si>
-  <si>
     <t>2D_CHAR_MCMODEL</t>
   </si>
   <si>
@@ -2192,6 +2186,18 @@
   </si>
   <si>
     <t>4U_ENV_STEPPINGSTONE</t>
+  </si>
+  <si>
+    <t>Kart</t>
+  </si>
+  <si>
+    <t>3D_KAPPAK_KART</t>
+  </si>
+  <si>
+    <t>2D_KAPPAK_KART</t>
+  </si>
+  <si>
+    <t>4U_KAPPAK_KART</t>
   </si>
 </sst>
 </file>
@@ -4724,10 +4730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G415"/>
+  <dimension ref="A1:G416"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G192" sqref="G192"/>
+    <sheetView tabSelected="1" topLeftCell="A375" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5419,10 +5425,10 @@
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D44" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F44" t="s">
         <v>465</v>
@@ -5435,10 +5441,10 @@
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D45" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F45" t="s">
         <v>458</v>
@@ -6633,20 +6639,20 @@
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D123" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D124" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -7615,10 +7621,10 @@
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D190" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F190" t="s">
         <v>465</v>
@@ -7631,10 +7637,10 @@
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D191" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F191" t="s">
         <v>464</v>
@@ -10175,208 +10181,202 @@
         <v>707</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="14"/>
       <c r="B385" s="14"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C385" t="s">
+        <v>720</v>
+      </c>
+      <c r="D385" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="14"/>
-      <c r="B386" t="s">
+      <c r="B386" s="14"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="14"/>
+      <c r="B387" t="s">
         <v>26</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C387" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="14"/>
-      <c r="B387" s="14"/>
-      <c r="C387" t="s">
-        <v>702</v>
-      </c>
-      <c r="D387" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="14"/>
       <c r="B388" s="14"/>
       <c r="C388" t="s">
-        <v>205</v>
+        <v>702</v>
       </c>
       <c r="D388" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="14"/>
       <c r="B389" s="14"/>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C389" t="s">
+        <v>205</v>
+      </c>
+      <c r="D389" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="14"/>
       <c r="B390" s="14"/>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C390" t="s">
+        <v>720</v>
+      </c>
+      <c r="D390" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="14"/>
-      <c r="B391" t="s">
+      <c r="B391" s="14"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="14"/>
+      <c r="B392" t="s">
         <v>27</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C392" t="s">
         <v>673</v>
       </c>
-      <c r="D391" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="14"/>
-      <c r="B392" s="14"/>
-      <c r="C392" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="14"/>
       <c r="B393" s="14"/>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C393" t="s">
+        <v>702</v>
+      </c>
+      <c r="D393" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="14"/>
-      <c r="B394" t="s">
-        <v>670</v>
-      </c>
+      <c r="B394" s="14"/>
       <c r="C394" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+      <c r="D394" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="14"/>
       <c r="B395" s="14"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
-      <c r="B396" s="14"/>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>670</v>
+      </c>
+      <c r="C396" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="14"/>
       <c r="B397" s="14"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="14"/>
       <c r="B398" s="14"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="14"/>
-      <c r="B399" t="s">
-        <v>669</v>
-      </c>
-      <c r="C399" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B399" s="14"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="14"/>
       <c r="B400" s="14"/>
-      <c r="C400" t="s">
-        <v>682</v>
-      </c>
-      <c r="D400" t="s">
-        <v>700</v>
-      </c>
-      <c r="F400" t="s">
-        <v>465</v>
-      </c>
-      <c r="G400" t="s">
-        <v>664</v>
-      </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
-      <c r="B401" s="14"/>
+      <c r="B401" t="s">
+        <v>669</v>
+      </c>
       <c r="C401" t="s">
-        <v>683</v>
-      </c>
-      <c r="D401" t="s">
-        <v>699</v>
-      </c>
-      <c r="F401" t="s">
-        <v>465</v>
-      </c>
-      <c r="G401" t="s">
-        <v>1</v>
+        <v>675</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="14"/>
       <c r="B402" s="14"/>
       <c r="C402" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D402" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F402" t="s">
         <v>465</v>
       </c>
       <c r="G402" t="s">
-        <v>1</v>
+        <v>664</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="14"/>
       <c r="B403" s="14"/>
       <c r="C403" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D403" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F403" t="s">
         <v>465</v>
       </c>
       <c r="G403" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="14"/>
       <c r="B404" s="14"/>
       <c r="C404" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D404" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="F404" t="s">
         <v>465</v>
       </c>
       <c r="G404" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
       <c r="B405" s="14"/>
       <c r="C405" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D405" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F405" t="s">
         <v>465</v>
       </c>
       <c r="G405" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
       <c r="B406" s="14"/>
       <c r="C406" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D406" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F406" t="s">
         <v>465</v>
@@ -10389,58 +10389,58 @@
       <c r="A407" s="14"/>
       <c r="B407" s="14"/>
       <c r="C407" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D407" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F407" t="s">
         <v>465</v>
       </c>
       <c r="G407" t="s">
-        <v>664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="14"/>
       <c r="B408" s="14"/>
       <c r="C408" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D408" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F408" t="s">
         <v>465</v>
       </c>
       <c r="G408" t="s">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
       <c r="C409" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D409" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F409" t="s">
         <v>465</v>
       </c>
       <c r="G409" t="s">
-        <v>1</v>
+        <v>664</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="14"/>
       <c r="B410" s="14"/>
       <c r="C410" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="D410" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="F410" t="s">
         <v>465</v>
@@ -10451,16 +10451,28 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="14"/>
-      <c r="B411" t="s">
-        <v>31</v>
-      </c>
+      <c r="B411" s="14"/>
       <c r="C411" t="s">
-        <v>676</v>
+        <v>691</v>
+      </c>
+      <c r="D411" t="s">
+        <v>701</v>
+      </c>
+      <c r="F411" t="s">
+        <v>465</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="14"/>
-      <c r="B412" s="14"/>
+      <c r="B412" t="s">
+        <v>31</v>
+      </c>
+      <c r="C412" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="14"/>
@@ -10473,6 +10485,10 @@
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="14"/>
       <c r="B415" s="14"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="14"/>
+      <c r="B416" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10484,8 +10500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView topLeftCell="P1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10737,6 +10753,9 @@
         <v>701</v>
       </c>
       <c r="S4" s="14"/>
+      <c r="T4" s="20" t="s">
+        <v>693</v>
+      </c>
       <c r="V4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="27"/>
@@ -12325,7 +12344,7 @@
         <v>200</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
@@ -12380,7 +12399,7 @@
         <v>224</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
@@ -12432,7 +12451,7 @@
         <v>318</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="S48" s="14"/>
       <c r="T48" s="8" t="s">
@@ -12528,7 +12547,7 @@
       </c>
       <c r="S50" s="14"/>
       <c r="T50" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="U50" s="8" t="s">
         <v>344</v>
@@ -12574,7 +12593,7 @@
       </c>
       <c r="S51" s="14"/>
       <c r="T51" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U51" s="8" t="s">
         <v>343</v>
@@ -12612,7 +12631,7 @@
       <c r="P52" s="14"/>
       <c r="S52" s="14"/>
       <c r="T52" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="V52" s="14"/>
       <c r="Y52" s="14"/>
@@ -13284,7 +13303,7 @@
         <v>217</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="R66" s="8" t="s">
         <v>291</v>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="724">
   <si>
     <t>Arne</t>
   </si>
@@ -4732,7 +4732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A375" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
@@ -10500,8 +10500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="Q31" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="S44" s="14"/>
       <c r="T44" s="8" t="s">
-        <v>252</v>
+        <v>722</v>
       </c>
       <c r="U44" s="8" t="s">
         <v>325</v>
@@ -12287,7 +12287,7 @@
         <v>287</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>253</v>
+        <v>721</v>
       </c>
       <c r="U45" s="8" t="s">
         <v>327</v>
@@ -12348,7 +12348,7 @@
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
-        <v>254</v>
+        <v>723</v>
       </c>
       <c r="U46" s="8" t="s">
         <v>332</v>
@@ -12499,6 +12499,9 @@
       <c r="Q49" s="8" t="s">
         <v>635</v>
       </c>
+      <c r="R49" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="S49" s="14"/>
       <c r="T49" s="8" t="s">
         <v>78</v>
@@ -12545,6 +12548,9 @@
       <c r="Q50" s="8" t="s">
         <v>317</v>
       </c>
+      <c r="R50" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="S50" s="14"/>
       <c r="T50" s="8" t="s">
         <v>712</v>
@@ -12590,6 +12596,9 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="8" t="s">
         <v>319</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="S51" s="14"/>
       <c r="T51" s="8" t="s">

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="723">
   <si>
     <t>Arne</t>
   </si>
@@ -1559,9 +1559,6 @@
   </si>
   <si>
     <t>WEEK 49</t>
-  </si>
-  <si>
-    <t>WEEK 52</t>
   </si>
   <si>
     <t>WEEK 50</t>
@@ -3152,10 +3149,10 @@
         <v>477</v>
       </c>
       <c r="CJ2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="EU2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
@@ -3181,10 +3178,10 @@
         <v>477</v>
       </c>
       <c r="CJ3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="EU3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:151" x14ac:dyDescent="0.25">
@@ -3210,10 +3207,10 @@
         <v>477</v>
       </c>
       <c r="CJ4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="EU4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -3239,15 +3236,15 @@
         <v>477</v>
       </c>
       <c r="CJ5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="EU5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B6" s="2">
         <v>0.61458333333333337</v>
@@ -3256,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -3271,10 +3268,10 @@
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="CJ7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="EU7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:151" x14ac:dyDescent="0.25">
@@ -3282,10 +3279,10 @@
         <v>4</v>
       </c>
       <c r="CJ8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="EU8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
@@ -3311,10 +3308,10 @@
         <v>477</v>
       </c>
       <c r="CJ9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="EU9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
@@ -3340,10 +3337,10 @@
         <v>477</v>
       </c>
       <c r="CJ10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="EU10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:151" x14ac:dyDescent="0.25">
@@ -3369,10 +3366,10 @@
         <v>477</v>
       </c>
       <c r="CJ11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="EU11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:151" x14ac:dyDescent="0.25">
@@ -3947,7 +3944,7 @@
         <v>11</v>
       </c>
       <c r="CJ13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="CN13" s="1" t="s">
         <v>11</v>
@@ -4034,7 +4031,7 @@
         <v>11</v>
       </c>
       <c r="EU13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:151" x14ac:dyDescent="0.25">
@@ -4066,13 +4063,13 @@
         <v>13</v>
       </c>
       <c r="CJ14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="ES14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="EU14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:151" x14ac:dyDescent="0.25">
@@ -4125,7 +4122,7 @@
         <v>451</v>
       </c>
       <c r="CJ15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="CP15" t="s">
         <v>452</v>
@@ -4146,7 +4143,7 @@
         <v>457</v>
       </c>
       <c r="EU15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:151" x14ac:dyDescent="0.25">
@@ -4172,435 +4169,435 @@
         <v>477</v>
       </c>
       <c r="J16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Q16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="V16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="W16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="X16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AA16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AB16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AC16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AD16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AE16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AH16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AJ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AL16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AN16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AO16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AP16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AQ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AR16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AS16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AT16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AU16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AW16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AX16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AY16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BA16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BB16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BE16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BF16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BH16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BI16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BJ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BK16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BL16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BM16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BN16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BO16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BP16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BQ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BR16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BS16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BT16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BU16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BV16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BW16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BX16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BY16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BZ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CA16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CB16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CC16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CD16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CE16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CF16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CG16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CH16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CI16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CJ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CK16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CL16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CM16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CN16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CO16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CP16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CQ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CR16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CS16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CT16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CU16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CV16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CW16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CX16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CY16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CZ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DA16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DB16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DC16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DD16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DE16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DF16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DG16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DH16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DI16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DJ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DK16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DL16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DM16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DN16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DO16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DP16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DQ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DR16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DS16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DT16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DU16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DV16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DW16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DX16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DY16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DZ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EA16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EB16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EC16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="ED16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EE16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EF16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EG16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EH16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EI16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EJ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EK16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EL16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EM16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EN16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EO16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EP16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EQ16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="ER16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="ES16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="ET16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EU16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B17" s="2">
         <v>0.61458333333333337</v>
@@ -4609,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E17">
         <v>13</v>
@@ -5121,7 +5118,7 @@
         <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F25" t="s">
         <v>464</v>
@@ -5425,10 +5422,10 @@
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" t="s">
+        <v>710</v>
+      </c>
+      <c r="D44" t="s">
         <v>711</v>
-      </c>
-      <c r="D44" t="s">
-        <v>712</v>
       </c>
       <c r="F44" t="s">
         <v>465</v>
@@ -5441,10 +5438,10 @@
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" t="s">
+        <v>712</v>
+      </c>
+      <c r="D45" t="s">
         <v>713</v>
-      </c>
-      <c r="D45" t="s">
-        <v>714</v>
       </c>
       <c r="F45" t="s">
         <v>458</v>
@@ -5460,7 +5457,7 @@
         <v>207</v>
       </c>
       <c r="D46" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F46" t="s">
         <v>458</v>
@@ -5476,7 +5473,7 @@
         <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F47" t="s">
         <v>458</v>
@@ -5492,7 +5489,7 @@
         <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F48" t="s">
         <v>458</v>
@@ -6054,20 +6051,20 @@
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D83" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D84" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -6332,10 +6329,10 @@
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D103" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F103" t="s">
         <v>464</v>
@@ -6639,20 +6636,20 @@
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D123" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D124" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6870,10 +6867,10 @@
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
+        <v>677</v>
+      </c>
+      <c r="D138" t="s">
         <v>678</v>
-      </c>
-      <c r="D138" t="s">
-        <v>679</v>
       </c>
       <c r="F138" t="s">
         <v>458</v>
@@ -7368,10 +7365,10 @@
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D173" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F173" t="s">
         <v>464</v>
@@ -7621,10 +7618,10 @@
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D190" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F190" t="s">
         <v>465</v>
@@ -7637,10 +7634,10 @@
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D191" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F191" t="s">
         <v>464</v>
@@ -7800,10 +7797,10 @@
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D201" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8242,10 +8239,10 @@
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
+        <v>631</v>
+      </c>
+      <c r="D234" t="s">
         <v>632</v>
-      </c>
-      <c r="D234" t="s">
-        <v>633</v>
       </c>
       <c r="F234" t="s">
         <v>458</v>
@@ -8258,10 +8255,10 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
+        <v>633</v>
+      </c>
+      <c r="D235" t="s">
         <v>634</v>
-      </c>
-      <c r="D235" t="s">
-        <v>635</v>
       </c>
       <c r="F235" t="s">
         <v>458</v>
@@ -8521,10 +8518,10 @@
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
+        <v>650</v>
+      </c>
+      <c r="D249" t="s">
         <v>651</v>
-      </c>
-      <c r="D249" t="s">
-        <v>652</v>
       </c>
       <c r="F249" t="s">
         <v>458</v>
@@ -8684,7 +8681,7 @@
         <v>406</v>
       </c>
       <c r="C263" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E263" t="s">
         <v>437</v>
@@ -8700,7 +8697,7 @@
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F264" t="s">
         <v>458</v>
@@ -8710,7 +8707,7 @@
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F265" t="s">
         <v>464</v>
@@ -8720,7 +8717,7 @@
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F266" t="s">
         <v>464</v>
@@ -8938,10 +8935,10 @@
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F283" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G283" t="s">
         <v>2</v>
@@ -9158,7 +9155,7 @@
         <v>464</v>
       </c>
       <c r="G301" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -9178,7 +9175,7 @@
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F303" t="s">
         <v>464</v>
@@ -9188,7 +9185,7 @@
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F304" t="s">
         <v>464</v>
@@ -9198,7 +9195,7 @@
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F305" t="s">
         <v>464</v>
@@ -9391,7 +9388,7 @@
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F321" t="s">
         <v>458</v>
@@ -9404,7 +9401,7 @@
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F322" t="s">
         <v>458</v>
@@ -9417,7 +9414,7 @@
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F323" t="s">
         <v>458</v>
@@ -9430,7 +9427,7 @@
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F324" t="s">
         <v>458</v>
@@ -9702,7 +9699,7 @@
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F346" t="s">
         <v>458</v>
@@ -9787,7 +9784,7 @@
       <c r="A353" s="14"/>
       <c r="B353" s="15"/>
       <c r="C353" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F353" t="s">
         <v>458</v>
@@ -9823,13 +9820,13 @@
         <v>303</v>
       </c>
       <c r="E356" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F356" t="s">
         <v>464</v>
       </c>
       <c r="G356" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -9845,71 +9842,71 @@
         <v>464</v>
       </c>
       <c r="G357" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" t="s">
+        <v>576</v>
+      </c>
+      <c r="D358" t="s">
         <v>577</v>
-      </c>
-      <c r="D358" t="s">
-        <v>578</v>
       </c>
       <c r="F358" t="s">
         <v>464</v>
       </c>
       <c r="G358" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" t="s">
+        <v>578</v>
+      </c>
+      <c r="D359" t="s">
         <v>579</v>
-      </c>
-      <c r="D359" t="s">
-        <v>580</v>
       </c>
       <c r="F359" t="s">
         <v>464</v>
       </c>
       <c r="G359" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
+        <v>580</v>
+      </c>
+      <c r="D360" t="s">
         <v>581</v>
-      </c>
-      <c r="D360" t="s">
-        <v>582</v>
       </c>
       <c r="F360" t="s">
         <v>464</v>
       </c>
       <c r="G360" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" t="s">
+        <v>648</v>
+      </c>
+      <c r="D361" t="s">
         <v>649</v>
-      </c>
-      <c r="D361" t="s">
-        <v>650</v>
       </c>
       <c r="F361" t="s">
         <v>464</v>
       </c>
       <c r="G361" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -9922,39 +9919,39 @@
         <v>393</v>
       </c>
       <c r="C363" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
       <c r="C364" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D364" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F364" t="s">
         <v>464</v>
       </c>
       <c r="G364" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
       <c r="B365" s="14"/>
       <c r="C365" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D365" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F365" t="s">
         <v>464</v>
       </c>
       <c r="G365" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -9964,39 +9961,39 @@
         <v>273</v>
       </c>
       <c r="D366" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F366" t="s">
         <v>464</v>
       </c>
       <c r="G366" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D367" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F367" t="s">
         <v>464</v>
       </c>
       <c r="G367" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
       <c r="C368" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D368" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F368" t="s">
         <v>464</v>
@@ -10006,19 +10003,19 @@
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
       <c r="C369" t="s">
+        <v>646</v>
+      </c>
+      <c r="D369" t="s">
         <v>647</v>
       </c>
-      <c r="D369" t="s">
-        <v>648</v>
-      </c>
       <c r="E369" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F369" t="s">
         <v>464</v>
       </c>
       <c r="G369" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -10028,20 +10025,20 @@
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" t="s">
+        <v>567</v>
+      </c>
+      <c r="C371" t="s">
         <v>568</v>
-      </c>
-      <c r="C371" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
       <c r="C372" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D372" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F372" t="s">
         <v>464</v>
@@ -10051,10 +10048,10 @@
       <c r="A373" s="14"/>
       <c r="B373" s="14"/>
       <c r="C373" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D373" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F373" t="s">
         <v>464</v>
@@ -10064,35 +10061,35 @@
       <c r="A374" s="14"/>
       <c r="B374" s="14"/>
       <c r="C374" t="s">
+        <v>574</v>
+      </c>
+      <c r="D374" t="s">
         <v>575</v>
       </c>
-      <c r="D374" t="s">
-        <v>576</v>
-      </c>
       <c r="E374" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F374" t="s">
         <v>464</v>
       </c>
       <c r="G374" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="14"/>
       <c r="B375" s="14"/>
       <c r="C375" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D375" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F375" t="s">
         <v>464</v>
       </c>
       <c r="G375" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -10121,23 +10118,23 @@
         <v>464</v>
       </c>
       <c r="G378" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="14"/>
       <c r="B379" s="14"/>
       <c r="C379" t="s">
+        <v>644</v>
+      </c>
+      <c r="D379" t="s">
         <v>645</v>
-      </c>
-      <c r="D379" t="s">
-        <v>646</v>
       </c>
       <c r="F379" t="s">
         <v>464</v>
       </c>
       <c r="G379" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -10146,10 +10143,10 @@
     </row>
     <row r="381" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C381" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -10158,37 +10155,37 @@
         <v>25</v>
       </c>
       <c r="C382" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="14"/>
       <c r="B383" s="14"/>
       <c r="C383" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D383" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="14"/>
       <c r="B384" s="14"/>
       <c r="C384" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D384" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="14"/>
       <c r="B385" s="14"/>
       <c r="C385" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D385" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -10201,17 +10198,17 @@
         <v>26</v>
       </c>
       <c r="C387" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="14"/>
       <c r="B388" s="14"/>
       <c r="C388" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D388" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -10221,17 +10218,17 @@
         <v>205</v>
       </c>
       <c r="D389" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="14"/>
       <c r="B390" s="14"/>
       <c r="C390" t="s">
+        <v>719</v>
+      </c>
+      <c r="D390" t="s">
         <v>720</v>
-      </c>
-      <c r="D390" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -10244,27 +10241,27 @@
         <v>27</v>
       </c>
       <c r="C392" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="14"/>
       <c r="B393" s="14"/>
       <c r="C393" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D393" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="14"/>
       <c r="B394" s="14"/>
       <c r="C394" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D394" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -10274,10 +10271,10 @@
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
       <c r="B396" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C396" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -10299,36 +10296,36 @@
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
       <c r="B401" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C401" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="14"/>
       <c r="B402" s="14"/>
       <c r="C402" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D402" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F402" t="s">
         <v>465</v>
       </c>
       <c r="G402" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="14"/>
       <c r="B403" s="14"/>
       <c r="C403" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D403" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F403" t="s">
         <v>465</v>
@@ -10341,10 +10338,10 @@
       <c r="A404" s="14"/>
       <c r="B404" s="14"/>
       <c r="C404" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D404" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F404" t="s">
         <v>465</v>
@@ -10357,10 +10354,10 @@
       <c r="A405" s="14"/>
       <c r="B405" s="14"/>
       <c r="C405" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D405" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F405" t="s">
         <v>465</v>
@@ -10373,10 +10370,10 @@
       <c r="A406" s="14"/>
       <c r="B406" s="14"/>
       <c r="C406" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D406" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F406" t="s">
         <v>465</v>
@@ -10389,10 +10386,10 @@
       <c r="A407" s="14"/>
       <c r="B407" s="14"/>
       <c r="C407" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D407" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F407" t="s">
         <v>465</v>
@@ -10405,10 +10402,10 @@
       <c r="A408" s="14"/>
       <c r="B408" s="14"/>
       <c r="C408" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D408" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F408" t="s">
         <v>465</v>
@@ -10421,42 +10418,42 @@
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
       <c r="C409" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D409" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F409" t="s">
         <v>465</v>
       </c>
       <c r="G409" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="14"/>
       <c r="B410" s="14"/>
       <c r="C410" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D410" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F410" t="s">
         <v>465</v>
       </c>
       <c r="G410" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="14"/>
       <c r="B411" s="14"/>
       <c r="C411" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D411" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F411" t="s">
         <v>465</v>
@@ -10471,7 +10468,7 @@
         <v>31</v>
       </c>
       <c r="C412" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -10500,8 +10497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q31" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="T46" sqref="T46"/>
+    <sheetView tabSelected="1" topLeftCell="Q37" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10560,7 +10557,7 @@
         <v>450</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N1" t="s">
         <v>451</v>
@@ -10584,7 +10581,7 @@
         <v>457</v>
       </c>
       <c r="X1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10603,7 +10600,7 @@
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>505</v>
@@ -10627,21 +10624,21 @@
         <v>510</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z2" s="27"/>
       <c r="AA2" s="16"/>
@@ -10667,45 +10664,45 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M3" s="23"/>
       <c r="N3" s="20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="V3" s="14"/>
       <c r="Y3" s="14"/>
@@ -10731,30 +10728,30 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J4" s="14"/>
       <c r="M4" s="23"/>
       <c r="N4" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P4" s="14"/>
       <c r="R4" s="20" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V4" s="14"/>
       <c r="Y4" s="14"/>
@@ -10780,19 +10777,19 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G5" s="14"/>
       <c r="J5" s="14"/>
       <c r="M5" s="23"/>
       <c r="N5" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P5" s="14"/>
       <c r="S5" s="14"/>
@@ -10820,10 +10817,10 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G6" s="14"/>
       <c r="J6" s="14"/>
@@ -10832,7 +10829,7 @@
         <v>303</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P6" s="14"/>
       <c r="S6" s="14"/>
@@ -10857,7 +10854,7 @@
       <c r="J7" s="14"/>
       <c r="M7" s="23"/>
       <c r="N7" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P7" s="14"/>
       <c r="S7" s="14"/>
@@ -10955,35 +10952,35 @@
         <v>382</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>375</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="V11" s="14"/>
       <c r="Y11" s="14"/>
@@ -11012,15 +11009,15 @@
       <c r="J12" s="14"/>
       <c r="M12" s="23"/>
       <c r="O12" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="V12" s="14"/>
       <c r="Y12" s="14"/>
@@ -11168,52 +11165,52 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="20" t="s">
         <v>359</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
         <v>368</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="R19" s="20" t="s">
         <v>611</v>
-      </c>
-      <c r="R19" s="20" t="s">
-        <v>612</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
@@ -11232,52 +11229,52 @@
     <row r="20" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>369</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>622</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>623</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="R20" s="20" t="s">
         <v>613</v>
-      </c>
-      <c r="R20" s="20" t="s">
-        <v>614</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
@@ -11296,14 +11293,14 @@
     <row r="21" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D21" s="14"/>
       <c r="F21" s="20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
@@ -11339,14 +11336,14 @@
     <row r="22" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D22" s="14"/>
       <c r="G22" s="14"/>
       <c r="J22" s="14"/>
       <c r="M22" s="23"/>
       <c r="N22" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P22" s="14"/>
       <c r="S22" s="14"/>
@@ -11367,14 +11364,14 @@
     <row r="23" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D23" s="14"/>
       <c r="G23" s="14"/>
       <c r="J23" s="14"/>
       <c r="M23" s="23"/>
       <c r="N23" s="20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="P23" s="14"/>
       <c r="S23" s="14"/>
@@ -11395,7 +11392,7 @@
     <row r="24" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D24" s="14"/>
       <c r="G24" s="14"/>
@@ -11420,7 +11417,7 @@
     <row r="25" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>359</v>
@@ -11461,31 +11458,31 @@
     </row>
     <row r="27" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D27" s="14"/>
       <c r="G27" s="14"/>
       <c r="J27" s="14"/>
       <c r="M27" s="23"/>
       <c r="N27" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="V27" s="14"/>
       <c r="Y27" s="14"/>
@@ -11508,18 +11505,18 @@
       <c r="J28" s="14"/>
       <c r="M28" s="23"/>
       <c r="N28" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="V28" s="14"/>
       <c r="Y28" s="14"/>
@@ -11542,7 +11539,7 @@
       <c r="J29" s="14"/>
       <c r="M29" s="23"/>
       <c r="N29" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P29" s="14"/>
       <c r="S29" s="14"/>
@@ -11567,7 +11564,7 @@
       <c r="J30" s="14"/>
       <c r="M30" s="23"/>
       <c r="N30" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P30" s="14"/>
       <c r="S30" s="14"/>
@@ -11592,7 +11589,7 @@
       <c r="J31" s="14"/>
       <c r="M31" s="23"/>
       <c r="N31" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P31" s="14"/>
       <c r="S31" s="14"/>
@@ -11617,7 +11614,7 @@
       <c r="J32" s="14"/>
       <c r="M32" s="23"/>
       <c r="N32" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P32" s="14"/>
       <c r="S32" s="14"/>
@@ -11650,7 +11647,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="23"/>
       <c r="N33" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O33" s="20"/>
       <c r="P33" s="14"/>
@@ -11694,24 +11691,24 @@
         <v>398</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="20" t="s">
@@ -11743,10 +11740,10 @@
       </c>
       <c r="V35" s="14"/>
       <c r="W35" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Y35" s="14"/>
       <c r="Z35" s="27"/>
@@ -11764,34 +11761,34 @@
     <row r="36" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="14"/>
       <c r="H36" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="I36" s="20" t="s">
         <v>619</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>620</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="20" t="s">
@@ -11802,14 +11799,14 @@
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="V36" s="14"/>
       <c r="W36" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="X36" s="20"/>
       <c r="Y36" s="14"/>
@@ -11838,7 +11835,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="14"/>
       <c r="H37" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="14"/>
@@ -11850,10 +11847,10 @@
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="20"/>
@@ -11865,7 +11862,7 @@
       <c r="U37" s="20"/>
       <c r="V37" s="14"/>
       <c r="W37" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X37" s="20"/>
       <c r="Y37" s="14"/>
@@ -11903,7 +11900,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="20"/>
@@ -11945,7 +11942,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="20"/>
       <c r="O39" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="20"/>
@@ -12122,7 +12119,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>219</v>
@@ -12150,24 +12147,24 @@
       </c>
       <c r="M43" s="23"/>
       <c r="N43" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>179</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="8" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>283</v>
+        <v>713</v>
       </c>
       <c r="S43" s="14"/>
       <c r="T43" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="V43" s="14"/>
       <c r="Y43" s="14"/>
@@ -12186,7 +12183,7 @@
     <row r="44" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>221</v>
@@ -12214,21 +12211,21 @@
       </c>
       <c r="M44" s="23"/>
       <c r="N44" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>318</v>
       </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>285</v>
+        <v>715</v>
       </c>
       <c r="S44" s="14"/>
       <c r="T44" s="8" t="s">
-        <v>722</v>
+        <v>79</v>
       </c>
       <c r="U44" s="8" t="s">
         <v>325</v>
@@ -12250,16 +12247,16 @@
     <row r="45" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>337</v>
@@ -12268,26 +12265,26 @@
         <v>337</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M45" s="23"/>
       <c r="N45" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>287</v>
+        <v>718</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>721</v>
+        <v>77</v>
       </c>
       <c r="U45" s="8" t="s">
         <v>327</v>
@@ -12341,17 +12338,17 @@
       </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="8" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>714</v>
+        <v>252</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
-        <v>723</v>
+        <v>78</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="V46" s="14"/>
       <c r="Y46" s="14"/>
@@ -12370,7 +12367,7 @@
     <row r="47" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>228</v>
@@ -12396,17 +12393,17 @@
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="8" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>716</v>
+        <v>253</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
-        <v>79</v>
+        <v>711</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="V47" s="14"/>
       <c r="Y47" s="14"/>
@@ -12425,7 +12422,7 @@
     <row r="48" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>438</v>
@@ -12436,29 +12433,32 @@
         <v>157</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J48" s="14"/>
       <c r="L48" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="8" t="s">
         <v>162</v>
       </c>
+      <c r="O48" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="8" t="s">
-        <v>318</v>
+        <v>634</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="S48" s="14"/>
       <c r="T48" s="8" t="s">
-        <v>77</v>
+        <v>714</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
@@ -12485,7 +12485,7 @@
       <c r="D49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>493</v>
@@ -12495,19 +12495,22 @@
       <c r="N49" s="8" t="s">
         <v>316</v>
       </c>
+      <c r="O49" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="8" t="s">
-        <v>635</v>
+        <v>317</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>252</v>
+        <v>721</v>
       </c>
       <c r="S49" s="14"/>
       <c r="T49" s="8" t="s">
-        <v>78</v>
+        <v>716</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>339</v>
+        <v>98</v>
       </c>
       <c r="V49" s="14"/>
       <c r="Y49" s="14"/>
@@ -12526,7 +12529,7 @@
     <row r="50" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>440</v>
@@ -12544,19 +12547,22 @@
       <c r="N50" s="8" t="s">
         <v>314</v>
       </c>
+      <c r="O50" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>253</v>
+        <v>720</v>
       </c>
       <c r="S50" s="14"/>
       <c r="T50" s="8" t="s">
-        <v>712</v>
+        <v>324</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="V50" s="14"/>
       <c r="Y50" s="14"/>
@@ -12575,10 +12581,10 @@
     <row r="51" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D51" s="22"/>
       <c r="G51" s="14"/>
@@ -12593,19 +12599,19 @@
       <c r="N51" s="8" t="s">
         <v>315</v>
       </c>
+      <c r="O51" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="P51" s="14"/>
-      <c r="Q51" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="R51" s="8" t="s">
-        <v>254</v>
+        <v>722</v>
       </c>
       <c r="S51" s="14"/>
       <c r="T51" s="8" t="s">
-        <v>715</v>
+        <v>332</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="V51" s="14"/>
       <c r="Y51" s="14"/>
@@ -12624,7 +12630,7 @@
     <row r="52" spans="1:36" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="22"/>
@@ -12635,12 +12641,12 @@
       <c r="J52" s="14"/>
       <c r="M52" s="23"/>
       <c r="N52" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P52" s="14"/>
       <c r="S52" s="14"/>
       <c r="T52" s="8" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="V52" s="14"/>
       <c r="Y52" s="14"/>
@@ -12720,7 +12726,7 @@
       </c>
       <c r="J54" s="14"/>
       <c r="K54" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>347</v>
@@ -12737,7 +12743,7 @@
         <v>72</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S54" s="14"/>
       <c r="T54" s="8" t="s">
@@ -12763,7 +12769,7 @@
     <row r="55" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>354</v>
@@ -12781,7 +12787,7 @@
         <v>243</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="23"/>
@@ -12795,7 +12801,7 @@
         <v>75</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>300</v>
@@ -12838,7 +12844,7 @@
       </c>
       <c r="J56" s="14"/>
       <c r="K56" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M56" s="23"/>
       <c r="N56" s="8" t="s">
@@ -12852,11 +12858,11 @@
         <v>74</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S56" s="14"/>
       <c r="T56" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="V56" s="14"/>
       <c r="Y56" s="14"/>
@@ -12932,7 +12938,7 @@
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="8" t="s">
@@ -13048,14 +13054,14 @@
       <c r="A61" s="7"/>
       <c r="D61" s="14"/>
       <c r="E61" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J61" s="14"/>
       <c r="M61" s="23"/>
@@ -13198,10 +13204,7 @@
       </c>
       <c r="V64" s="14"/>
       <c r="W64" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="X64" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Y64" s="14"/>
       <c r="Z64" s="27"/>
@@ -13262,11 +13265,9 @@
         <v>194</v>
       </c>
       <c r="W65" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="X65" s="8" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="X65" s="8"/>
       <c r="Z65" s="27"/>
       <c r="AA65" s="16"/>
       <c r="AB65" s="16"/>
@@ -13312,7 +13313,7 @@
         <v>217</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R66" s="8" t="s">
         <v>291</v>
@@ -13324,11 +13325,9 @@
         <v>195</v>
       </c>
       <c r="W66" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="X66" s="8" t="s">
-        <v>105</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="X66" s="8"/>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -13352,22 +13351,20 @@
         <v>121</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
       <c r="T67" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U67" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="W67" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X67" s="8" t="s">
-        <v>111</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="X67" s="8"/>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -13400,11 +13397,9 @@
       </c>
       <c r="U68" s="8"/>
       <c r="W68" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="X68" s="8" t="s">
-        <v>109</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="X68" s="8"/>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
@@ -13426,20 +13421,18 @@
         <v>120</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
       <c r="T69" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U69" s="8"/>
       <c r="W69" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="X69" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X69" s="8"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
@@ -13457,7 +13450,7 @@
         <v>211</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
@@ -13465,7 +13458,9 @@
         <v>289</v>
       </c>
       <c r="U70" s="8"/>
-      <c r="W70" s="8"/>
+      <c r="W70" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="X70" s="8"/>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
@@ -13482,7 +13477,7 @@
       <c r="L71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
@@ -13490,7 +13485,9 @@
         <v>290</v>
       </c>
       <c r="U71" s="8"/>
-      <c r="W71" s="8"/>
+      <c r="W71" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="X71" s="8"/>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
@@ -13507,7 +13504,7 @@
       <c r="L72" s="8"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
@@ -13515,7 +13512,9 @@
         <v>291</v>
       </c>
       <c r="U72" s="8"/>
-      <c r="W72" s="8"/>
+      <c r="W72" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="X72" s="8"/>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -10497,8 +10497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q37" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R65" sqref="R65"/>
+    <sheetView tabSelected="1" topLeftCell="Q28" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="723">
   <si>
     <t>Arne</t>
   </si>
@@ -2200,7 +2200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2470,6 +2470,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2505,6 +2522,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -10497,8 +10531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q37" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R65" sqref="R65"/>
+    <sheetView tabSelected="1" topLeftCell="Q21" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12611,7 +12645,7 @@
         <v>332</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>338</v>
+        <v>96</v>
       </c>
       <c r="V51" s="14"/>
       <c r="Y51" s="14"/>
@@ -12647,6 +12681,9 @@
       <c r="S52" s="14"/>
       <c r="T52" s="8" t="s">
         <v>721</v>
+      </c>
+      <c r="U52" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="V52" s="14"/>
       <c r="Y52" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="723">
   <si>
     <t>Arne</t>
   </si>
@@ -2200,7 +2200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2470,23 +2470,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2522,23 +2505,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -10531,8 +10497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q21" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView tabSelected="1" topLeftCell="Q37" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="U58" sqref="U58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12950,6 +12916,9 @@
         <v>165</v>
       </c>
       <c r="S57" s="14"/>
+      <c r="T57" s="8" t="s">
+        <v>651</v>
+      </c>
       <c r="V57" s="14"/>
       <c r="Y57" s="14"/>
       <c r="Z57" s="27"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="728">
   <si>
     <t>Arne</t>
   </si>
@@ -2155,9 +2155,6 @@
     <t>Arne &amp; Janneke</t>
   </si>
   <si>
-    <t>2D_CHAR_MCMODEL</t>
-  </si>
-  <si>
     <t>Stone 3</t>
   </si>
   <si>
@@ -2195,6 +2192,24 @@
   </si>
   <si>
     <t>4U_KAPPAK_KART</t>
+  </si>
+  <si>
+    <t>Text Bubble</t>
+  </si>
+  <si>
+    <t>2D_TXT_TEXTBUBBLE</t>
+  </si>
+  <si>
+    <t>Enemy Health Icon</t>
+  </si>
+  <si>
+    <t>2D_TXT_ENEMYHP</t>
+  </si>
+  <si>
+    <t>Ink splatters</t>
+  </si>
+  <si>
+    <t>2D_TXT_INKSPLATTER</t>
   </si>
 </sst>
 </file>
@@ -4727,10 +4742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G416"/>
+  <dimension ref="A1:G419"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D394" sqref="D394"/>
+    <sheetView topLeftCell="C70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5422,10 +5437,10 @@
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" t="s">
+        <v>709</v>
+      </c>
+      <c r="D44" t="s">
         <v>710</v>
-      </c>
-      <c r="D44" t="s">
-        <v>711</v>
       </c>
       <c r="F44" t="s">
         <v>465</v>
@@ -5438,10 +5453,10 @@
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" t="s">
+        <v>711</v>
+      </c>
+      <c r="D45" t="s">
         <v>712</v>
-      </c>
-      <c r="D45" t="s">
-        <v>713</v>
       </c>
       <c r="F45" t="s">
         <v>458</v>
@@ -6056,6 +6071,12 @@
       <c r="D83" t="s">
         <v>554</v>
       </c>
+      <c r="F83" t="s">
+        <v>458</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
@@ -6066,161 +6087,167 @@
       <c r="D84" t="s">
         <v>679</v>
       </c>
+      <c r="F84" t="s">
+        <v>458</v>
+      </c>
+      <c r="G84" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
-    </row>
-    <row r="86" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>26</v>
+      <c r="C85" t="s">
+        <v>722</v>
+      </c>
+      <c r="D85" t="s">
+        <v>723</v>
+      </c>
+      <c r="F85" t="s">
+        <v>464</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" t="s">
+        <v>724</v>
+      </c>
+      <c r="D86" t="s">
+        <v>725</v>
+      </c>
+      <c r="F86" t="s">
+        <v>458</v>
+      </c>
+      <c r="G86" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
-      <c r="B87" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B87" s="14"/>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>726</v>
+      </c>
+      <c r="D87" t="s">
+        <v>727</v>
+      </c>
+      <c r="F87" t="s">
+        <v>458</v>
+      </c>
+      <c r="G87" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
-      <c r="C88" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" t="s">
-        <v>464</v>
-      </c>
-      <c r="G88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D89" t="s">
-        <v>66</v>
-      </c>
-      <c r="F89" t="s">
-        <v>464</v>
-      </c>
-      <c r="G89" t="s">
-        <v>5</v>
+    </row>
+    <row r="89" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
+      <c r="B90" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C90" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" t="s">
-        <v>67</v>
-      </c>
-      <c r="F90" t="s">
-        <v>465</v>
-      </c>
-      <c r="G90" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F91" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D92" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F92" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F93" t="s">
         <v>465</v>
       </c>
       <c r="G93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F94" t="s">
         <v>465</v>
       </c>
       <c r="G94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D95" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F95" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F96" t="s">
         <v>465</v>
@@ -6233,13 +6260,13 @@
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G97" t="s">
         <v>6</v>
@@ -6249,13 +6276,13 @@
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D98" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F98" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G98" t="s">
         <v>6</v>
@@ -6265,10 +6292,10 @@
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F99" t="s">
         <v>465</v>
@@ -6281,90 +6308,109 @@
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D100" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F100" t="s">
         <v>464</v>
       </c>
       <c r="G100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="F101" t="s">
         <v>464</v>
       </c>
       <c r="G101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="F102" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" t="s">
-        <v>591</v>
+        <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>553</v>
+        <v>140</v>
       </c>
       <c r="F103" t="s">
         <v>464</v>
       </c>
       <c r="G103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
+      <c r="C104" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" t="s">
+        <v>161</v>
+      </c>
+      <c r="F104" t="s">
+        <v>464</v>
+      </c>
+      <c r="G104" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
-      <c r="B105" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B105" s="14"/>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>163</v>
+      </c>
+      <c r="D105" t="s">
+        <v>165</v>
+      </c>
+      <c r="F105" t="s">
+        <v>464</v>
+      </c>
+      <c r="G105" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" t="s">
-        <v>60</v>
+        <v>591</v>
       </c>
       <c r="D106" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="F106" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G106" t="s">
         <v>5</v>
@@ -6373,43 +6419,24 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" t="s">
-        <v>52</v>
-      </c>
-      <c r="D107" t="s">
-        <v>54</v>
-      </c>
-      <c r="F107" t="s">
-        <v>458</v>
-      </c>
-      <c r="G107" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
+      <c r="B108" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C108" t="s">
-        <v>71</v>
-      </c>
-      <c r="D108" t="s">
-        <v>72</v>
-      </c>
-      <c r="F108" t="s">
-        <v>464</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F109" t="s">
         <v>458</v>
@@ -6422,10 +6449,10 @@
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D110" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F110" t="s">
         <v>458</v>
@@ -6438,26 +6465,26 @@
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D111" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F111" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="D112" t="s">
-        <v>143</v>
+        <v>483</v>
       </c>
       <c r="F112" t="s">
         <v>458</v>
@@ -6470,10 +6497,10 @@
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="D113" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="F113" t="s">
         <v>458</v>
@@ -6486,716 +6513,716 @@
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="D114" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="F114" t="s">
         <v>458</v>
       </c>
       <c r="G114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D115" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="F115" t="s">
         <v>458</v>
       </c>
       <c r="G115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D116" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="F116" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F117" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D118" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F118" t="s">
         <v>458</v>
       </c>
       <c r="G118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D119" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F119" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D120" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F120" t="s">
         <v>465</v>
       </c>
       <c r="G120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D121" t="s">
-        <v>201</v>
-      </c>
-      <c r="E121" t="s">
-        <v>489</v>
+        <v>187</v>
       </c>
       <c r="F121" t="s">
         <v>458</v>
       </c>
       <c r="G121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D122" t="s">
-        <v>202</v>
-      </c>
-      <c r="E122" t="s">
-        <v>490</v>
+        <v>193</v>
       </c>
       <c r="F122" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>710</v>
+        <v>191</v>
       </c>
       <c r="D123" t="s">
-        <v>714</v>
+        <v>194</v>
+      </c>
+      <c r="F123" t="s">
+        <v>465</v>
+      </c>
+      <c r="G123" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>712</v>
+        <v>197</v>
       </c>
       <c r="D124" t="s">
-        <v>715</v>
+        <v>201</v>
+      </c>
+      <c r="E124" t="s">
+        <v>489</v>
+      </c>
+      <c r="F124" t="s">
+        <v>458</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D125" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="E125" t="s">
+        <v>490</v>
       </c>
       <c r="F125" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G125" t="s">
-        <v>398</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" t="s">
-        <v>210</v>
+        <v>709</v>
       </c>
       <c r="D126" t="s">
-        <v>212</v>
-      </c>
-      <c r="F126" t="s">
-        <v>458</v>
-      </c>
-      <c r="G126" t="s">
-        <v>6</v>
+        <v>713</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" t="s">
-        <v>214</v>
+        <v>711</v>
       </c>
       <c r="D127" t="s">
-        <v>216</v>
-      </c>
-      <c r="F127" t="s">
-        <v>464</v>
-      </c>
-      <c r="G127" t="s">
-        <v>6</v>
+        <v>714</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D128" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F128" t="s">
         <v>458</v>
       </c>
       <c r="G128" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D129" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F129" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="D130" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="F130" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F131" t="s">
         <v>458</v>
       </c>
       <c r="G131" t="s">
-        <v>398</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D132" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F132" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="D133" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="F133" t="s">
         <v>458</v>
       </c>
       <c r="G133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D134" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F134" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G134" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D135" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="F135" t="s">
         <v>458</v>
       </c>
       <c r="G135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="D136" t="s">
-        <v>285</v>
-      </c>
-      <c r="E136" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F136" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="D137" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="F137" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>677</v>
+        <v>265</v>
       </c>
       <c r="D138" t="s">
-        <v>678</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
         <v>458</v>
       </c>
       <c r="G138" t="s">
-        <v>398</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
+      <c r="C139" t="s">
+        <v>277</v>
+      </c>
+      <c r="D139" t="s">
+        <v>285</v>
+      </c>
+      <c r="E139" t="s">
+        <v>284</v>
+      </c>
+      <c r="F139" t="s">
+        <v>464</v>
+      </c>
+      <c r="G139" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
-      <c r="B140" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>43</v>
+        <v>288</v>
+      </c>
+      <c r="D140" t="s">
+        <v>290</v>
+      </c>
+      <c r="F140" t="s">
+        <v>458</v>
+      </c>
+      <c r="G140" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>151</v>
+        <v>677</v>
       </c>
       <c r="D141" t="s">
-        <v>491</v>
+        <v>678</v>
       </c>
       <c r="F141" t="s">
         <v>458</v>
       </c>
       <c r="G141" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
-      <c r="C142" t="s">
-        <v>361</v>
-      </c>
-      <c r="D142" t="s">
-        <v>364</v>
-      </c>
-      <c r="E142" t="s">
-        <v>362</v>
-      </c>
-      <c r="F142" t="s">
-        <v>458</v>
-      </c>
-      <c r="G142" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
+      <c r="B143" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C143" t="s">
-        <v>153</v>
-      </c>
-      <c r="D143" t="s">
-        <v>157</v>
-      </c>
-      <c r="F143" t="s">
-        <v>464</v>
-      </c>
-      <c r="G143" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D144" t="s">
-        <v>158</v>
+        <v>491</v>
       </c>
       <c r="F144" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" t="s">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="D145" t="s">
-        <v>173</v>
+        <v>364</v>
+      </c>
+      <c r="E145" t="s">
+        <v>362</v>
       </c>
       <c r="F145" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="D146" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="F146" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="D147" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c r="F147" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="D148" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="F148" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
+      <c r="C149" t="s">
+        <v>227</v>
+      </c>
+      <c r="D149" t="s">
+        <v>228</v>
+      </c>
+      <c r="F149" t="s">
+        <v>458</v>
+      </c>
+      <c r="G149" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
-      <c r="B150" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B150" s="14"/>
       <c r="C150" t="s">
-        <v>138</v>
+        <v>269</v>
+      </c>
+      <c r="D150" t="s">
+        <v>271</v>
+      </c>
+      <c r="F150" t="s">
+        <v>464</v>
+      </c>
+      <c r="G150" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" t="s">
-        <v>126</v>
+        <v>273</v>
       </c>
       <c r="D151" t="s">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="F151" t="s">
         <v>458</v>
       </c>
       <c r="G151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
-      <c r="C152" t="s">
-        <v>127</v>
-      </c>
-      <c r="D152" t="s">
-        <v>439</v>
-      </c>
-      <c r="F152" t="s">
-        <v>458</v>
-      </c>
-      <c r="G152" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
-      <c r="B153" s="14"/>
+      <c r="B153" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C153" t="s">
-        <v>128</v>
-      </c>
-      <c r="D153" t="s">
-        <v>438</v>
-      </c>
-      <c r="F153" t="s">
-        <v>458</v>
-      </c>
-      <c r="G153" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="D154" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="F154" t="s">
         <v>458</v>
       </c>
       <c r="G154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" t="s">
-        <v>353</v>
+        <v>127</v>
       </c>
       <c r="D155" t="s">
-        <v>355</v>
+        <v>439</v>
       </c>
       <c r="F155" t="s">
         <v>458</v>
       </c>
       <c r="G155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
-    </row>
-    <row r="157" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>39</v>
+      <c r="C156" t="s">
+        <v>128</v>
+      </c>
+      <c r="D156" t="s">
+        <v>438</v>
+      </c>
+      <c r="F156" t="s">
+        <v>458</v>
+      </c>
+      <c r="G156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="14"/>
+      <c r="B157" s="14"/>
+      <c r="C157" t="s">
+        <v>230</v>
+      </c>
+      <c r="D157" t="s">
+        <v>232</v>
+      </c>
+      <c r="F157" t="s">
+        <v>458</v>
+      </c>
+      <c r="G157" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
-      <c r="B158" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B158" s="14"/>
       <c r="C158" t="s">
-        <v>47</v>
+        <v>353</v>
+      </c>
+      <c r="D158" t="s">
+        <v>355</v>
+      </c>
+      <c r="F158" t="s">
+        <v>458</v>
+      </c>
+      <c r="G158" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
-      <c r="C159" t="s">
-        <v>56</v>
-      </c>
-      <c r="D159" t="s">
-        <v>68</v>
-      </c>
-      <c r="F159" t="s">
-        <v>465</v>
-      </c>
-      <c r="G159" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
-      <c r="B160" s="14"/>
-      <c r="C160" t="s">
-        <v>76</v>
-      </c>
-      <c r="D160" t="s">
-        <v>78</v>
-      </c>
-      <c r="F160" t="s">
-        <v>465</v>
-      </c>
-      <c r="G160" t="s">
-        <v>7</v>
+    </row>
+    <row r="160" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
-      <c r="B161" s="14"/>
+      <c r="B161" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C161" t="s">
-        <v>86</v>
-      </c>
-      <c r="D161" t="s">
-        <v>91</v>
-      </c>
-      <c r="F161" t="s">
-        <v>458</v>
-      </c>
-      <c r="G161" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D162" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F162" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G162" t="s">
         <v>5</v>
@@ -7205,58 +7232,58 @@
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D163" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F163" t="s">
         <v>465</v>
       </c>
       <c r="G163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D164" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F164" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D165" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F165" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D166" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F166" t="s">
         <v>465</v>
@@ -7269,13 +7296,13 @@
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D167" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F167" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G167" t="s">
         <v>6</v>
@@ -7285,13 +7312,13 @@
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D168" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F168" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G168" t="s">
         <v>6</v>
@@ -7301,10 +7328,10 @@
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D169" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F169" t="s">
         <v>465</v>
@@ -7317,90 +7344,109 @@
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D170" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="F170" t="s">
         <v>464</v>
       </c>
       <c r="G170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="D171" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="F171" t="s">
         <v>464</v>
       </c>
       <c r="G171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="D172" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="F172" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" t="s">
-        <v>591</v>
+        <v>139</v>
       </c>
       <c r="D173" t="s">
-        <v>555</v>
+        <v>141</v>
       </c>
       <c r="F173" t="s">
         <v>464</v>
       </c>
       <c r="G173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
+      <c r="C174" t="s">
+        <v>159</v>
+      </c>
+      <c r="D174" t="s">
+        <v>162</v>
+      </c>
+      <c r="F174" t="s">
+        <v>464</v>
+      </c>
+      <c r="G174" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
-      <c r="B175" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B175" s="14"/>
       <c r="C175" t="s">
-        <v>48</v>
+        <v>163</v>
+      </c>
+      <c r="D175" t="s">
+        <v>166</v>
+      </c>
+      <c r="F175" t="s">
+        <v>464</v>
+      </c>
+      <c r="G175" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" t="s">
-        <v>60</v>
+        <v>591</v>
       </c>
       <c r="D176" t="s">
-        <v>482</v>
+        <v>555</v>
       </c>
       <c r="F176" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
@@ -7409,59 +7455,40 @@
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
-      <c r="C177" t="s">
-        <v>52</v>
-      </c>
-      <c r="D177" t="s">
-        <v>70</v>
-      </c>
-      <c r="F177" t="s">
-        <v>458</v>
-      </c>
-      <c r="G177" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
-      <c r="B178" s="14"/>
+      <c r="B178" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C178" t="s">
-        <v>59</v>
-      </c>
-      <c r="D178" t="s">
-        <v>484</v>
-      </c>
-      <c r="F178" t="s">
-        <v>458</v>
-      </c>
-      <c r="G178" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D179" t="s">
-        <v>74</v>
+        <v>482</v>
       </c>
       <c r="F179" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G179" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D180" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F180" t="s">
         <v>458</v>
@@ -7474,10 +7501,10 @@
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="D181" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F181" t="s">
         <v>458</v>
@@ -7490,26 +7517,26 @@
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D182" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F182" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="D183" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="F183" t="s">
         <v>458</v>
@@ -7522,10 +7549,10 @@
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D184" t="s">
-        <v>170</v>
+        <v>485</v>
       </c>
       <c r="F184" t="s">
         <v>458</v>
@@ -7538,10 +7565,10 @@
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="D185" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="F185" t="s">
         <v>458</v>
@@ -7554,93 +7581,93 @@
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="D186" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="F186" t="s">
         <v>458</v>
       </c>
       <c r="G186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D187" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F187" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D188" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F188" t="s">
         <v>458</v>
       </c>
       <c r="G188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D189" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F189" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>710</v>
+        <v>191</v>
       </c>
       <c r="D190" t="s">
-        <v>716</v>
+        <v>195</v>
       </c>
       <c r="F190" t="s">
         <v>465</v>
       </c>
       <c r="G190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>712</v>
+        <v>197</v>
       </c>
       <c r="D191" t="s">
-        <v>717</v>
+        <v>199</v>
       </c>
       <c r="F191" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G191" t="s">
         <v>7</v>
@@ -7650,45 +7677,45 @@
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D192" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="F192" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" t="s">
-        <v>214</v>
+        <v>709</v>
       </c>
       <c r="D193" t="s">
-        <v>217</v>
+        <v>715</v>
       </c>
       <c r="F193" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" t="s">
-        <v>281</v>
+        <v>711</v>
       </c>
       <c r="D194" t="s">
-        <v>282</v>
+        <v>716</v>
       </c>
       <c r="F194" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G194" t="s">
         <v>7</v>
@@ -7698,45 +7725,45 @@
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D195" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="F195" t="s">
         <v>458</v>
       </c>
       <c r="G195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="D196" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="F196" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="D197" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="F197" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G197" t="s">
         <v>7</v>
@@ -7746,135 +7773,132 @@
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D198" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="F198" t="s">
         <v>458</v>
       </c>
       <c r="G198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="D199" t="s">
-        <v>287</v>
-      </c>
-      <c r="E199" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="F199" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="D200" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="F200" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
-        <v>677</v>
+        <v>265</v>
       </c>
       <c r="D201" t="s">
-        <v>680</v>
+        <v>268</v>
+      </c>
+      <c r="F201" t="s">
+        <v>458</v>
+      </c>
+      <c r="G201" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
+      <c r="C202" t="s">
+        <v>286</v>
+      </c>
+      <c r="D202" t="s">
+        <v>287</v>
+      </c>
+      <c r="E202" t="s">
+        <v>284</v>
+      </c>
+      <c r="F202" t="s">
+        <v>464</v>
+      </c>
+      <c r="G202" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
-      <c r="B203" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B203" s="14"/>
       <c r="C203" t="s">
-        <v>49</v>
+        <v>288</v>
+      </c>
+      <c r="D203" t="s">
+        <v>291</v>
+      </c>
+      <c r="F203" t="s">
+        <v>458</v>
+      </c>
+      <c r="G203" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" t="s">
-        <v>492</v>
+        <v>677</v>
       </c>
       <c r="D204" t="s">
-        <v>493</v>
-      </c>
-      <c r="F204" t="s">
-        <v>458</v>
-      </c>
-      <c r="G204" t="s">
-        <v>7</v>
+        <v>680</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
-      <c r="C205" t="s">
-        <v>361</v>
-      </c>
-      <c r="D205" t="s">
-        <v>363</v>
-      </c>
-      <c r="E205" t="s">
-        <v>362</v>
-      </c>
-      <c r="F205" t="s">
-        <v>458</v>
-      </c>
-      <c r="G205" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
-      <c r="B206" s="14"/>
+      <c r="B206" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C206" t="s">
-        <v>171</v>
-      </c>
-      <c r="D206" t="s">
-        <v>174</v>
-      </c>
-      <c r="F206" t="s">
-        <v>464</v>
-      </c>
-      <c r="G206" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>225</v>
+        <v>492</v>
       </c>
       <c r="D207" t="s">
-        <v>229</v>
+        <v>493</v>
       </c>
       <c r="F207" t="s">
         <v>458</v>
@@ -7887,298 +7911,301 @@
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" t="s">
-        <v>269</v>
+        <v>361</v>
       </c>
       <c r="D208" t="s">
-        <v>272</v>
+        <v>363</v>
+      </c>
+      <c r="E208" t="s">
+        <v>362</v>
       </c>
       <c r="F208" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="D209" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="F209" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
-      <c r="B210" s="7" t="s">
-        <v>57</v>
+      <c r="B210" s="14"/>
+      <c r="C210" t="s">
+        <v>225</v>
+      </c>
+      <c r="D210" t="s">
+        <v>229</v>
+      </c>
+      <c r="F210" t="s">
+        <v>458</v>
+      </c>
+      <c r="G210" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="D211" t="s">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="F211" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="D212" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="F212" t="s">
         <v>458</v>
       </c>
       <c r="G212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
-      <c r="B213" s="14"/>
-      <c r="C213" t="s">
-        <v>128</v>
-      </c>
-      <c r="D213" t="s">
-        <v>487</v>
-      </c>
-      <c r="F213" t="s">
-        <v>458</v>
-      </c>
-      <c r="G213" t="s">
-        <v>7</v>
+      <c r="B213" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="D214" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="F214" t="s">
         <v>458</v>
       </c>
       <c r="G214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" t="s">
-        <v>353</v>
+        <v>127</v>
       </c>
       <c r="D215" t="s">
-        <v>356</v>
+        <v>133</v>
       </c>
       <c r="F215" t="s">
         <v>458</v>
       </c>
       <c r="G215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
-    </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>128</v>
+      </c>
+      <c r="D216" t="s">
+        <v>487</v>
+      </c>
+      <c r="F216" t="s">
+        <v>458</v>
+      </c>
+      <c r="G216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="14"/>
+      <c r="B217" s="14"/>
+      <c r="C217" t="s">
+        <v>230</v>
+      </c>
+      <c r="D217" t="s">
+        <v>233</v>
+      </c>
+      <c r="F217" t="s">
+        <v>458</v>
+      </c>
+      <c r="G217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
-      <c r="B218" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B218" s="14"/>
       <c r="C218" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="D218" t="s">
+        <v>356</v>
+      </c>
+      <c r="F218" t="s">
+        <v>458</v>
+      </c>
+      <c r="G218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
-      <c r="C219" t="s">
-        <v>127</v>
-      </c>
-      <c r="D219" t="s">
-        <v>134</v>
-      </c>
-      <c r="F219" t="s">
-        <v>458</v>
-      </c>
-      <c r="G219" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
-      <c r="B220" s="14"/>
-      <c r="C220" t="s">
-        <v>128</v>
-      </c>
-      <c r="D220" t="s">
-        <v>135</v>
-      </c>
-      <c r="F220" t="s">
-        <v>458</v>
-      </c>
-      <c r="G220" t="s">
-        <v>7</v>
+    </row>
+    <row r="220" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
-      <c r="B221" s="14"/>
+      <c r="B221" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C221" t="s">
-        <v>126</v>
-      </c>
-      <c r="D221" t="s">
-        <v>136</v>
-      </c>
-      <c r="F221" t="s">
-        <v>458</v>
-      </c>
-      <c r="G221" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="D222" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="F222" t="s">
         <v>458</v>
       </c>
       <c r="G222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" t="s">
-        <v>353</v>
+        <v>128</v>
       </c>
       <c r="D223" t="s">
-        <v>357</v>
+        <v>135</v>
       </c>
       <c r="F223" t="s">
         <v>458</v>
       </c>
       <c r="G223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
-    </row>
-    <row r="225" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B225" s="12" t="s">
-        <v>46</v>
+      <c r="C224" t="s">
+        <v>126</v>
+      </c>
+      <c r="D224" t="s">
+        <v>136</v>
+      </c>
+      <c r="F224" t="s">
+        <v>458</v>
+      </c>
+      <c r="G224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="14"/>
+      <c r="B225" s="14"/>
+      <c r="C225" t="s">
+        <v>230</v>
+      </c>
+      <c r="D225" t="s">
+        <v>234</v>
+      </c>
+      <c r="F225" t="s">
+        <v>458</v>
+      </c>
+      <c r="G225" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
-      <c r="B226" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>137</v>
+        <v>353</v>
+      </c>
+      <c r="D226" t="s">
+        <v>357</v>
+      </c>
+      <c r="F226" t="s">
+        <v>458</v>
+      </c>
+      <c r="G226" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
-      <c r="C227" t="s">
-        <v>308</v>
-      </c>
-      <c r="D227" t="s">
-        <v>314</v>
-      </c>
-      <c r="F227" t="s">
-        <v>458</v>
-      </c>
-      <c r="G227" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="14"/>
-      <c r="B228" s="14"/>
-      <c r="C228" t="s">
-        <v>309</v>
-      </c>
-      <c r="D228" t="s">
-        <v>315</v>
-      </c>
-      <c r="F228" t="s">
-        <v>458</v>
-      </c>
-      <c r="G228" t="s">
-        <v>7</v>
+    </row>
+    <row r="228" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="14"/>
-      <c r="B229" s="14"/>
+      <c r="B229" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C229" t="s">
-        <v>310</v>
-      </c>
-      <c r="D229" t="s">
-        <v>318</v>
-      </c>
-      <c r="F229" t="s">
-        <v>458</v>
-      </c>
-      <c r="G229" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D230" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F230" t="s">
         <v>458</v>
@@ -8191,10 +8218,10 @@
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D231" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F231" t="s">
         <v>458</v>
@@ -8207,10 +8234,10 @@
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D232" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F232" t="s">
         <v>458</v>
@@ -8223,26 +8250,26 @@
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="D233" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="F233" t="s">
         <v>458</v>
       </c>
       <c r="G233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>631</v>
+        <v>312</v>
       </c>
       <c r="D234" t="s">
-        <v>632</v>
+        <v>317</v>
       </c>
       <c r="F234" t="s">
         <v>458</v>
@@ -8255,10 +8282,10 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>633</v>
+        <v>313</v>
       </c>
       <c r="D235" t="s">
-        <v>634</v>
+        <v>319</v>
       </c>
       <c r="F235" t="s">
         <v>458</v>
@@ -8271,32 +8298,26 @@
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="D236" t="s">
-        <v>323</v>
-      </c>
-      <c r="E236" t="s">
-        <v>494</v>
+        <v>347</v>
       </c>
       <c r="F236" t="s">
         <v>458</v>
       </c>
       <c r="G236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>321</v>
+        <v>631</v>
       </c>
       <c r="D237" t="s">
-        <v>324</v>
-      </c>
-      <c r="E237" t="s">
-        <v>495</v>
+        <v>632</v>
       </c>
       <c r="F237" t="s">
         <v>458</v>
@@ -8309,13 +8330,10 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>322</v>
+        <v>633</v>
       </c>
       <c r="D238" t="s">
-        <v>325</v>
-      </c>
-      <c r="E238" t="s">
-        <v>496</v>
+        <v>634</v>
       </c>
       <c r="F238" t="s">
         <v>458</v>
@@ -8328,13 +8346,13 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D239" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E239" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F239" t="s">
         <v>458</v>
@@ -8347,13 +8365,13 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D240" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E240" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F240" t="s">
         <v>458</v>
@@ -8366,13 +8384,13 @@
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D241" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E241" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F241" t="s">
         <v>458</v>
@@ -8385,13 +8403,13 @@
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D242" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E242" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F242" t="s">
         <v>458</v>
@@ -8404,10 +8422,10 @@
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D243" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E243" t="s">
         <v>494</v>
@@ -8423,10 +8441,10 @@
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
       <c r="C244" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D244" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E244" t="s">
         <v>495</v>
@@ -8442,10 +8460,10 @@
       <c r="A245" s="14"/>
       <c r="B245" s="14"/>
       <c r="C245" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D245" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E245" t="s">
         <v>496</v>
@@ -8461,10 +8479,10 @@
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D246" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E246" t="s">
         <v>494</v>
@@ -8480,10 +8498,10 @@
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D247" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E247" t="s">
         <v>495</v>
@@ -8499,10 +8517,10 @@
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D248" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E248" t="s">
         <v>496</v>
@@ -8518,151 +8536,169 @@
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>650</v>
+        <v>340</v>
       </c>
       <c r="D249" t="s">
-        <v>651</v>
+        <v>345</v>
+      </c>
+      <c r="E249" t="s">
+        <v>494</v>
       </c>
       <c r="F249" t="s">
         <v>458</v>
       </c>
       <c r="G249" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
-    </row>
-    <row r="251" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B251" s="10" t="s">
-        <v>36</v>
+      <c r="C250" t="s">
+        <v>341</v>
+      </c>
+      <c r="D250" t="s">
+        <v>344</v>
+      </c>
+      <c r="E250" t="s">
+        <v>495</v>
+      </c>
+      <c r="F250" t="s">
+        <v>458</v>
+      </c>
+      <c r="G250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="14"/>
+      <c r="B251" s="14"/>
+      <c r="C251" t="s">
+        <v>342</v>
+      </c>
+      <c r="D251" t="s">
+        <v>343</v>
+      </c>
+      <c r="E251" t="s">
+        <v>496</v>
+      </c>
+      <c r="F251" t="s">
+        <v>458</v>
+      </c>
+      <c r="G251" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
-      <c r="B252" s="7" t="s">
-        <v>399</v>
-      </c>
+      <c r="B252" s="14"/>
       <c r="C252" t="s">
-        <v>399</v>
-      </c>
-      <c r="E252" t="s">
-        <v>436</v>
+        <v>650</v>
+      </c>
+      <c r="D252" t="s">
+        <v>651</v>
+      </c>
+      <c r="F252" t="s">
+        <v>458</v>
+      </c>
+      <c r="G252" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
-      <c r="C253" t="s">
-        <v>400</v>
-      </c>
-      <c r="F253" t="s">
-        <v>458</v>
-      </c>
-      <c r="G253" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
-      <c r="B254" s="14"/>
-      <c r="C254" t="s">
-        <v>352</v>
-      </c>
-      <c r="F254" t="s">
-        <v>458</v>
-      </c>
-      <c r="G254" t="s">
-        <v>2</v>
+    </row>
+    <row r="254" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
-      <c r="B255" s="14"/>
+      <c r="B255" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="C255" t="s">
-        <v>401</v>
-      </c>
-      <c r="F255" t="s">
-        <v>458</v>
-      </c>
-      <c r="G255" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+      <c r="E255" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F256" t="s">
         <v>458</v>
       </c>
       <c r="G256" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" t="s">
-        <v>499</v>
+        <v>352</v>
       </c>
       <c r="F257" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G257" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F258" t="s">
         <v>458</v>
       </c>
       <c r="G258" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F259" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G259" t="s">
-        <v>498</v>
+        <v>398</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>405</v>
+        <v>499</v>
       </c>
       <c r="F260" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G260" t="s">
-        <v>498</v>
+        <v>398</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="F261" t="s">
         <v>458</v>
@@ -8674,99 +8710,99 @@
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
+      <c r="C262" t="s">
+        <v>404</v>
+      </c>
+      <c r="F262" t="s">
+        <v>464</v>
+      </c>
+      <c r="G262" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
-      <c r="B263" s="16" t="s">
-        <v>406</v>
-      </c>
+      <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>637</v>
-      </c>
-      <c r="E263" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="F263" t="s">
         <v>458</v>
       </c>
       <c r="G263" t="s">
-        <v>398</v>
+        <v>498</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>638</v>
+        <v>351</v>
       </c>
       <c r="F264" t="s">
         <v>458</v>
+      </c>
+      <c r="G264" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
-      <c r="C265" t="s">
-        <v>639</v>
-      </c>
-      <c r="F265" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
-      <c r="B266" s="14"/>
+      <c r="B266" s="16" t="s">
+        <v>406</v>
+      </c>
       <c r="C266" t="s">
-        <v>640</v>
+        <v>637</v>
+      </c>
+      <c r="E266" t="s">
+        <v>437</v>
       </c>
       <c r="F266" t="s">
-        <v>464</v>
+        <v>458</v>
+      </c>
+      <c r="G266" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>407</v>
+        <v>638</v>
       </c>
       <c r="F267" t="s">
         <v>458</v>
-      </c>
-      <c r="G267" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>408</v>
+        <v>639</v>
       </c>
       <c r="F268" t="s">
         <v>464</v>
-      </c>
-      <c r="G268" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>409</v>
+        <v>640</v>
       </c>
       <c r="F269" t="s">
         <v>464</v>
-      </c>
-      <c r="G269" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F270" t="s">
         <v>458</v>
@@ -8779,33 +8815,33 @@
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F271" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G271" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F272" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G272" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F273" t="s">
         <v>458</v>
@@ -8818,33 +8854,33 @@
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F274" t="s">
         <v>458</v>
       </c>
       <c r="G274" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F275" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G275" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F276" t="s">
         <v>458</v>
@@ -8857,7 +8893,7 @@
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F277" t="s">
         <v>458</v>
@@ -8870,7 +8906,7 @@
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F278" t="s">
         <v>464</v>
@@ -8883,7 +8919,7 @@
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F279" t="s">
         <v>458</v>
@@ -8896,72 +8932,88 @@
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F280" t="s">
         <v>458</v>
       </c>
       <c r="G280" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="F281" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G281" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F282" t="s">
         <v>458</v>
       </c>
       <c r="G282" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>636</v>
+        <v>423</v>
       </c>
       <c r="F283" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="G283" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
+      <c r="C284" t="s">
+        <v>434</v>
+      </c>
+      <c r="F284" t="s">
+        <v>458</v>
+      </c>
+      <c r="G284" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
+      <c r="C285" t="s">
+        <v>435</v>
+      </c>
+      <c r="F285" t="s">
+        <v>458</v>
+      </c>
+      <c r="G285" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
-      <c r="B286" s="7" t="s">
-        <v>473</v>
-      </c>
+      <c r="B286" s="14"/>
       <c r="C286" t="s">
-        <v>466</v>
+        <v>636</v>
       </c>
       <c r="F286" t="s">
-        <v>458</v>
+        <v>652</v>
       </c>
       <c r="G286" t="s">
         <v>2</v>
@@ -8970,34 +9022,18 @@
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
-      <c r="C287" t="s">
-        <v>467</v>
-      </c>
-      <c r="F287" t="s">
-        <v>458</v>
-      </c>
-      <c r="G287" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
-      <c r="C288" t="s">
-        <v>468</v>
-      </c>
-      <c r="F288" t="s">
-        <v>458</v>
-      </c>
-      <c r="G288" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
-      <c r="B289" s="14"/>
+      <c r="B289" s="7" t="s">
+        <v>473</v>
+      </c>
       <c r="C289" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F289" t="s">
         <v>458</v>
@@ -9010,7 +9046,7 @@
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F290" t="s">
         <v>458</v>
@@ -9023,7 +9059,7 @@
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F291" t="s">
         <v>458</v>
@@ -9036,20 +9072,20 @@
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F292" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G292" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F293" t="s">
         <v>458</v>
@@ -9062,7 +9098,7 @@
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F294" t="s">
         <v>458</v>
@@ -9074,186 +9110,186 @@
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
+      <c r="C295" t="s">
+        <v>472</v>
+      </c>
+      <c r="F295" t="s">
+        <v>465</v>
+      </c>
+      <c r="G295" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
-      <c r="B296" s="16" t="s">
-        <v>419</v>
-      </c>
+      <c r="B296" s="14"/>
       <c r="C296" t="s">
-        <v>420</v>
-      </c>
-      <c r="E296" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="F296" t="s">
         <v>458</v>
       </c>
       <c r="G296" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="F297" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G297" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
-      <c r="C298" t="s">
-        <v>422</v>
-      </c>
-      <c r="F298" t="s">
-        <v>458</v>
-      </c>
-      <c r="G298" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
-      <c r="B299" s="14"/>
+      <c r="B299" s="16" t="s">
+        <v>419</v>
+      </c>
       <c r="C299" t="s">
-        <v>428</v>
+        <v>420</v>
+      </c>
+      <c r="E299" t="s">
+        <v>437</v>
       </c>
       <c r="F299" t="s">
         <v>458</v>
       </c>
       <c r="G299" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F300" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G300" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F301" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G301" t="s">
-        <v>628</v>
+        <v>398</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F302" t="s">
         <v>458</v>
       </c>
       <c r="G302" t="s">
-        <v>398</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" t="s">
-        <v>641</v>
+        <v>425</v>
       </c>
       <c r="F303" t="s">
-        <v>464</v>
+        <v>458</v>
+      </c>
+      <c r="G303" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" t="s">
-        <v>642</v>
+        <v>426</v>
       </c>
       <c r="F304" t="s">
         <v>464</v>
+      </c>
+      <c r="G304" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" t="s">
-        <v>643</v>
+        <v>427</v>
       </c>
       <c r="F305" t="s">
-        <v>464</v>
+        <v>458</v>
+      </c>
+      <c r="G305" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
+      <c r="C306" t="s">
+        <v>641</v>
+      </c>
+      <c r="F306" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
-      <c r="B307" s="16" t="s">
-        <v>429</v>
-      </c>
+      <c r="B307" s="14"/>
       <c r="C307" t="s">
-        <v>430</v>
-      </c>
-      <c r="E307" t="s">
-        <v>436</v>
+        <v>642</v>
       </c>
       <c r="F307" t="s">
         <v>464</v>
-      </c>
-      <c r="G307" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" t="s">
-        <v>431</v>
+        <v>643</v>
       </c>
       <c r="F308" t="s">
         <v>464</v>
-      </c>
-      <c r="G308" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
-      <c r="C309" t="s">
-        <v>432</v>
-      </c>
-      <c r="F309" t="s">
-        <v>464</v>
-      </c>
-      <c r="G309" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
-      <c r="B310" s="14"/>
+      <c r="B310" s="16" t="s">
+        <v>429</v>
+      </c>
       <c r="C310" t="s">
-        <v>433</v>
+        <v>430</v>
+      </c>
+      <c r="E310" t="s">
+        <v>436</v>
       </c>
       <c r="F310" t="s">
         <v>464</v>
@@ -9265,63 +9301,61 @@
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
-    </row>
-    <row r="312" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B312" s="13" t="s">
-        <v>37</v>
+      <c r="C311" t="s">
+        <v>431</v>
+      </c>
+      <c r="F311" t="s">
+        <v>464</v>
+      </c>
+      <c r="G311" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="14"/>
+      <c r="B312" s="14"/>
+      <c r="C312" t="s">
+        <v>432</v>
+      </c>
+      <c r="F312" t="s">
+        <v>464</v>
+      </c>
+      <c r="G312" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
-      <c r="B313" s="7" t="s">
-        <v>392</v>
-      </c>
+      <c r="B313" s="14"/>
       <c r="C313" t="s">
-        <v>360</v>
+        <v>433</v>
       </c>
       <c r="F313" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G313" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
-      <c r="C314" t="s">
-        <v>395</v>
-      </c>
-      <c r="F314" t="s">
-        <v>458</v>
-      </c>
-      <c r="G314" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
-      <c r="B315" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="C315" t="s">
-        <v>377</v>
-      </c>
-      <c r="F315" t="s">
-        <v>458</v>
-      </c>
-      <c r="G315" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
-      <c r="B316" s="14"/>
+      <c r="B316" s="7" t="s">
+        <v>392</v>
+      </c>
       <c r="C316" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F316" t="s">
         <v>458</v>
@@ -9330,11 +9364,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="F317" t="s">
         <v>458</v>
@@ -9345,9 +9379,11 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
-      <c r="B318" s="14"/>
+      <c r="B318" s="14" t="s">
+        <v>393</v>
+      </c>
       <c r="C318" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F318" t="s">
         <v>458</v>
@@ -9356,13 +9392,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
-      <c r="B319" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>385</v>
+      <c r="B319" s="14"/>
+      <c r="C319" t="s">
+        <v>378</v>
       </c>
       <c r="F319" t="s">
         <v>458</v>
@@ -9371,11 +9405,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
       <c r="B320" s="14"/>
-      <c r="C320" s="4" t="s">
-        <v>396</v>
+      <c r="C320" t="s">
+        <v>380</v>
       </c>
       <c r="F320" t="s">
         <v>458</v>
@@ -9387,47 +9421,49 @@
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
-      <c r="C321" s="4" t="s">
-        <v>624</v>
+      <c r="C321" t="s">
+        <v>389</v>
       </c>
       <c r="F321" t="s">
         <v>458</v>
       </c>
       <c r="G321" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="14"/>
-      <c r="B322" s="14"/>
+      <c r="B322" s="14" t="s">
+        <v>383</v>
+      </c>
       <c r="C322" s="4" t="s">
-        <v>625</v>
+        <v>385</v>
       </c>
       <c r="F322" t="s">
         <v>458</v>
       </c>
       <c r="G322" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>626</v>
+        <v>396</v>
       </c>
       <c r="F323" t="s">
         <v>458</v>
       </c>
       <c r="G323" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F324" t="s">
         <v>458</v>
@@ -9439,54 +9475,54 @@
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
       <c r="B325" s="14"/>
-      <c r="C325" s="4"/>
+      <c r="C325" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F325" t="s">
+        <v>458</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="7" t="s">
-        <v>393</v>
-      </c>
+      <c r="B326" s="14"/>
       <c r="C326" s="4" t="s">
-        <v>358</v>
+        <v>626</v>
       </c>
       <c r="F326" t="s">
         <v>458</v>
       </c>
       <c r="G326" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
       <c r="C327" s="4" t="s">
-        <v>359</v>
+        <v>627</v>
       </c>
       <c r="F327" t="s">
         <v>458</v>
       </c>
       <c r="G327" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
-      <c r="C328" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F328" t="s">
-        <v>458</v>
-      </c>
-      <c r="G328" t="s">
-        <v>2</v>
-      </c>
+      <c r="C328" s="4"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
-      <c r="B329" s="14"/>
+      <c r="B329" s="7" t="s">
+        <v>393</v>
+      </c>
       <c r="C329" s="4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F329" t="s">
         <v>458</v>
@@ -9499,22 +9535,20 @@
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="4" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F330" t="s">
         <v>458</v>
       </c>
       <c r="G330" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="14" t="s">
-        <v>394</v>
-      </c>
+      <c r="B331" s="14"/>
       <c r="C331" s="4" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="F331" t="s">
         <v>458</v>
@@ -9527,7 +9561,7 @@
       <c r="A332" s="14"/>
       <c r="B332" s="14"/>
       <c r="C332" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F332" t="s">
         <v>458</v>
@@ -9539,54 +9573,56 @@
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
       <c r="B333" s="14"/>
-      <c r="C333" s="4"/>
+      <c r="C333" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F333" t="s">
+        <v>458</v>
+      </c>
+      <c r="G333" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
-      <c r="B334" s="16" t="s">
+      <c r="B334" s="14" t="s">
         <v>394</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F334" t="s">
         <v>458</v>
       </c>
       <c r="G334" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F335" t="s">
         <v>458</v>
       </c>
       <c r="G335" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
-      <c r="C336" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F336" t="s">
-        <v>458</v>
-      </c>
-      <c r="G336" t="s">
-        <v>1</v>
-      </c>
+      <c r="C336" s="4"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="14"/>
-      <c r="B337" s="14"/>
+      <c r="B337" s="16" t="s">
+        <v>394</v>
+      </c>
       <c r="C337" s="4" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="F337" t="s">
         <v>458</v>
@@ -9597,57 +9633,57 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="14"/>
-      <c r="B338" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C338" s="4"/>
+      <c r="B338" s="14"/>
+      <c r="C338" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F338" t="s">
+        <v>458</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
-      <c r="B339" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B339" s="14"/>
       <c r="C339" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F339" t="s">
         <v>458</v>
       </c>
       <c r="G339" t="s">
-        <v>398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
       <c r="C340" s="4" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="F340" t="s">
         <v>458</v>
       </c>
       <c r="G340" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
-      <c r="B341" s="14"/>
-      <c r="C341" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="F341" t="s">
-        <v>458</v>
-      </c>
-      <c r="G341" t="s">
-        <v>398</v>
-      </c>
+      <c r="B341" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C341" s="4"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
-      <c r="B342" s="14"/>
+      <c r="B342" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C342" s="4" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="F342" t="s">
         <v>458</v>
@@ -9660,20 +9696,20 @@
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
       <c r="C343" s="4" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="F343" t="s">
         <v>458</v>
       </c>
       <c r="G343" t="s">
-        <v>398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
       <c r="B344" s="14"/>
       <c r="C344" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F344" t="s">
         <v>458</v>
@@ -9686,20 +9722,20 @@
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" s="4" t="s">
-        <v>488</v>
+        <v>391</v>
       </c>
       <c r="F345" t="s">
         <v>458</v>
       </c>
       <c r="G345" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" s="4" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
       <c r="F346" t="s">
         <v>458</v>
@@ -9711,54 +9747,54 @@
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
-      <c r="C347" s="4"/>
+      <c r="C347" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F347" t="s">
+        <v>458</v>
+      </c>
+      <c r="G347" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="14"/>
-      <c r="B348" s="18" t="s">
-        <v>383</v>
-      </c>
+      <c r="B348" s="14"/>
       <c r="C348" s="4" t="s">
-        <v>375</v>
+        <v>488</v>
       </c>
       <c r="F348" t="s">
         <v>458</v>
       </c>
       <c r="G348" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
-      <c r="B349" s="15"/>
+      <c r="B349" s="14"/>
       <c r="C349" s="4" t="s">
-        <v>382</v>
+        <v>513</v>
       </c>
       <c r="F349" t="s">
         <v>458</v>
       </c>
       <c r="G349" t="s">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
-      <c r="B350" s="15"/>
-      <c r="C350" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F350" t="s">
-        <v>458</v>
-      </c>
-      <c r="G350" t="s">
-        <v>0</v>
-      </c>
+      <c r="B350" s="14"/>
+      <c r="C350" s="4"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
-      <c r="B351" s="15"/>
+      <c r="B351" s="18" t="s">
+        <v>383</v>
+      </c>
       <c r="C351" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F351" t="s">
         <v>458</v>
@@ -9771,7 +9807,7 @@
       <c r="A352" s="14"/>
       <c r="B352" s="15"/>
       <c r="C352" s="4" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="F352" t="s">
         <v>458</v>
@@ -9784,7 +9820,7 @@
       <c r="A353" s="14"/>
       <c r="B353" s="15"/>
       <c r="C353" s="4" t="s">
-        <v>515</v>
+        <v>381</v>
       </c>
       <c r="F353" t="s">
         <v>458</v>
@@ -9793,98 +9829,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B354" s="11" t="s">
-        <v>38</v>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="14"/>
+      <c r="B354" s="15"/>
+      <c r="C354" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F354" t="s">
+        <v>458</v>
+      </c>
+      <c r="G354" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
-      <c r="B355" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C355" t="s">
-        <v>50</v>
+      <c r="B355" s="15"/>
+      <c r="C355" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F355" t="s">
+        <v>458</v>
+      </c>
+      <c r="G355" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
-      <c r="B356" s="14"/>
-      <c r="C356" t="s">
-        <v>302</v>
-      </c>
-      <c r="D356" t="s">
-        <v>303</v>
-      </c>
-      <c r="E356" t="s">
-        <v>590</v>
+      <c r="B356" s="15"/>
+      <c r="C356" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="F356" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G356" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="14"/>
-      <c r="B357" s="14"/>
-      <c r="C357" t="s">
-        <v>304</v>
-      </c>
-      <c r="D357" t="s">
-        <v>305</v>
-      </c>
-      <c r="F357" t="s">
-        <v>464</v>
-      </c>
-      <c r="G357" t="s">
-        <v>658</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
-      <c r="B358" s="14"/>
+      <c r="B358" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C358" t="s">
-        <v>576</v>
-      </c>
-      <c r="D358" t="s">
-        <v>577</v>
-      </c>
-      <c r="F358" t="s">
-        <v>464</v>
-      </c>
-      <c r="G358" t="s">
-        <v>663</v>
+        <v>50</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" t="s">
-        <v>578</v>
+        <v>302</v>
       </c>
       <c r="D359" t="s">
-        <v>579</v>
+        <v>303</v>
+      </c>
+      <c r="E359" t="s">
+        <v>590</v>
       </c>
       <c r="F359" t="s">
         <v>464</v>
       </c>
       <c r="G359" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>580</v>
+        <v>304</v>
       </c>
       <c r="D360" t="s">
-        <v>581</v>
+        <v>305</v>
       </c>
       <c r="F360" t="s">
         <v>464</v>
@@ -9897,87 +9924,87 @@
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="D361" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
       <c r="F361" t="s">
         <v>464</v>
       </c>
       <c r="G361" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
+      <c r="C362" t="s">
+        <v>578</v>
+      </c>
+      <c r="D362" t="s">
+        <v>579</v>
+      </c>
+      <c r="F362" t="s">
+        <v>464</v>
+      </c>
+      <c r="G362" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
-      <c r="B363" s="7" t="s">
-        <v>393</v>
-      </c>
+      <c r="B363" s="14"/>
       <c r="C363" t="s">
-        <v>566</v>
+        <v>580</v>
+      </c>
+      <c r="D363" t="s">
+        <v>581</v>
+      </c>
+      <c r="F363" t="s">
+        <v>464</v>
+      </c>
+      <c r="G363" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
       <c r="C364" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="D364" t="s">
-        <v>586</v>
+        <v>649</v>
       </c>
       <c r="F364" t="s">
         <v>464</v>
       </c>
       <c r="G364" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
       <c r="B365" s="14"/>
-      <c r="C365" t="s">
-        <v>583</v>
-      </c>
-      <c r="D365" t="s">
-        <v>587</v>
-      </c>
-      <c r="F365" t="s">
-        <v>464</v>
-      </c>
-      <c r="G365" t="s">
-        <v>658</v>
-      </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="14"/>
-      <c r="B366" s="14"/>
+      <c r="B366" s="7" t="s">
+        <v>393</v>
+      </c>
       <c r="C366" t="s">
-        <v>273</v>
-      </c>
-      <c r="D366" t="s">
-        <v>588</v>
-      </c>
-      <c r="F366" t="s">
-        <v>464</v>
-      </c>
-      <c r="G366" t="s">
-        <v>655</v>
+        <v>566</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D367" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F367" t="s">
         <v>464</v>
@@ -9990,296 +10017,327 @@
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
       <c r="C368" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="D368" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F368" t="s">
         <v>464</v>
+      </c>
+      <c r="G368" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
       <c r="C369" t="s">
-        <v>646</v>
+        <v>273</v>
       </c>
       <c r="D369" t="s">
-        <v>647</v>
-      </c>
-      <c r="E369" t="s">
-        <v>662</v>
+        <v>588</v>
       </c>
       <c r="F369" t="s">
         <v>464</v>
       </c>
       <c r="G369" t="s">
-        <v>708</v>
+        <v>655</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
       <c r="B370" s="14"/>
+      <c r="C370" t="s">
+        <v>584</v>
+      </c>
+      <c r="D370" t="s">
+        <v>589</v>
+      </c>
+      <c r="F370" t="s">
+        <v>464</v>
+      </c>
+      <c r="G370" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
-      <c r="B371" t="s">
-        <v>567</v>
-      </c>
+      <c r="B371" s="14"/>
       <c r="C371" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+      <c r="D371" t="s">
+        <v>585</v>
+      </c>
+      <c r="F371" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
       <c r="C372" t="s">
-        <v>569</v>
+        <v>646</v>
       </c>
       <c r="D372" t="s">
-        <v>571</v>
+        <v>647</v>
+      </c>
+      <c r="E372" t="s">
+        <v>662</v>
       </c>
       <c r="F372" t="s">
         <v>464</v>
+      </c>
+      <c r="G372" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="14"/>
       <c r="B373" s="14"/>
-      <c r="C373" t="s">
-        <v>570</v>
-      </c>
-      <c r="D373" t="s">
-        <v>572</v>
-      </c>
-      <c r="F373" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="14"/>
-      <c r="B374" s="14"/>
+      <c r="B374" t="s">
+        <v>567</v>
+      </c>
       <c r="C374" t="s">
-        <v>574</v>
-      </c>
-      <c r="D374" t="s">
-        <v>575</v>
-      </c>
-      <c r="E374" t="s">
-        <v>573</v>
-      </c>
-      <c r="F374" t="s">
-        <v>464</v>
-      </c>
-      <c r="G374" t="s">
-        <v>658</v>
+        <v>568</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="14"/>
       <c r="B375" s="14"/>
       <c r="C375" t="s">
-        <v>654</v>
+        <v>569</v>
       </c>
       <c r="D375" t="s">
-        <v>656</v>
+        <v>571</v>
       </c>
       <c r="F375" t="s">
         <v>464</v>
-      </c>
-      <c r="G375" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="14"/>
       <c r="B376" s="14"/>
+      <c r="C376" t="s">
+        <v>570</v>
+      </c>
+      <c r="D376" t="s">
+        <v>572</v>
+      </c>
+      <c r="F376" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="14"/>
-      <c r="B377" t="s">
-        <v>42</v>
-      </c>
+      <c r="B377" s="14"/>
       <c r="C377" t="s">
-        <v>51</v>
+        <v>574</v>
+      </c>
+      <c r="D377" t="s">
+        <v>575</v>
+      </c>
+      <c r="E377" t="s">
+        <v>573</v>
+      </c>
+      <c r="F377" t="s">
+        <v>464</v>
+      </c>
+      <c r="G377" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="14"/>
       <c r="B378" s="14"/>
       <c r="C378" t="s">
-        <v>306</v>
+        <v>654</v>
       </c>
       <c r="D378" t="s">
-        <v>307</v>
+        <v>656</v>
       </c>
       <c r="F378" t="s">
         <v>464</v>
       </c>
       <c r="G378" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="14"/>
       <c r="B379" s="14"/>
-      <c r="C379" t="s">
-        <v>644</v>
-      </c>
-      <c r="D379" t="s">
-        <v>645</v>
-      </c>
-      <c r="F379" t="s">
-        <v>464</v>
-      </c>
-      <c r="G379" t="s">
-        <v>708</v>
-      </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="14"/>
-      <c r="B380" s="14"/>
-    </row>
-    <row r="381" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="26" t="s">
-        <v>667</v>
-      </c>
-      <c r="C381" s="26" t="s">
-        <v>676</v>
+      <c r="B380" t="s">
+        <v>42</v>
+      </c>
+      <c r="C380" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="14"/>
+      <c r="B381" s="14"/>
+      <c r="C381" t="s">
+        <v>306</v>
+      </c>
+      <c r="D381" t="s">
+        <v>307</v>
+      </c>
+      <c r="F381" t="s">
+        <v>464</v>
+      </c>
+      <c r="G381" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="14"/>
-      <c r="B382" t="s">
-        <v>25</v>
-      </c>
+      <c r="B382" s="14"/>
       <c r="C382" t="s">
-        <v>670</v>
+        <v>644</v>
+      </c>
+      <c r="D382" t="s">
+        <v>645</v>
+      </c>
+      <c r="F382" t="s">
+        <v>464</v>
+      </c>
+      <c r="G382" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="14"/>
       <c r="B383" s="14"/>
-      <c r="C383" t="s">
-        <v>701</v>
-      </c>
-      <c r="D383" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="14"/>
-      <c r="B384" s="14"/>
-      <c r="C384" t="s">
-        <v>702</v>
-      </c>
-      <c r="D384" t="s">
-        <v>706</v>
+    </row>
+    <row r="384" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="C384" s="26" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="14"/>
-      <c r="B385" s="14"/>
+      <c r="B385" t="s">
+        <v>25</v>
+      </c>
       <c r="C385" t="s">
-        <v>719</v>
-      </c>
-      <c r="D385" t="s">
-        <v>721</v>
+        <v>670</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="14"/>
       <c r="B386" s="14"/>
+      <c r="C386" t="s">
+        <v>701</v>
+      </c>
+      <c r="D386" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="14"/>
-      <c r="B387" t="s">
-        <v>26</v>
-      </c>
+      <c r="B387" s="14"/>
       <c r="C387" t="s">
-        <v>671</v>
+        <v>702</v>
+      </c>
+      <c r="D387" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="14"/>
       <c r="B388" s="14"/>
       <c r="C388" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="D388" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="14"/>
       <c r="B389" s="14"/>
-      <c r="C389" t="s">
-        <v>205</v>
-      </c>
-      <c r="D389" t="s">
-        <v>707</v>
-      </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="14"/>
-      <c r="B390" s="14"/>
+      <c r="B390" t="s">
+        <v>26</v>
+      </c>
       <c r="C390" t="s">
-        <v>719</v>
-      </c>
-      <c r="D390" t="s">
-        <v>720</v>
+        <v>671</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="14"/>
       <c r="B391" s="14"/>
+      <c r="C391" t="s">
+        <v>701</v>
+      </c>
+      <c r="D391" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="14"/>
-      <c r="B392" t="s">
-        <v>27</v>
-      </c>
+      <c r="B392" s="14"/>
       <c r="C392" t="s">
-        <v>672</v>
+        <v>205</v>
+      </c>
+      <c r="D392" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="14"/>
       <c r="B393" s="14"/>
       <c r="C393" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="D393" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="14"/>
       <c r="B394" s="14"/>
-      <c r="C394" t="s">
-        <v>719</v>
-      </c>
-      <c r="D394" t="s">
-        <v>722</v>
-      </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="14"/>
-      <c r="B395" s="14"/>
+      <c r="B395" t="s">
+        <v>27</v>
+      </c>
+      <c r="C395" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
-      <c r="B396" t="s">
-        <v>669</v>
-      </c>
+      <c r="B396" s="14"/>
       <c r="C396" t="s">
-        <v>673</v>
+        <v>701</v>
+      </c>
+      <c r="D396" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="14"/>
       <c r="B397" s="14"/>
+      <c r="C397" t="s">
+        <v>718</v>
+      </c>
+      <c r="D397" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="14"/>
@@ -10287,7 +10345,12 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="14"/>
-      <c r="B399" s="14"/>
+      <c r="B399" t="s">
+        <v>669</v>
+      </c>
+      <c r="C399" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="14"/>
@@ -10295,101 +10358,65 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
-      <c r="B401" t="s">
-        <v>668</v>
-      </c>
-      <c r="C401" t="s">
-        <v>674</v>
-      </c>
+      <c r="B401" s="14"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="14"/>
       <c r="B402" s="14"/>
-      <c r="C402" t="s">
-        <v>681</v>
-      </c>
-      <c r="D402" t="s">
-        <v>699</v>
-      </c>
-      <c r="F402" t="s">
-        <v>465</v>
-      </c>
-      <c r="G402" t="s">
-        <v>663</v>
-      </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="14"/>
       <c r="B403" s="14"/>
-      <c r="C403" t="s">
-        <v>682</v>
-      </c>
-      <c r="D403" t="s">
-        <v>698</v>
-      </c>
-      <c r="F403" t="s">
-        <v>465</v>
-      </c>
-      <c r="G403" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="14"/>
-      <c r="B404" s="14"/>
+      <c r="B404" t="s">
+        <v>668</v>
+      </c>
       <c r="C404" t="s">
-        <v>683</v>
-      </c>
-      <c r="D404" t="s">
-        <v>697</v>
-      </c>
-      <c r="F404" t="s">
-        <v>465</v>
-      </c>
-      <c r="G404" t="s">
-        <v>1</v>
+        <v>674</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
       <c r="B405" s="14"/>
       <c r="C405" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D405" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F405" t="s">
         <v>465</v>
       </c>
       <c r="G405" t="s">
-        <v>0</v>
+        <v>663</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
       <c r="B406" s="14"/>
       <c r="C406" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D406" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="F406" t="s">
         <v>465</v>
       </c>
       <c r="G406" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="14"/>
       <c r="B407" s="14"/>
       <c r="C407" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D407" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="F407" t="s">
         <v>465</v>
@@ -10402,10 +10429,10 @@
       <c r="A408" s="14"/>
       <c r="B408" s="14"/>
       <c r="C408" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D408" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F408" t="s">
         <v>465</v>
@@ -10418,74 +10445,122 @@
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
       <c r="C409" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D409" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F409" t="s">
         <v>465</v>
       </c>
       <c r="G409" t="s">
-        <v>663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="14"/>
       <c r="B410" s="14"/>
       <c r="C410" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D410" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F410" t="s">
         <v>465</v>
       </c>
       <c r="G410" t="s">
-        <v>663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="14"/>
       <c r="B411" s="14"/>
       <c r="C411" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D411" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F411" t="s">
         <v>465</v>
       </c>
       <c r="G411" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="14"/>
-      <c r="B412" t="s">
-        <v>31</v>
-      </c>
+      <c r="B412" s="14"/>
       <c r="C412" t="s">
-        <v>675</v>
+        <v>688</v>
+      </c>
+      <c r="D412" t="s">
+        <v>694</v>
+      </c>
+      <c r="F412" t="s">
+        <v>465</v>
+      </c>
+      <c r="G412" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="14"/>
       <c r="B413" s="14"/>
+      <c r="C413" t="s">
+        <v>689</v>
+      </c>
+      <c r="D413" t="s">
+        <v>695</v>
+      </c>
+      <c r="F413" t="s">
+        <v>465</v>
+      </c>
+      <c r="G413" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="14"/>
       <c r="B414" s="14"/>
+      <c r="C414" t="s">
+        <v>690</v>
+      </c>
+      <c r="D414" t="s">
+        <v>700</v>
+      </c>
+      <c r="F414" t="s">
+        <v>465</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="14"/>
-      <c r="B415" s="14"/>
+      <c r="B415" t="s">
+        <v>31</v>
+      </c>
+      <c r="C415" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="14"/>
       <c r="B416" s="14"/>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="14"/>
+      <c r="B417" s="14"/>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="14"/>
+      <c r="B418" s="14"/>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="14"/>
+      <c r="B419" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10497,8 +10572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q37" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="U58" sqref="U58"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12157,14 +12232,14 @@
         <v>204</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S43" s="14"/>
       <c r="T43" s="8" t="s">
         <v>593</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="V43" s="14"/>
       <c r="Y43" s="14"/>
@@ -12221,14 +12296,14 @@
         <v>202</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S44" s="14"/>
       <c r="T44" s="8" t="s">
         <v>79</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V44" s="14"/>
       <c r="Y44" s="14"/>
@@ -12281,13 +12356,13 @@
         <v>200</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="T45" s="8" t="s">
         <v>77</v>
       </c>
       <c r="U45" s="8" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
@@ -12348,7 +12423,7 @@
         <v>78</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="V46" s="14"/>
       <c r="Y46" s="14"/>
@@ -12400,10 +12475,10 @@
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="V47" s="14"/>
       <c r="Y47" s="14"/>
@@ -12455,10 +12530,10 @@
       </c>
       <c r="S48" s="14"/>
       <c r="T48" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>343</v>
+        <v>97</v>
       </c>
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
@@ -12503,14 +12578,14 @@
         <v>317</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="S49" s="14"/>
       <c r="T49" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V49" s="14"/>
       <c r="Y49" s="14"/>
@@ -12555,14 +12630,14 @@
         <v>319</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S50" s="14"/>
       <c r="T50" s="8" t="s">
         <v>324</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>97</v>
+        <v>564</v>
       </c>
       <c r="V50" s="14"/>
       <c r="Y50" s="14"/>
@@ -12603,15 +12678,18 @@
         <v>180</v>
       </c>
       <c r="P51" s="14"/>
+      <c r="Q51" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="R51" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S51" s="14"/>
       <c r="T51" s="8" t="s">
-        <v>332</v>
+        <v>720</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="V51" s="14"/>
       <c r="Y51" s="14"/>
@@ -12644,12 +12722,18 @@
         <v>632</v>
       </c>
       <c r="P52" s="14"/>
+      <c r="Q52" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="S52" s="14"/>
       <c r="T52" s="8" t="s">
-        <v>721</v>
+        <v>333</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>338</v>
+        <v>565</v>
       </c>
       <c r="V52" s="14"/>
       <c r="Y52" s="14"/>
@@ -12910,10 +12994,10 @@
       </c>
       <c r="P57" s="14"/>
       <c r="Q57" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="R57" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="R57" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="8" t="s">
@@ -12959,10 +13043,10 @@
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="R58" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="R58" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="S58" s="14"/>
       <c r="V58" s="14"/>
@@ -13002,10 +13086,10 @@
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="R59" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="R59" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="S59" s="14"/>
       <c r="V59" s="14"/>
@@ -13258,9 +13342,7 @@
       <c r="O65" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="Q65" s="8" t="s">
-        <v>356</v>
-      </c>
+      <c r="Q65" s="8"/>
       <c r="R65" s="8" t="s">
         <v>290</v>
       </c>
@@ -13318,9 +13400,7 @@
       <c r="O66" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="Q66" s="8" t="s">
-        <v>709</v>
-      </c>
+      <c r="Q66" s="8"/>
       <c r="R66" s="8" t="s">
         <v>291</v>
       </c>
@@ -13362,7 +13442,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
       <c r="T67" s="8" t="s">
-        <v>564</v>
+        <v>289</v>
       </c>
       <c r="U67" s="8" t="s">
         <v>594</v>
@@ -13399,7 +13479,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="T68" s="8" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="U68" s="8"/>
       <c r="W68" s="8" t="s">
@@ -13432,7 +13512,7 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
       <c r="T69" s="8" t="s">
-        <v>565</v>
+        <v>291</v>
       </c>
       <c r="U69" s="8"/>
       <c r="W69" s="8" t="s">
@@ -13461,7 +13541,7 @@
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
       <c r="T70" s="8" t="s">
-        <v>289</v>
+        <v>727</v>
       </c>
       <c r="U70" s="8"/>
       <c r="W70" s="8" t="s">
@@ -13488,7 +13568,7 @@
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
       <c r="T71" s="8" t="s">
-        <v>290</v>
+        <v>725</v>
       </c>
       <c r="U71" s="8"/>
       <c r="W71" s="8" t="s">
@@ -13515,7 +13595,7 @@
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
       <c r="T72" s="8" t="s">
-        <v>291</v>
+        <v>723</v>
       </c>
       <c r="U72" s="8"/>
       <c r="W72" s="8" t="s">

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="730">
   <si>
     <t>Arne</t>
   </si>
@@ -2210,12 +2210,18 @@
   </si>
   <si>
     <t>2D_TXT_INKSPLATTER</t>
+  </si>
+  <si>
+    <t>Ink Splatters</t>
+  </si>
+  <si>
+    <t>9P_ENEMY_INK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2485,6 +2491,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2520,6 +2543,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -4742,10 +4782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G419"/>
+  <dimension ref="A1:G420"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A350" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10073,6 +10113,9 @@
       <c r="F371" t="s">
         <v>464</v>
       </c>
+      <c r="G371" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="14"/>
@@ -10118,6 +10161,9 @@
       <c r="F375" t="s">
         <v>464</v>
       </c>
+      <c r="G375" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="14"/>
@@ -10131,6 +10177,9 @@
       <c r="F376" t="s">
         <v>464</v>
       </c>
+      <c r="G376" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="14"/>
@@ -10170,191 +10219,200 @@
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="14"/>
       <c r="B379" s="14"/>
+      <c r="C379" t="s">
+        <v>728</v>
+      </c>
+      <c r="D379" t="s">
+        <v>729</v>
+      </c>
+      <c r="G379" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="14"/>
-      <c r="B380" t="s">
-        <v>42</v>
-      </c>
-      <c r="C380" t="s">
-        <v>51</v>
-      </c>
+      <c r="B380" s="14"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="14"/>
-      <c r="B381" s="14"/>
+      <c r="B381" t="s">
+        <v>42</v>
+      </c>
       <c r="C381" t="s">
-        <v>306</v>
-      </c>
-      <c r="D381" t="s">
-        <v>307</v>
-      </c>
-      <c r="F381" t="s">
-        <v>464</v>
-      </c>
-      <c r="G381" t="s">
-        <v>657</v>
+        <v>51</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="14"/>
       <c r="B382" s="14"/>
       <c r="C382" t="s">
-        <v>644</v>
+        <v>306</v>
       </c>
       <c r="D382" t="s">
-        <v>645</v>
+        <v>307</v>
       </c>
       <c r="F382" t="s">
         <v>464</v>
       </c>
       <c r="G382" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="14"/>
       <c r="B383" s="14"/>
-    </row>
-    <row r="384" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="26" t="s">
+      <c r="C383" t="s">
+        <v>644</v>
+      </c>
+      <c r="D383" t="s">
+        <v>645</v>
+      </c>
+      <c r="F383" t="s">
+        <v>464</v>
+      </c>
+      <c r="G383" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="14"/>
+      <c r="B384" s="14"/>
+    </row>
+    <row r="385" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="26" t="s">
         <v>667</v>
       </c>
-      <c r="C384" s="26" t="s">
+      <c r="C385" s="26" t="s">
         <v>676</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="14"/>
-      <c r="B385" t="s">
-        <v>25</v>
-      </c>
-      <c r="C385" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="14"/>
-      <c r="B386" s="14"/>
+      <c r="B386" t="s">
+        <v>25</v>
+      </c>
       <c r="C386" t="s">
-        <v>701</v>
-      </c>
-      <c r="D386" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="14"/>
       <c r="B387" s="14"/>
       <c r="C387" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D387" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="14"/>
       <c r="B388" s="14"/>
       <c r="C388" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="D388" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="14"/>
       <c r="B389" s="14"/>
+      <c r="C389" t="s">
+        <v>718</v>
+      </c>
+      <c r="D389" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="14"/>
-      <c r="B390" t="s">
-        <v>26</v>
-      </c>
-      <c r="C390" t="s">
-        <v>671</v>
-      </c>
+      <c r="B390" s="14"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="14"/>
-      <c r="B391" s="14"/>
+      <c r="B391" t="s">
+        <v>26</v>
+      </c>
       <c r="C391" t="s">
-        <v>701</v>
-      </c>
-      <c r="D391" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="14"/>
       <c r="B392" s="14"/>
       <c r="C392" t="s">
-        <v>205</v>
+        <v>701</v>
       </c>
       <c r="D392" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="14"/>
       <c r="B393" s="14"/>
       <c r="C393" t="s">
-        <v>718</v>
+        <v>205</v>
       </c>
       <c r="D393" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="14"/>
       <c r="B394" s="14"/>
+      <c r="C394" t="s">
+        <v>718</v>
+      </c>
+      <c r="D394" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="14"/>
-      <c r="B395" t="s">
-        <v>27</v>
-      </c>
-      <c r="C395" t="s">
-        <v>672</v>
-      </c>
+      <c r="B395" s="14"/>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="14"/>
-      <c r="B396" s="14"/>
+      <c r="B396" t="s">
+        <v>27</v>
+      </c>
       <c r="C396" t="s">
-        <v>701</v>
-      </c>
-      <c r="D396" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="14"/>
       <c r="B397" s="14"/>
       <c r="C397" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="D397" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="14"/>
       <c r="B398" s="14"/>
+      <c r="C398" t="s">
+        <v>718</v>
+      </c>
+      <c r="D398" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="14"/>
-      <c r="B399" t="s">
-        <v>669</v>
-      </c>
-      <c r="C399" t="s">
-        <v>673</v>
-      </c>
+      <c r="B399" s="14"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="14"/>
-      <c r="B400" s="14"/>
+      <c r="B400" t="s">
+        <v>669</v>
+      </c>
+      <c r="C400" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="14"/>
@@ -10370,53 +10428,41 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="14"/>
-      <c r="B404" t="s">
-        <v>668</v>
-      </c>
-      <c r="C404" t="s">
-        <v>674</v>
-      </c>
+      <c r="B404" s="14"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="14"/>
-      <c r="B405" s="14"/>
+      <c r="B405" t="s">
+        <v>668</v>
+      </c>
       <c r="C405" t="s">
-        <v>681</v>
-      </c>
-      <c r="D405" t="s">
-        <v>699</v>
-      </c>
-      <c r="F405" t="s">
-        <v>465</v>
-      </c>
-      <c r="G405" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="14"/>
       <c r="B406" s="14"/>
       <c r="C406" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D406" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F406" t="s">
         <v>465</v>
       </c>
       <c r="G406" t="s">
-        <v>1</v>
+        <v>663</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="14"/>
       <c r="B407" s="14"/>
       <c r="C407" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D407" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F407" t="s">
         <v>465</v>
@@ -10429,26 +10475,26 @@
       <c r="A408" s="14"/>
       <c r="B408" s="14"/>
       <c r="C408" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D408" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F408" t="s">
         <v>465</v>
       </c>
       <c r="G408" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
       <c r="C409" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D409" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="F409" t="s">
         <v>465</v>
@@ -10461,58 +10507,58 @@
       <c r="A410" s="14"/>
       <c r="B410" s="14"/>
       <c r="C410" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D410" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F410" t="s">
         <v>465</v>
       </c>
       <c r="G410" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="14"/>
       <c r="B411" s="14"/>
       <c r="C411" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D411" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F411" t="s">
         <v>465</v>
       </c>
       <c r="G411" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="14"/>
       <c r="B412" s="14"/>
       <c r="C412" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D412" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F412" t="s">
         <v>465</v>
       </c>
       <c r="G412" t="s">
-        <v>663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="14"/>
       <c r="B413" s="14"/>
       <c r="C413" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D413" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F413" t="s">
         <v>465</v>
@@ -10525,30 +10571,42 @@
       <c r="A414" s="14"/>
       <c r="B414" s="14"/>
       <c r="C414" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D414" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F414" t="s">
         <v>465</v>
       </c>
       <c r="G414" t="s">
-        <v>1</v>
+        <v>663</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="14"/>
-      <c r="B415" t="s">
-        <v>31</v>
-      </c>
+      <c r="B415" s="14"/>
       <c r="C415" t="s">
-        <v>675</v>
+        <v>690</v>
+      </c>
+      <c r="D415" t="s">
+        <v>700</v>
+      </c>
+      <c r="F415" t="s">
+        <v>465</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="14"/>
-      <c r="B416" s="14"/>
+      <c r="B416" t="s">
+        <v>31</v>
+      </c>
+      <c r="C416" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="14"/>
@@ -10561,6 +10619,10 @@
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="14"/>
       <c r="B419" s="14"/>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="14"/>
+      <c r="B420" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10572,8 +10634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10828,6 +10890,9 @@
       <c r="T4" s="20" t="s">
         <v>692</v>
       </c>
+      <c r="U4" s="20" t="s">
+        <v>729</v>
+      </c>
       <c r="V4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="27"/>
@@ -10868,6 +10933,9 @@
       </c>
       <c r="P5" s="14"/>
       <c r="S5" s="14"/>
+      <c r="T5" s="20" t="s">
+        <v>572</v>
+      </c>
       <c r="V5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="27"/>
@@ -10908,6 +10976,9 @@
       </c>
       <c r="P6" s="14"/>
       <c r="S6" s="14"/>
+      <c r="T6" s="20" t="s">
+        <v>585</v>
+      </c>
       <c r="V6" s="14"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="27"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KoolKappaKlan\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KoolKappaKlan\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2221,7 +2221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2491,23 +2491,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2543,23 +2526,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -10634,8 +10600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11458,13 +11424,16 @@
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="20" t="s">
-        <v>461</v>
+        <v>602</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="20" t="s">
         <v>462</v>
       </c>
       <c r="S21" s="14"/>
+      <c r="T21" s="20" t="s">
+        <v>461</v>
+      </c>
       <c r="V21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="27"/>
@@ -11489,7 +11458,7 @@
       <c r="J22" s="14"/>
       <c r="M22" s="23"/>
       <c r="N22" s="20" t="s">
-        <v>602</v>
+        <v>653</v>
       </c>
       <c r="P22" s="14"/>
       <c r="S22" s="14"/>
@@ -11516,9 +11485,6 @@
       <c r="G23" s="14"/>
       <c r="J23" s="14"/>
       <c r="M23" s="23"/>
-      <c r="N23" s="20" t="s">
-        <v>653</v>
-      </c>
       <c r="P23" s="14"/>
       <c r="S23" s="14"/>
       <c r="V23" s="14"/>
